--- a/РГР/ргр.xlsx
+++ b/РГР/ргр.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="69">
   <si>
     <t>Номера инвестиционных проектов</t>
   </si>
@@ -205,6 +205,24 @@
   </si>
   <si>
     <t>Свободные ДС (руб.)</t>
+  </si>
+  <si>
+    <t>Перемен. затраты (р.)</t>
+  </si>
+  <si>
+    <t>Цена (р.)</t>
+  </si>
+  <si>
+    <t>Суммарная маржинальная прибыль (р.)</t>
+  </si>
+  <si>
+    <t>Постоянные затраты (р.)</t>
+  </si>
+  <si>
+    <t>Общая прибыль (р.)</t>
+  </si>
+  <si>
+    <t>МП на ед. УМ (р./машино-час)</t>
   </si>
 </sst>
 </file>
@@ -300,7 +318,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -369,6 +387,11 @@
     <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -688,7 +711,7 @@
   <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="C46" sqref="C46:D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,14 +741,14 @@
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -734,7 +757,7 @@
       <c r="B3" s="7">
         <v>718</v>
       </c>
-      <c r="F3" s="28"/>
+      <c r="F3" s="31"/>
       <c r="G3" s="12">
         <v>1</v>
       </c>
@@ -823,20 +846,20 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="28"/>
+      <c r="F9" s="31"/>
       <c r="G9" s="12">
         <v>1</v>
       </c>
@@ -861,10 +884,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>20</v>
@@ -1089,11 +1112,11 @@
       <c r="B19" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>9</v>
+      <c r="C19" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>64</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>61</v>
@@ -1204,11 +1227,11 @@
       <c r="B28" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>9</v>
+      <c r="C28" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1307,11 +1330,11 @@
       <c r="B37" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>9</v>
+      <c r="C37" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1410,11 +1433,11 @@
       <c r="B46" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>9</v>
+      <c r="C46" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" s="28" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1517,8 +1540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1553,11 +1576,11 @@
       </c>
       <c r="B5" s="2" t="str">
         <f>'исходные данные'!C10</f>
-        <v>Перемен. затраты (руб.)</v>
+        <v>Перемен. затраты (р.)</v>
       </c>
       <c r="C5" s="2" t="str">
         <f>'исходные данные'!D10</f>
-        <v>Цена (руб.)</v>
+        <v>Цена (р.)</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>48</v>
@@ -1566,7 +1589,7 @@
         <v>47</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="G5" s="15" t="s">
         <v>36</v>
@@ -1581,23 +1604,23 @@
         <f>'исходные данные'!A11</f>
         <v>A</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="29">
         <f>'исходные данные'!C11</f>
         <v>21.7</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="29">
         <f>'исходные данные'!D11</f>
         <v>39.799999999999997</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="29">
         <f>'исходные данные'!G10</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="29">
         <f>C6-B6</f>
         <v>18.099999999999998</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="29">
         <f>E6/D6</f>
         <v>8.2272727272727249</v>
       </c>
@@ -1615,23 +1638,23 @@
         <f>'исходные данные'!A12</f>
         <v>B</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="29">
         <f>'исходные данные'!C12</f>
         <v>29.8</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="29">
         <f>'исходные данные'!D12</f>
         <v>40.799999999999997</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="29">
         <f>'исходные данные'!G11</f>
         <v>3.2</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="29">
         <f t="shared" ref="E7:E11" si="2">C7-B7</f>
         <v>10.999999999999996</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="29">
         <f t="shared" ref="F7:F11" si="3">E7/D7</f>
         <v>3.4374999999999987</v>
       </c>
@@ -1649,23 +1672,23 @@
         <f>'исходные данные'!A13</f>
         <v>C</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="29">
         <f>'исходные данные'!C13</f>
         <v>26.9</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="29">
         <f>'исходные данные'!D13</f>
         <v>41.7</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="29">
         <f>'исходные данные'!G12</f>
         <v>1.2</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="29">
         <f t="shared" si="2"/>
         <v>14.800000000000004</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="29">
         <f t="shared" si="3"/>
         <v>12.333333333333337</v>
       </c>
@@ -1683,23 +1706,23 @@
         <f>'исходные данные'!A14</f>
         <v>D</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="29">
         <f>'исходные данные'!C14</f>
         <v>33.700000000000003</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="29">
         <f>'исходные данные'!D14</f>
         <v>46.1</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="29">
         <f>'исходные данные'!G13</f>
         <v>3</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="29">
         <f t="shared" si="2"/>
         <v>12.399999999999999</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="29">
         <f t="shared" si="3"/>
         <v>4.1333333333333329</v>
       </c>
@@ -1717,23 +1740,23 @@
         <f>'исходные данные'!A15</f>
         <v>E</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="29">
         <f>'исходные данные'!C15</f>
         <v>22.7</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="29">
         <f>'исходные данные'!D15</f>
         <v>36.1</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="29">
         <f>'исходные данные'!G14</f>
         <v>2.9</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="29">
         <f t="shared" si="2"/>
         <v>13.400000000000002</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="29">
         <f t="shared" si="3"/>
         <v>4.6206896551724146</v>
       </c>
@@ -1751,23 +1774,23 @@
         <f>'исходные данные'!A16</f>
         <v>F</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="29">
         <f>'исходные данные'!C16</f>
         <v>24.6</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="29">
         <f>'исходные данные'!D16</f>
         <v>34.5</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="29">
         <f>'исходные данные'!G15</f>
         <v>2.1</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="29">
         <f t="shared" si="2"/>
         <v>9.8999999999999986</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="29">
         <f t="shared" si="3"/>
         <v>4.7142857142857135</v>
       </c>
@@ -1793,7 +1816,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>48</v>
@@ -1804,18 +1827,21 @@
       <c r="F14" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="16"/>
+      <c r="G14" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1">
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29">
         <f>'исходные данные'!G16</f>
         <v>55325</v>
       </c>
+      <c r="G15" s="29"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -1825,21 +1851,25 @@
         <f>VLOOKUP(A16,$G$6:$H$11,2,FALSE)</f>
         <v>C</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="29">
         <f>VLOOKUP('прибыль проектов'!B16,'исходные данные'!$A$11:$B$16,2,FALSE)</f>
         <v>5578</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="29">
         <f>VLOOKUP(B16,$A$6:$D$11,4,FALSE)</f>
         <v>1.2</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="29">
         <f t="shared" ref="E16:E19" si="4">IF(F15&gt;=C16*D16,C16*D16,F15)</f>
         <v>6693.5999999999995</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="29">
         <f t="shared" ref="F16:F21" si="5">IF(F15&gt;=E16,F15-E16,0)</f>
         <v>48631.4</v>
+      </c>
+      <c r="G16" s="29">
+        <f>D25</f>
+        <v>5578</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1850,21 +1880,25 @@
         <f t="shared" ref="B17:B21" si="6">VLOOKUP(A17,$G$6:$H$11,2,FALSE)</f>
         <v>A</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="29">
         <f>VLOOKUP('прибыль проектов'!B17,'исходные данные'!$A$11:$B$16,2,FALSE)</f>
         <v>4907</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="29">
         <f t="shared" ref="D17:D21" si="7">VLOOKUP(B17,$A$6:$D$11,4,FALSE)</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="29">
         <f t="shared" si="4"/>
         <v>10795.400000000001</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="29">
         <f t="shared" si="5"/>
         <v>37836</v>
+      </c>
+      <c r="G17" s="29">
+        <f t="shared" ref="G17:G21" si="8">D26</f>
+        <v>4907</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1875,21 +1909,25 @@
         <f t="shared" si="6"/>
         <v>F</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="29">
         <f>VLOOKUP('прибыль проектов'!B18,'исходные данные'!$A$11:$B$16,2,FALSE)</f>
         <v>3093</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="29">
         <f t="shared" si="7"/>
         <v>2.1</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="29">
         <f t="shared" si="4"/>
         <v>6495.3</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="29">
         <f t="shared" si="5"/>
         <v>31340.7</v>
+      </c>
+      <c r="G18" s="29">
+        <f t="shared" si="8"/>
+        <v>3093</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1900,21 +1938,25 @@
         <f t="shared" si="6"/>
         <v>E</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="29">
         <f>VLOOKUP('прибыль проектов'!B19,'исходные данные'!$A$11:$B$16,2,FALSE)</f>
         <v>6649</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="29">
         <f t="shared" si="7"/>
         <v>2.9</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="29">
         <f t="shared" si="4"/>
         <v>19282.099999999999</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="29">
         <f t="shared" si="5"/>
         <v>12058.600000000002</v>
+      </c>
+      <c r="G19" s="29">
+        <f t="shared" si="8"/>
+        <v>6649</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1925,21 +1967,25 @@
         <f t="shared" si="6"/>
         <v>D</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="29">
         <f>VLOOKUP('прибыль проектов'!B20,'исходные данные'!$A$11:$B$16,2,FALSE)</f>
         <v>8282</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="29">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="29">
         <f>IF(F19&gt;=C20*D20,C20*D20,F19)</f>
         <v>12058.600000000002</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="29">
         <f>IF(F19&gt;=E20,F19-E20,0)</f>
         <v>0</v>
+      </c>
+      <c r="G20" s="29">
+        <f t="shared" si="8"/>
+        <v>4019</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1950,20 +1996,24 @@
         <f t="shared" si="6"/>
         <v>B</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="29">
         <f>VLOOKUP('прибыль проектов'!B21,'исходные данные'!$A$11:$B$16,2,FALSE)</f>
         <v>8460</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="29">
         <f t="shared" si="7"/>
         <v>3.2</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="29">
         <f>IF(F20&gt;=C21*D21,C21*D21,F20)</f>
         <v>0</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="29">
         <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="29">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -1977,22 +2027,22 @@
         <v>7</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -2000,161 +2050,161 @@
         <f>B16</f>
         <v>C</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="29">
         <f>B6</f>
         <v>21.7</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="29">
         <f>C6</f>
         <v>39.799999999999997</v>
       </c>
-      <c r="D25" s="1">
-        <f t="shared" ref="D25:D28" si="8">_xlfn.FLOOR.MATH(E16/D16)</f>
+      <c r="D25" s="29">
+        <f>_xlfn.FLOOR.MATH(E16/D16)</f>
         <v>5578</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="29">
         <f>(C25-B25)*D25</f>
         <v>100961.79999999999</v>
       </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="str">
         <f t="shared" ref="A26:A30" si="9">B17</f>
         <v>A</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="29">
         <f t="shared" ref="B26:C30" si="10">B7</f>
         <v>29.8</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="29">
         <f t="shared" si="10"/>
         <v>40.799999999999997</v>
       </c>
-      <c r="D26" s="1">
-        <f t="shared" si="8"/>
+      <c r="D26" s="29">
+        <f t="shared" ref="D26:D28" si="11">_xlfn.FLOOR.MATH(E17/D17)</f>
         <v>4907</v>
       </c>
-      <c r="E26" s="3">
-        <f t="shared" ref="E26:E30" si="11">(C26-B26)*D26</f>
+      <c r="E26" s="29">
+        <f t="shared" ref="E26:E30" si="12">(C26-B26)*D26</f>
         <v>53976.999999999985</v>
       </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="str">
         <f t="shared" si="9"/>
         <v>F</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="29">
         <f t="shared" si="10"/>
         <v>26.9</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="29">
         <f t="shared" si="10"/>
         <v>41.7</v>
       </c>
-      <c r="D27" s="1">
-        <f t="shared" si="8"/>
+      <c r="D27" s="29">
+        <f t="shared" si="11"/>
         <v>3093</v>
       </c>
-      <c r="E27" s="3">
-        <f t="shared" si="11"/>
+      <c r="E27" s="29">
+        <f t="shared" si="12"/>
         <v>45776.400000000016</v>
       </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="str">
         <f t="shared" si="9"/>
         <v>E</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="29">
         <f t="shared" si="10"/>
         <v>33.700000000000003</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="29">
         <f t="shared" si="10"/>
         <v>46.1</v>
       </c>
-      <c r="D28" s="1">
-        <f t="shared" si="8"/>
+      <c r="D28" s="29">
+        <f t="shared" si="11"/>
         <v>6649</v>
       </c>
-      <c r="E28" s="3">
-        <f t="shared" si="11"/>
+      <c r="E28" s="29">
+        <f t="shared" si="12"/>
         <v>82447.599999999991</v>
       </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="str">
         <f t="shared" si="9"/>
         <v>D</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="29">
         <f t="shared" si="10"/>
         <v>22.7</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="29">
         <f t="shared" si="10"/>
         <v>36.1</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="29">
         <f>_xlfn.FLOOR.MATH(E20/D20)</f>
         <v>4019</v>
       </c>
-      <c r="E29" s="3">
-        <f t="shared" si="11"/>
+      <c r="E29" s="29">
+        <f t="shared" si="12"/>
         <v>53854.600000000006</v>
       </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="str">
         <f t="shared" si="9"/>
         <v>B</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="29">
         <f t="shared" si="10"/>
         <v>24.6</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="29">
         <f t="shared" si="10"/>
         <v>34.5</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="29">
         <f>_xlfn.FLOOR.MATH(E21/D21)</f>
         <v>0</v>
       </c>
-      <c r="E30" s="3">
-        <f t="shared" si="11"/>
+      <c r="E30" s="29">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="3">
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29">
         <f>SUM(E25:E30)</f>
         <v>337017.4</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="29">
         <f>'исходные данные'!G4</f>
         <v>319384</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="30">
         <f>E31-F31</f>
         <v>17633.400000000023</v>
       </c>
@@ -2176,11 +2226,11 @@
       </c>
       <c r="B36" s="2" t="str">
         <f>'исходные данные'!C19</f>
-        <v>Перемен. затраты (руб.)</v>
+        <v>Перемен. затраты (р.)</v>
       </c>
       <c r="C36" s="2" t="str">
         <f>'исходные данные'!D19</f>
-        <v>Цена (руб.)</v>
+        <v>Цена (р.)</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>48</v>
@@ -2229,7 +2279,7 @@
         <v>4</v>
       </c>
       <c r="H37" t="str">
-        <f t="shared" ref="H37:H42" si="12">A37</f>
+        <f t="shared" ref="H37:H42" si="13">A37</f>
         <v>A</v>
       </c>
     </row>
@@ -2251,19 +2301,19 @@
         <v>3.4</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" ref="E38:E42" si="13">C38-B38</f>
+        <f t="shared" ref="E38:E42" si="14">C38-B38</f>
         <v>8.3000000000000007</v>
       </c>
       <c r="F38" s="3">
-        <f t="shared" ref="F38:F42" si="14">E38/D38</f>
+        <f t="shared" ref="F38:F42" si="15">E38/D38</f>
         <v>2.4411764705882355</v>
       </c>
       <c r="G38" s="1">
-        <f t="shared" ref="G38:G42" si="15">_xlfn.RANK.EQ(F38,$F$37:$F$42)</f>
+        <f t="shared" ref="G38:G42" si="16">_xlfn.RANK.EQ(F38,$F$37:$F$42)</f>
         <v>6</v>
       </c>
       <c r="H38" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>B</v>
       </c>
     </row>
@@ -2285,19 +2335,19 @@
         <v>3.4</v>
       </c>
       <c r="E39" s="1">
+        <f t="shared" si="14"/>
+        <v>15.900000000000002</v>
+      </c>
+      <c r="F39" s="3">
+        <f t="shared" si="15"/>
+        <v>4.6764705882352953</v>
+      </c>
+      <c r="G39" s="1">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="H39" t="str">
         <f t="shared" si="13"/>
-        <v>15.900000000000002</v>
-      </c>
-      <c r="F39" s="3">
-        <f t="shared" si="14"/>
-        <v>4.6764705882352953</v>
-      </c>
-      <c r="G39" s="1">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="H39" t="str">
-        <f t="shared" si="12"/>
         <v>C</v>
       </c>
     </row>
@@ -2319,19 +2369,19 @@
         <v>2.9</v>
       </c>
       <c r="E40" s="1">
+        <f t="shared" si="14"/>
+        <v>19.300000000000004</v>
+      </c>
+      <c r="F40" s="3">
+        <f t="shared" si="15"/>
+        <v>6.655172413793105</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="H40" t="str">
         <f t="shared" si="13"/>
-        <v>19.300000000000004</v>
-      </c>
-      <c r="F40" s="3">
-        <f t="shared" si="14"/>
-        <v>6.655172413793105</v>
-      </c>
-      <c r="G40" s="1">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="H40" t="str">
-        <f t="shared" si="12"/>
         <v>D</v>
       </c>
     </row>
@@ -2353,19 +2403,19 @@
         <v>1.9</v>
       </c>
       <c r="E41" s="1">
+        <f t="shared" si="14"/>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F41" s="3">
+        <f t="shared" si="15"/>
+        <v>4.5789473684210522</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="H41" t="str">
         <f t="shared" si="13"/>
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="F41" s="3">
-        <f t="shared" si="14"/>
-        <v>4.5789473684210522</v>
-      </c>
-      <c r="G41" s="1">
-        <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="H41" t="str">
-        <f t="shared" si="12"/>
         <v>E</v>
       </c>
     </row>
@@ -2387,19 +2437,19 @@
         <v>3.2</v>
       </c>
       <c r="E42" s="1">
+        <f t="shared" si="14"/>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F42" s="3">
+        <f t="shared" si="15"/>
+        <v>2.90625</v>
+      </c>
+      <c r="G42" s="1">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="H42" t="str">
         <f t="shared" si="13"/>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="F42" s="3">
-        <f t="shared" si="14"/>
-        <v>2.90625</v>
-      </c>
-      <c r="G42" s="1">
-        <f t="shared" si="15"/>
-        <v>5</v>
-      </c>
-      <c r="H42" t="str">
-        <f t="shared" si="12"/>
         <v>F</v>
       </c>
     </row>
@@ -2457,11 +2507,11 @@
         <v>2.9</v>
       </c>
       <c r="E47" s="1">
-        <f t="shared" ref="E47:E50" si="16">IF(F46&gt;=C47*D47,C47*D47,F46)</f>
+        <f t="shared" ref="E47:E50" si="17">IF(F46&gt;=C47*D47,C47*D47,F46)</f>
         <v>12011.8</v>
       </c>
       <c r="F47" s="1">
-        <f t="shared" ref="F47:F50" si="17">IF(F46&gt;=E47,F46-E47,0)</f>
+        <f t="shared" ref="F47:F50" si="18">IF(F46&gt;=E47,F46-E47,0)</f>
         <v>62896.2</v>
       </c>
     </row>
@@ -2470,7 +2520,7 @@
         <v>2</v>
       </c>
       <c r="B48" s="17" t="str">
-        <f t="shared" ref="B48:B52" si="18">VLOOKUP(A48,$G$37:$H$42,2,FALSE)</f>
+        <f t="shared" ref="B48:B52" si="19">VLOOKUP(A48,$G$37:$H$42,2,FALSE)</f>
         <v>C</v>
       </c>
       <c r="C48" s="3">
@@ -2478,15 +2528,15 @@
         <v>8675</v>
       </c>
       <c r="D48" s="1">
-        <f t="shared" ref="D48:D52" si="19">VLOOKUP(B48,$A$37:$D$42,4,FALSE)</f>
+        <f t="shared" ref="D48:D52" si="20">VLOOKUP(B48,$A$37:$D$42,4,FALSE)</f>
         <v>3.4</v>
       </c>
       <c r="E48" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>29495</v>
       </c>
       <c r="F48" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>33401.199999999997</v>
       </c>
     </row>
@@ -2495,7 +2545,7 @@
         <v>3</v>
       </c>
       <c r="B49" s="17" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>E</v>
       </c>
       <c r="C49" s="3">
@@ -2503,15 +2553,15 @@
         <v>8599</v>
       </c>
       <c r="D49" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.9</v>
       </c>
       <c r="E49" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>16338.099999999999</v>
       </c>
       <c r="F49" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>17063.099999999999</v>
       </c>
     </row>
@@ -2520,7 +2570,7 @@
         <v>4</v>
       </c>
       <c r="B50" s="17" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>A</v>
       </c>
       <c r="C50" s="3">
@@ -2528,15 +2578,15 @@
         <v>5513</v>
       </c>
       <c r="D50" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2.1</v>
       </c>
       <c r="E50" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>11577.300000000001</v>
       </c>
       <c r="F50" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5485.7999999999975</v>
       </c>
     </row>
@@ -2545,7 +2595,7 @@
         <v>5</v>
       </c>
       <c r="B51" s="17" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>F</v>
       </c>
       <c r="C51" s="3">
@@ -2553,7 +2603,7 @@
         <v>2375</v>
       </c>
       <c r="D51" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3.2</v>
       </c>
       <c r="E51" s="1">
@@ -2570,7 +2620,7 @@
         <v>6</v>
       </c>
       <c r="B52" s="17" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>B</v>
       </c>
       <c r="C52" s="3">
@@ -2578,7 +2628,7 @@
         <v>6795</v>
       </c>
       <c r="D52" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3.4</v>
       </c>
       <c r="E52" s="1">
@@ -2586,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="1">
-        <f t="shared" ref="F52" si="20">IF(F51&gt;=E52,F51-E52,0)</f>
+        <f t="shared" ref="F52" si="21">IF(F51&gt;=E52,F51-E52,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2632,7 +2682,7 @@
         <v>40.1</v>
       </c>
       <c r="D56" s="1">
-        <f t="shared" ref="D56:D59" si="21">_xlfn.FLOOR.MATH(E47/D47)</f>
+        <f t="shared" ref="D56:D59" si="22">_xlfn.FLOOR.MATH(E47/D47)</f>
         <v>4142</v>
       </c>
       <c r="E56" s="3">
@@ -2644,23 +2694,23 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="17" t="str">
-        <f t="shared" ref="A57:A61" si="22">B48</f>
+        <f t="shared" ref="A57:A61" si="23">B48</f>
         <v>C</v>
       </c>
       <c r="B57" s="1">
-        <f t="shared" ref="B57:C57" si="23">B38</f>
+        <f t="shared" ref="B57:C57" si="24">B38</f>
         <v>28.7</v>
       </c>
       <c r="C57" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>37</v>
       </c>
       <c r="D57" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>8675</v>
       </c>
       <c r="E57" s="3">
-        <f t="shared" ref="E57:E61" si="24">(C57-B57)*D57</f>
+        <f t="shared" ref="E57:E61" si="25">(C57-B57)*D57</f>
         <v>72002.5</v>
       </c>
       <c r="F57" s="1"/>
@@ -2668,23 +2718,23 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="17" t="str">
+        <f t="shared" si="23"/>
+        <v>E</v>
+      </c>
+      <c r="B58" s="1">
+        <f t="shared" ref="B58:C58" si="26">B39</f>
+        <v>23.7</v>
+      </c>
+      <c r="C58" s="1">
+        <f t="shared" si="26"/>
+        <v>39.6</v>
+      </c>
+      <c r="D58" s="1">
         <f t="shared" si="22"/>
-        <v>E</v>
-      </c>
-      <c r="B58" s="1">
-        <f t="shared" ref="B58:C58" si="25">B39</f>
-        <v>23.7</v>
-      </c>
-      <c r="C58" s="1">
+        <v>8599</v>
+      </c>
+      <c r="E58" s="3">
         <f t="shared" si="25"/>
-        <v>39.6</v>
-      </c>
-      <c r="D58" s="1">
-        <f t="shared" si="21"/>
-        <v>8599</v>
-      </c>
-      <c r="E58" s="3">
-        <f t="shared" si="24"/>
         <v>136724.1</v>
       </c>
       <c r="F58" s="1"/>
@@ -2692,23 +2742,23 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="17" t="str">
+        <f t="shared" si="23"/>
+        <v>A</v>
+      </c>
+      <c r="B59" s="1">
+        <f t="shared" ref="B59:C59" si="27">B40</f>
+        <v>34.4</v>
+      </c>
+      <c r="C59" s="1">
+        <f t="shared" si="27"/>
+        <v>53.7</v>
+      </c>
+      <c r="D59" s="1">
         <f t="shared" si="22"/>
-        <v>A</v>
-      </c>
-      <c r="B59" s="1">
-        <f t="shared" ref="B59:C59" si="26">B40</f>
-        <v>34.4</v>
-      </c>
-      <c r="C59" s="1">
-        <f t="shared" si="26"/>
-        <v>53.7</v>
-      </c>
-      <c r="D59" s="1">
-        <f t="shared" si="21"/>
         <v>5513</v>
       </c>
       <c r="E59" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>106400.90000000002</v>
       </c>
       <c r="F59" s="1"/>
@@ -2716,15 +2766,15 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="17" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>F</v>
       </c>
       <c r="B60" s="1">
-        <f t="shared" ref="B60:C60" si="27">B41</f>
+        <f t="shared" ref="B60:C60" si="28">B41</f>
         <v>21.3</v>
       </c>
       <c r="C60" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>30</v>
       </c>
       <c r="D60" s="1">
@@ -2732,7 +2782,7 @@
         <v>1714</v>
       </c>
       <c r="E60" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>14911.8</v>
       </c>
       <c r="F60" s="1"/>
@@ -2740,15 +2790,15 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="17" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>B</v>
       </c>
       <c r="B61" s="1">
-        <f t="shared" ref="B61:C61" si="28">B42</f>
+        <f t="shared" ref="B61:C61" si="29">B42</f>
         <v>22.2</v>
       </c>
       <c r="C61" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>31.5</v>
       </c>
       <c r="D61" s="1">
@@ -2756,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="F61" s="1"/>
@@ -2799,11 +2849,11 @@
       </c>
       <c r="B67" s="2" t="str">
         <f>'исходные данные'!C28</f>
-        <v>Перемен. затраты (руб.)</v>
+        <v>Перемен. затраты (р.)</v>
       </c>
       <c r="C67" s="2" t="str">
         <f>'исходные данные'!D28</f>
-        <v>Цена (руб.)</v>
+        <v>Цена (р.)</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>48</v>
@@ -2852,7 +2902,7 @@
         <v>5</v>
       </c>
       <c r="H68" t="str">
-        <f t="shared" ref="H68:H73" si="29">A68</f>
+        <f t="shared" ref="H68:H73" si="30">A68</f>
         <v>A</v>
       </c>
     </row>
@@ -2874,19 +2924,19 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="E69" s="1">
-        <f t="shared" ref="E69:E73" si="30">C69-B69</f>
+        <f t="shared" ref="E69:E73" si="31">C69-B69</f>
         <v>19.199999999999996</v>
       </c>
       <c r="F69" s="3">
-        <f t="shared" ref="F69:F73" si="31">E69/D69</f>
+        <f t="shared" ref="F69:F73" si="32">E69/D69</f>
         <v>8.7272727272727249</v>
       </c>
       <c r="G69" s="1">
-        <f t="shared" ref="G69:G73" si="32">_xlfn.RANK.EQ(F69,$F$68:$F$73)</f>
+        <f t="shared" ref="G69:G73" si="33">_xlfn.RANK.EQ(F69,$F$68:$F$73)</f>
         <v>2</v>
       </c>
       <c r="H69" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>B</v>
       </c>
     </row>
@@ -2908,19 +2958,19 @@
         <v>1.2</v>
       </c>
       <c r="E70" s="1">
+        <f t="shared" si="31"/>
+        <v>6.2000000000000028</v>
+      </c>
+      <c r="F70" s="3">
+        <f t="shared" si="32"/>
+        <v>5.1666666666666696</v>
+      </c>
+      <c r="G70" s="1">
+        <f t="shared" si="33"/>
+        <v>6</v>
+      </c>
+      <c r="H70" t="str">
         <f t="shared" si="30"/>
-        <v>6.2000000000000028</v>
-      </c>
-      <c r="F70" s="3">
-        <f t="shared" si="31"/>
-        <v>5.1666666666666696</v>
-      </c>
-      <c r="G70" s="1">
-        <f t="shared" si="32"/>
-        <v>6</v>
-      </c>
-      <c r="H70" t="str">
-        <f t="shared" si="29"/>
         <v>C</v>
       </c>
     </row>
@@ -2942,19 +2992,19 @@
         <v>1.5</v>
       </c>
       <c r="E71" s="1">
+        <f t="shared" si="31"/>
+        <v>10.800000000000004</v>
+      </c>
+      <c r="F71" s="3">
+        <f t="shared" si="32"/>
+        <v>7.2000000000000028</v>
+      </c>
+      <c r="G71" s="1">
+        <f t="shared" si="33"/>
+        <v>4</v>
+      </c>
+      <c r="H71" t="str">
         <f t="shared" si="30"/>
-        <v>10.800000000000004</v>
-      </c>
-      <c r="F71" s="3">
-        <f t="shared" si="31"/>
-        <v>7.2000000000000028</v>
-      </c>
-      <c r="G71" s="1">
-        <f t="shared" si="32"/>
-        <v>4</v>
-      </c>
-      <c r="H71" t="str">
-        <f t="shared" si="29"/>
         <v>D</v>
       </c>
     </row>
@@ -2976,19 +3026,19 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="E72" s="1">
+        <f t="shared" si="31"/>
+        <v>18.400000000000002</v>
+      </c>
+      <c r="F72" s="3">
+        <f t="shared" si="32"/>
+        <v>16.727272727272727</v>
+      </c>
+      <c r="G72" s="1">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="H72" t="str">
         <f t="shared" si="30"/>
-        <v>18.400000000000002</v>
-      </c>
-      <c r="F72" s="3">
-        <f t="shared" si="31"/>
-        <v>16.727272727272727</v>
-      </c>
-      <c r="G72" s="1">
-        <f t="shared" si="32"/>
-        <v>1</v>
-      </c>
-      <c r="H72" t="str">
-        <f t="shared" si="29"/>
         <v>E</v>
       </c>
     </row>
@@ -3010,19 +3060,19 @@
         <v>2.5</v>
       </c>
       <c r="E73" s="1">
+        <f t="shared" si="31"/>
+        <v>18.799999999999997</v>
+      </c>
+      <c r="F73" s="3">
+        <f t="shared" si="32"/>
+        <v>7.5199999999999987</v>
+      </c>
+      <c r="G73" s="1">
+        <f t="shared" si="33"/>
+        <v>3</v>
+      </c>
+      <c r="H73" t="str">
         <f t="shared" si="30"/>
-        <v>18.799999999999997</v>
-      </c>
-      <c r="F73" s="3">
-        <f t="shared" si="31"/>
-        <v>7.5199999999999987</v>
-      </c>
-      <c r="G73" s="1">
-        <f t="shared" si="32"/>
-        <v>3</v>
-      </c>
-      <c r="H73" t="str">
-        <f t="shared" si="29"/>
         <v>F</v>
       </c>
     </row>
@@ -3080,11 +3130,11 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="E78" s="1">
-        <f t="shared" ref="E78:E81" si="33">IF(F77&gt;=C78*D78,C78*D78,F77)</f>
+        <f t="shared" ref="E78:E81" si="34">IF(F77&gt;=C78*D78,C78*D78,F77)</f>
         <v>7395.3</v>
       </c>
       <c r="F78" s="1">
-        <f t="shared" ref="F78:F81" si="34">IF(F77&gt;=E78,F77-E78,0)</f>
+        <f t="shared" ref="F78:F81" si="35">IF(F77&gt;=E78,F77-E78,0)</f>
         <v>30726.7</v>
       </c>
     </row>
@@ -3093,7 +3143,7 @@
         <v>2</v>
       </c>
       <c r="B79" s="17" t="str">
-        <f t="shared" ref="B79:B83" si="35">VLOOKUP(A79,$G$68:$H$73,2,FALSE)</f>
+        <f t="shared" ref="B79:B83" si="36">VLOOKUP(A79,$G$68:$H$73,2,FALSE)</f>
         <v>B</v>
       </c>
       <c r="C79" s="3">
@@ -3101,15 +3151,15 @@
         <v>8539</v>
       </c>
       <c r="D79" s="1">
-        <f t="shared" ref="D79:D83" si="36">VLOOKUP(B79,$A$68:$D$73,4,FALSE)</f>
+        <f t="shared" ref="D79:D83" si="37">VLOOKUP(B79,$A$68:$D$73,4,FALSE)</f>
         <v>2.2000000000000002</v>
       </c>
       <c r="E79" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>18785.800000000003</v>
       </c>
       <c r="F79" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>11940.899999999998</v>
       </c>
     </row>
@@ -3118,7 +3168,7 @@
         <v>3</v>
       </c>
       <c r="B80" s="17" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>F</v>
       </c>
       <c r="C80" s="3">
@@ -3126,15 +3176,15 @@
         <v>8528</v>
       </c>
       <c r="D80" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>2.5</v>
       </c>
       <c r="E80" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>11940.899999999998</v>
       </c>
       <c r="F80" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
@@ -3143,7 +3193,7 @@
         <v>4</v>
       </c>
       <c r="B81" s="17" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>D</v>
       </c>
       <c r="C81" s="3">
@@ -3151,15 +3201,15 @@
         <v>7534</v>
       </c>
       <c r="D81" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1.5</v>
       </c>
       <c r="E81" s="1">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="F81" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
@@ -3168,7 +3218,7 @@
         <v>5</v>
       </c>
       <c r="B82" s="17" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>A</v>
       </c>
       <c r="C82" s="3">
@@ -3176,7 +3226,7 @@
         <v>6631</v>
       </c>
       <c r="D82" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1.7</v>
       </c>
       <c r="E82" s="1">
@@ -3193,7 +3243,7 @@
         <v>6</v>
       </c>
       <c r="B83" s="17" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>C</v>
       </c>
       <c r="C83" s="3">
@@ -3201,7 +3251,7 @@
         <v>3841</v>
       </c>
       <c r="D83" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1.2</v>
       </c>
       <c r="E83" s="1">
@@ -3209,7 +3259,7 @@
         <v>0</v>
       </c>
       <c r="F83" s="1">
-        <f t="shared" ref="F83" si="37">IF(F82&gt;=E83,F82-E83,0)</f>
+        <f t="shared" ref="F83" si="38">IF(F82&gt;=E83,F82-E83,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3255,7 +3305,7 @@
         <v>37.1</v>
       </c>
       <c r="D87" s="1">
-        <f t="shared" ref="D87:D90" si="38">_xlfn.FLOOR.MATH(E78/D78)</f>
+        <f t="shared" ref="D87:D90" si="39">_xlfn.FLOOR.MATH(E78/D78)</f>
         <v>6723</v>
       </c>
       <c r="E87" s="3">
@@ -3267,23 +3317,23 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="17" t="str">
-        <f t="shared" ref="A88:A92" si="39">B79</f>
+        <f t="shared" ref="A88:A92" si="40">B79</f>
         <v>B</v>
       </c>
       <c r="B88" s="1">
-        <f t="shared" ref="B88:C88" si="40">B69</f>
+        <f t="shared" ref="B88:C88" si="41">B69</f>
         <v>34.700000000000003</v>
       </c>
       <c r="C88" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>53.9</v>
       </c>
       <c r="D88" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>8539</v>
       </c>
       <c r="E88" s="3">
-        <f t="shared" ref="E88:E92" si="41">(C88-B88)*D88</f>
+        <f t="shared" ref="E88:E92" si="42">(C88-B88)*D88</f>
         <v>163948.79999999996</v>
       </c>
       <c r="F88" s="1"/>
@@ -3291,23 +3341,23 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="17" t="str">
+        <f t="shared" si="40"/>
+        <v>F</v>
+      </c>
+      <c r="B89" s="1">
+        <f t="shared" ref="B89:C89" si="43">B70</f>
+        <v>26.5</v>
+      </c>
+      <c r="C89" s="1">
+        <f t="shared" si="43"/>
+        <v>32.700000000000003</v>
+      </c>
+      <c r="D89" s="1">
         <f t="shared" si="39"/>
-        <v>F</v>
-      </c>
-      <c r="B89" s="1">
-        <f t="shared" ref="B89:C89" si="42">B70</f>
-        <v>26.5</v>
-      </c>
-      <c r="C89" s="1">
+        <v>4776</v>
+      </c>
+      <c r="E89" s="3">
         <f t="shared" si="42"/>
-        <v>32.700000000000003</v>
-      </c>
-      <c r="D89" s="1">
-        <f t="shared" si="38"/>
-        <v>4776</v>
-      </c>
-      <c r="E89" s="3">
-        <f t="shared" si="41"/>
         <v>29611.200000000015</v>
       </c>
       <c r="F89" s="1"/>
@@ -3315,23 +3365,23 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="17" t="str">
+        <f t="shared" si="40"/>
+        <v>D</v>
+      </c>
+      <c r="B90" s="1">
+        <f t="shared" ref="B90:C90" si="44">B71</f>
+        <v>28.9</v>
+      </c>
+      <c r="C90" s="1">
+        <f t="shared" si="44"/>
+        <v>39.700000000000003</v>
+      </c>
+      <c r="D90" s="1">
         <f t="shared" si="39"/>
-        <v>D</v>
-      </c>
-      <c r="B90" s="1">
-        <f t="shared" ref="B90:C90" si="43">B71</f>
-        <v>28.9</v>
-      </c>
-      <c r="C90" s="1">
-        <f t="shared" si="43"/>
-        <v>39.700000000000003</v>
-      </c>
-      <c r="D90" s="1">
-        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="E90" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="F90" s="1"/>
@@ -3339,15 +3389,15 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="17" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>A</v>
       </c>
       <c r="B91" s="1">
-        <f t="shared" ref="B91:C91" si="44">B72</f>
+        <f t="shared" ref="B91:C91" si="45">B72</f>
         <v>22.8</v>
       </c>
       <c r="C91" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>41.2</v>
       </c>
       <c r="D91" s="1">
@@ -3355,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="F91" s="1"/>
@@ -3363,15 +3413,15 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="17" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>C</v>
       </c>
       <c r="B92" s="1">
-        <f t="shared" ref="B92:C92" si="45">B73</f>
+        <f t="shared" ref="B92:C92" si="46">B73</f>
         <v>28.1</v>
       </c>
       <c r="C92" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>46.9</v>
       </c>
       <c r="D92" s="1">
@@ -3379,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="E92" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="F92" s="1"/>
@@ -3422,11 +3472,11 @@
       </c>
       <c r="B98" s="2" t="str">
         <f>'исходные данные'!C37</f>
-        <v>Перемен. затраты (руб.)</v>
+        <v>Перемен. затраты (р.)</v>
       </c>
       <c r="C98" s="2" t="str">
         <f>'исходные данные'!D37</f>
-        <v>Цена (руб.)</v>
+        <v>Цена (р.)</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>48</v>
@@ -3475,7 +3525,7 @@
         <v>4</v>
       </c>
       <c r="H99" t="str">
-        <f t="shared" ref="H99:H104" si="46">A99</f>
+        <f t="shared" ref="H99:H104" si="47">A99</f>
         <v>A</v>
       </c>
     </row>
@@ -3497,19 +3547,19 @@
         <v>1.7</v>
       </c>
       <c r="E100" s="1">
-        <f t="shared" ref="E100:E104" si="47">C100-B100</f>
+        <f t="shared" ref="E100:E104" si="48">C100-B100</f>
         <v>16.899999999999999</v>
       </c>
       <c r="F100" s="3">
-        <f t="shared" ref="F100:F104" si="48">E100/D100</f>
+        <f t="shared" ref="F100:F104" si="49">E100/D100</f>
         <v>9.9411764705882355</v>
       </c>
       <c r="G100" s="1">
-        <f t="shared" ref="G100:G104" si="49">_xlfn.RANK.EQ(F100,$F$99:$F$104)</f>
+        <f t="shared" ref="G100:G104" si="50">_xlfn.RANK.EQ(F100,$F$99:$F$104)</f>
         <v>1</v>
       </c>
       <c r="H100" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>B</v>
       </c>
     </row>
@@ -3531,19 +3581,19 @@
         <v>2.1</v>
       </c>
       <c r="E101" s="1">
+        <f t="shared" si="48"/>
+        <v>17.100000000000001</v>
+      </c>
+      <c r="F101" s="3">
+        <f t="shared" si="49"/>
+        <v>8.1428571428571423</v>
+      </c>
+      <c r="G101" s="1">
+        <f t="shared" si="50"/>
+        <v>3</v>
+      </c>
+      <c r="H101" t="str">
         <f t="shared" si="47"/>
-        <v>17.100000000000001</v>
-      </c>
-      <c r="F101" s="3">
-        <f t="shared" si="48"/>
-        <v>8.1428571428571423</v>
-      </c>
-      <c r="G101" s="1">
-        <f t="shared" si="49"/>
-        <v>3</v>
-      </c>
-      <c r="H101" t="str">
-        <f t="shared" si="46"/>
         <v>C</v>
       </c>
     </row>
@@ -3565,19 +3615,19 @@
         <v>1.9</v>
       </c>
       <c r="E102" s="1">
+        <f t="shared" si="48"/>
+        <v>17.100000000000001</v>
+      </c>
+      <c r="F102" s="3">
+        <f t="shared" si="49"/>
+        <v>9.0000000000000018</v>
+      </c>
+      <c r="G102" s="1">
+        <f t="shared" si="50"/>
+        <v>2</v>
+      </c>
+      <c r="H102" t="str">
         <f t="shared" si="47"/>
-        <v>17.100000000000001</v>
-      </c>
-      <c r="F102" s="3">
-        <f t="shared" si="48"/>
-        <v>9.0000000000000018</v>
-      </c>
-      <c r="G102" s="1">
-        <f t="shared" si="49"/>
-        <v>2</v>
-      </c>
-      <c r="H102" t="str">
-        <f t="shared" si="46"/>
         <v>D</v>
       </c>
     </row>
@@ -3599,19 +3649,19 @@
         <v>3.2</v>
       </c>
       <c r="E103" s="1">
+        <f t="shared" si="48"/>
+        <v>14.199999999999996</v>
+      </c>
+      <c r="F103" s="3">
+        <f t="shared" si="49"/>
+        <v>4.4374999999999982</v>
+      </c>
+      <c r="G103" s="1">
+        <f t="shared" si="50"/>
+        <v>5</v>
+      </c>
+      <c r="H103" t="str">
         <f t="shared" si="47"/>
-        <v>14.199999999999996</v>
-      </c>
-      <c r="F103" s="3">
-        <f t="shared" si="48"/>
-        <v>4.4374999999999982</v>
-      </c>
-      <c r="G103" s="1">
-        <f t="shared" si="49"/>
-        <v>5</v>
-      </c>
-      <c r="H103" t="str">
-        <f t="shared" si="46"/>
         <v>E</v>
       </c>
     </row>
@@ -3633,19 +3683,19 @@
         <v>2.7</v>
       </c>
       <c r="E104" s="1">
+        <f t="shared" si="48"/>
+        <v>7</v>
+      </c>
+      <c r="F104" s="3">
+        <f t="shared" si="49"/>
+        <v>2.5925925925925926</v>
+      </c>
+      <c r="G104" s="1">
+        <f t="shared" si="50"/>
+        <v>6</v>
+      </c>
+      <c r="H104" t="str">
         <f t="shared" si="47"/>
-        <v>7</v>
-      </c>
-      <c r="F104" s="3">
-        <f t="shared" si="48"/>
-        <v>2.5925925925925926</v>
-      </c>
-      <c r="G104" s="1">
-        <f t="shared" si="49"/>
-        <v>6</v>
-      </c>
-      <c r="H104" t="str">
-        <f t="shared" si="46"/>
         <v>F</v>
       </c>
     </row>
@@ -3703,11 +3753,11 @@
         <v>1.7</v>
       </c>
       <c r="E109" s="1">
-        <f t="shared" ref="E109:E112" si="50">IF(F108&gt;=C109*D109,C109*D109,F108)</f>
+        <f t="shared" ref="E109:E112" si="51">IF(F108&gt;=C109*D109,C109*D109,F108)</f>
         <v>8311.2999999999993</v>
       </c>
       <c r="F109" s="1">
-        <f t="shared" ref="F109:F112" si="51">IF(F108&gt;=E109,F108-E109,0)</f>
+        <f t="shared" ref="F109:F112" si="52">IF(F108&gt;=E109,F108-E109,0)</f>
         <v>38139.699999999997</v>
       </c>
     </row>
@@ -3716,7 +3766,7 @@
         <v>2</v>
       </c>
       <c r="B110" s="17" t="str">
-        <f t="shared" ref="B110:B114" si="52">VLOOKUP(A110,$G$99:$H$104,2,FALSE)</f>
+        <f t="shared" ref="B110:B114" si="53">VLOOKUP(A110,$G$99:$H$104,2,FALSE)</f>
         <v>D</v>
       </c>
       <c r="C110" s="3">
@@ -3724,15 +3774,15 @@
         <v>2012</v>
       </c>
       <c r="D110" s="1">
-        <f t="shared" ref="D110:D114" si="53">VLOOKUP(B110,$A$99:$D$104,4,FALSE)</f>
+        <f t="shared" ref="D110:D114" si="54">VLOOKUP(B110,$A$99:$D$104,4,FALSE)</f>
         <v>1.9</v>
       </c>
       <c r="E110" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>3822.7999999999997</v>
       </c>
       <c r="F110" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>34316.899999999994</v>
       </c>
     </row>
@@ -3741,7 +3791,7 @@
         <v>3</v>
       </c>
       <c r="B111" s="17" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>C</v>
       </c>
       <c r="C111" s="3">
@@ -3749,15 +3799,15 @@
         <v>7365</v>
       </c>
       <c r="D111" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>2.1</v>
       </c>
       <c r="E111" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>15466.5</v>
       </c>
       <c r="F111" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>18850.399999999994</v>
       </c>
     </row>
@@ -3766,7 +3816,7 @@
         <v>4</v>
       </c>
       <c r="B112" s="17" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>A</v>
       </c>
       <c r="C112" s="3">
@@ -3774,15 +3824,15 @@
         <v>6603</v>
       </c>
       <c r="D112" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>1.5</v>
       </c>
       <c r="E112" s="1">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>9904.5</v>
       </c>
       <c r="F112" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>8945.8999999999942</v>
       </c>
     </row>
@@ -3791,7 +3841,7 @@
         <v>5</v>
       </c>
       <c r="B113" s="17" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>E</v>
       </c>
       <c r="C113" s="3">
@@ -3799,7 +3849,7 @@
         <v>7387</v>
       </c>
       <c r="D113" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>3.2</v>
       </c>
       <c r="E113" s="1">
@@ -3816,7 +3866,7 @@
         <v>6</v>
       </c>
       <c r="B114" s="17" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>F</v>
       </c>
       <c r="C114" s="3">
@@ -3824,7 +3874,7 @@
         <v>7181</v>
       </c>
       <c r="D114" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>2.7</v>
       </c>
       <c r="E114" s="1">
@@ -3832,7 +3882,7 @@
         <v>0</v>
       </c>
       <c r="F114" s="1">
-        <f t="shared" ref="F114" si="54">IF(F113&gt;=E114,F113-E114,0)</f>
+        <f t="shared" ref="F114" si="55">IF(F113&gt;=E114,F113-E114,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3878,7 +3928,7 @@
         <v>28.8</v>
       </c>
       <c r="D118" s="1">
-        <f t="shared" ref="D118:D121" si="55">_xlfn.FLOOR.MATH(E109/D109)</f>
+        <f t="shared" ref="D118:D121" si="56">_xlfn.FLOOR.MATH(E109/D109)</f>
         <v>4889</v>
       </c>
       <c r="E118" s="3">
@@ -3890,23 +3940,23 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="17" t="str">
-        <f t="shared" ref="A119:A123" si="56">B110</f>
+        <f t="shared" ref="A119:A123" si="57">B110</f>
         <v>D</v>
       </c>
       <c r="B119" s="1">
-        <f t="shared" ref="B119:C119" si="57">B100</f>
+        <f t="shared" ref="B119:C119" si="58">B100</f>
         <v>21</v>
       </c>
       <c r="C119" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>37.9</v>
       </c>
       <c r="D119" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>2012</v>
       </c>
       <c r="E119" s="3">
-        <f t="shared" ref="E119:E123" si="58">(C119-B119)*D119</f>
+        <f t="shared" ref="E119:E123" si="59">(C119-B119)*D119</f>
         <v>34002.799999999996</v>
       </c>
       <c r="F119" s="1"/>
@@ -3914,23 +3964,23 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="17" t="str">
+        <f t="shared" si="57"/>
+        <v>C</v>
+      </c>
+      <c r="B120" s="1">
+        <f t="shared" ref="B120:C120" si="60">B101</f>
+        <v>32.799999999999997</v>
+      </c>
+      <c r="C120" s="1">
+        <f t="shared" si="60"/>
+        <v>49.9</v>
+      </c>
+      <c r="D120" s="1">
         <f t="shared" si="56"/>
-        <v>C</v>
-      </c>
-      <c r="B120" s="1">
-        <f t="shared" ref="B120:C120" si="59">B101</f>
-        <v>32.799999999999997</v>
-      </c>
-      <c r="C120" s="1">
+        <v>7365</v>
+      </c>
+      <c r="E120" s="3">
         <f t="shared" si="59"/>
-        <v>49.9</v>
-      </c>
-      <c r="D120" s="1">
-        <f t="shared" si="55"/>
-        <v>7365</v>
-      </c>
-      <c r="E120" s="3">
-        <f t="shared" si="58"/>
         <v>125941.50000000001</v>
       </c>
       <c r="F120" s="1"/>
@@ -3938,23 +3988,23 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="17" t="str">
+        <f t="shared" si="57"/>
+        <v>A</v>
+      </c>
+      <c r="B121" s="1">
+        <f t="shared" ref="B121:C121" si="61">B102</f>
+        <v>33.799999999999997</v>
+      </c>
+      <c r="C121" s="1">
+        <f t="shared" si="61"/>
+        <v>50.9</v>
+      </c>
+      <c r="D121" s="1">
         <f t="shared" si="56"/>
-        <v>A</v>
-      </c>
-      <c r="B121" s="1">
-        <f t="shared" ref="B121:C121" si="60">B102</f>
-        <v>33.799999999999997</v>
-      </c>
-      <c r="C121" s="1">
-        <f t="shared" si="60"/>
-        <v>50.9</v>
-      </c>
-      <c r="D121" s="1">
-        <f t="shared" si="55"/>
         <v>6603</v>
       </c>
       <c r="E121" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>112911.3</v>
       </c>
       <c r="F121" s="1"/>
@@ -3962,15 +4012,15 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="17" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>E</v>
       </c>
       <c r="B122" s="1">
-        <f t="shared" ref="B122:C122" si="61">B103</f>
+        <f t="shared" ref="B122:C122" si="62">B103</f>
         <v>33.6</v>
       </c>
       <c r="C122" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>47.8</v>
       </c>
       <c r="D122" s="1">
@@ -3978,7 +4028,7 @@
         <v>2795</v>
       </c>
       <c r="E122" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>39688.999999999985</v>
       </c>
       <c r="F122" s="1"/>
@@ -3986,15 +4036,15 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="17" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>F</v>
       </c>
       <c r="B123" s="1">
-        <f t="shared" ref="B123:C123" si="62">B104</f>
+        <f t="shared" ref="B123:C123" si="63">B104</f>
         <v>24.9</v>
       </c>
       <c r="C123" s="1">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>31.9</v>
       </c>
       <c r="D123" s="1">
@@ -4002,7 +4052,7 @@
         <v>0</v>
       </c>
       <c r="E123" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="F123" s="1"/>
@@ -4045,11 +4095,11 @@
       </c>
       <c r="B129" s="2" t="str">
         <f>'исходные данные'!C46</f>
-        <v>Перемен. затраты (руб.)</v>
+        <v>Перемен. затраты (р.)</v>
       </c>
       <c r="C129" s="2" t="str">
         <f>'исходные данные'!D46</f>
-        <v>Цена (руб.)</v>
+        <v>Цена (р.)</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>48</v>
@@ -4098,7 +4148,7 @@
         <v>6</v>
       </c>
       <c r="H130" t="str">
-        <f t="shared" ref="H130:H135" si="63">A130</f>
+        <f t="shared" ref="H130:H135" si="64">A130</f>
         <v>A</v>
       </c>
     </row>
@@ -4120,19 +4170,19 @@
         <v>1.3</v>
       </c>
       <c r="E131" s="1">
-        <f t="shared" ref="E131:E135" si="64">C131-B131</f>
+        <f t="shared" ref="E131:E135" si="65">C131-B131</f>
         <v>18.600000000000001</v>
       </c>
       <c r="F131" s="3">
-        <f t="shared" ref="F131:F135" si="65">E131/D131</f>
+        <f t="shared" ref="F131:F135" si="66">E131/D131</f>
         <v>14.307692307692308</v>
       </c>
       <c r="G131" s="1">
-        <f t="shared" ref="G131:G135" si="66">_xlfn.RANK.EQ(F131,$F$130:$F$135)</f>
+        <f t="shared" ref="G131:G135" si="67">_xlfn.RANK.EQ(F131,$F$130:$F$135)</f>
         <v>2</v>
       </c>
       <c r="H131" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>B</v>
       </c>
     </row>
@@ -4154,19 +4204,19 @@
         <v>1</v>
       </c>
       <c r="E132" s="1">
-        <f t="shared" si="64"/>
-        <v>6.9000000000000021</v>
-      </c>
-      <c r="F132" s="3">
         <f t="shared" si="65"/>
         <v>6.9000000000000021</v>
       </c>
+      <c r="F132" s="3">
+        <f t="shared" si="66"/>
+        <v>6.9000000000000021</v>
+      </c>
       <c r="G132" s="1">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>4</v>
       </c>
       <c r="H132" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>C</v>
       </c>
     </row>
@@ -4188,19 +4238,19 @@
         <v>0.9</v>
       </c>
       <c r="E133" s="1">
+        <f t="shared" si="65"/>
+        <v>18</v>
+      </c>
+      <c r="F133" s="3">
+        <f t="shared" si="66"/>
+        <v>20</v>
+      </c>
+      <c r="G133" s="1">
+        <f t="shared" si="67"/>
+        <v>1</v>
+      </c>
+      <c r="H133" t="str">
         <f t="shared" si="64"/>
-        <v>18</v>
-      </c>
-      <c r="F133" s="3">
-        <f t="shared" si="65"/>
-        <v>20</v>
-      </c>
-      <c r="G133" s="1">
-        <f t="shared" si="66"/>
-        <v>1</v>
-      </c>
-      <c r="H133" t="str">
-        <f t="shared" si="63"/>
         <v>D</v>
       </c>
     </row>
@@ -4222,19 +4272,19 @@
         <v>2.4</v>
       </c>
       <c r="E134" s="1">
+        <f t="shared" si="65"/>
+        <v>15.300000000000004</v>
+      </c>
+      <c r="F134" s="3">
+        <f t="shared" si="66"/>
+        <v>6.3750000000000018</v>
+      </c>
+      <c r="G134" s="1">
+        <f t="shared" si="67"/>
+        <v>5</v>
+      </c>
+      <c r="H134" t="str">
         <f t="shared" si="64"/>
-        <v>15.300000000000004</v>
-      </c>
-      <c r="F134" s="3">
-        <f t="shared" si="65"/>
-        <v>6.3750000000000018</v>
-      </c>
-      <c r="G134" s="1">
-        <f t="shared" si="66"/>
-        <v>5</v>
-      </c>
-      <c r="H134" t="str">
-        <f t="shared" si="63"/>
         <v>E</v>
       </c>
     </row>
@@ -4256,19 +4306,19 @@
         <v>1.9</v>
       </c>
       <c r="E135" s="1">
+        <f t="shared" si="65"/>
+        <v>17.799999999999997</v>
+      </c>
+      <c r="F135" s="3">
+        <f t="shared" si="66"/>
+        <v>9.3684210526315788</v>
+      </c>
+      <c r="G135" s="1">
+        <f t="shared" si="67"/>
+        <v>3</v>
+      </c>
+      <c r="H135" t="str">
         <f t="shared" si="64"/>
-        <v>17.799999999999997</v>
-      </c>
-      <c r="F135" s="3">
-        <f t="shared" si="65"/>
-        <v>9.3684210526315788</v>
-      </c>
-      <c r="G135" s="1">
-        <f t="shared" si="66"/>
-        <v>3</v>
-      </c>
-      <c r="H135" t="str">
-        <f t="shared" si="63"/>
         <v>F</v>
       </c>
     </row>
@@ -4326,11 +4376,11 @@
         <v>0.9</v>
       </c>
       <c r="E140" s="1">
-        <f t="shared" ref="E140:E143" si="67">IF(F139&gt;=C140*D140,C140*D140,F139)</f>
+        <f t="shared" ref="E140:E143" si="68">IF(F139&gt;=C140*D140,C140*D140,F139)</f>
         <v>2850.3</v>
       </c>
       <c r="F140" s="1">
-        <f t="shared" ref="F140:F143" si="68">IF(F139&gt;=E140,F139-E140,0)</f>
+        <f t="shared" ref="F140:F143" si="69">IF(F139&gt;=E140,F139-E140,0)</f>
         <v>28347.7</v>
       </c>
     </row>
@@ -4339,7 +4389,7 @@
         <v>2</v>
       </c>
       <c r="B141" s="17" t="str">
-        <f t="shared" ref="B141:B145" si="69">VLOOKUP(A141,$G$130:$H$135,2,FALSE)</f>
+        <f t="shared" ref="B141:B145" si="70">VLOOKUP(A141,$G$130:$H$135,2,FALSE)</f>
         <v>B</v>
       </c>
       <c r="C141" s="3">
@@ -4347,15 +4397,15 @@
         <v>7364</v>
       </c>
       <c r="D141" s="1">
-        <f t="shared" ref="D141:D145" si="70">VLOOKUP(B141,$A$130:$D$135,4,FALSE)</f>
+        <f t="shared" ref="D141:D145" si="71">VLOOKUP(B141,$A$130:$D$135,4,FALSE)</f>
         <v>1.3</v>
       </c>
       <c r="E141" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>9573.2000000000007</v>
       </c>
       <c r="F141" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>18774.5</v>
       </c>
     </row>
@@ -4364,7 +4414,7 @@
         <v>3</v>
       </c>
       <c r="B142" s="17" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>F</v>
       </c>
       <c r="C142" s="3">
@@ -4372,15 +4422,15 @@
         <v>5706</v>
       </c>
       <c r="D142" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>1.9</v>
       </c>
       <c r="E142" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>10841.4</v>
       </c>
       <c r="F142" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>7933.1</v>
       </c>
     </row>
@@ -4389,7 +4439,7 @@
         <v>4</v>
       </c>
       <c r="B143" s="17" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>C</v>
       </c>
       <c r="C143" s="3">
@@ -4397,15 +4447,15 @@
         <v>3478</v>
       </c>
       <c r="D143" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>1</v>
       </c>
       <c r="E143" s="1">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>3478</v>
       </c>
       <c r="F143" s="1">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>4455.1000000000004</v>
       </c>
     </row>
@@ -4414,7 +4464,7 @@
         <v>5</v>
       </c>
       <c r="B144" s="17" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>E</v>
       </c>
       <c r="C144" s="3">
@@ -4422,7 +4472,7 @@
         <v>5662</v>
       </c>
       <c r="D144" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>2.4</v>
       </c>
       <c r="E144" s="1">
@@ -4439,7 +4489,7 @@
         <v>6</v>
       </c>
       <c r="B145" s="17" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>A</v>
       </c>
       <c r="C145" s="3">
@@ -4447,7 +4497,7 @@
         <v>2245</v>
       </c>
       <c r="D145" s="1">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>1.4</v>
       </c>
       <c r="E145" s="1">
@@ -4455,7 +4505,7 @@
         <v>0</v>
       </c>
       <c r="F145" s="1">
-        <f t="shared" ref="F145" si="71">IF(F144&gt;=E145,F144-E145,0)</f>
+        <f t="shared" ref="F145" si="72">IF(F144&gt;=E145,F144-E145,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4501,7 +4551,7 @@
         <v>31.8</v>
       </c>
       <c r="D149" s="1">
-        <f t="shared" ref="D149:D152" si="72">_xlfn.FLOOR.MATH(E140/D140)</f>
+        <f t="shared" ref="D149:D152" si="73">_xlfn.FLOOR.MATH(E140/D140)</f>
         <v>3167</v>
       </c>
       <c r="E149" s="3">
@@ -4513,23 +4563,23 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="17" t="str">
-        <f t="shared" ref="A150:A154" si="73">B141</f>
+        <f t="shared" ref="A150:A154" si="74">B141</f>
         <v>B</v>
       </c>
       <c r="B150" s="1">
-        <f t="shared" ref="B150:C150" si="74">B131</f>
+        <f t="shared" ref="B150:C150" si="75">B131</f>
         <v>26.6</v>
       </c>
       <c r="C150" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>45.2</v>
       </c>
       <c r="D150" s="1">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>7364</v>
       </c>
       <c r="E150" s="3">
-        <f t="shared" ref="E150:E154" si="75">(C150-B150)*D150</f>
+        <f t="shared" ref="E150:E154" si="76">(C150-B150)*D150</f>
         <v>136970.40000000002</v>
       </c>
       <c r="F150" s="1"/>
@@ -4537,23 +4587,23 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="17" t="str">
+        <f t="shared" si="74"/>
+        <v>F</v>
+      </c>
+      <c r="B151" s="1">
+        <f t="shared" ref="B151:C151" si="77">B132</f>
+        <v>24.9</v>
+      </c>
+      <c r="C151" s="1">
+        <f t="shared" si="77"/>
+        <v>31.8</v>
+      </c>
+      <c r="D151" s="1">
         <f t="shared" si="73"/>
-        <v>F</v>
-      </c>
-      <c r="B151" s="1">
-        <f t="shared" ref="B151:C151" si="76">B132</f>
-        <v>24.9</v>
-      </c>
-      <c r="C151" s="1">
+        <v>5706</v>
+      </c>
+      <c r="E151" s="3">
         <f t="shared" si="76"/>
-        <v>31.8</v>
-      </c>
-      <c r="D151" s="1">
-        <f t="shared" si="72"/>
-        <v>5706</v>
-      </c>
-      <c r="E151" s="3">
-        <f t="shared" si="75"/>
         <v>39371.400000000009</v>
       </c>
       <c r="F151" s="1"/>
@@ -4561,23 +4611,23 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="17" t="str">
+        <f t="shared" si="74"/>
+        <v>C</v>
+      </c>
+      <c r="B152" s="1">
+        <f t="shared" ref="B152:C152" si="78">B133</f>
+        <v>32.9</v>
+      </c>
+      <c r="C152" s="1">
+        <f t="shared" si="78"/>
+        <v>50.9</v>
+      </c>
+      <c r="D152" s="1">
         <f t="shared" si="73"/>
-        <v>C</v>
-      </c>
-      <c r="B152" s="1">
-        <f t="shared" ref="B152:C152" si="77">B133</f>
-        <v>32.9</v>
-      </c>
-      <c r="C152" s="1">
-        <f t="shared" si="77"/>
-        <v>50.9</v>
-      </c>
-      <c r="D152" s="1">
-        <f t="shared" si="72"/>
         <v>3478</v>
       </c>
       <c r="E152" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>62604</v>
       </c>
       <c r="F152" s="1"/>
@@ -4585,15 +4635,15 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="17" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>E</v>
       </c>
       <c r="B153" s="1">
-        <f t="shared" ref="B153:C153" si="78">B134</f>
+        <f t="shared" ref="B153:C153" si="79">B134</f>
         <v>24.9</v>
       </c>
       <c r="C153" s="1">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>40.200000000000003</v>
       </c>
       <c r="D153" s="1">
@@ -4601,7 +4651,7 @@
         <v>1856</v>
       </c>
       <c r="E153" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>28396.800000000007</v>
       </c>
       <c r="F153" s="1"/>
@@ -4609,15 +4659,15 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="17" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>A</v>
       </c>
       <c r="B154" s="1">
-        <f t="shared" ref="B154:C154" si="79">B135</f>
+        <f t="shared" ref="B154:C154" si="80">B135</f>
         <v>23.1</v>
       </c>
       <c r="C154" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>40.9</v>
       </c>
       <c r="D154" s="1">
@@ -4625,7 +4675,7 @@
         <v>0</v>
       </c>
       <c r="E154" s="3">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="F154" s="1"/>

--- a/РГР/ргр.xlsx
+++ b/РГР/ргр.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="69">
   <si>
     <t>Номера инвестиционных проектов</t>
   </si>
@@ -318,7 +318,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -355,13 +355,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -392,6 +388,9 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -741,14 +740,14 @@
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -757,7 +756,7 @@
       <c r="B3" s="7">
         <v>718</v>
       </c>
-      <c r="F3" s="31"/>
+      <c r="F3" s="30"/>
       <c r="G3" s="12">
         <v>1</v>
       </c>
@@ -846,20 +845,20 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="31"/>
+      <c r="F9" s="30"/>
       <c r="G9" s="12">
         <v>1</v>
       </c>
@@ -1112,10 +1111,10 @@
       <c r="B19" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="26" t="s">
         <v>64</v>
       </c>
       <c r="F19" s="8" t="s">
@@ -1227,10 +1226,10 @@
       <c r="B28" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="26" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1330,10 +1329,10 @@
       <c r="B37" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="28" t="s">
+      <c r="C37" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="D37" s="28" t="s">
+      <c r="D37" s="26" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1433,10 +1432,10 @@
       <c r="B46" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="28" t="s">
+      <c r="C46" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="D46" s="28" t="s">
+      <c r="D46" s="26" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1540,8 +1539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="G83" sqref="A76:G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1560,7 +1559,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="17" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1600,27 +1599,27 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="str">
+      <c r="A6" s="16" t="str">
         <f>'исходные данные'!A11</f>
         <v>A</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="27">
         <f>'исходные данные'!C11</f>
         <v>21.7</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="27">
         <f>'исходные данные'!D11</f>
         <v>39.799999999999997</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="27">
         <f>'исходные данные'!G10</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="27">
         <f>C6-B6</f>
         <v>18.099999999999998</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="27">
         <f>E6/D6</f>
         <v>8.2272727272727249</v>
       </c>
@@ -1634,27 +1633,27 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="str">
+      <c r="A7" s="16" t="str">
         <f>'исходные данные'!A12</f>
         <v>B</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="27">
         <f>'исходные данные'!C12</f>
         <v>29.8</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="27">
         <f>'исходные данные'!D12</f>
         <v>40.799999999999997</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="27">
         <f>'исходные данные'!G11</f>
         <v>3.2</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="27">
         <f t="shared" ref="E7:E11" si="2">C7-B7</f>
         <v>10.999999999999996</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="27">
         <f t="shared" ref="F7:F11" si="3">E7/D7</f>
         <v>3.4374999999999987</v>
       </c>
@@ -1668,27 +1667,27 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="str">
+      <c r="A8" s="16" t="str">
         <f>'исходные данные'!A13</f>
         <v>C</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="27">
         <f>'исходные данные'!C13</f>
         <v>26.9</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="27">
         <f>'исходные данные'!D13</f>
         <v>41.7</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="27">
         <f>'исходные данные'!G12</f>
         <v>1.2</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="27">
         <f t="shared" si="2"/>
         <v>14.800000000000004</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="27">
         <f t="shared" si="3"/>
         <v>12.333333333333337</v>
       </c>
@@ -1702,27 +1701,27 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="str">
+      <c r="A9" s="16" t="str">
         <f>'исходные данные'!A14</f>
         <v>D</v>
       </c>
-      <c r="B9" s="29">
+      <c r="B9" s="27">
         <f>'исходные данные'!C14</f>
         <v>33.700000000000003</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="27">
         <f>'исходные данные'!D14</f>
         <v>46.1</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="27">
         <f>'исходные данные'!G13</f>
         <v>3</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="27">
         <f t="shared" si="2"/>
         <v>12.399999999999999</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="27">
         <f t="shared" si="3"/>
         <v>4.1333333333333329</v>
       </c>
@@ -1736,27 +1735,27 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="str">
+      <c r="A10" s="16" t="str">
         <f>'исходные данные'!A15</f>
         <v>E</v>
       </c>
-      <c r="B10" s="29">
+      <c r="B10" s="27">
         <f>'исходные данные'!C15</f>
         <v>22.7</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="27">
         <f>'исходные данные'!D15</f>
         <v>36.1</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="27">
         <f>'исходные данные'!G14</f>
         <v>2.9</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="27">
         <f t="shared" si="2"/>
         <v>13.400000000000002</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="27">
         <f t="shared" si="3"/>
         <v>4.6206896551724146</v>
       </c>
@@ -1770,27 +1769,27 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="str">
+      <c r="A11" s="16" t="str">
         <f>'исходные данные'!A16</f>
         <v>F</v>
       </c>
-      <c r="B11" s="29">
+      <c r="B11" s="27">
         <f>'исходные данные'!C16</f>
         <v>24.6</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="27">
         <f>'исходные данные'!D16</f>
         <v>34.5</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="27">
         <f>'исходные данные'!G15</f>
         <v>2.1</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="27">
         <f t="shared" si="2"/>
         <v>9.8999999999999986</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="27">
         <f t="shared" si="3"/>
         <v>4.7142857142857135</v>
       </c>
@@ -1834,40 +1833,40 @@
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29">
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27">
         <f>'исходные данные'!G16</f>
         <v>55325</v>
       </c>
-      <c r="G15" s="29"/>
+      <c r="G15" s="27"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1</v>
       </c>
-      <c r="B16" s="17" t="str">
+      <c r="B16" s="16" t="str">
         <f>VLOOKUP(A16,$G$6:$H$11,2,FALSE)</f>
         <v>C</v>
       </c>
-      <c r="C16" s="29">
+      <c r="C16" s="27">
         <f>VLOOKUP('прибыль проектов'!B16,'исходные данные'!$A$11:$B$16,2,FALSE)</f>
         <v>5578</v>
       </c>
-      <c r="D16" s="29">
+      <c r="D16" s="27">
         <f>VLOOKUP(B16,$A$6:$D$11,4,FALSE)</f>
         <v>1.2</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E16" s="27">
         <f t="shared" ref="E16:E19" si="4">IF(F15&gt;=C16*D16,C16*D16,F15)</f>
         <v>6693.5999999999995</v>
       </c>
-      <c r="F16" s="29">
+      <c r="F16" s="27">
         <f t="shared" ref="F16:F21" si="5">IF(F15&gt;=E16,F15-E16,0)</f>
         <v>48631.4</v>
       </c>
-      <c r="G16" s="29">
+      <c r="G16" s="27">
         <f>D25</f>
         <v>5578</v>
       </c>
@@ -1876,27 +1875,27 @@
       <c r="A17" s="1">
         <v>2</v>
       </c>
-      <c r="B17" s="17" t="str">
+      <c r="B17" s="16" t="str">
         <f t="shared" ref="B17:B21" si="6">VLOOKUP(A17,$G$6:$H$11,2,FALSE)</f>
         <v>A</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="27">
         <f>VLOOKUP('прибыль проектов'!B17,'исходные данные'!$A$11:$B$16,2,FALSE)</f>
         <v>4907</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="27">
         <f t="shared" ref="D17:D21" si="7">VLOOKUP(B17,$A$6:$D$11,4,FALSE)</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="27">
         <f t="shared" si="4"/>
         <v>10795.400000000001</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F17" s="27">
         <f t="shared" si="5"/>
         <v>37836</v>
       </c>
-      <c r="G17" s="29">
+      <c r="G17" s="27">
         <f t="shared" ref="G17:G21" si="8">D26</f>
         <v>4907</v>
       </c>
@@ -1905,27 +1904,27 @@
       <c r="A18" s="1">
         <v>3</v>
       </c>
-      <c r="B18" s="17" t="str">
+      <c r="B18" s="16" t="str">
         <f t="shared" si="6"/>
         <v>F</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C18" s="27">
         <f>VLOOKUP('прибыль проектов'!B18,'исходные данные'!$A$11:$B$16,2,FALSE)</f>
         <v>3093</v>
       </c>
-      <c r="D18" s="29">
+      <c r="D18" s="27">
         <f t="shared" si="7"/>
         <v>2.1</v>
       </c>
-      <c r="E18" s="29">
+      <c r="E18" s="27">
         <f t="shared" si="4"/>
         <v>6495.3</v>
       </c>
-      <c r="F18" s="29">
+      <c r="F18" s="27">
         <f t="shared" si="5"/>
         <v>31340.7</v>
       </c>
-      <c r="G18" s="29">
+      <c r="G18" s="27">
         <f t="shared" si="8"/>
         <v>3093</v>
       </c>
@@ -1934,27 +1933,27 @@
       <c r="A19" s="1">
         <v>4</v>
       </c>
-      <c r="B19" s="17" t="str">
+      <c r="B19" s="16" t="str">
         <f t="shared" si="6"/>
         <v>E</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="27">
         <f>VLOOKUP('прибыль проектов'!B19,'исходные данные'!$A$11:$B$16,2,FALSE)</f>
         <v>6649</v>
       </c>
-      <c r="D19" s="29">
+      <c r="D19" s="27">
         <f t="shared" si="7"/>
         <v>2.9</v>
       </c>
-      <c r="E19" s="29">
+      <c r="E19" s="27">
         <f t="shared" si="4"/>
         <v>19282.099999999999</v>
       </c>
-      <c r="F19" s="29">
+      <c r="F19" s="27">
         <f t="shared" si="5"/>
         <v>12058.600000000002</v>
       </c>
-      <c r="G19" s="29">
+      <c r="G19" s="27">
         <f t="shared" si="8"/>
         <v>6649</v>
       </c>
@@ -1963,27 +1962,27 @@
       <c r="A20" s="1">
         <v>5</v>
       </c>
-      <c r="B20" s="17" t="str">
+      <c r="B20" s="16" t="str">
         <f t="shared" si="6"/>
         <v>D</v>
       </c>
-      <c r="C20" s="29">
+      <c r="C20" s="27">
         <f>VLOOKUP('прибыль проектов'!B20,'исходные данные'!$A$11:$B$16,2,FALSE)</f>
         <v>8282</v>
       </c>
-      <c r="D20" s="29">
+      <c r="D20" s="27">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="E20" s="29">
+      <c r="E20" s="27">
         <f>IF(F19&gt;=C20*D20,C20*D20,F19)</f>
         <v>12058.600000000002</v>
       </c>
-      <c r="F20" s="29">
+      <c r="F20" s="27">
         <f>IF(F19&gt;=E20,F19-E20,0)</f>
         <v>0</v>
       </c>
-      <c r="G20" s="29">
+      <c r="G20" s="27">
         <f t="shared" si="8"/>
         <v>4019</v>
       </c>
@@ -1992,27 +1991,27 @@
       <c r="A21" s="1">
         <v>6</v>
       </c>
-      <c r="B21" s="17" t="str">
+      <c r="B21" s="16" t="str">
         <f t="shared" si="6"/>
         <v>B</v>
       </c>
-      <c r="C21" s="29">
+      <c r="C21" s="27">
         <f>VLOOKUP('прибыль проектов'!B21,'исходные данные'!$A$11:$B$16,2,FALSE)</f>
         <v>8460</v>
       </c>
-      <c r="D21" s="29">
+      <c r="D21" s="27">
         <f t="shared" si="7"/>
         <v>3.2</v>
       </c>
-      <c r="E21" s="29">
+      <c r="E21" s="27">
         <f>IF(F20&gt;=C21*D21,C21*D21,F20)</f>
         <v>0</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F21" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G21" s="29">
+      <c r="G21" s="27">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -2046,171 +2045,171 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="str">
+      <c r="A25" s="16" t="str">
         <f>B16</f>
         <v>C</v>
       </c>
-      <c r="B25" s="29">
+      <c r="B25" s="27">
         <f>B6</f>
         <v>21.7</v>
       </c>
-      <c r="C25" s="29">
+      <c r="C25" s="27">
         <f>C6</f>
         <v>39.799999999999997</v>
       </c>
-      <c r="D25" s="29">
+      <c r="D25" s="27">
         <f>_xlfn.FLOOR.MATH(E16/D16)</f>
         <v>5578</v>
       </c>
-      <c r="E25" s="29">
+      <c r="E25" s="27">
         <f>(C25-B25)*D25</f>
         <v>100961.79999999999</v>
       </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="str">
+      <c r="A26" s="16" t="str">
         <f t="shared" ref="A26:A30" si="9">B17</f>
         <v>A</v>
       </c>
-      <c r="B26" s="29">
+      <c r="B26" s="27">
         <f t="shared" ref="B26:C30" si="10">B7</f>
         <v>29.8</v>
       </c>
-      <c r="C26" s="29">
+      <c r="C26" s="27">
         <f t="shared" si="10"/>
         <v>40.799999999999997</v>
       </c>
-      <c r="D26" s="29">
+      <c r="D26" s="27">
         <f t="shared" ref="D26:D28" si="11">_xlfn.FLOOR.MATH(E17/D17)</f>
         <v>4907</v>
       </c>
-      <c r="E26" s="29">
+      <c r="E26" s="27">
         <f t="shared" ref="E26:E30" si="12">(C26-B26)*D26</f>
         <v>53976.999999999985</v>
       </c>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="str">
+      <c r="A27" s="16" t="str">
         <f t="shared" si="9"/>
         <v>F</v>
       </c>
-      <c r="B27" s="29">
+      <c r="B27" s="27">
         <f t="shared" si="10"/>
         <v>26.9</v>
       </c>
-      <c r="C27" s="29">
+      <c r="C27" s="27">
         <f t="shared" si="10"/>
         <v>41.7</v>
       </c>
-      <c r="D27" s="29">
+      <c r="D27" s="27">
         <f t="shared" si="11"/>
         <v>3093</v>
       </c>
-      <c r="E27" s="29">
+      <c r="E27" s="27">
         <f t="shared" si="12"/>
         <v>45776.400000000016</v>
       </c>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="str">
+      <c r="A28" s="16" t="str">
         <f t="shared" si="9"/>
         <v>E</v>
       </c>
-      <c r="B28" s="29">
+      <c r="B28" s="27">
         <f t="shared" si="10"/>
         <v>33.700000000000003</v>
       </c>
-      <c r="C28" s="29">
+      <c r="C28" s="27">
         <f t="shared" si="10"/>
         <v>46.1</v>
       </c>
-      <c r="D28" s="29">
+      <c r="D28" s="27">
         <f t="shared" si="11"/>
         <v>6649</v>
       </c>
-      <c r="E28" s="29">
+      <c r="E28" s="27">
         <f t="shared" si="12"/>
         <v>82447.599999999991</v>
       </c>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="str">
+      <c r="A29" s="16" t="str">
         <f t="shared" si="9"/>
         <v>D</v>
       </c>
-      <c r="B29" s="29">
+      <c r="B29" s="27">
         <f t="shared" si="10"/>
         <v>22.7</v>
       </c>
-      <c r="C29" s="29">
+      <c r="C29" s="27">
         <f t="shared" si="10"/>
         <v>36.1</v>
       </c>
-      <c r="D29" s="29">
+      <c r="D29" s="27">
         <f>_xlfn.FLOOR.MATH(E20/D20)</f>
         <v>4019</v>
       </c>
-      <c r="E29" s="29">
+      <c r="E29" s="27">
         <f t="shared" si="12"/>
         <v>53854.600000000006</v>
       </c>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="str">
+      <c r="A30" s="16" t="str">
         <f t="shared" si="9"/>
         <v>B</v>
       </c>
-      <c r="B30" s="29">
+      <c r="B30" s="27">
         <f t="shared" si="10"/>
         <v>24.6</v>
       </c>
-      <c r="C30" s="29">
+      <c r="C30" s="27">
         <f t="shared" si="10"/>
         <v>34.5</v>
       </c>
-      <c r="D30" s="29">
+      <c r="D30" s="27">
         <f>_xlfn.FLOOR.MATH(E21/D21)</f>
         <v>0</v>
       </c>
-      <c r="E30" s="29">
+      <c r="E30" s="27">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29">
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27">
         <f>SUM(E25:E30)</f>
         <v>337017.4</v>
       </c>
-      <c r="F31" s="29">
+      <c r="F31" s="27">
         <f>'исходные данные'!G4</f>
         <v>319384</v>
       </c>
-      <c r="G31" s="30">
+      <c r="G31" s="28">
         <f>E31-F31</f>
         <v>17633.400000000023</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="17" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2258,11 +2257,11 @@
         <f>'исходные данные'!C20</f>
         <v>32.700000000000003</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="29">
         <f>'исходные данные'!D20</f>
         <v>40.1</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="27">
         <f>'исходные данные'!H10</f>
         <v>2.1</v>
       </c>
@@ -2292,11 +2291,11 @@
         <f>'исходные данные'!C21</f>
         <v>28.7</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="29">
         <f>'исходные данные'!D21</f>
         <v>37</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="27">
         <f>'исходные данные'!H11</f>
         <v>3.4</v>
       </c>
@@ -2326,11 +2325,11 @@
         <f>'исходные данные'!C22</f>
         <v>23.7</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="29">
         <f>'исходные данные'!D22</f>
         <v>39.6</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="27">
         <f>'исходные данные'!H12</f>
         <v>3.4</v>
       </c>
@@ -2360,11 +2359,11 @@
         <f>'исходные данные'!C23</f>
         <v>34.4</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="29">
         <f>'исходные данные'!D23</f>
         <v>53.7</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="27">
         <f>'исходные данные'!H13</f>
         <v>2.9</v>
       </c>
@@ -2394,11 +2393,11 @@
         <f>'исходные данные'!C24</f>
         <v>21.3</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="29">
         <f>'исходные данные'!D24</f>
         <v>30</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="27">
         <f>'исходные данные'!H14</f>
         <v>1.9</v>
       </c>
@@ -2428,11 +2427,11 @@
         <f>'исходные данные'!C25</f>
         <v>22.2</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="29">
         <f>'исходные данные'!D25</f>
         <v>31.5</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="27">
         <f>'исходные данные'!H15</f>
         <v>3.2</v>
       </c>
@@ -2477,7 +2476,9 @@
       <c r="F45" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G45" s="16"/>
+      <c r="G45" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
@@ -2485,158 +2486,183 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="1">
+      <c r="F46" s="27">
         <f>'исходные данные'!H16</f>
         <v>74908</v>
       </c>
+      <c r="G46" s="27"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1</v>
       </c>
-      <c r="B47" s="17" t="str">
+      <c r="B47" s="16" t="str">
         <f>VLOOKUP(A47,$G$37:$H$42,2,FALSE)</f>
         <v>D</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="29">
         <f>VLOOKUP('прибыль проектов'!B47,'исходные данные'!$A$20:$B$25,2,FALSE)</f>
         <v>4142</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="27">
         <f>VLOOKUP(B47,$A$37:$D$42,4,FALSE)</f>
         <v>2.9</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47" s="27">
         <f t="shared" ref="E47:E50" si="17">IF(F46&gt;=C47*D47,C47*D47,F46)</f>
         <v>12011.8</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47" s="27">
         <f t="shared" ref="F47:F50" si="18">IF(F46&gt;=E47,F46-E47,0)</f>
         <v>62896.2</v>
+      </c>
+      <c r="G47" s="27">
+        <f>D56</f>
+        <v>4142</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>2</v>
       </c>
-      <c r="B48" s="17" t="str">
+      <c r="B48" s="16" t="str">
         <f t="shared" ref="B48:B52" si="19">VLOOKUP(A48,$G$37:$H$42,2,FALSE)</f>
         <v>C</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="29">
         <f>VLOOKUP('прибыль проектов'!B48,'исходные данные'!$A$20:$B$25,2,FALSE)</f>
         <v>8675</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="27">
         <f t="shared" ref="D48:D52" si="20">VLOOKUP(B48,$A$37:$D$42,4,FALSE)</f>
         <v>3.4</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" s="27">
         <f t="shared" si="17"/>
         <v>29495</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48" s="27">
         <f t="shared" si="18"/>
         <v>33401.199999999997</v>
+      </c>
+      <c r="G48" s="27">
+        <f t="shared" ref="G48:G52" si="21">D57</f>
+        <v>8675</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>3</v>
       </c>
-      <c r="B49" s="17" t="str">
+      <c r="B49" s="16" t="str">
         <f t="shared" si="19"/>
         <v>E</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="29">
         <f>VLOOKUP('прибыль проектов'!B49,'исходные данные'!$A$20:$B$25,2,FALSE)</f>
         <v>8599</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49" s="27">
         <f t="shared" si="20"/>
         <v>1.9</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49" s="27">
         <f t="shared" si="17"/>
         <v>16338.099999999999</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49" s="27">
         <f t="shared" si="18"/>
         <v>17063.099999999999</v>
+      </c>
+      <c r="G49" s="27">
+        <f t="shared" si="21"/>
+        <v>8599</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>4</v>
       </c>
-      <c r="B50" s="17" t="str">
+      <c r="B50" s="16" t="str">
         <f t="shared" si="19"/>
         <v>A</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="29">
         <f>VLOOKUP('прибыль проектов'!B50,'исходные данные'!$A$20:$B$25,2,FALSE)</f>
         <v>5513</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50" s="27">
         <f t="shared" si="20"/>
         <v>2.1</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50" s="27">
         <f t="shared" si="17"/>
         <v>11577.300000000001</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F50" s="27">
         <f t="shared" si="18"/>
         <v>5485.7999999999975</v>
+      </c>
+      <c r="G50" s="27">
+        <f t="shared" si="21"/>
+        <v>5513</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>5</v>
       </c>
-      <c r="B51" s="17" t="str">
+      <c r="B51" s="16" t="str">
         <f t="shared" si="19"/>
         <v>F</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="29">
         <f>VLOOKUP('прибыль проектов'!B51,'исходные данные'!$A$20:$B$25,2,FALSE)</f>
         <v>2375</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51" s="27">
         <f t="shared" si="20"/>
         <v>3.2</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51" s="27">
         <f>IF(F50&gt;=C51*D51,C51*D51,F50)</f>
         <v>5485.7999999999975</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51" s="27">
         <f>IF(F50&gt;=E51,F50-E51,0)</f>
         <v>0</v>
+      </c>
+      <c r="G51" s="27">
+        <f t="shared" si="21"/>
+        <v>1714</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>6</v>
       </c>
-      <c r="B52" s="17" t="str">
+      <c r="B52" s="16" t="str">
         <f t="shared" si="19"/>
         <v>B</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="29">
         <f>VLOOKUP('прибыль проектов'!B52,'исходные данные'!$A$20:$B$25,2,FALSE)</f>
         <v>6795</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52" s="27">
         <f t="shared" si="20"/>
         <v>3.4</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52" s="27">
         <f>IF(F51&gt;=C52*D52,C52*D52,F51)</f>
         <v>0</v>
       </c>
-      <c r="F52" s="1">
-        <f t="shared" ref="F52" si="21">IF(F51&gt;=E52,F51-E52,0)</f>
+      <c r="F52" s="27">
+        <f t="shared" ref="F52" si="22">IF(F51&gt;=E52,F51-E52,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G52" s="27">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -2656,7 +2682,7 @@
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>44</v>
@@ -2669,7 +2695,7 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="17" t="str">
+      <c r="A56" s="16" t="str">
         <f>B47</f>
         <v>D</v>
       </c>
@@ -2677,139 +2703,139 @@
         <f>B37</f>
         <v>32.700000000000003</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" s="29">
         <f>C37</f>
         <v>40.1</v>
       </c>
-      <c r="D56" s="1">
-        <f t="shared" ref="D56:D59" si="22">_xlfn.FLOOR.MATH(E47/D47)</f>
+      <c r="D56" s="27">
+        <f t="shared" ref="D56:D59" si="23">_xlfn.FLOOR.MATH(E47/D47)</f>
         <v>4142</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56" s="27">
         <f>(C56-B56)*D56</f>
         <v>30650.799999999996</v>
       </c>
-      <c r="F56" s="1"/>
+      <c r="F56" s="27"/>
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="17" t="str">
-        <f t="shared" ref="A57:A61" si="23">B48</f>
+      <c r="A57" s="16" t="str">
+        <f t="shared" ref="A57:A61" si="24">B48</f>
         <v>C</v>
       </c>
       <c r="B57" s="1">
-        <f t="shared" ref="B57:C57" si="24">B38</f>
+        <f t="shared" ref="B57:C57" si="25">B38</f>
         <v>28.7</v>
       </c>
-      <c r="C57" s="1">
+      <c r="C57" s="29">
+        <f t="shared" si="25"/>
+        <v>37</v>
+      </c>
+      <c r="D57" s="27">
+        <f t="shared" si="23"/>
+        <v>8675</v>
+      </c>
+      <c r="E57" s="27">
+        <f t="shared" ref="E57:E61" si="26">(C57-B57)*D57</f>
+        <v>72002.5</v>
+      </c>
+      <c r="F57" s="27"/>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="16" t="str">
         <f t="shared" si="24"/>
-        <v>37</v>
-      </c>
-      <c r="D57" s="1">
-        <f t="shared" si="22"/>
-        <v>8675</v>
-      </c>
-      <c r="E57" s="3">
-        <f t="shared" ref="E57:E61" si="25">(C57-B57)*D57</f>
-        <v>72002.5</v>
-      </c>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="17" t="str">
+        <v>E</v>
+      </c>
+      <c r="B58" s="1">
+        <f t="shared" ref="B58:C58" si="27">B39</f>
+        <v>23.7</v>
+      </c>
+      <c r="C58" s="29">
+        <f t="shared" si="27"/>
+        <v>39.6</v>
+      </c>
+      <c r="D58" s="27">
         <f t="shared" si="23"/>
-        <v>E</v>
-      </c>
-      <c r="B58" s="1">
-        <f t="shared" ref="B58:C58" si="26">B39</f>
-        <v>23.7</v>
-      </c>
-      <c r="C58" s="1">
+        <v>8599</v>
+      </c>
+      <c r="E58" s="27">
         <f t="shared" si="26"/>
-        <v>39.6</v>
-      </c>
-      <c r="D58" s="1">
-        <f t="shared" si="22"/>
-        <v>8599</v>
-      </c>
-      <c r="E58" s="3">
-        <f t="shared" si="25"/>
         <v>136724.1</v>
       </c>
-      <c r="F58" s="1"/>
+      <c r="F58" s="27"/>
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="17" t="str">
+      <c r="A59" s="16" t="str">
+        <f t="shared" si="24"/>
+        <v>A</v>
+      </c>
+      <c r="B59" s="1">
+        <f t="shared" ref="B59:C59" si="28">B40</f>
+        <v>34.4</v>
+      </c>
+      <c r="C59" s="29">
+        <f t="shared" si="28"/>
+        <v>53.7</v>
+      </c>
+      <c r="D59" s="27">
         <f t="shared" si="23"/>
-        <v>A</v>
-      </c>
-      <c r="B59" s="1">
-        <f t="shared" ref="B59:C59" si="27">B40</f>
-        <v>34.4</v>
-      </c>
-      <c r="C59" s="1">
-        <f t="shared" si="27"/>
-        <v>53.7</v>
-      </c>
-      <c r="D59" s="1">
-        <f t="shared" si="22"/>
         <v>5513</v>
       </c>
-      <c r="E59" s="3">
-        <f t="shared" si="25"/>
+      <c r="E59" s="27">
+        <f t="shared" si="26"/>
         <v>106400.90000000002</v>
       </c>
-      <c r="F59" s="1"/>
+      <c r="F59" s="27"/>
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="17" t="str">
-        <f t="shared" si="23"/>
+      <c r="A60" s="16" t="str">
+        <f t="shared" si="24"/>
         <v>F</v>
       </c>
       <c r="B60" s="1">
-        <f t="shared" ref="B60:C60" si="28">B41</f>
+        <f t="shared" ref="B60:C60" si="29">B41</f>
         <v>21.3</v>
       </c>
-      <c r="C60" s="1">
-        <f t="shared" si="28"/>
+      <c r="C60" s="29">
+        <f t="shared" si="29"/>
         <v>30</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60" s="27">
         <f>_xlfn.FLOOR.MATH(E51/D51)</f>
         <v>1714</v>
       </c>
-      <c r="E60" s="3">
-        <f t="shared" si="25"/>
+      <c r="E60" s="27">
+        <f t="shared" si="26"/>
         <v>14911.8</v>
       </c>
-      <c r="F60" s="1"/>
+      <c r="F60" s="27"/>
       <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="17" t="str">
-        <f t="shared" si="23"/>
+      <c r="A61" s="16" t="str">
+        <f t="shared" si="24"/>
         <v>B</v>
       </c>
       <c r="B61" s="1">
-        <f t="shared" ref="B61:C61" si="29">B42</f>
+        <f t="shared" ref="B61:C61" si="30">B42</f>
         <v>22.2</v>
       </c>
-      <c r="C61" s="1">
-        <f t="shared" si="29"/>
+      <c r="C61" s="29">
+        <f t="shared" si="30"/>
         <v>31.5</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61" s="27">
         <f>_xlfn.FLOOR.MATH(E52/D52)</f>
         <v>0</v>
       </c>
-      <c r="E61" s="3">
-        <f t="shared" si="25"/>
+      <c r="E61" s="27">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="F61" s="1"/>
+      <c r="F61" s="27"/>
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -2818,22 +2844,22 @@
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="3">
+      <c r="D62" s="27"/>
+      <c r="E62" s="27">
         <f>SUM(E56:E61)</f>
         <v>360690.10000000003</v>
       </c>
-      <c r="F62" s="1">
+      <c r="F62" s="27">
         <f>'исходные данные'!H4</f>
         <v>312970</v>
       </c>
-      <c r="G62" s="18">
+      <c r="G62" s="28">
         <f>E62-F62</f>
         <v>47720.100000000035</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="19" t="s">
+      <c r="A65" s="17" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2877,23 +2903,23 @@
         <f>'исходные данные'!A29</f>
         <v>A</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68" s="29">
         <f>'исходные данные'!C29</f>
         <v>25</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C68" s="29">
         <f>'исходные данные'!D29</f>
         <v>37.1</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D68" s="27">
         <f>'исходные данные'!I10</f>
         <v>1.7</v>
       </c>
-      <c r="E68" s="1">
+      <c r="E68" s="27">
         <f>C68-B68</f>
         <v>12.100000000000001</v>
       </c>
-      <c r="F68" s="3">
+      <c r="F68" s="27">
         <f>E68/D68</f>
         <v>7.1176470588235308</v>
       </c>
@@ -2902,7 +2928,7 @@
         <v>5</v>
       </c>
       <c r="H68" t="str">
-        <f t="shared" ref="H68:H73" si="30">A68</f>
+        <f t="shared" ref="H68:H73" si="31">A68</f>
         <v>A</v>
       </c>
     </row>
@@ -2911,32 +2937,32 @@
         <f>'исходные данные'!A30</f>
         <v>B</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69" s="29">
         <f>'исходные данные'!C30</f>
         <v>34.700000000000003</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C69" s="29">
         <f>'исходные данные'!D30</f>
         <v>53.9</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D69" s="27">
         <f>'исходные данные'!I11</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="E69" s="1">
-        <f t="shared" ref="E69:E73" si="31">C69-B69</f>
+      <c r="E69" s="27">
+        <f t="shared" ref="E69:E73" si="32">C69-B69</f>
         <v>19.199999999999996</v>
       </c>
-      <c r="F69" s="3">
-        <f t="shared" ref="F69:F73" si="32">E69/D69</f>
+      <c r="F69" s="27">
+        <f t="shared" ref="F69:F73" si="33">E69/D69</f>
         <v>8.7272727272727249</v>
       </c>
       <c r="G69" s="1">
-        <f t="shared" ref="G69:G73" si="33">_xlfn.RANK.EQ(F69,$F$68:$F$73)</f>
+        <f t="shared" ref="G69:G73" si="34">_xlfn.RANK.EQ(F69,$F$68:$F$73)</f>
         <v>2</v>
       </c>
       <c r="H69" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>B</v>
       </c>
     </row>
@@ -2945,32 +2971,32 @@
         <f>'исходные данные'!A31</f>
         <v>C</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70" s="29">
         <f>'исходные данные'!C31</f>
         <v>26.5</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C70" s="29">
         <f>'исходные данные'!D31</f>
         <v>32.700000000000003</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D70" s="27">
         <f>'исходные данные'!I12</f>
         <v>1.2</v>
       </c>
-      <c r="E70" s="1">
+      <c r="E70" s="27">
+        <f t="shared" si="32"/>
+        <v>6.2000000000000028</v>
+      </c>
+      <c r="F70" s="27">
+        <f t="shared" si="33"/>
+        <v>5.1666666666666696</v>
+      </c>
+      <c r="G70" s="1">
+        <f t="shared" si="34"/>
+        <v>6</v>
+      </c>
+      <c r="H70" t="str">
         <f t="shared" si="31"/>
-        <v>6.2000000000000028</v>
-      </c>
-      <c r="F70" s="3">
-        <f t="shared" si="32"/>
-        <v>5.1666666666666696</v>
-      </c>
-      <c r="G70" s="1">
-        <f t="shared" si="33"/>
-        <v>6</v>
-      </c>
-      <c r="H70" t="str">
-        <f t="shared" si="30"/>
         <v>C</v>
       </c>
     </row>
@@ -2979,32 +3005,32 @@
         <f>'исходные данные'!A32</f>
         <v>D</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71" s="29">
         <f>'исходные данные'!C32</f>
         <v>28.9</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C71" s="29">
         <f>'исходные данные'!D32</f>
         <v>39.700000000000003</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D71" s="27">
         <f>'исходные данные'!I13</f>
         <v>1.5</v>
       </c>
-      <c r="E71" s="1">
+      <c r="E71" s="27">
+        <f t="shared" si="32"/>
+        <v>10.800000000000004</v>
+      </c>
+      <c r="F71" s="27">
+        <f t="shared" si="33"/>
+        <v>7.2000000000000028</v>
+      </c>
+      <c r="G71" s="1">
+        <f t="shared" si="34"/>
+        <v>4</v>
+      </c>
+      <c r="H71" t="str">
         <f t="shared" si="31"/>
-        <v>10.800000000000004</v>
-      </c>
-      <c r="F71" s="3">
-        <f t="shared" si="32"/>
-        <v>7.2000000000000028</v>
-      </c>
-      <c r="G71" s="1">
-        <f t="shared" si="33"/>
-        <v>4</v>
-      </c>
-      <c r="H71" t="str">
-        <f t="shared" si="30"/>
         <v>D</v>
       </c>
     </row>
@@ -3013,32 +3039,32 @@
         <f>'исходные данные'!A33</f>
         <v>E</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="29">
         <f>'исходные данные'!C33</f>
         <v>22.8</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C72" s="29">
         <f>'исходные данные'!D33</f>
         <v>41.2</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D72" s="27">
         <f>'исходные данные'!I14</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="E72" s="1">
+      <c r="E72" s="27">
+        <f t="shared" si="32"/>
+        <v>18.400000000000002</v>
+      </c>
+      <c r="F72" s="27">
+        <f t="shared" si="33"/>
+        <v>16.727272727272727</v>
+      </c>
+      <c r="G72" s="1">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="H72" t="str">
         <f t="shared" si="31"/>
-        <v>18.400000000000002</v>
-      </c>
-      <c r="F72" s="3">
-        <f t="shared" si="32"/>
-        <v>16.727272727272727</v>
-      </c>
-      <c r="G72" s="1">
-        <f t="shared" si="33"/>
-        <v>1</v>
-      </c>
-      <c r="H72" t="str">
-        <f t="shared" si="30"/>
         <v>E</v>
       </c>
     </row>
@@ -3047,32 +3073,32 @@
         <f>'исходные данные'!A34</f>
         <v>F</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" s="29">
         <f>'исходные данные'!C34</f>
         <v>28.1</v>
       </c>
-      <c r="C73" s="2">
+      <c r="C73" s="29">
         <f>'исходные данные'!D34</f>
         <v>46.9</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D73" s="27">
         <f>'исходные данные'!I15</f>
         <v>2.5</v>
       </c>
-      <c r="E73" s="1">
+      <c r="E73" s="27">
+        <f t="shared" si="32"/>
+        <v>18.799999999999997</v>
+      </c>
+      <c r="F73" s="27">
+        <f t="shared" si="33"/>
+        <v>7.5199999999999987</v>
+      </c>
+      <c r="G73" s="1">
+        <f t="shared" si="34"/>
+        <v>3</v>
+      </c>
+      <c r="H73" t="str">
         <f t="shared" si="31"/>
-        <v>18.799999999999997</v>
-      </c>
-      <c r="F73" s="3">
-        <f t="shared" si="32"/>
-        <v>7.5199999999999987</v>
-      </c>
-      <c r="G73" s="1">
-        <f t="shared" si="33"/>
-        <v>3</v>
-      </c>
-      <c r="H73" t="str">
-        <f t="shared" si="30"/>
         <v>F</v>
       </c>
     </row>
@@ -3100,7 +3126,9 @@
       <c r="F76" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G76" s="16"/>
+      <c r="G76" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
@@ -3108,108 +3136,125 @@
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
-      <c r="F77" s="1">
+      <c r="F77" s="27">
         <f>'исходные данные'!I16</f>
         <v>38122</v>
       </c>
+      <c r="G77" s="27"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>1</v>
       </c>
-      <c r="B78" s="17" t="str">
+      <c r="B78" s="16" t="str">
         <f>VLOOKUP(A78,$G$68:$H$73,2,FALSE)</f>
         <v>E</v>
       </c>
-      <c r="C78" s="3">
+      <c r="C78" s="27">
         <f>VLOOKUP('прибыль проектов'!B78,'исходные данные'!$A$29:$B$34,2,FALSE)</f>
         <v>6723</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D78" s="27">
         <f>VLOOKUP(B78,$A$68:$D$73,4,FALSE)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="E78" s="1">
-        <f t="shared" ref="E78:E81" si="34">IF(F77&gt;=C78*D78,C78*D78,F77)</f>
+      <c r="E78" s="27">
+        <f t="shared" ref="E78:E81" si="35">IF(F77&gt;=C78*D78,C78*D78,F77)</f>
         <v>7395.3</v>
       </c>
-      <c r="F78" s="1">
-        <f t="shared" ref="F78:F81" si="35">IF(F77&gt;=E78,F77-E78,0)</f>
+      <c r="F78" s="27">
+        <f t="shared" ref="F78:F81" si="36">IF(F77&gt;=E78,F77-E78,0)</f>
         <v>30726.7</v>
+      </c>
+      <c r="G78" s="27">
+        <f>D87</f>
+        <v>6723</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>2</v>
       </c>
-      <c r="B79" s="17" t="str">
-        <f t="shared" ref="B79:B83" si="36">VLOOKUP(A79,$G$68:$H$73,2,FALSE)</f>
+      <c r="B79" s="16" t="str">
+        <f t="shared" ref="B79:B83" si="37">VLOOKUP(A79,$G$68:$H$73,2,FALSE)</f>
         <v>B</v>
       </c>
-      <c r="C79" s="3">
+      <c r="C79" s="27">
         <f>VLOOKUP('прибыль проектов'!B79,'исходные данные'!$A$29:$B$34,2,FALSE)</f>
         <v>8539</v>
       </c>
-      <c r="D79" s="1">
-        <f t="shared" ref="D79:D83" si="37">VLOOKUP(B79,$A$68:$D$73,4,FALSE)</f>
+      <c r="D79" s="27">
+        <f t="shared" ref="D79:D83" si="38">VLOOKUP(B79,$A$68:$D$73,4,FALSE)</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="E79" s="1">
-        <f t="shared" si="34"/>
+      <c r="E79" s="27">
+        <f t="shared" si="35"/>
         <v>18785.800000000003</v>
       </c>
-      <c r="F79" s="1">
-        <f t="shared" si="35"/>
+      <c r="F79" s="27">
+        <f t="shared" si="36"/>
         <v>11940.899999999998</v>
+      </c>
+      <c r="G79" s="27">
+        <f t="shared" ref="G79:G83" si="39">D88</f>
+        <v>8539</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>3</v>
       </c>
-      <c r="B80" s="17" t="str">
-        <f t="shared" si="36"/>
+      <c r="B80" s="16" t="str">
+        <f t="shared" si="37"/>
         <v>F</v>
       </c>
-      <c r="C80" s="3">
+      <c r="C80" s="27">
         <f>VLOOKUP('прибыль проектов'!B80,'исходные данные'!$A$29:$B$34,2,FALSE)</f>
         <v>8528</v>
       </c>
-      <c r="D80" s="1">
-        <f t="shared" si="37"/>
+      <c r="D80" s="27">
+        <f t="shared" si="38"/>
         <v>2.5</v>
       </c>
-      <c r="E80" s="1">
-        <f t="shared" si="34"/>
+      <c r="E80" s="27">
+        <f t="shared" si="35"/>
         <v>11940.899999999998</v>
       </c>
-      <c r="F80" s="1">
-        <f t="shared" si="35"/>
+      <c r="F80" s="27">
+        <f t="shared" si="36"/>
         <v>0</v>
+      </c>
+      <c r="G80" s="27">
+        <f t="shared" si="39"/>
+        <v>4776</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>4</v>
       </c>
-      <c r="B81" s="17" t="str">
-        <f t="shared" si="36"/>
+      <c r="B81" s="16" t="str">
+        <f t="shared" si="37"/>
         <v>D</v>
       </c>
-      <c r="C81" s="3">
+      <c r="C81" s="27">
         <f>VLOOKUP('прибыль проектов'!B81,'исходные данные'!$A$29:$B$34,2,FALSE)</f>
         <v>7534</v>
       </c>
-      <c r="D81" s="1">
-        <f t="shared" si="37"/>
+      <c r="D81" s="27">
+        <f t="shared" si="38"/>
         <v>1.5</v>
       </c>
-      <c r="E81" s="1">
-        <f t="shared" si="34"/>
+      <c r="E81" s="27">
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="F81" s="1">
-        <f t="shared" si="35"/>
+      <c r="F81" s="27">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="G81" s="27">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
@@ -3217,24 +3262,28 @@
       <c r="A82" s="1">
         <v>5</v>
       </c>
-      <c r="B82" s="17" t="str">
-        <f t="shared" si="36"/>
+      <c r="B82" s="16" t="str">
+        <f t="shared" si="37"/>
         <v>A</v>
       </c>
-      <c r="C82" s="3">
+      <c r="C82" s="27">
         <f>VLOOKUP('прибыль проектов'!B82,'исходные данные'!$A$29:$B$34,2,FALSE)</f>
         <v>6631</v>
       </c>
-      <c r="D82" s="1">
-        <f t="shared" si="37"/>
+      <c r="D82" s="27">
+        <f t="shared" si="38"/>
         <v>1.7</v>
       </c>
-      <c r="E82" s="1">
+      <c r="E82" s="27">
         <f>IF(F81&gt;=C82*D82,C82*D82,F81)</f>
         <v>0</v>
       </c>
-      <c r="F82" s="1">
+      <c r="F82" s="27">
         <f>IF(F81&gt;=E82,F81-E82,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G82" s="27">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
@@ -3242,24 +3291,28 @@
       <c r="A83" s="1">
         <v>6</v>
       </c>
-      <c r="B83" s="17" t="str">
-        <f t="shared" si="36"/>
+      <c r="B83" s="16" t="str">
+        <f t="shared" si="37"/>
         <v>C</v>
       </c>
-      <c r="C83" s="3">
+      <c r="C83" s="27">
         <f>VLOOKUP('прибыль проектов'!B83,'исходные данные'!$A$29:$B$34,2,FALSE)</f>
         <v>3841</v>
       </c>
-      <c r="D83" s="1">
-        <f t="shared" si="37"/>
+      <c r="D83" s="27">
+        <f t="shared" si="38"/>
         <v>1.2</v>
       </c>
-      <c r="E83" s="1">
+      <c r="E83" s="27">
         <f>IF(F82&gt;=C83*D83,C83*D83,F82)</f>
         <v>0</v>
       </c>
-      <c r="F83" s="1">
-        <f t="shared" ref="F83" si="38">IF(F82&gt;=E83,F82-E83,0)</f>
+      <c r="F83" s="27">
+        <f t="shared" ref="F83" si="40">IF(F82&gt;=E83,F82-E83,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G83" s="27">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
@@ -3292,171 +3345,171 @@
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="17" t="str">
+      <c r="A87" s="16" t="str">
         <f>B78</f>
         <v>E</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B87" s="27">
         <f>B68</f>
         <v>25</v>
       </c>
-      <c r="C87" s="1">
+      <c r="C87" s="27">
         <f>C68</f>
         <v>37.1</v>
       </c>
-      <c r="D87" s="1">
-        <f t="shared" ref="D87:D90" si="39">_xlfn.FLOOR.MATH(E78/D78)</f>
+      <c r="D87" s="27">
+        <f t="shared" ref="D87:D90" si="41">_xlfn.FLOOR.MATH(E78/D78)</f>
         <v>6723</v>
       </c>
-      <c r="E87" s="3">
+      <c r="E87" s="27">
         <f>(C87-B87)*D87</f>
         <v>81348.3</v>
       </c>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
+      <c r="F87" s="27"/>
+      <c r="G87" s="27"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="17" t="str">
-        <f t="shared" ref="A88:A92" si="40">B79</f>
+      <c r="A88" s="16" t="str">
+        <f t="shared" ref="A88:A92" si="42">B79</f>
         <v>B</v>
       </c>
-      <c r="B88" s="1">
-        <f t="shared" ref="B88:C88" si="41">B69</f>
+      <c r="B88" s="27">
+        <f t="shared" ref="B88:C88" si="43">B69</f>
         <v>34.700000000000003</v>
       </c>
-      <c r="C88" s="1">
+      <c r="C88" s="27">
+        <f t="shared" si="43"/>
+        <v>53.9</v>
+      </c>
+      <c r="D88" s="27">
         <f t="shared" si="41"/>
-        <v>53.9</v>
-      </c>
-      <c r="D88" s="1">
-        <f t="shared" si="39"/>
         <v>8539</v>
       </c>
-      <c r="E88" s="3">
-        <f t="shared" ref="E88:E92" si="42">(C88-B88)*D88</f>
+      <c r="E88" s="27">
+        <f t="shared" ref="E88:E92" si="44">(C88-B88)*D88</f>
         <v>163948.79999999996</v>
       </c>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
+      <c r="F88" s="27"/>
+      <c r="G88" s="27"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="17" t="str">
-        <f t="shared" si="40"/>
+      <c r="A89" s="16" t="str">
+        <f t="shared" si="42"/>
         <v>F</v>
       </c>
-      <c r="B89" s="1">
-        <f t="shared" ref="B89:C89" si="43">B70</f>
+      <c r="B89" s="27">
+        <f t="shared" ref="B89:C89" si="45">B70</f>
         <v>26.5</v>
       </c>
-      <c r="C89" s="1">
-        <f t="shared" si="43"/>
+      <c r="C89" s="27">
+        <f t="shared" si="45"/>
         <v>32.700000000000003</v>
       </c>
-      <c r="D89" s="1">
-        <f t="shared" si="39"/>
+      <c r="D89" s="27">
+        <f t="shared" si="41"/>
         <v>4776</v>
       </c>
-      <c r="E89" s="3">
+      <c r="E89" s="27">
+        <f t="shared" si="44"/>
+        <v>29611.200000000015</v>
+      </c>
+      <c r="F89" s="27"/>
+      <c r="G89" s="27"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="16" t="str">
         <f t="shared" si="42"/>
-        <v>29611.200000000015</v>
-      </c>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="17" t="str">
-        <f t="shared" si="40"/>
         <v>D</v>
       </c>
-      <c r="B90" s="1">
-        <f t="shared" ref="B90:C90" si="44">B71</f>
+      <c r="B90" s="27">
+        <f t="shared" ref="B90:C90" si="46">B71</f>
         <v>28.9</v>
       </c>
-      <c r="C90" s="1">
+      <c r="C90" s="27">
+        <f t="shared" si="46"/>
+        <v>39.700000000000003</v>
+      </c>
+      <c r="D90" s="27">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="E90" s="27">
         <f t="shared" si="44"/>
-        <v>39.700000000000003</v>
-      </c>
-      <c r="D90" s="1">
-        <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="E90" s="3">
+      <c r="F90" s="27"/>
+      <c r="G90" s="27"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="16" t="str">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="17" t="str">
-        <f t="shared" si="40"/>
         <v>A</v>
       </c>
-      <c r="B91" s="1">
-        <f t="shared" ref="B91:C91" si="45">B72</f>
+      <c r="B91" s="27">
+        <f t="shared" ref="B91:C91" si="47">B72</f>
         <v>22.8</v>
       </c>
-      <c r="C91" s="1">
-        <f t="shared" si="45"/>
+      <c r="C91" s="27">
+        <f t="shared" si="47"/>
         <v>41.2</v>
       </c>
-      <c r="D91" s="1">
+      <c r="D91" s="27">
         <f>_xlfn.FLOOR.MATH(E82/D82)</f>
         <v>0</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="27">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="F91" s="27"/>
+      <c r="G91" s="27"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="16" t="str">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="17" t="str">
-        <f t="shared" si="40"/>
         <v>C</v>
       </c>
-      <c r="B92" s="1">
-        <f t="shared" ref="B92:C92" si="46">B73</f>
+      <c r="B92" s="27">
+        <f t="shared" ref="B92:C92" si="48">B73</f>
         <v>28.1</v>
       </c>
-      <c r="C92" s="1">
-        <f t="shared" si="46"/>
+      <c r="C92" s="27">
+        <f t="shared" si="48"/>
         <v>46.9</v>
       </c>
-      <c r="D92" s="1">
+      <c r="D92" s="27">
         <f>_xlfn.FLOOR.MATH(E83/D83)</f>
         <v>0</v>
       </c>
-      <c r="E92" s="3">
-        <f t="shared" si="42"/>
+      <c r="E92" s="27">
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
+      <c r="F92" s="27"/>
+      <c r="G92" s="27"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="3">
+      <c r="B93" s="27"/>
+      <c r="C93" s="27"/>
+      <c r="D93" s="27"/>
+      <c r="E93" s="27">
         <f>SUM(E87:E92)</f>
         <v>274908.3</v>
       </c>
-      <c r="F93" s="1">
+      <c r="F93" s="27">
         <f>'исходные данные'!I4</f>
         <v>346866</v>
       </c>
-      <c r="G93" s="18">
+      <c r="G93" s="28">
         <f>E93-F93</f>
         <v>-71957.700000000012</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="19" t="s">
+      <c r="A96" s="17" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3500,23 +3553,23 @@
         <f>'исходные данные'!A38</f>
         <v>A</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99" s="29">
         <f>'исходные данные'!C38</f>
         <v>22</v>
       </c>
-      <c r="C99" s="2">
+      <c r="C99" s="29">
         <f>'исходные данные'!D38</f>
         <v>28.8</v>
       </c>
-      <c r="D99" s="1">
+      <c r="D99" s="27">
         <f>'исходные данные'!J10</f>
         <v>1.5</v>
       </c>
-      <c r="E99" s="1">
+      <c r="E99" s="27">
         <f>C99-B99</f>
         <v>6.8000000000000007</v>
       </c>
-      <c r="F99" s="3">
+      <c r="F99" s="27">
         <f>E99/D99</f>
         <v>4.5333333333333341</v>
       </c>
@@ -3525,7 +3578,7 @@
         <v>4</v>
       </c>
       <c r="H99" t="str">
-        <f t="shared" ref="H99:H104" si="47">A99</f>
+        <f t="shared" ref="H99:H104" si="49">A99</f>
         <v>A</v>
       </c>
     </row>
@@ -3534,32 +3587,32 @@
         <f>'исходные данные'!A39</f>
         <v>B</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100" s="29">
         <f>'исходные данные'!C39</f>
         <v>21</v>
       </c>
-      <c r="C100" s="2">
+      <c r="C100" s="29">
         <f>'исходные данные'!D39</f>
         <v>37.9</v>
       </c>
-      <c r="D100" s="1">
+      <c r="D100" s="27">
         <f>'исходные данные'!J11</f>
         <v>1.7</v>
       </c>
-      <c r="E100" s="1">
-        <f t="shared" ref="E100:E104" si="48">C100-B100</f>
+      <c r="E100" s="27">
+        <f t="shared" ref="E100:E104" si="50">C100-B100</f>
         <v>16.899999999999999</v>
       </c>
-      <c r="F100" s="3">
-        <f t="shared" ref="F100:F104" si="49">E100/D100</f>
+      <c r="F100" s="27">
+        <f t="shared" ref="F100:F104" si="51">E100/D100</f>
         <v>9.9411764705882355</v>
       </c>
       <c r="G100" s="1">
-        <f t="shared" ref="G100:G104" si="50">_xlfn.RANK.EQ(F100,$F$99:$F$104)</f>
+        <f t="shared" ref="G100:G104" si="52">_xlfn.RANK.EQ(F100,$F$99:$F$104)</f>
         <v>1</v>
       </c>
       <c r="H100" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>B</v>
       </c>
     </row>
@@ -3568,32 +3621,32 @@
         <f>'исходные данные'!A40</f>
         <v>C</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B101" s="29">
         <f>'исходные данные'!C40</f>
         <v>32.799999999999997</v>
       </c>
-      <c r="C101" s="2">
+      <c r="C101" s="29">
         <f>'исходные данные'!D40</f>
         <v>49.9</v>
       </c>
-      <c r="D101" s="1">
+      <c r="D101" s="27">
         <f>'исходные данные'!J12</f>
         <v>2.1</v>
       </c>
-      <c r="E101" s="1">
-        <f t="shared" si="48"/>
+      <c r="E101" s="27">
+        <f t="shared" si="50"/>
         <v>17.100000000000001</v>
       </c>
-      <c r="F101" s="3">
+      <c r="F101" s="27">
+        <f t="shared" si="51"/>
+        <v>8.1428571428571423</v>
+      </c>
+      <c r="G101" s="1">
+        <f t="shared" si="52"/>
+        <v>3</v>
+      </c>
+      <c r="H101" t="str">
         <f t="shared" si="49"/>
-        <v>8.1428571428571423</v>
-      </c>
-      <c r="G101" s="1">
-        <f t="shared" si="50"/>
-        <v>3</v>
-      </c>
-      <c r="H101" t="str">
-        <f t="shared" si="47"/>
         <v>C</v>
       </c>
     </row>
@@ -3602,32 +3655,32 @@
         <f>'исходные данные'!A41</f>
         <v>D</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B102" s="29">
         <f>'исходные данные'!C41</f>
         <v>33.799999999999997</v>
       </c>
-      <c r="C102" s="2">
+      <c r="C102" s="29">
         <f>'исходные данные'!D41</f>
         <v>50.9</v>
       </c>
-      <c r="D102" s="1">
+      <c r="D102" s="27">
         <f>'исходные данные'!J13</f>
         <v>1.9</v>
       </c>
-      <c r="E102" s="1">
-        <f t="shared" si="48"/>
+      <c r="E102" s="27">
+        <f t="shared" si="50"/>
         <v>17.100000000000001</v>
       </c>
-      <c r="F102" s="3">
+      <c r="F102" s="27">
+        <f t="shared" si="51"/>
+        <v>9.0000000000000018</v>
+      </c>
+      <c r="G102" s="1">
+        <f t="shared" si="52"/>
+        <v>2</v>
+      </c>
+      <c r="H102" t="str">
         <f t="shared" si="49"/>
-        <v>9.0000000000000018</v>
-      </c>
-      <c r="G102" s="1">
-        <f t="shared" si="50"/>
-        <v>2</v>
-      </c>
-      <c r="H102" t="str">
-        <f t="shared" si="47"/>
         <v>D</v>
       </c>
     </row>
@@ -3636,32 +3689,32 @@
         <f>'исходные данные'!A42</f>
         <v>E</v>
       </c>
-      <c r="B103" s="2">
+      <c r="B103" s="29">
         <f>'исходные данные'!C42</f>
         <v>33.6</v>
       </c>
-      <c r="C103" s="2">
+      <c r="C103" s="29">
         <f>'исходные данные'!D42</f>
         <v>47.8</v>
       </c>
-      <c r="D103" s="1">
+      <c r="D103" s="27">
         <f>'исходные данные'!J14</f>
         <v>3.2</v>
       </c>
-      <c r="E103" s="1">
-        <f t="shared" si="48"/>
+      <c r="E103" s="27">
+        <f t="shared" si="50"/>
         <v>14.199999999999996</v>
       </c>
-      <c r="F103" s="3">
+      <c r="F103" s="27">
+        <f t="shared" si="51"/>
+        <v>4.4374999999999982</v>
+      </c>
+      <c r="G103" s="1">
+        <f t="shared" si="52"/>
+        <v>5</v>
+      </c>
+      <c r="H103" t="str">
         <f t="shared" si="49"/>
-        <v>4.4374999999999982</v>
-      </c>
-      <c r="G103" s="1">
-        <f t="shared" si="50"/>
-        <v>5</v>
-      </c>
-      <c r="H103" t="str">
-        <f t="shared" si="47"/>
         <v>E</v>
       </c>
     </row>
@@ -3670,32 +3723,32 @@
         <f>'исходные данные'!A43</f>
         <v>F</v>
       </c>
-      <c r="B104" s="2">
+      <c r="B104" s="29">
         <f>'исходные данные'!C43</f>
         <v>24.9</v>
       </c>
-      <c r="C104" s="2">
+      <c r="C104" s="29">
         <f>'исходные данные'!D43</f>
         <v>31.9</v>
       </c>
-      <c r="D104" s="1">
+      <c r="D104" s="27">
         <f>'исходные данные'!J15</f>
         <v>2.7</v>
       </c>
-      <c r="E104" s="1">
-        <f t="shared" si="48"/>
+      <c r="E104" s="27">
+        <f t="shared" si="50"/>
         <v>7</v>
       </c>
-      <c r="F104" s="3">
+      <c r="F104" s="27">
+        <f t="shared" si="51"/>
+        <v>2.5925925925925926</v>
+      </c>
+      <c r="G104" s="1">
+        <f t="shared" si="52"/>
+        <v>6</v>
+      </c>
+      <c r="H104" t="str">
         <f t="shared" si="49"/>
-        <v>2.5925925925925926</v>
-      </c>
-      <c r="G104" s="1">
-        <f t="shared" si="50"/>
-        <v>6</v>
-      </c>
-      <c r="H104" t="str">
-        <f t="shared" si="47"/>
         <v>F</v>
       </c>
     </row>
@@ -3723,166 +3776,193 @@
       <c r="F107" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G107" s="16"/>
+      <c r="G107" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1">
+      <c r="C108" s="27"/>
+      <c r="D108" s="27"/>
+      <c r="E108" s="27"/>
+      <c r="F108" s="27">
         <f>'исходные данные'!J16</f>
         <v>46451</v>
       </c>
+      <c r="G108" s="27"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>1</v>
       </c>
-      <c r="B109" s="17" t="str">
+      <c r="B109" s="16" t="str">
         <f>VLOOKUP(A109,$G$99:$H$104,2,FALSE)</f>
         <v>B</v>
       </c>
-      <c r="C109" s="3">
+      <c r="C109" s="27">
         <f>VLOOKUP('прибыль проектов'!B109,'исходные данные'!$A$38:$B$43,2,FALSE)</f>
         <v>4889</v>
       </c>
-      <c r="D109" s="1">
+      <c r="D109" s="27">
         <f>VLOOKUP(B109,$A$99:$D$104,4,FALSE)</f>
         <v>1.7</v>
       </c>
-      <c r="E109" s="1">
-        <f t="shared" ref="E109:E112" si="51">IF(F108&gt;=C109*D109,C109*D109,F108)</f>
+      <c r="E109" s="27">
+        <f t="shared" ref="E109:E112" si="53">IF(F108&gt;=C109*D109,C109*D109,F108)</f>
         <v>8311.2999999999993</v>
       </c>
-      <c r="F109" s="1">
-        <f t="shared" ref="F109:F112" si="52">IF(F108&gt;=E109,F108-E109,0)</f>
+      <c r="F109" s="27">
+        <f t="shared" ref="F109:F112" si="54">IF(F108&gt;=E109,F108-E109,0)</f>
         <v>38139.699999999997</v>
+      </c>
+      <c r="G109" s="27">
+        <f>D118</f>
+        <v>4889</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>2</v>
       </c>
-      <c r="B110" s="17" t="str">
-        <f t="shared" ref="B110:B114" si="53">VLOOKUP(A110,$G$99:$H$104,2,FALSE)</f>
+      <c r="B110" s="16" t="str">
+        <f t="shared" ref="B110:B114" si="55">VLOOKUP(A110,$G$99:$H$104,2,FALSE)</f>
         <v>D</v>
       </c>
-      <c r="C110" s="3">
+      <c r="C110" s="27">
         <f>VLOOKUP('прибыль проектов'!B110,'исходные данные'!$A$38:$B$43,2,FALSE)</f>
         <v>2012</v>
       </c>
-      <c r="D110" s="1">
-        <f t="shared" ref="D110:D114" si="54">VLOOKUP(B110,$A$99:$D$104,4,FALSE)</f>
+      <c r="D110" s="27">
+        <f t="shared" ref="D110:D114" si="56">VLOOKUP(B110,$A$99:$D$104,4,FALSE)</f>
         <v>1.9</v>
       </c>
-      <c r="E110" s="1">
-        <f t="shared" si="51"/>
+      <c r="E110" s="27">
+        <f t="shared" si="53"/>
         <v>3822.7999999999997</v>
       </c>
-      <c r="F110" s="1">
-        <f t="shared" si="52"/>
+      <c r="F110" s="27">
+        <f t="shared" si="54"/>
         <v>34316.899999999994</v>
+      </c>
+      <c r="G110" s="27">
+        <f t="shared" ref="G110:G114" si="57">D119</f>
+        <v>2012</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>3</v>
       </c>
-      <c r="B111" s="17" t="str">
-        <f t="shared" si="53"/>
+      <c r="B111" s="16" t="str">
+        <f t="shared" si="55"/>
         <v>C</v>
       </c>
-      <c r="C111" s="3">
+      <c r="C111" s="27">
         <f>VLOOKUP('прибыль проектов'!B111,'исходные данные'!$A$38:$B$43,2,FALSE)</f>
         <v>7365</v>
       </c>
-      <c r="D111" s="1">
+      <c r="D111" s="27">
+        <f t="shared" si="56"/>
+        <v>2.1</v>
+      </c>
+      <c r="E111" s="27">
+        <f t="shared" si="53"/>
+        <v>15466.5</v>
+      </c>
+      <c r="F111" s="27">
         <f t="shared" si="54"/>
-        <v>2.1</v>
-      </c>
-      <c r="E111" s="1">
-        <f t="shared" si="51"/>
-        <v>15466.5</v>
-      </c>
-      <c r="F111" s="1">
-        <f t="shared" si="52"/>
         <v>18850.399999999994</v>
+      </c>
+      <c r="G111" s="27">
+        <f t="shared" si="57"/>
+        <v>7365</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>4</v>
       </c>
-      <c r="B112" s="17" t="str">
-        <f t="shared" si="53"/>
+      <c r="B112" s="16" t="str">
+        <f t="shared" si="55"/>
         <v>A</v>
       </c>
-      <c r="C112" s="3">
+      <c r="C112" s="27">
         <f>VLOOKUP('прибыль проектов'!B112,'исходные данные'!$A$38:$B$43,2,FALSE)</f>
         <v>6603</v>
       </c>
-      <c r="D112" s="1">
+      <c r="D112" s="27">
+        <f t="shared" si="56"/>
+        <v>1.5</v>
+      </c>
+      <c r="E112" s="27">
+        <f t="shared" si="53"/>
+        <v>9904.5</v>
+      </c>
+      <c r="F112" s="27">
         <f t="shared" si="54"/>
-        <v>1.5</v>
-      </c>
-      <c r="E112" s="1">
-        <f t="shared" si="51"/>
-        <v>9904.5</v>
-      </c>
-      <c r="F112" s="1">
-        <f t="shared" si="52"/>
         <v>8945.8999999999942</v>
+      </c>
+      <c r="G112" s="27">
+        <f t="shared" si="57"/>
+        <v>6603</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>5</v>
       </c>
-      <c r="B113" s="17" t="str">
-        <f t="shared" si="53"/>
+      <c r="B113" s="16" t="str">
+        <f t="shared" si="55"/>
         <v>E</v>
       </c>
-      <c r="C113" s="3">
+      <c r="C113" s="27">
         <f>VLOOKUP('прибыль проектов'!B113,'исходные данные'!$A$38:$B$43,2,FALSE)</f>
         <v>7387</v>
       </c>
-      <c r="D113" s="1">
-        <f t="shared" si="54"/>
+      <c r="D113" s="27">
+        <f t="shared" si="56"/>
         <v>3.2</v>
       </c>
-      <c r="E113" s="1">
+      <c r="E113" s="27">
         <f>IF(F112&gt;=C113*D113,C113*D113,F112)</f>
         <v>8945.8999999999942</v>
       </c>
-      <c r="F113" s="1">
+      <c r="F113" s="27">
         <f>IF(F112&gt;=E113,F112-E113,0)</f>
         <v>0</v>
+      </c>
+      <c r="G113" s="27">
+        <f t="shared" si="57"/>
+        <v>2795</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>6</v>
       </c>
-      <c r="B114" s="17" t="str">
-        <f t="shared" si="53"/>
+      <c r="B114" s="16" t="str">
+        <f t="shared" si="55"/>
         <v>F</v>
       </c>
-      <c r="C114" s="3">
+      <c r="C114" s="27">
         <f>VLOOKUP('прибыль проектов'!B114,'исходные данные'!$A$38:$B$43,2,FALSE)</f>
         <v>7181</v>
       </c>
-      <c r="D114" s="1">
-        <f t="shared" si="54"/>
+      <c r="D114" s="27">
+        <f t="shared" si="56"/>
         <v>2.7</v>
       </c>
-      <c r="E114" s="1">
+      <c r="E114" s="27">
         <f>IF(F113&gt;=C114*D114,C114*D114,F113)</f>
         <v>0</v>
       </c>
-      <c r="F114" s="1">
-        <f t="shared" ref="F114" si="55">IF(F113&gt;=E114,F113-E114,0)</f>
+      <c r="F114" s="27">
+        <f t="shared" ref="F114" si="58">IF(F113&gt;=E114,F113-E114,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G114" s="27">
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
     </row>
@@ -3915,171 +3995,171 @@
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="17" t="str">
+      <c r="A118" s="16" t="str">
         <f>B109</f>
         <v>B</v>
       </c>
-      <c r="B118" s="1">
+      <c r="B118" s="27">
         <f>B99</f>
         <v>22</v>
       </c>
-      <c r="C118" s="1">
+      <c r="C118" s="27">
         <f>C99</f>
         <v>28.8</v>
       </c>
-      <c r="D118" s="1">
-        <f t="shared" ref="D118:D121" si="56">_xlfn.FLOOR.MATH(E109/D109)</f>
+      <c r="D118" s="27">
+        <f t="shared" ref="D118:D121" si="59">_xlfn.FLOOR.MATH(E109/D109)</f>
         <v>4889</v>
       </c>
-      <c r="E118" s="3">
+      <c r="E118" s="27">
         <f>(C118-B118)*D118</f>
         <v>33245.200000000004</v>
       </c>
-      <c r="F118" s="1"/>
-      <c r="G118" s="1"/>
+      <c r="F118" s="27"/>
+      <c r="G118" s="27"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="17" t="str">
-        <f t="shared" ref="A119:A123" si="57">B110</f>
+      <c r="A119" s="16" t="str">
+        <f t="shared" ref="A119:A123" si="60">B110</f>
         <v>D</v>
       </c>
-      <c r="B119" s="1">
-        <f t="shared" ref="B119:C119" si="58">B100</f>
+      <c r="B119" s="27">
+        <f t="shared" ref="B119:C119" si="61">B100</f>
         <v>21</v>
       </c>
-      <c r="C119" s="1">
-        <f t="shared" si="58"/>
+      <c r="C119" s="27">
+        <f t="shared" si="61"/>
         <v>37.9</v>
       </c>
-      <c r="D119" s="1">
-        <f t="shared" si="56"/>
+      <c r="D119" s="27">
+        <f t="shared" si="59"/>
         <v>2012</v>
       </c>
-      <c r="E119" s="3">
-        <f t="shared" ref="E119:E123" si="59">(C119-B119)*D119</f>
+      <c r="E119" s="27">
+        <f t="shared" ref="E119:E123" si="62">(C119-B119)*D119</f>
         <v>34002.799999999996</v>
       </c>
-      <c r="F119" s="1"/>
-      <c r="G119" s="1"/>
+      <c r="F119" s="27"/>
+      <c r="G119" s="27"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="17" t="str">
-        <f t="shared" si="57"/>
+      <c r="A120" s="16" t="str">
+        <f t="shared" si="60"/>
         <v>C</v>
       </c>
-      <c r="B120" s="1">
-        <f t="shared" ref="B120:C120" si="60">B101</f>
+      <c r="B120" s="27">
+        <f t="shared" ref="B120:C120" si="63">B101</f>
         <v>32.799999999999997</v>
       </c>
-      <c r="C120" s="1">
+      <c r="C120" s="27">
+        <f t="shared" si="63"/>
+        <v>49.9</v>
+      </c>
+      <c r="D120" s="27">
+        <f t="shared" si="59"/>
+        <v>7365</v>
+      </c>
+      <c r="E120" s="27">
+        <f t="shared" si="62"/>
+        <v>125941.50000000001</v>
+      </c>
+      <c r="F120" s="27"/>
+      <c r="G120" s="27"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="16" t="str">
         <f t="shared" si="60"/>
-        <v>49.9</v>
-      </c>
-      <c r="D120" s="1">
-        <f t="shared" si="56"/>
-        <v>7365</v>
-      </c>
-      <c r="E120" s="3">
+        <v>A</v>
+      </c>
+      <c r="B121" s="27">
+        <f t="shared" ref="B121:C121" si="64">B102</f>
+        <v>33.799999999999997</v>
+      </c>
+      <c r="C121" s="27">
+        <f t="shared" si="64"/>
+        <v>50.9</v>
+      </c>
+      <c r="D121" s="27">
         <f t="shared" si="59"/>
-        <v>125941.50000000001</v>
-      </c>
-      <c r="F120" s="1"/>
-      <c r="G120" s="1"/>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="17" t="str">
-        <f t="shared" si="57"/>
-        <v>A</v>
-      </c>
-      <c r="B121" s="1">
-        <f t="shared" ref="B121:C121" si="61">B102</f>
-        <v>33.799999999999997</v>
-      </c>
-      <c r="C121" s="1">
-        <f t="shared" si="61"/>
-        <v>50.9</v>
-      </c>
-      <c r="D121" s="1">
-        <f t="shared" si="56"/>
         <v>6603</v>
       </c>
-      <c r="E121" s="3">
-        <f t="shared" si="59"/>
+      <c r="E121" s="27">
+        <f t="shared" si="62"/>
         <v>112911.3</v>
       </c>
-      <c r="F121" s="1"/>
-      <c r="G121" s="1"/>
+      <c r="F121" s="27"/>
+      <c r="G121" s="27"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="17" t="str">
-        <f t="shared" si="57"/>
+      <c r="A122" s="16" t="str">
+        <f t="shared" si="60"/>
         <v>E</v>
       </c>
-      <c r="B122" s="1">
-        <f t="shared" ref="B122:C122" si="62">B103</f>
+      <c r="B122" s="27">
+        <f t="shared" ref="B122:C122" si="65">B103</f>
         <v>33.6</v>
       </c>
-      <c r="C122" s="1">
-        <f t="shared" si="62"/>
+      <c r="C122" s="27">
+        <f t="shared" si="65"/>
         <v>47.8</v>
       </c>
-      <c r="D122" s="1">
+      <c r="D122" s="27">
         <f>_xlfn.FLOOR.MATH(E113/D113)</f>
         <v>2795</v>
       </c>
-      <c r="E122" s="3">
-        <f t="shared" si="59"/>
+      <c r="E122" s="27">
+        <f t="shared" si="62"/>
         <v>39688.999999999985</v>
       </c>
-      <c r="F122" s="1"/>
-      <c r="G122" s="1"/>
+      <c r="F122" s="27"/>
+      <c r="G122" s="27"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="17" t="str">
-        <f t="shared" si="57"/>
+      <c r="A123" s="16" t="str">
+        <f t="shared" si="60"/>
         <v>F</v>
       </c>
-      <c r="B123" s="1">
-        <f t="shared" ref="B123:C123" si="63">B104</f>
+      <c r="B123" s="27">
+        <f t="shared" ref="B123:C123" si="66">B104</f>
         <v>24.9</v>
       </c>
-      <c r="C123" s="1">
-        <f t="shared" si="63"/>
+      <c r="C123" s="27">
+        <f t="shared" si="66"/>
         <v>31.9</v>
       </c>
-      <c r="D123" s="1">
+      <c r="D123" s="27">
         <f>_xlfn.FLOOR.MATH(E114/D114)</f>
         <v>0</v>
       </c>
-      <c r="E123" s="3">
-        <f t="shared" si="59"/>
+      <c r="E123" s="27">
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="F123" s="1"/>
-      <c r="G123" s="1"/>
+      <c r="F123" s="27"/>
+      <c r="G123" s="27"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="3">
+      <c r="B124" s="27"/>
+      <c r="C124" s="27"/>
+      <c r="D124" s="27"/>
+      <c r="E124" s="27">
         <f>SUM(E118:E123)</f>
         <v>345789.8</v>
       </c>
-      <c r="F124" s="1">
+      <c r="F124" s="27">
         <f>'исходные данные'!J4</f>
         <v>297144</v>
       </c>
-      <c r="G124" s="18">
+      <c r="G124" s="28">
         <f>E124-F124</f>
         <v>48645.799999999988</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="19" t="s">
+      <c r="A127" s="17" t="s">
         <v>54</v>
       </c>
     </row>
@@ -4123,32 +4203,32 @@
         <f>'исходные данные'!A47</f>
         <v>A</v>
       </c>
-      <c r="B130" s="2">
+      <c r="B130" s="29">
         <f>'исходные данные'!C47</f>
         <v>23.7</v>
       </c>
-      <c r="C130" s="2">
+      <c r="C130" s="29">
         <f>'исходные данные'!D47</f>
         <v>31.8</v>
       </c>
-      <c r="D130" s="1">
+      <c r="D130" s="27">
         <f>'исходные данные'!K10</f>
         <v>1.4</v>
       </c>
-      <c r="E130" s="1">
+      <c r="E130" s="27">
         <f>C130-B130</f>
         <v>8.1000000000000014</v>
       </c>
-      <c r="F130" s="3">
+      <c r="F130" s="27">
         <f>E130/D130</f>
         <v>5.7857142857142874</v>
       </c>
-      <c r="G130" s="1">
+      <c r="G130" s="27">
         <f>_xlfn.RANK.EQ(F130,$F$130:$F$135)</f>
         <v>6</v>
       </c>
       <c r="H130" t="str">
-        <f t="shared" ref="H130:H135" si="64">A130</f>
+        <f t="shared" ref="H130:H135" si="67">A130</f>
         <v>A</v>
       </c>
     </row>
@@ -4157,32 +4237,32 @@
         <f>'исходные данные'!A48</f>
         <v>B</v>
       </c>
-      <c r="B131" s="2">
+      <c r="B131" s="29">
         <f>'исходные данные'!C48</f>
         <v>26.6</v>
       </c>
-      <c r="C131" s="2">
+      <c r="C131" s="29">
         <f>'исходные данные'!D48</f>
         <v>45.2</v>
       </c>
-      <c r="D131" s="1">
+      <c r="D131" s="27">
         <f>'исходные данные'!K11</f>
         <v>1.3</v>
       </c>
-      <c r="E131" s="1">
-        <f t="shared" ref="E131:E135" si="65">C131-B131</f>
+      <c r="E131" s="27">
+        <f t="shared" ref="E131:E135" si="68">C131-B131</f>
         <v>18.600000000000001</v>
       </c>
-      <c r="F131" s="3">
-        <f t="shared" ref="F131:F135" si="66">E131/D131</f>
+      <c r="F131" s="27">
+        <f t="shared" ref="F131:F135" si="69">E131/D131</f>
         <v>14.307692307692308</v>
       </c>
-      <c r="G131" s="1">
-        <f t="shared" ref="G131:G135" si="67">_xlfn.RANK.EQ(F131,$F$130:$F$135)</f>
+      <c r="G131" s="27">
+        <f t="shared" ref="G131:G135" si="70">_xlfn.RANK.EQ(F131,$F$130:$F$135)</f>
         <v>2</v>
       </c>
       <c r="H131" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>B</v>
       </c>
     </row>
@@ -4191,32 +4271,32 @@
         <f>'исходные данные'!A49</f>
         <v>C</v>
       </c>
-      <c r="B132" s="2">
+      <c r="B132" s="29">
         <f>'исходные данные'!C49</f>
         <v>24.9</v>
       </c>
-      <c r="C132" s="2">
+      <c r="C132" s="29">
         <f>'исходные данные'!D49</f>
         <v>31.8</v>
       </c>
-      <c r="D132" s="1">
+      <c r="D132" s="27">
         <f>'исходные данные'!K12</f>
         <v>1</v>
       </c>
-      <c r="E132" s="1">
-        <f t="shared" si="65"/>
+      <c r="E132" s="27">
+        <f t="shared" si="68"/>
         <v>6.9000000000000021</v>
       </c>
-      <c r="F132" s="3">
-        <f t="shared" si="66"/>
+      <c r="F132" s="27">
+        <f t="shared" si="69"/>
         <v>6.9000000000000021</v>
       </c>
-      <c r="G132" s="1">
+      <c r="G132" s="27">
+        <f t="shared" si="70"/>
+        <v>4</v>
+      </c>
+      <c r="H132" t="str">
         <f t="shared" si="67"/>
-        <v>4</v>
-      </c>
-      <c r="H132" t="str">
-        <f t="shared" si="64"/>
         <v>C</v>
       </c>
     </row>
@@ -4225,32 +4305,32 @@
         <f>'исходные данные'!A50</f>
         <v>D</v>
       </c>
-      <c r="B133" s="2">
+      <c r="B133" s="29">
         <f>'исходные данные'!C50</f>
         <v>32.9</v>
       </c>
-      <c r="C133" s="2">
+      <c r="C133" s="29">
         <f>'исходные данные'!D50</f>
         <v>50.9</v>
       </c>
-      <c r="D133" s="1">
+      <c r="D133" s="27">
         <f>'исходные данные'!K13</f>
         <v>0.9</v>
       </c>
-      <c r="E133" s="1">
-        <f t="shared" si="65"/>
+      <c r="E133" s="27">
+        <f t="shared" si="68"/>
         <v>18</v>
       </c>
-      <c r="F133" s="3">
-        <f t="shared" si="66"/>
+      <c r="F133" s="27">
+        <f t="shared" si="69"/>
         <v>20</v>
       </c>
-      <c r="G133" s="1">
+      <c r="G133" s="27">
+        <f t="shared" si="70"/>
+        <v>1</v>
+      </c>
+      <c r="H133" t="str">
         <f t="shared" si="67"/>
-        <v>1</v>
-      </c>
-      <c r="H133" t="str">
-        <f t="shared" si="64"/>
         <v>D</v>
       </c>
     </row>
@@ -4259,32 +4339,32 @@
         <f>'исходные данные'!A51</f>
         <v>E</v>
       </c>
-      <c r="B134" s="2">
+      <c r="B134" s="29">
         <f>'исходные данные'!C51</f>
         <v>24.9</v>
       </c>
-      <c r="C134" s="2">
+      <c r="C134" s="29">
         <f>'исходные данные'!D51</f>
         <v>40.200000000000003</v>
       </c>
-      <c r="D134" s="1">
+      <c r="D134" s="27">
         <f>'исходные данные'!K14</f>
         <v>2.4</v>
       </c>
-      <c r="E134" s="1">
-        <f t="shared" si="65"/>
+      <c r="E134" s="27">
+        <f t="shared" si="68"/>
         <v>15.300000000000004</v>
       </c>
-      <c r="F134" s="3">
-        <f t="shared" si="66"/>
+      <c r="F134" s="27">
+        <f t="shared" si="69"/>
         <v>6.3750000000000018</v>
       </c>
-      <c r="G134" s="1">
+      <c r="G134" s="27">
+        <f t="shared" si="70"/>
+        <v>5</v>
+      </c>
+      <c r="H134" t="str">
         <f t="shared" si="67"/>
-        <v>5</v>
-      </c>
-      <c r="H134" t="str">
-        <f t="shared" si="64"/>
         <v>E</v>
       </c>
     </row>
@@ -4293,32 +4373,32 @@
         <f>'исходные данные'!A52</f>
         <v>F</v>
       </c>
-      <c r="B135" s="2">
+      <c r="B135" s="29">
         <f>'исходные данные'!C52</f>
         <v>23.1</v>
       </c>
-      <c r="C135" s="2">
+      <c r="C135" s="29">
         <f>'исходные данные'!D52</f>
         <v>40.9</v>
       </c>
-      <c r="D135" s="1">
+      <c r="D135" s="27">
         <f>'исходные данные'!K15</f>
         <v>1.9</v>
       </c>
-      <c r="E135" s="1">
-        <f t="shared" si="65"/>
+      <c r="E135" s="27">
+        <f t="shared" si="68"/>
         <v>17.799999999999997</v>
       </c>
-      <c r="F135" s="3">
-        <f t="shared" si="66"/>
+      <c r="F135" s="27">
+        <f t="shared" si="69"/>
         <v>9.3684210526315788</v>
       </c>
-      <c r="G135" s="1">
+      <c r="G135" s="27">
+        <f t="shared" si="70"/>
+        <v>3</v>
+      </c>
+      <c r="H135" t="str">
         <f t="shared" si="67"/>
-        <v>3</v>
-      </c>
-      <c r="H135" t="str">
-        <f t="shared" si="64"/>
         <v>F</v>
       </c>
     </row>
@@ -4346,166 +4426,193 @@
       <c r="F138" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G138" s="16"/>
+      <c r="G138" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
-      <c r="E139" s="1"/>
-      <c r="F139" s="1">
+      <c r="C139" s="27"/>
+      <c r="D139" s="27"/>
+      <c r="E139" s="27"/>
+      <c r="F139" s="27">
         <f>'исходные данные'!K16</f>
         <v>31198</v>
       </c>
+      <c r="G139" s="27"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>1</v>
       </c>
-      <c r="B140" s="17" t="str">
+      <c r="B140" s="16" t="str">
         <f>VLOOKUP(A140,$G$130:$H$135,2,FALSE)</f>
         <v>D</v>
       </c>
-      <c r="C140" s="3">
+      <c r="C140" s="27">
         <f>VLOOKUP('прибыль проектов'!B140,'исходные данные'!$A$47:$B$52,2,FALSE)</f>
         <v>3167</v>
       </c>
-      <c r="D140" s="1">
+      <c r="D140" s="27">
         <f>VLOOKUP(B140,$A$130:$D$135,4,FALSE)</f>
         <v>0.9</v>
       </c>
-      <c r="E140" s="1">
-        <f t="shared" ref="E140:E143" si="68">IF(F139&gt;=C140*D140,C140*D140,F139)</f>
+      <c r="E140" s="27">
+        <f t="shared" ref="E140:E143" si="71">IF(F139&gt;=C140*D140,C140*D140,F139)</f>
         <v>2850.3</v>
       </c>
-      <c r="F140" s="1">
-        <f t="shared" ref="F140:F143" si="69">IF(F139&gt;=E140,F139-E140,0)</f>
+      <c r="F140" s="27">
+        <f t="shared" ref="F140:F143" si="72">IF(F139&gt;=E140,F139-E140,0)</f>
         <v>28347.7</v>
+      </c>
+      <c r="G140" s="27">
+        <f>D149</f>
+        <v>3167</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>2</v>
       </c>
-      <c r="B141" s="17" t="str">
-        <f t="shared" ref="B141:B145" si="70">VLOOKUP(A141,$G$130:$H$135,2,FALSE)</f>
+      <c r="B141" s="16" t="str">
+        <f t="shared" ref="B141:B145" si="73">VLOOKUP(A141,$G$130:$H$135,2,FALSE)</f>
         <v>B</v>
       </c>
-      <c r="C141" s="3">
+      <c r="C141" s="27">
         <f>VLOOKUP('прибыль проектов'!B141,'исходные данные'!$A$47:$B$52,2,FALSE)</f>
         <v>7364</v>
       </c>
-      <c r="D141" s="1">
-        <f t="shared" ref="D141:D145" si="71">VLOOKUP(B141,$A$130:$D$135,4,FALSE)</f>
+      <c r="D141" s="27">
+        <f t="shared" ref="D141:D145" si="74">VLOOKUP(B141,$A$130:$D$135,4,FALSE)</f>
         <v>1.3</v>
       </c>
-      <c r="E141" s="1">
-        <f t="shared" si="68"/>
+      <c r="E141" s="27">
+        <f t="shared" si="71"/>
         <v>9573.2000000000007</v>
       </c>
-      <c r="F141" s="1">
-        <f t="shared" si="69"/>
+      <c r="F141" s="27">
+        <f t="shared" si="72"/>
         <v>18774.5</v>
+      </c>
+      <c r="G141" s="27">
+        <f t="shared" ref="G141:G145" si="75">D150</f>
+        <v>7364</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>3</v>
       </c>
-      <c r="B142" s="17" t="str">
-        <f t="shared" si="70"/>
+      <c r="B142" s="16" t="str">
+        <f t="shared" si="73"/>
         <v>F</v>
       </c>
-      <c r="C142" s="3">
+      <c r="C142" s="27">
         <f>VLOOKUP('прибыль проектов'!B142,'исходные данные'!$A$47:$B$52,2,FALSE)</f>
         <v>5706</v>
       </c>
-      <c r="D142" s="1">
+      <c r="D142" s="27">
+        <f t="shared" si="74"/>
+        <v>1.9</v>
+      </c>
+      <c r="E142" s="27">
         <f t="shared" si="71"/>
-        <v>1.9</v>
-      </c>
-      <c r="E142" s="1">
-        <f t="shared" si="68"/>
         <v>10841.4</v>
       </c>
-      <c r="F142" s="1">
-        <f t="shared" si="69"/>
+      <c r="F142" s="27">
+        <f t="shared" si="72"/>
         <v>7933.1</v>
+      </c>
+      <c r="G142" s="27">
+        <f t="shared" si="75"/>
+        <v>5706</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>4</v>
       </c>
-      <c r="B143" s="17" t="str">
-        <f t="shared" si="70"/>
+      <c r="B143" s="16" t="str">
+        <f t="shared" si="73"/>
         <v>C</v>
       </c>
-      <c r="C143" s="3">
+      <c r="C143" s="27">
         <f>VLOOKUP('прибыль проектов'!B143,'исходные данные'!$A$47:$B$52,2,FALSE)</f>
         <v>3478</v>
       </c>
-      <c r="D143" s="1">
+      <c r="D143" s="27">
+        <f t="shared" si="74"/>
+        <v>1</v>
+      </c>
+      <c r="E143" s="27">
         <f t="shared" si="71"/>
-        <v>1</v>
-      </c>
-      <c r="E143" s="1">
-        <f t="shared" si="68"/>
         <v>3478</v>
       </c>
-      <c r="F143" s="1">
-        <f t="shared" si="69"/>
+      <c r="F143" s="27">
+        <f t="shared" si="72"/>
         <v>4455.1000000000004</v>
+      </c>
+      <c r="G143" s="27">
+        <f t="shared" si="75"/>
+        <v>3478</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>5</v>
       </c>
-      <c r="B144" s="17" t="str">
-        <f t="shared" si="70"/>
+      <c r="B144" s="16" t="str">
+        <f t="shared" si="73"/>
         <v>E</v>
       </c>
-      <c r="C144" s="3">
+      <c r="C144" s="27">
         <f>VLOOKUP('прибыль проектов'!B144,'исходные данные'!$A$47:$B$52,2,FALSE)</f>
         <v>5662</v>
       </c>
-      <c r="D144" s="1">
-        <f t="shared" si="71"/>
+      <c r="D144" s="27">
+        <f t="shared" si="74"/>
         <v>2.4</v>
       </c>
-      <c r="E144" s="1">
+      <c r="E144" s="27">
         <f>IF(F143&gt;=C144*D144,C144*D144,F143)</f>
         <v>4455.1000000000004</v>
       </c>
-      <c r="F144" s="1">
+      <c r="F144" s="27">
         <f>IF(F143&gt;=E144,F143-E144,0)</f>
         <v>0</v>
+      </c>
+      <c r="G144" s="27">
+        <f t="shared" si="75"/>
+        <v>1856</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>6</v>
       </c>
-      <c r="B145" s="17" t="str">
-        <f t="shared" si="70"/>
+      <c r="B145" s="16" t="str">
+        <f t="shared" si="73"/>
         <v>A</v>
       </c>
-      <c r="C145" s="3">
+      <c r="C145" s="27">
         <f>VLOOKUP('прибыль проектов'!B145,'исходные данные'!$A$47:$B$52,2,FALSE)</f>
         <v>2245</v>
       </c>
-      <c r="D145" s="1">
-        <f t="shared" si="71"/>
+      <c r="D145" s="27">
+        <f t="shared" si="74"/>
         <v>1.4</v>
       </c>
-      <c r="E145" s="1">
+      <c r="E145" s="27">
         <f>IF(F144&gt;=C145*D145,C145*D145,F144)</f>
         <v>0</v>
       </c>
-      <c r="F145" s="1">
-        <f t="shared" ref="F145" si="72">IF(F144&gt;=E145,F144-E145,0)</f>
+      <c r="F145" s="27">
+        <f t="shared" ref="F145" si="76">IF(F144&gt;=E145,F144-E145,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G145" s="27">
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
     </row>
@@ -4538,165 +4645,165 @@
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="17" t="str">
+      <c r="A149" s="16" t="str">
         <f>B140</f>
         <v>D</v>
       </c>
-      <c r="B149" s="1">
+      <c r="B149" s="27">
         <f>B130</f>
         <v>23.7</v>
       </c>
-      <c r="C149" s="1">
+      <c r="C149" s="27">
         <f>C130</f>
         <v>31.8</v>
       </c>
-      <c r="D149" s="1">
-        <f t="shared" ref="D149:D152" si="73">_xlfn.FLOOR.MATH(E140/D140)</f>
+      <c r="D149" s="27">
+        <f t="shared" ref="D149:D152" si="77">_xlfn.FLOOR.MATH(E140/D140)</f>
         <v>3167</v>
       </c>
-      <c r="E149" s="3">
+      <c r="E149" s="27">
         <f>(C149-B149)*D149</f>
         <v>25652.700000000004</v>
       </c>
-      <c r="F149" s="1"/>
-      <c r="G149" s="1"/>
+      <c r="F149" s="27"/>
+      <c r="G149" s="27"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="17" t="str">
-        <f t="shared" ref="A150:A154" si="74">B141</f>
+      <c r="A150" s="16" t="str">
+        <f t="shared" ref="A150:A154" si="78">B141</f>
         <v>B</v>
       </c>
-      <c r="B150" s="1">
-        <f t="shared" ref="B150:C150" si="75">B131</f>
+      <c r="B150" s="27">
+        <f t="shared" ref="B150:C150" si="79">B131</f>
         <v>26.6</v>
       </c>
-      <c r="C150" s="1">
-        <f t="shared" si="75"/>
+      <c r="C150" s="27">
+        <f t="shared" si="79"/>
         <v>45.2</v>
       </c>
-      <c r="D150" s="1">
-        <f t="shared" si="73"/>
+      <c r="D150" s="27">
+        <f t="shared" si="77"/>
         <v>7364</v>
       </c>
-      <c r="E150" s="3">
-        <f t="shared" ref="E150:E154" si="76">(C150-B150)*D150</f>
+      <c r="E150" s="27">
+        <f t="shared" ref="E150:E154" si="80">(C150-B150)*D150</f>
         <v>136970.40000000002</v>
       </c>
-      <c r="F150" s="1"/>
-      <c r="G150" s="1"/>
+      <c r="F150" s="27"/>
+      <c r="G150" s="27"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="17" t="str">
-        <f t="shared" si="74"/>
+      <c r="A151" s="16" t="str">
+        <f t="shared" si="78"/>
         <v>F</v>
       </c>
-      <c r="B151" s="1">
-        <f t="shared" ref="B151:C151" si="77">B132</f>
+      <c r="B151" s="27">
+        <f t="shared" ref="B151:C151" si="81">B132</f>
         <v>24.9</v>
       </c>
-      <c r="C151" s="1">
+      <c r="C151" s="27">
+        <f t="shared" si="81"/>
+        <v>31.8</v>
+      </c>
+      <c r="D151" s="27">
         <f t="shared" si="77"/>
-        <v>31.8</v>
-      </c>
-      <c r="D151" s="1">
-        <f t="shared" si="73"/>
         <v>5706</v>
       </c>
-      <c r="E151" s="3">
-        <f t="shared" si="76"/>
+      <c r="E151" s="27">
+        <f t="shared" si="80"/>
         <v>39371.400000000009</v>
       </c>
-      <c r="F151" s="1"/>
-      <c r="G151" s="1"/>
+      <c r="F151" s="27"/>
+      <c r="G151" s="27"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="17" t="str">
-        <f t="shared" si="74"/>
+      <c r="A152" s="16" t="str">
+        <f t="shared" si="78"/>
         <v>C</v>
       </c>
-      <c r="B152" s="1">
-        <f t="shared" ref="B152:C152" si="78">B133</f>
+      <c r="B152" s="27">
+        <f t="shared" ref="B152:C152" si="82">B133</f>
         <v>32.9</v>
       </c>
-      <c r="C152" s="1">
+      <c r="C152" s="27">
+        <f t="shared" si="82"/>
+        <v>50.9</v>
+      </c>
+      <c r="D152" s="27">
+        <f t="shared" si="77"/>
+        <v>3478</v>
+      </c>
+      <c r="E152" s="27">
+        <f t="shared" si="80"/>
+        <v>62604</v>
+      </c>
+      <c r="F152" s="27"/>
+      <c r="G152" s="27"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="16" t="str">
         <f t="shared" si="78"/>
-        <v>50.9</v>
-      </c>
-      <c r="D152" s="1">
-        <f t="shared" si="73"/>
-        <v>3478</v>
-      </c>
-      <c r="E152" s="3">
-        <f t="shared" si="76"/>
-        <v>62604</v>
-      </c>
-      <c r="F152" s="1"/>
-      <c r="G152" s="1"/>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="17" t="str">
-        <f t="shared" si="74"/>
         <v>E</v>
       </c>
-      <c r="B153" s="1">
-        <f t="shared" ref="B153:C153" si="79">B134</f>
+      <c r="B153" s="27">
+        <f t="shared" ref="B153:C153" si="83">B134</f>
         <v>24.9</v>
       </c>
-      <c r="C153" s="1">
-        <f t="shared" si="79"/>
+      <c r="C153" s="27">
+        <f t="shared" si="83"/>
         <v>40.200000000000003</v>
       </c>
-      <c r="D153" s="1">
+      <c r="D153" s="27">
         <f>_xlfn.FLOOR.MATH(E144/D144)</f>
         <v>1856</v>
       </c>
-      <c r="E153" s="3">
-        <f t="shared" si="76"/>
+      <c r="E153" s="27">
+        <f t="shared" si="80"/>
         <v>28396.800000000007</v>
       </c>
-      <c r="F153" s="1"/>
-      <c r="G153" s="1"/>
+      <c r="F153" s="27"/>
+      <c r="G153" s="27"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="17" t="str">
-        <f t="shared" si="74"/>
+      <c r="A154" s="16" t="str">
+        <f t="shared" si="78"/>
         <v>A</v>
       </c>
-      <c r="B154" s="1">
-        <f t="shared" ref="B154:C154" si="80">B135</f>
+      <c r="B154" s="27">
+        <f t="shared" ref="B154:C154" si="84">B135</f>
         <v>23.1</v>
       </c>
-      <c r="C154" s="1">
-        <f t="shared" si="80"/>
+      <c r="C154" s="27">
+        <f t="shared" si="84"/>
         <v>40.9</v>
       </c>
-      <c r="D154" s="1">
+      <c r="D154" s="27">
         <f>_xlfn.FLOOR.MATH(E145/D145)</f>
         <v>0</v>
       </c>
-      <c r="E154" s="3">
-        <f t="shared" si="76"/>
+      <c r="E154" s="27">
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="F154" s="1"/>
-      <c r="G154" s="1"/>
+      <c r="F154" s="27"/>
+      <c r="G154" s="27"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B155" s="1"/>
-      <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
-      <c r="E155" s="3">
+      <c r="B155" s="27"/>
+      <c r="C155" s="27"/>
+      <c r="D155" s="27"/>
+      <c r="E155" s="27">
         <f>SUM(E149:E154)</f>
         <v>292995.30000000005</v>
       </c>
-      <c r="F155" s="1">
+      <c r="F155" s="27">
         <f>'исходные данные'!K4</f>
         <v>310544</v>
       </c>
-      <c r="G155" s="18">
+      <c r="G155" s="28">
         <f>E155-F155</f>
         <v>-17548.699999999953</v>
       </c>
@@ -4725,1141 +4832,1141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="20" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="23">
+      <c r="A3" s="21">
         <v>0</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="22">
         <f>-1*'исходные данные'!B3*1000</f>
         <v>-718000</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24">
+      <c r="C3" s="22"/>
+      <c r="D3" s="22">
         <f>B3+C3</f>
         <v>-718000</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A3)</f>
         <v>1</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="22">
         <f>E3*D3</f>
         <v>-718000</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="23">
+      <c r="A4" s="21">
         <v>1</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24">
+      <c r="B4" s="22"/>
+      <c r="C4" s="22">
         <f>'прибыль проектов'!$G$31*4</f>
         <v>70533.600000000093</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="22">
         <f t="shared" ref="D4:D8" si="0">B4+C4</f>
         <v>70533.600000000093</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A4)</f>
         <v>0.85106382978723405</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="22">
         <f t="shared" ref="F4:F8" si="1">E4*D4</f>
         <v>60028.595744680933</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="23">
+      <c r="A5" s="21">
         <v>2</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24">
+      <c r="B5" s="22"/>
+      <c r="C5" s="22">
         <f>'прибыль проектов'!$G$31*4</f>
         <v>70533.600000000093</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="22">
         <f t="shared" si="0"/>
         <v>70533.600000000093</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A5)</f>
         <v>0.72430964237211393</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="22">
         <f t="shared" si="1"/>
         <v>51088.1665912178</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="23">
+      <c r="A6" s="21">
         <v>3</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24">
+      <c r="B6" s="22"/>
+      <c r="C6" s="22">
         <f>'прибыль проектов'!$G$31*4</f>
         <v>70533.600000000093</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="22">
         <f t="shared" si="0"/>
         <v>70533.600000000093</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A6)</f>
         <v>0.61643373818903313</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="22">
         <f t="shared" si="1"/>
         <v>43479.290715930045</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="23">
+      <c r="A7" s="21">
         <v>4</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22">
         <f>'прибыль проектов'!$G$31*4</f>
         <v>70533.600000000093</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="22">
         <f t="shared" si="0"/>
         <v>70533.600000000093</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A7)</f>
         <v>0.52462445803321966</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="22">
         <f t="shared" si="1"/>
         <v>37003.65167313195</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="23">
+      <c r="A8" s="21">
         <v>5</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24">
+      <c r="B8" s="22"/>
+      <c r="C8" s="22">
         <f>'прибыль проектов'!$G$31*4</f>
         <v>70533.600000000093</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="22">
         <f t="shared" si="0"/>
         <v>70533.600000000093</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A8)</f>
         <v>0.44648890045380391</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="22">
         <f t="shared" si="1"/>
         <v>31492.469509048464</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="23">
+      <c r="A9" s="21">
         <v>6</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24">
+      <c r="B9" s="22"/>
+      <c r="C9" s="22">
         <f>'прибыль проектов'!$G$31*4</f>
         <v>70533.600000000093</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="22">
         <f t="shared" ref="D9:D10" si="2">B9+C9</f>
         <v>70533.600000000093</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A9)</f>
         <v>0.37999055357770539</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="22">
         <f t="shared" ref="F9" si="3">E9*D9</f>
         <v>26802.101709828476</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="23">
+      <c r="A10" s="21">
         <v>7</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24">
+      <c r="B10" s="22"/>
+      <c r="C10" s="22">
         <f>'прибыль проектов'!$G$31*4</f>
         <v>70533.600000000093</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="22">
         <f t="shared" si="2"/>
         <v>70533.600000000093</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A10)</f>
         <v>0.32339621581081307</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="22">
         <f>E10*D10</f>
         <v>22810.299327513596</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="22">
         <f>SUM(B3:B8)</f>
         <v>-718000</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="22">
         <f>SUM(C3:C8)</f>
         <v>352668.00000000047</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="22">
         <f>SUM(D3:D8)</f>
         <v>-365331.99999999953</v>
       </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="27">
+      <c r="E11" s="22"/>
+      <c r="F11" s="25">
         <f>SUM(F3:F8)</f>
         <v>-494907.82576599071</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="20" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="23">
+      <c r="A15" s="21">
         <v>0</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B15" s="22">
         <f>-1*'исходные данные'!B4*1000</f>
         <v>-785000</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24">
+      <c r="C15" s="22"/>
+      <c r="D15" s="22">
         <f>B15+C15</f>
         <v>-785000</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A15)</f>
         <v>1</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="22">
         <f>E15*D15</f>
         <v>-785000</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="23">
+      <c r="A16" s="21">
         <v>1</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24">
+      <c r="B16" s="22"/>
+      <c r="C16" s="22">
         <f>'прибыль проектов'!$G$62*4</f>
         <v>190880.40000000014</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="22">
         <f t="shared" ref="D16:D22" si="4">B16+C16</f>
         <v>190880.40000000014</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A16)</f>
         <v>0.85106382978723405</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="22">
         <f t="shared" ref="F16:F21" si="5">E16*D16</f>
         <v>162451.40425531927</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="23">
+      <c r="A17" s="21">
         <v>2</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24">
+      <c r="B17" s="22"/>
+      <c r="C17" s="22">
         <f>'прибыль проектов'!$G$62*4</f>
         <v>190880.40000000014</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="22">
         <f t="shared" si="4"/>
         <v>190880.40000000014</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A17)</f>
         <v>0.72430964237211393</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="22">
         <f t="shared" si="5"/>
         <v>138256.51425984615</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="23">
+      <c r="A18" s="21">
         <v>3</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24">
+      <c r="B18" s="22"/>
+      <c r="C18" s="22">
         <f>'прибыль проектов'!$G$62*4</f>
         <v>190880.40000000014</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D18" s="22">
         <f t="shared" si="4"/>
         <v>190880.40000000014</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E18" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A18)</f>
         <v>0.61643373818903313</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="22">
         <f t="shared" si="5"/>
         <v>117665.11851901801</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="23">
+      <c r="A19" s="21">
         <v>4</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24">
+      <c r="B19" s="22"/>
+      <c r="C19" s="22">
         <f>'прибыль проектов'!$G$62*4</f>
         <v>190880.40000000014</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D19" s="22">
         <f t="shared" si="4"/>
         <v>190880.40000000014</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E19" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A19)</f>
         <v>0.52462445803321966</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="22">
         <f t="shared" si="5"/>
         <v>100140.52639916426</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="23">
+      <c r="A20" s="21">
         <v>5</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24">
+      <c r="B20" s="22"/>
+      <c r="C20" s="22">
         <f>'прибыль проектов'!$G$62*4</f>
         <v>190880.40000000014</v>
       </c>
-      <c r="D20" s="24">
+      <c r="D20" s="22">
         <f t="shared" si="4"/>
         <v>190880.40000000014</v>
       </c>
-      <c r="E20" s="25">
+      <c r="E20" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A20)</f>
         <v>0.44648890045380391</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F20" s="22">
         <f t="shared" si="5"/>
         <v>85225.979914182331</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="23">
+      <c r="A21" s="21">
         <v>6</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24">
+      <c r="B21" s="22"/>
+      <c r="C21" s="22">
         <f>'прибыль проектов'!$G$62*4</f>
         <v>190880.40000000014</v>
       </c>
-      <c r="D21" s="24">
+      <c r="D21" s="22">
         <f t="shared" si="4"/>
         <v>190880.40000000014</v>
       </c>
-      <c r="E21" s="25">
+      <c r="E21" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A21)</f>
         <v>0.37999055357770539</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="22">
         <f t="shared" si="5"/>
         <v>72532.748863133893</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="23">
+      <c r="A22" s="21">
         <v>7</v>
       </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24">
+      <c r="B22" s="22"/>
+      <c r="C22" s="22">
         <f>'прибыль проектов'!$G$62*4</f>
         <v>190880.40000000014</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22" s="22">
         <f t="shared" si="4"/>
         <v>190880.40000000014</v>
       </c>
-      <c r="E22" s="25">
+      <c r="E22" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A22)</f>
         <v>0.32339621581081307</v>
       </c>
-      <c r="F22" s="24">
+      <c r="F22" s="22">
         <f>E22*D22</f>
         <v>61729.999032454369</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="24">
+      <c r="B23" s="22">
         <f>SUM(B15:B20)</f>
         <v>-785000</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="22">
         <f>SUM(C15:C20)</f>
         <v>954402.0000000007</v>
       </c>
-      <c r="D23" s="24">
+      <c r="D23" s="22">
         <f>SUM(D15:D20)</f>
         <v>169402.0000000007</v>
       </c>
-      <c r="E23" s="24"/>
-      <c r="F23" s="27">
+      <c r="E23" s="22"/>
+      <c r="F23" s="25">
         <f>SUM(F15:F20)</f>
         <v>-181260.45665246993</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="F26" s="22" t="s">
+      <c r="F26" s="20" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="23">
+      <c r="A27" s="21">
         <v>0</v>
       </c>
-      <c r="B27" s="24">
+      <c r="B27" s="22">
         <f>-1*'исходные данные'!B5*1000</f>
         <v>-573000</v>
       </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24">
+      <c r="C27" s="22"/>
+      <c r="D27" s="22">
         <f>B27+C27</f>
         <v>-573000</v>
       </c>
-      <c r="E27" s="25">
+      <c r="E27" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A27)</f>
         <v>1</v>
       </c>
-      <c r="F27" s="24">
+      <c r="F27" s="22">
         <f>E27*D27</f>
         <v>-573000</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="23">
+      <c r="A28" s="21">
         <v>1</v>
       </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24">
+      <c r="B28" s="22"/>
+      <c r="C28" s="22">
         <f>'прибыль проектов'!$G$93*4</f>
         <v>-287830.80000000005</v>
       </c>
-      <c r="D28" s="24">
+      <c r="D28" s="22">
         <f t="shared" ref="D28:D34" si="6">B28+C28</f>
         <v>-287830.80000000005</v>
       </c>
-      <c r="E28" s="25">
+      <c r="E28" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A28)</f>
         <v>0.85106382978723405</v>
       </c>
-      <c r="F28" s="24">
+      <c r="F28" s="22">
         <f t="shared" ref="F28:F33" si="7">E28*D28</f>
         <v>-244962.38297872344</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="23">
+      <c r="A29" s="21">
         <v>2</v>
       </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24">
+      <c r="B29" s="22"/>
+      <c r="C29" s="22">
         <f>'прибыль проектов'!$G$93*4</f>
         <v>-287830.80000000005</v>
       </c>
-      <c r="D29" s="24">
+      <c r="D29" s="22">
         <f t="shared" si="6"/>
         <v>-287830.80000000005</v>
       </c>
-      <c r="E29" s="25">
+      <c r="E29" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A29)</f>
         <v>0.72430964237211393</v>
       </c>
-      <c r="F29" s="24">
+      <c r="F29" s="22">
         <f t="shared" si="7"/>
         <v>-208478.62381167948</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="23">
+      <c r="A30" s="21">
         <v>3</v>
       </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24">
+      <c r="B30" s="22"/>
+      <c r="C30" s="22">
         <f>'прибыль проектов'!$G$93*4</f>
         <v>-287830.80000000005</v>
       </c>
-      <c r="D30" s="24">
+      <c r="D30" s="22">
         <f t="shared" si="6"/>
         <v>-287830.80000000005</v>
       </c>
-      <c r="E30" s="25">
+      <c r="E30" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A30)</f>
         <v>0.61643373818903313</v>
       </c>
-      <c r="F30" s="24">
+      <c r="F30" s="22">
         <f t="shared" si="7"/>
         <v>-177428.61600993999</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="23">
+      <c r="A31" s="21">
         <v>4</v>
       </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24">
+      <c r="B31" s="22"/>
+      <c r="C31" s="22">
         <f>'прибыль проектов'!$G$93*4</f>
         <v>-287830.80000000005</v>
       </c>
-      <c r="D31" s="24">
+      <c r="D31" s="22">
         <f t="shared" si="6"/>
         <v>-287830.80000000005</v>
       </c>
-      <c r="E31" s="25">
+      <c r="E31" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A31)</f>
         <v>0.52462445803321966</v>
       </c>
-      <c r="F31" s="24">
+      <c r="F31" s="22">
         <f t="shared" si="7"/>
         <v>-151003.07745526807</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="23">
+      <c r="A32" s="21">
         <v>5</v>
       </c>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24">
+      <c r="B32" s="22"/>
+      <c r="C32" s="22">
         <f>'прибыль проектов'!$G$93*4</f>
         <v>-287830.80000000005</v>
       </c>
-      <c r="D32" s="24">
+      <c r="D32" s="22">
         <f t="shared" si="6"/>
         <v>-287830.80000000005</v>
       </c>
-      <c r="E32" s="25">
+      <c r="E32" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A32)</f>
         <v>0.44648890045380391</v>
       </c>
-      <c r="F32" s="24">
+      <c r="F32" s="22">
         <f t="shared" si="7"/>
         <v>-128513.25740873876</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="23">
+      <c r="A33" s="21">
         <v>6</v>
       </c>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24">
+      <c r="B33" s="22"/>
+      <c r="C33" s="22">
         <f>'прибыль проектов'!$G$93*4</f>
         <v>-287830.80000000005</v>
       </c>
-      <c r="D33" s="24">
+      <c r="D33" s="22">
         <f t="shared" si="6"/>
         <v>-287830.80000000005</v>
       </c>
-      <c r="E33" s="25">
+      <c r="E33" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A33)</f>
         <v>0.37999055357770539</v>
       </c>
-      <c r="F33" s="24">
+      <c r="F33" s="22">
         <f t="shared" si="7"/>
         <v>-109372.98502871383</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="23">
+      <c r="A34" s="21">
         <v>7</v>
       </c>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24">
+      <c r="B34" s="22"/>
+      <c r="C34" s="22">
         <f>'прибыль проектов'!$G$93*4</f>
         <v>-287830.80000000005</v>
       </c>
-      <c r="D34" s="24">
+      <c r="D34" s="22">
         <f t="shared" si="6"/>
         <v>-287830.80000000005</v>
       </c>
-      <c r="E34" s="25">
+      <c r="E34" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A34)</f>
         <v>0.32339621581081307</v>
       </c>
-      <c r="F34" s="24">
+      <c r="F34" s="22">
         <f>E34*D34</f>
         <v>-93083.391513798982</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="24">
+      <c r="B35" s="22">
         <f>SUM(B27:B32)</f>
         <v>-573000</v>
       </c>
-      <c r="C35" s="24">
+      <c r="C35" s="22">
         <f>SUM(C27:C32)</f>
         <v>-1439154.0000000002</v>
       </c>
-      <c r="D35" s="24">
+      <c r="D35" s="22">
         <f>SUM(D27:D32)</f>
         <v>-2012154.0000000002</v>
       </c>
-      <c r="E35" s="24"/>
-      <c r="F35" s="27">
+      <c r="E35" s="22"/>
+      <c r="F35" s="25">
         <f>SUM(F27:F32)</f>
         <v>-1483385.9576643496</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="E38" s="22" t="s">
+      <c r="E38" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="F38" s="22" t="s">
+      <c r="F38" s="20" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="23">
+      <c r="A39" s="21">
         <v>0</v>
       </c>
-      <c r="B39" s="24">
+      <c r="B39" s="22">
         <f>-1*'исходные данные'!B6*1000</f>
         <v>-727000</v>
       </c>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24">
+      <c r="C39" s="22"/>
+      <c r="D39" s="22">
         <f>B39+C39</f>
         <v>-727000</v>
       </c>
-      <c r="E39" s="25">
+      <c r="E39" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A39)</f>
         <v>1</v>
       </c>
-      <c r="F39" s="24">
+      <c r="F39" s="22">
         <f>E39*D39</f>
         <v>-727000</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="23">
+      <c r="A40" s="21">
         <v>1</v>
       </c>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24">
+      <c r="B40" s="22"/>
+      <c r="C40" s="22">
         <f>'прибыль проектов'!$G$124*4</f>
         <v>194583.19999999995</v>
       </c>
-      <c r="D40" s="24">
+      <c r="D40" s="22">
         <f t="shared" ref="D40:D46" si="8">B40+C40</f>
         <v>194583.19999999995</v>
       </c>
-      <c r="E40" s="25">
+      <c r="E40" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A40)</f>
         <v>0.85106382978723405</v>
       </c>
-      <c r="F40" s="24">
+      <c r="F40" s="22">
         <f t="shared" ref="F40:F45" si="9">E40*D40</f>
         <v>165602.72340425529</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="23">
+      <c r="A41" s="21">
         <v>2</v>
       </c>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24">
+      <c r="B41" s="22"/>
+      <c r="C41" s="22">
         <f>'прибыль проектов'!$G$124*4</f>
         <v>194583.19999999995</v>
       </c>
-      <c r="D41" s="24">
+      <c r="D41" s="22">
         <f t="shared" si="8"/>
         <v>194583.19999999995</v>
       </c>
-      <c r="E41" s="25">
+      <c r="E41" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A41)</f>
         <v>0.72430964237211393</v>
       </c>
-      <c r="F41" s="24">
+      <c r="F41" s="22">
         <f t="shared" si="9"/>
         <v>140938.48800362149</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="23">
+      <c r="A42" s="21">
         <v>3</v>
       </c>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24">
+      <c r="B42" s="22"/>
+      <c r="C42" s="22">
         <f>'прибыль проектов'!$G$124*4</f>
         <v>194583.19999999995</v>
       </c>
-      <c r="D42" s="24">
+      <c r="D42" s="22">
         <f t="shared" si="8"/>
         <v>194583.19999999995</v>
       </c>
-      <c r="E42" s="25">
+      <c r="E42" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A42)</f>
         <v>0.61643373818903313</v>
       </c>
-      <c r="F42" s="24">
+      <c r="F42" s="22">
         <f t="shared" si="9"/>
         <v>119947.64936478424</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="23">
+      <c r="A43" s="21">
         <v>4</v>
       </c>
-      <c r="B43" s="24"/>
-      <c r="C43" s="24">
+      <c r="B43" s="22"/>
+      <c r="C43" s="22">
         <f>'прибыль проектов'!$G$124*4</f>
         <v>194583.19999999995</v>
       </c>
-      <c r="D43" s="24">
+      <c r="D43" s="22">
         <f t="shared" si="8"/>
         <v>194583.19999999995</v>
       </c>
-      <c r="E43" s="25">
+      <c r="E43" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A43)</f>
         <v>0.52462445803321966</v>
       </c>
-      <c r="F43" s="24">
+      <c r="F43" s="22">
         <f t="shared" si="9"/>
         <v>102083.10584236956</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="23">
+      <c r="A44" s="21">
         <v>5</v>
       </c>
-      <c r="B44" s="24"/>
-      <c r="C44" s="24">
+      <c r="B44" s="22"/>
+      <c r="C44" s="22">
         <f>'прибыль проектов'!$G$124*4</f>
         <v>194583.19999999995</v>
       </c>
-      <c r="D44" s="24">
+      <c r="D44" s="22">
         <f t="shared" si="8"/>
         <v>194583.19999999995</v>
       </c>
-      <c r="E44" s="25">
+      <c r="E44" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A44)</f>
         <v>0.44648890045380391</v>
       </c>
-      <c r="F44" s="24">
+      <c r="F44" s="22">
         <f t="shared" si="9"/>
         <v>86879.239014782594</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="23">
+      <c r="A45" s="21">
         <v>6</v>
       </c>
-      <c r="B45" s="24"/>
-      <c r="C45" s="24">
+      <c r="B45" s="22"/>
+      <c r="C45" s="22">
         <f>'прибыль проектов'!$G$124*4</f>
         <v>194583.19999999995</v>
       </c>
-      <c r="D45" s="24">
+      <c r="D45" s="22">
         <f t="shared" si="8"/>
         <v>194583.19999999995</v>
       </c>
-      <c r="E45" s="25">
+      <c r="E45" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A45)</f>
         <v>0.37999055357770539</v>
       </c>
-      <c r="F45" s="24">
+      <c r="F45" s="22">
         <f t="shared" si="9"/>
         <v>73939.77788492135</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="23">
+      <c r="A46" s="21">
         <v>7</v>
       </c>
-      <c r="B46" s="24"/>
-      <c r="C46" s="24">
+      <c r="B46" s="22"/>
+      <c r="C46" s="22">
         <f>'прибыль проектов'!$G$124*4</f>
         <v>194583.19999999995</v>
       </c>
-      <c r="D46" s="24">
+      <c r="D46" s="22">
         <f t="shared" si="8"/>
         <v>194583.19999999995</v>
       </c>
-      <c r="E46" s="25">
+      <c r="E46" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A46)</f>
         <v>0.32339621581081307</v>
       </c>
-      <c r="F46" s="24">
+      <c r="F46" s="22">
         <f>E46*D46</f>
         <v>62927.47054035859</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="26" t="s">
+      <c r="A47" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B47" s="24">
+      <c r="B47" s="22">
         <f>SUM(B39:B44)</f>
         <v>-727000</v>
       </c>
-      <c r="C47" s="24">
+      <c r="C47" s="22">
         <f>SUM(C39:C44)</f>
         <v>972915.99999999977</v>
       </c>
-      <c r="D47" s="24">
+      <c r="D47" s="22">
         <f>SUM(D39:D44)</f>
         <v>245915.99999999977</v>
       </c>
-      <c r="E47" s="24"/>
-      <c r="F47" s="27">
+      <c r="E47" s="22"/>
+      <c r="F47" s="25">
         <f>SUM(F39:F44)</f>
         <v>-111548.79437018692</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="20" t="s">
+      <c r="A49" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="22" t="s">
+      <c r="A50" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C50" s="22" t="s">
+      <c r="C50" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D50" s="22" t="s">
+      <c r="D50" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="E50" s="22" t="s">
+      <c r="E50" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="F50" s="22" t="s">
+      <c r="F50" s="20" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="23">
+      <c r="A51" s="21">
         <v>0</v>
       </c>
-      <c r="B51" s="24">
+      <c r="B51" s="22">
         <f>-1*'исходные данные'!B7*1000</f>
         <v>-899000</v>
       </c>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24">
+      <c r="C51" s="22"/>
+      <c r="D51" s="22">
         <f>B51+C51</f>
         <v>-899000</v>
       </c>
-      <c r="E51" s="25">
+      <c r="E51" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A51)</f>
         <v>1</v>
       </c>
-      <c r="F51" s="24">
+      <c r="F51" s="22">
         <f>E51*D51</f>
         <v>-899000</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="23">
+      <c r="A52" s="21">
         <v>1</v>
       </c>
-      <c r="B52" s="24"/>
-      <c r="C52" s="24">
+      <c r="B52" s="22"/>
+      <c r="C52" s="22">
         <f>'прибыль проектов'!$G$155*4</f>
         <v>-70194.799999999814</v>
       </c>
-      <c r="D52" s="24">
+      <c r="D52" s="22">
         <f t="shared" ref="D52:D58" si="10">B52+C52</f>
         <v>-70194.799999999814</v>
       </c>
-      <c r="E52" s="25">
+      <c r="E52" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A52)</f>
         <v>0.85106382978723405</v>
       </c>
-      <c r="F52" s="24">
+      <c r="F52" s="22">
         <f t="shared" ref="F52:F57" si="11">E52*D52</f>
         <v>-59740.255319148775</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="23">
+      <c r="A53" s="21">
         <v>2</v>
       </c>
-      <c r="B53" s="24"/>
-      <c r="C53" s="24">
+      <c r="B53" s="22"/>
+      <c r="C53" s="22">
         <f>'прибыль проектов'!$G$155*4</f>
         <v>-70194.799999999814</v>
       </c>
-      <c r="D53" s="24">
+      <c r="D53" s="22">
         <f t="shared" si="10"/>
         <v>-70194.799999999814</v>
       </c>
-      <c r="E53" s="25">
+      <c r="E53" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A53)</f>
         <v>0.72430964237211393</v>
       </c>
-      <c r="F53" s="24">
+      <c r="F53" s="22">
         <f t="shared" si="11"/>
         <v>-50842.77048438193</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="23">
+      <c r="A54" s="21">
         <v>3</v>
       </c>
-      <c r="B54" s="24"/>
-      <c r="C54" s="24">
+      <c r="B54" s="22"/>
+      <c r="C54" s="22">
         <f>'прибыль проектов'!$G$155*4</f>
         <v>-70194.799999999814</v>
       </c>
-      <c r="D54" s="24">
+      <c r="D54" s="22">
         <f t="shared" si="10"/>
         <v>-70194.799999999814</v>
       </c>
-      <c r="E54" s="25">
+      <c r="E54" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A54)</f>
         <v>0.61643373818903313</v>
       </c>
-      <c r="F54" s="24">
+      <c r="F54" s="22">
         <f t="shared" si="11"/>
         <v>-43270.44296543143</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="23">
+      <c r="A55" s="21">
         <v>4</v>
       </c>
-      <c r="B55" s="24"/>
-      <c r="C55" s="24">
+      <c r="B55" s="22"/>
+      <c r="C55" s="22">
         <f>'прибыль проектов'!$G$155*4</f>
         <v>-70194.799999999814</v>
       </c>
-      <c r="D55" s="24">
+      <c r="D55" s="22">
         <f t="shared" si="10"/>
         <v>-70194.799999999814</v>
       </c>
-      <c r="E55" s="25">
+      <c r="E55" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A55)</f>
         <v>0.52462445803321966</v>
       </c>
-      <c r="F55" s="24">
+      <c r="F55" s="22">
         <f t="shared" si="11"/>
         <v>-36825.908906750148</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="23">
+      <c r="A56" s="21">
         <v>5</v>
       </c>
-      <c r="B56" s="24"/>
-      <c r="C56" s="24">
+      <c r="B56" s="22"/>
+      <c r="C56" s="22">
         <f>'прибыль проектов'!$G$155*4</f>
         <v>-70194.799999999814</v>
       </c>
-      <c r="D56" s="24">
+      <c r="D56" s="22">
         <f t="shared" si="10"/>
         <v>-70194.799999999814</v>
       </c>
-      <c r="E56" s="25">
+      <c r="E56" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A56)</f>
         <v>0.44648890045380391</v>
       </c>
-      <c r="F56" s="24">
+      <c r="F56" s="22">
         <f t="shared" si="11"/>
         <v>-31341.199069574592</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="23">
+      <c r="A57" s="21">
         <v>6</v>
       </c>
-      <c r="B57" s="24"/>
-      <c r="C57" s="24">
+      <c r="B57" s="22"/>
+      <c r="C57" s="22">
         <f>'прибыль проектов'!$G$155*4</f>
         <v>-70194.799999999814</v>
       </c>
-      <c r="D57" s="24">
+      <c r="D57" s="22">
         <f t="shared" si="10"/>
         <v>-70194.799999999814</v>
       </c>
-      <c r="E57" s="25">
+      <c r="E57" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A57)</f>
         <v>0.37999055357770539</v>
       </c>
-      <c r="F57" s="24">
+      <c r="F57" s="22">
         <f t="shared" si="11"/>
         <v>-26673.360910276242</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="23">
+      <c r="A58" s="21">
         <v>7</v>
       </c>
-      <c r="B58" s="24"/>
-      <c r="C58" s="24">
+      <c r="B58" s="22"/>
+      <c r="C58" s="22">
         <f>'прибыль проектов'!$G$155*4</f>
         <v>-70194.799999999814</v>
       </c>
-      <c r="D58" s="24">
+      <c r="D58" s="22">
         <f t="shared" si="10"/>
         <v>-70194.799999999814</v>
       </c>
-      <c r="E58" s="25">
+      <c r="E58" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A58)</f>
         <v>0.32339621581081307</v>
       </c>
-      <c r="F58" s="24">
+      <c r="F58" s="22">
         <f>E58*D58</f>
         <v>-22700.7326895968</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="26" t="s">
+      <c r="A59" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B59" s="24">
+      <c r="B59" s="22">
         <f>SUM(B51:B56)</f>
         <v>-899000</v>
       </c>
-      <c r="C59" s="24">
+      <c r="C59" s="22">
         <f>SUM(C51:C56)</f>
         <v>-350973.99999999907</v>
       </c>
-      <c r="D59" s="24">
+      <c r="D59" s="22">
         <f>SUM(D51:D56)</f>
         <v>-1249973.9999999991</v>
       </c>
-      <c r="E59" s="24"/>
-      <c r="F59" s="27">
+      <c r="E59" s="22"/>
+      <c r="F59" s="25">
         <f>SUM(F51:F56)</f>
         <v>-1121020.576745287</v>
       </c>

--- a/РГР/ргр.xlsx
+++ b/РГР/ргр.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="исходные данные" sheetId="1" r:id="rId1"/>
@@ -1539,8 +1539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="G83" sqref="A76:G83"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A148" sqref="A148:G155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4817,8 +4817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/РГР/ргр.xlsx
+++ b/РГР/ргр.xlsx
@@ -380,9 +380,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -396,6 +393,9 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -740,14 +740,14 @@
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -756,7 +756,7 @@
       <c r="B3" s="7">
         <v>718</v>
       </c>
-      <c r="F3" s="30"/>
+      <c r="F3" s="29"/>
       <c r="G3" s="12">
         <v>1</v>
       </c>
@@ -845,20 +845,20 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="30"/>
+      <c r="F9" s="29"/>
       <c r="G9" s="12">
         <v>1</v>
       </c>
@@ -1111,10 +1111,10 @@
       <c r="B19" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="25" t="s">
         <v>64</v>
       </c>
       <c r="F19" s="8" t="s">
@@ -1226,10 +1226,10 @@
       <c r="B28" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="25" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1329,10 +1329,10 @@
       <c r="B37" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="C37" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="D37" s="26" t="s">
+      <c r="D37" s="25" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1432,10 +1432,10 @@
       <c r="B46" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="26" t="s">
+      <c r="C46" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="D46" s="26" t="s">
+      <c r="D46" s="25" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1603,23 +1603,23 @@
         <f>'исходные данные'!A11</f>
         <v>A</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="26">
         <f>'исходные данные'!C11</f>
         <v>21.7</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="26">
         <f>'исходные данные'!D11</f>
         <v>39.799999999999997</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="26">
         <f>'исходные данные'!G10</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="26">
         <f>C6-B6</f>
         <v>18.099999999999998</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="26">
         <f>E6/D6</f>
         <v>8.2272727272727249</v>
       </c>
@@ -1637,23 +1637,23 @@
         <f>'исходные данные'!A12</f>
         <v>B</v>
       </c>
-      <c r="B7" s="27">
+      <c r="B7" s="26">
         <f>'исходные данные'!C12</f>
         <v>29.8</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="26">
         <f>'исходные данные'!D12</f>
         <v>40.799999999999997</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="26">
         <f>'исходные данные'!G11</f>
         <v>3.2</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="26">
         <f t="shared" ref="E7:E11" si="2">C7-B7</f>
         <v>10.999999999999996</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="26">
         <f t="shared" ref="F7:F11" si="3">E7/D7</f>
         <v>3.4374999999999987</v>
       </c>
@@ -1671,23 +1671,23 @@
         <f>'исходные данные'!A13</f>
         <v>C</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="26">
         <f>'исходные данные'!C13</f>
         <v>26.9</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="26">
         <f>'исходные данные'!D13</f>
         <v>41.7</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="26">
         <f>'исходные данные'!G12</f>
         <v>1.2</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="26">
         <f t="shared" si="2"/>
         <v>14.800000000000004</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="26">
         <f t="shared" si="3"/>
         <v>12.333333333333337</v>
       </c>
@@ -1705,23 +1705,23 @@
         <f>'исходные данные'!A14</f>
         <v>D</v>
       </c>
-      <c r="B9" s="27">
+      <c r="B9" s="26">
         <f>'исходные данные'!C14</f>
         <v>33.700000000000003</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="26">
         <f>'исходные данные'!D14</f>
         <v>46.1</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="26">
         <f>'исходные данные'!G13</f>
         <v>3</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="26">
         <f t="shared" si="2"/>
         <v>12.399999999999999</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="26">
         <f t="shared" si="3"/>
         <v>4.1333333333333329</v>
       </c>
@@ -1739,23 +1739,23 @@
         <f>'исходные данные'!A15</f>
         <v>E</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="26">
         <f>'исходные данные'!C15</f>
         <v>22.7</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="26">
         <f>'исходные данные'!D15</f>
         <v>36.1</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="26">
         <f>'исходные данные'!G14</f>
         <v>2.9</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="26">
         <f t="shared" si="2"/>
         <v>13.400000000000002</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="26">
         <f t="shared" si="3"/>
         <v>4.6206896551724146</v>
       </c>
@@ -1773,23 +1773,23 @@
         <f>'исходные данные'!A16</f>
         <v>F</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="26">
         <f>'исходные данные'!C16</f>
         <v>24.6</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="26">
         <f>'исходные данные'!D16</f>
         <v>34.5</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="26">
         <f>'исходные данные'!G15</f>
         <v>2.1</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="26">
         <f t="shared" si="2"/>
         <v>9.8999999999999986</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="26">
         <f t="shared" si="3"/>
         <v>4.7142857142857135</v>
       </c>
@@ -1833,14 +1833,14 @@
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27">
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26">
         <f>'исходные данные'!G16</f>
         <v>55325</v>
       </c>
-      <c r="G15" s="27"/>
+      <c r="G15" s="26"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -1850,23 +1850,23 @@
         <f>VLOOKUP(A16,$G$6:$H$11,2,FALSE)</f>
         <v>C</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="26">
         <f>VLOOKUP('прибыль проектов'!B16,'исходные данные'!$A$11:$B$16,2,FALSE)</f>
         <v>5578</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="26">
         <f>VLOOKUP(B16,$A$6:$D$11,4,FALSE)</f>
         <v>1.2</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="26">
         <f t="shared" ref="E16:E19" si="4">IF(F15&gt;=C16*D16,C16*D16,F15)</f>
         <v>6693.5999999999995</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F16" s="26">
         <f t="shared" ref="F16:F21" si="5">IF(F15&gt;=E16,F15-E16,0)</f>
         <v>48631.4</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G16" s="26">
         <f>D25</f>
         <v>5578</v>
       </c>
@@ -1879,23 +1879,23 @@
         <f t="shared" ref="B17:B21" si="6">VLOOKUP(A17,$G$6:$H$11,2,FALSE)</f>
         <v>A</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="26">
         <f>VLOOKUP('прибыль проектов'!B17,'исходные данные'!$A$11:$B$16,2,FALSE)</f>
         <v>4907</v>
       </c>
-      <c r="D17" s="27">
+      <c r="D17" s="26">
         <f t="shared" ref="D17:D21" si="7">VLOOKUP(B17,$A$6:$D$11,4,FALSE)</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="26">
         <f t="shared" si="4"/>
         <v>10795.400000000001</v>
       </c>
-      <c r="F17" s="27">
+      <c r="F17" s="26">
         <f t="shared" si="5"/>
         <v>37836</v>
       </c>
-      <c r="G17" s="27">
+      <c r="G17" s="26">
         <f t="shared" ref="G17:G21" si="8">D26</f>
         <v>4907</v>
       </c>
@@ -1908,23 +1908,23 @@
         <f t="shared" si="6"/>
         <v>F</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="26">
         <f>VLOOKUP('прибыль проектов'!B18,'исходные данные'!$A$11:$B$16,2,FALSE)</f>
         <v>3093</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="26">
         <f t="shared" si="7"/>
         <v>2.1</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="26">
         <f t="shared" si="4"/>
         <v>6495.3</v>
       </c>
-      <c r="F18" s="27">
+      <c r="F18" s="26">
         <f t="shared" si="5"/>
         <v>31340.7</v>
       </c>
-      <c r="G18" s="27">
+      <c r="G18" s="26">
         <f t="shared" si="8"/>
         <v>3093</v>
       </c>
@@ -1937,23 +1937,23 @@
         <f t="shared" si="6"/>
         <v>E</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="26">
         <f>VLOOKUP('прибыль проектов'!B19,'исходные данные'!$A$11:$B$16,2,FALSE)</f>
         <v>6649</v>
       </c>
-      <c r="D19" s="27">
+      <c r="D19" s="26">
         <f t="shared" si="7"/>
         <v>2.9</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="26">
         <f t="shared" si="4"/>
         <v>19282.099999999999</v>
       </c>
-      <c r="F19" s="27">
+      <c r="F19" s="26">
         <f t="shared" si="5"/>
         <v>12058.600000000002</v>
       </c>
-      <c r="G19" s="27">
+      <c r="G19" s="26">
         <f t="shared" si="8"/>
         <v>6649</v>
       </c>
@@ -1966,23 +1966,23 @@
         <f t="shared" si="6"/>
         <v>D</v>
       </c>
-      <c r="C20" s="27">
+      <c r="C20" s="26">
         <f>VLOOKUP('прибыль проектов'!B20,'исходные данные'!$A$11:$B$16,2,FALSE)</f>
         <v>8282</v>
       </c>
-      <c r="D20" s="27">
+      <c r="D20" s="26">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="E20" s="27">
+      <c r="E20" s="26">
         <f>IF(F19&gt;=C20*D20,C20*D20,F19)</f>
         <v>12058.600000000002</v>
       </c>
-      <c r="F20" s="27">
+      <c r="F20" s="26">
         <f>IF(F19&gt;=E20,F19-E20,0)</f>
         <v>0</v>
       </c>
-      <c r="G20" s="27">
+      <c r="G20" s="26">
         <f t="shared" si="8"/>
         <v>4019</v>
       </c>
@@ -1995,23 +1995,23 @@
         <f t="shared" si="6"/>
         <v>B</v>
       </c>
-      <c r="C21" s="27">
+      <c r="C21" s="26">
         <f>VLOOKUP('прибыль проектов'!B21,'исходные данные'!$A$11:$B$16,2,FALSE)</f>
         <v>8460</v>
       </c>
-      <c r="D21" s="27">
+      <c r="D21" s="26">
         <f t="shared" si="7"/>
         <v>3.2</v>
       </c>
-      <c r="E21" s="27">
+      <c r="E21" s="26">
         <f>IF(F20&gt;=C21*D21,C21*D21,F20)</f>
         <v>0</v>
       </c>
-      <c r="F21" s="27">
+      <c r="F21" s="26">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G21" s="27">
+      <c r="G21" s="26">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -2049,161 +2049,161 @@
         <f>B16</f>
         <v>C</v>
       </c>
-      <c r="B25" s="27">
+      <c r="B25" s="26">
         <f>B6</f>
         <v>21.7</v>
       </c>
-      <c r="C25" s="27">
+      <c r="C25" s="26">
         <f>C6</f>
         <v>39.799999999999997</v>
       </c>
-      <c r="D25" s="27">
+      <c r="D25" s="26">
         <f>_xlfn.FLOOR.MATH(E16/D16)</f>
         <v>5578</v>
       </c>
-      <c r="E25" s="27">
+      <c r="E25" s="26">
         <f>(C25-B25)*D25</f>
         <v>100961.79999999999</v>
       </c>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="str">
         <f t="shared" ref="A26:A30" si="9">B17</f>
         <v>A</v>
       </c>
-      <c r="B26" s="27">
+      <c r="B26" s="26">
         <f t="shared" ref="B26:C30" si="10">B7</f>
         <v>29.8</v>
       </c>
-      <c r="C26" s="27">
+      <c r="C26" s="26">
         <f t="shared" si="10"/>
         <v>40.799999999999997</v>
       </c>
-      <c r="D26" s="27">
+      <c r="D26" s="26">
         <f t="shared" ref="D26:D28" si="11">_xlfn.FLOOR.MATH(E17/D17)</f>
         <v>4907</v>
       </c>
-      <c r="E26" s="27">
+      <c r="E26" s="26">
         <f t="shared" ref="E26:E30" si="12">(C26-B26)*D26</f>
         <v>53976.999999999985</v>
       </c>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="str">
         <f t="shared" si="9"/>
         <v>F</v>
       </c>
-      <c r="B27" s="27">
+      <c r="B27" s="26">
         <f t="shared" si="10"/>
         <v>26.9</v>
       </c>
-      <c r="C27" s="27">
+      <c r="C27" s="26">
         <f t="shared" si="10"/>
         <v>41.7</v>
       </c>
-      <c r="D27" s="27">
+      <c r="D27" s="26">
         <f t="shared" si="11"/>
         <v>3093</v>
       </c>
-      <c r="E27" s="27">
+      <c r="E27" s="26">
         <f t="shared" si="12"/>
         <v>45776.400000000016</v>
       </c>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="str">
         <f t="shared" si="9"/>
         <v>E</v>
       </c>
-      <c r="B28" s="27">
+      <c r="B28" s="26">
         <f t="shared" si="10"/>
         <v>33.700000000000003</v>
       </c>
-      <c r="C28" s="27">
+      <c r="C28" s="26">
         <f t="shared" si="10"/>
         <v>46.1</v>
       </c>
-      <c r="D28" s="27">
+      <c r="D28" s="26">
         <f t="shared" si="11"/>
         <v>6649</v>
       </c>
-      <c r="E28" s="27">
+      <c r="E28" s="26">
         <f t="shared" si="12"/>
         <v>82447.599999999991</v>
       </c>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="str">
         <f t="shared" si="9"/>
         <v>D</v>
       </c>
-      <c r="B29" s="27">
+      <c r="B29" s="26">
         <f t="shared" si="10"/>
         <v>22.7</v>
       </c>
-      <c r="C29" s="27">
+      <c r="C29" s="26">
         <f t="shared" si="10"/>
         <v>36.1</v>
       </c>
-      <c r="D29" s="27">
+      <c r="D29" s="26">
         <f>_xlfn.FLOOR.MATH(E20/D20)</f>
         <v>4019</v>
       </c>
-      <c r="E29" s="27">
+      <c r="E29" s="26">
         <f t="shared" si="12"/>
         <v>53854.600000000006</v>
       </c>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="str">
         <f t="shared" si="9"/>
         <v>B</v>
       </c>
-      <c r="B30" s="27">
+      <c r="B30" s="26">
         <f t="shared" si="10"/>
         <v>24.6</v>
       </c>
-      <c r="C30" s="27">
+      <c r="C30" s="26">
         <f t="shared" si="10"/>
         <v>34.5</v>
       </c>
-      <c r="D30" s="27">
+      <c r="D30" s="26">
         <f>_xlfn.FLOOR.MATH(E21/D21)</f>
         <v>0</v>
       </c>
-      <c r="E30" s="27">
+      <c r="E30" s="26">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27">
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26">
         <f>SUM(E25:E30)</f>
         <v>337017.4</v>
       </c>
-      <c r="F31" s="27">
+      <c r="F31" s="26">
         <f>'исходные данные'!G4</f>
         <v>319384</v>
       </c>
-      <c r="G31" s="28">
+      <c r="G31" s="27">
         <f>E31-F31</f>
         <v>17633.400000000023</v>
       </c>
@@ -2257,11 +2257,11 @@
         <f>'исходные данные'!C20</f>
         <v>32.700000000000003</v>
       </c>
-      <c r="C37" s="29">
+      <c r="C37" s="28">
         <f>'исходные данные'!D20</f>
         <v>40.1</v>
       </c>
-      <c r="D37" s="27">
+      <c r="D37" s="26">
         <f>'исходные данные'!H10</f>
         <v>2.1</v>
       </c>
@@ -2291,11 +2291,11 @@
         <f>'исходные данные'!C21</f>
         <v>28.7</v>
       </c>
-      <c r="C38" s="29">
+      <c r="C38" s="28">
         <f>'исходные данные'!D21</f>
         <v>37</v>
       </c>
-      <c r="D38" s="27">
+      <c r="D38" s="26">
         <f>'исходные данные'!H11</f>
         <v>3.4</v>
       </c>
@@ -2325,11 +2325,11 @@
         <f>'исходные данные'!C22</f>
         <v>23.7</v>
       </c>
-      <c r="C39" s="29">
+      <c r="C39" s="28">
         <f>'исходные данные'!D22</f>
         <v>39.6</v>
       </c>
-      <c r="D39" s="27">
+      <c r="D39" s="26">
         <f>'исходные данные'!H12</f>
         <v>3.4</v>
       </c>
@@ -2359,11 +2359,11 @@
         <f>'исходные данные'!C23</f>
         <v>34.4</v>
       </c>
-      <c r="C40" s="29">
+      <c r="C40" s="28">
         <f>'исходные данные'!D23</f>
         <v>53.7</v>
       </c>
-      <c r="D40" s="27">
+      <c r="D40" s="26">
         <f>'исходные данные'!H13</f>
         <v>2.9</v>
       </c>
@@ -2393,11 +2393,11 @@
         <f>'исходные данные'!C24</f>
         <v>21.3</v>
       </c>
-      <c r="C41" s="29">
+      <c r="C41" s="28">
         <f>'исходные данные'!D24</f>
         <v>30</v>
       </c>
-      <c r="D41" s="27">
+      <c r="D41" s="26">
         <f>'исходные данные'!H14</f>
         <v>1.9</v>
       </c>
@@ -2427,11 +2427,11 @@
         <f>'исходные данные'!C25</f>
         <v>22.2</v>
       </c>
-      <c r="C42" s="29">
+      <c r="C42" s="28">
         <f>'исходные данные'!D25</f>
         <v>31.5</v>
       </c>
-      <c r="D42" s="27">
+      <c r="D42" s="26">
         <f>'исходные данные'!H15</f>
         <v>3.2</v>
       </c>
@@ -2486,11 +2486,11 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="27">
+      <c r="F46" s="26">
         <f>'исходные данные'!H16</f>
         <v>74908</v>
       </c>
-      <c r="G46" s="27"/>
+      <c r="G46" s="26"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
@@ -2500,23 +2500,23 @@
         <f>VLOOKUP(A47,$G$37:$H$42,2,FALSE)</f>
         <v>D</v>
       </c>
-      <c r="C47" s="29">
+      <c r="C47" s="28">
         <f>VLOOKUP('прибыль проектов'!B47,'исходные данные'!$A$20:$B$25,2,FALSE)</f>
         <v>4142</v>
       </c>
-      <c r="D47" s="27">
+      <c r="D47" s="26">
         <f>VLOOKUP(B47,$A$37:$D$42,4,FALSE)</f>
         <v>2.9</v>
       </c>
-      <c r="E47" s="27">
+      <c r="E47" s="26">
         <f t="shared" ref="E47:E50" si="17">IF(F46&gt;=C47*D47,C47*D47,F46)</f>
         <v>12011.8</v>
       </c>
-      <c r="F47" s="27">
+      <c r="F47" s="26">
         <f t="shared" ref="F47:F50" si="18">IF(F46&gt;=E47,F46-E47,0)</f>
         <v>62896.2</v>
       </c>
-      <c r="G47" s="27">
+      <c r="G47" s="26">
         <f>D56</f>
         <v>4142</v>
       </c>
@@ -2529,23 +2529,23 @@
         <f t="shared" ref="B48:B52" si="19">VLOOKUP(A48,$G$37:$H$42,2,FALSE)</f>
         <v>C</v>
       </c>
-      <c r="C48" s="29">
+      <c r="C48" s="28">
         <f>VLOOKUP('прибыль проектов'!B48,'исходные данные'!$A$20:$B$25,2,FALSE)</f>
         <v>8675</v>
       </c>
-      <c r="D48" s="27">
+      <c r="D48" s="26">
         <f t="shared" ref="D48:D52" si="20">VLOOKUP(B48,$A$37:$D$42,4,FALSE)</f>
         <v>3.4</v>
       </c>
-      <c r="E48" s="27">
+      <c r="E48" s="26">
         <f t="shared" si="17"/>
         <v>29495</v>
       </c>
-      <c r="F48" s="27">
+      <c r="F48" s="26">
         <f t="shared" si="18"/>
         <v>33401.199999999997</v>
       </c>
-      <c r="G48" s="27">
+      <c r="G48" s="26">
         <f t="shared" ref="G48:G52" si="21">D57</f>
         <v>8675</v>
       </c>
@@ -2558,23 +2558,23 @@
         <f t="shared" si="19"/>
         <v>E</v>
       </c>
-      <c r="C49" s="29">
+      <c r="C49" s="28">
         <f>VLOOKUP('прибыль проектов'!B49,'исходные данные'!$A$20:$B$25,2,FALSE)</f>
         <v>8599</v>
       </c>
-      <c r="D49" s="27">
+      <c r="D49" s="26">
         <f t="shared" si="20"/>
         <v>1.9</v>
       </c>
-      <c r="E49" s="27">
+      <c r="E49" s="26">
         <f t="shared" si="17"/>
         <v>16338.099999999999</v>
       </c>
-      <c r="F49" s="27">
+      <c r="F49" s="26">
         <f t="shared" si="18"/>
         <v>17063.099999999999</v>
       </c>
-      <c r="G49" s="27">
+      <c r="G49" s="26">
         <f t="shared" si="21"/>
         <v>8599</v>
       </c>
@@ -2587,23 +2587,23 @@
         <f t="shared" si="19"/>
         <v>A</v>
       </c>
-      <c r="C50" s="29">
+      <c r="C50" s="28">
         <f>VLOOKUP('прибыль проектов'!B50,'исходные данные'!$A$20:$B$25,2,FALSE)</f>
         <v>5513</v>
       </c>
-      <c r="D50" s="27">
+      <c r="D50" s="26">
         <f t="shared" si="20"/>
         <v>2.1</v>
       </c>
-      <c r="E50" s="27">
+      <c r="E50" s="26">
         <f t="shared" si="17"/>
         <v>11577.300000000001</v>
       </c>
-      <c r="F50" s="27">
+      <c r="F50" s="26">
         <f t="shared" si="18"/>
         <v>5485.7999999999975</v>
       </c>
-      <c r="G50" s="27">
+      <c r="G50" s="26">
         <f t="shared" si="21"/>
         <v>5513</v>
       </c>
@@ -2616,23 +2616,23 @@
         <f t="shared" si="19"/>
         <v>F</v>
       </c>
-      <c r="C51" s="29">
+      <c r="C51" s="28">
         <f>VLOOKUP('прибыль проектов'!B51,'исходные данные'!$A$20:$B$25,2,FALSE)</f>
         <v>2375</v>
       </c>
-      <c r="D51" s="27">
+      <c r="D51" s="26">
         <f t="shared" si="20"/>
         <v>3.2</v>
       </c>
-      <c r="E51" s="27">
+      <c r="E51" s="26">
         <f>IF(F50&gt;=C51*D51,C51*D51,F50)</f>
         <v>5485.7999999999975</v>
       </c>
-      <c r="F51" s="27">
+      <c r="F51" s="26">
         <f>IF(F50&gt;=E51,F50-E51,0)</f>
         <v>0</v>
       </c>
-      <c r="G51" s="27">
+      <c r="G51" s="26">
         <f t="shared" si="21"/>
         <v>1714</v>
       </c>
@@ -2645,23 +2645,23 @@
         <f t="shared" si="19"/>
         <v>B</v>
       </c>
-      <c r="C52" s="29">
+      <c r="C52" s="28">
         <f>VLOOKUP('прибыль проектов'!B52,'исходные данные'!$A$20:$B$25,2,FALSE)</f>
         <v>6795</v>
       </c>
-      <c r="D52" s="27">
+      <c r="D52" s="26">
         <f t="shared" si="20"/>
         <v>3.4</v>
       </c>
-      <c r="E52" s="27">
+      <c r="E52" s="26">
         <f>IF(F51&gt;=C52*D52,C52*D52,F51)</f>
         <v>0</v>
       </c>
-      <c r="F52" s="27">
+      <c r="F52" s="26">
         <f t="shared" ref="F52" si="22">IF(F51&gt;=E52,F51-E52,0)</f>
         <v>0</v>
       </c>
-      <c r="G52" s="27">
+      <c r="G52" s="26">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
@@ -2703,19 +2703,19 @@
         <f>B37</f>
         <v>32.700000000000003</v>
       </c>
-      <c r="C56" s="29">
+      <c r="C56" s="28">
         <f>C37</f>
         <v>40.1</v>
       </c>
-      <c r="D56" s="27">
+      <c r="D56" s="26">
         <f t="shared" ref="D56:D59" si="23">_xlfn.FLOOR.MATH(E47/D47)</f>
         <v>4142</v>
       </c>
-      <c r="E56" s="27">
+      <c r="E56" s="26">
         <f>(C56-B56)*D56</f>
         <v>30650.799999999996</v>
       </c>
-      <c r="F56" s="27"/>
+      <c r="F56" s="26"/>
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2727,19 +2727,19 @@
         <f t="shared" ref="B57:C57" si="25">B38</f>
         <v>28.7</v>
       </c>
-      <c r="C57" s="29">
+      <c r="C57" s="28">
         <f t="shared" si="25"/>
         <v>37</v>
       </c>
-      <c r="D57" s="27">
+      <c r="D57" s="26">
         <f t="shared" si="23"/>
         <v>8675</v>
       </c>
-      <c r="E57" s="27">
+      <c r="E57" s="26">
         <f t="shared" ref="E57:E61" si="26">(C57-B57)*D57</f>
         <v>72002.5</v>
       </c>
-      <c r="F57" s="27"/>
+      <c r="F57" s="26"/>
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2751,19 +2751,19 @@
         <f t="shared" ref="B58:C58" si="27">B39</f>
         <v>23.7</v>
       </c>
-      <c r="C58" s="29">
+      <c r="C58" s="28">
         <f t="shared" si="27"/>
         <v>39.6</v>
       </c>
-      <c r="D58" s="27">
+      <c r="D58" s="26">
         <f t="shared" si="23"/>
         <v>8599</v>
       </c>
-      <c r="E58" s="27">
+      <c r="E58" s="26">
         <f t="shared" si="26"/>
         <v>136724.1</v>
       </c>
-      <c r="F58" s="27"/>
+      <c r="F58" s="26"/>
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -2775,19 +2775,19 @@
         <f t="shared" ref="B59:C59" si="28">B40</f>
         <v>34.4</v>
       </c>
-      <c r="C59" s="29">
+      <c r="C59" s="28">
         <f t="shared" si="28"/>
         <v>53.7</v>
       </c>
-      <c r="D59" s="27">
+      <c r="D59" s="26">
         <f t="shared" si="23"/>
         <v>5513</v>
       </c>
-      <c r="E59" s="27">
+      <c r="E59" s="26">
         <f t="shared" si="26"/>
         <v>106400.90000000002</v>
       </c>
-      <c r="F59" s="27"/>
+      <c r="F59" s="26"/>
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -2799,19 +2799,19 @@
         <f t="shared" ref="B60:C60" si="29">B41</f>
         <v>21.3</v>
       </c>
-      <c r="C60" s="29">
+      <c r="C60" s="28">
         <f t="shared" si="29"/>
         <v>30</v>
       </c>
-      <c r="D60" s="27">
+      <c r="D60" s="26">
         <f>_xlfn.FLOOR.MATH(E51/D51)</f>
         <v>1714</v>
       </c>
-      <c r="E60" s="27">
+      <c r="E60" s="26">
         <f t="shared" si="26"/>
         <v>14911.8</v>
       </c>
-      <c r="F60" s="27"/>
+      <c r="F60" s="26"/>
       <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -2823,19 +2823,19 @@
         <f t="shared" ref="B61:C61" si="30">B42</f>
         <v>22.2</v>
       </c>
-      <c r="C61" s="29">
+      <c r="C61" s="28">
         <f t="shared" si="30"/>
         <v>31.5</v>
       </c>
-      <c r="D61" s="27">
+      <c r="D61" s="26">
         <f>_xlfn.FLOOR.MATH(E52/D52)</f>
         <v>0</v>
       </c>
-      <c r="E61" s="27">
+      <c r="E61" s="26">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="F61" s="27"/>
+      <c r="F61" s="26"/>
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -2844,16 +2844,16 @@
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="27">
+      <c r="D62" s="26"/>
+      <c r="E62" s="26">
         <f>SUM(E56:E61)</f>
         <v>360690.10000000003</v>
       </c>
-      <c r="F62" s="27">
+      <c r="F62" s="26">
         <f>'исходные данные'!H4</f>
         <v>312970</v>
       </c>
-      <c r="G62" s="28">
+      <c r="G62" s="27">
         <f>E62-F62</f>
         <v>47720.100000000035</v>
       </c>
@@ -2903,23 +2903,23 @@
         <f>'исходные данные'!A29</f>
         <v>A</v>
       </c>
-      <c r="B68" s="29">
+      <c r="B68" s="28">
         <f>'исходные данные'!C29</f>
         <v>25</v>
       </c>
-      <c r="C68" s="29">
+      <c r="C68" s="28">
         <f>'исходные данные'!D29</f>
         <v>37.1</v>
       </c>
-      <c r="D68" s="27">
+      <c r="D68" s="26">
         <f>'исходные данные'!I10</f>
         <v>1.7</v>
       </c>
-      <c r="E68" s="27">
+      <c r="E68" s="26">
         <f>C68-B68</f>
         <v>12.100000000000001</v>
       </c>
-      <c r="F68" s="27">
+      <c r="F68" s="26">
         <f>E68/D68</f>
         <v>7.1176470588235308</v>
       </c>
@@ -2937,23 +2937,23 @@
         <f>'исходные данные'!A30</f>
         <v>B</v>
       </c>
-      <c r="B69" s="29">
+      <c r="B69" s="28">
         <f>'исходные данные'!C30</f>
         <v>34.700000000000003</v>
       </c>
-      <c r="C69" s="29">
+      <c r="C69" s="28">
         <f>'исходные данные'!D30</f>
         <v>53.9</v>
       </c>
-      <c r="D69" s="27">
+      <c r="D69" s="26">
         <f>'исходные данные'!I11</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="E69" s="27">
+      <c r="E69" s="26">
         <f t="shared" ref="E69:E73" si="32">C69-B69</f>
         <v>19.199999999999996</v>
       </c>
-      <c r="F69" s="27">
+      <c r="F69" s="26">
         <f t="shared" ref="F69:F73" si="33">E69/D69</f>
         <v>8.7272727272727249</v>
       </c>
@@ -2971,23 +2971,23 @@
         <f>'исходные данные'!A31</f>
         <v>C</v>
       </c>
-      <c r="B70" s="29">
+      <c r="B70" s="28">
         <f>'исходные данные'!C31</f>
         <v>26.5</v>
       </c>
-      <c r="C70" s="29">
+      <c r="C70" s="28">
         <f>'исходные данные'!D31</f>
         <v>32.700000000000003</v>
       </c>
-      <c r="D70" s="27">
+      <c r="D70" s="26">
         <f>'исходные данные'!I12</f>
         <v>1.2</v>
       </c>
-      <c r="E70" s="27">
+      <c r="E70" s="26">
         <f t="shared" si="32"/>
         <v>6.2000000000000028</v>
       </c>
-      <c r="F70" s="27">
+      <c r="F70" s="26">
         <f t="shared" si="33"/>
         <v>5.1666666666666696</v>
       </c>
@@ -3005,23 +3005,23 @@
         <f>'исходные данные'!A32</f>
         <v>D</v>
       </c>
-      <c r="B71" s="29">
+      <c r="B71" s="28">
         <f>'исходные данные'!C32</f>
         <v>28.9</v>
       </c>
-      <c r="C71" s="29">
+      <c r="C71" s="28">
         <f>'исходные данные'!D32</f>
         <v>39.700000000000003</v>
       </c>
-      <c r="D71" s="27">
+      <c r="D71" s="26">
         <f>'исходные данные'!I13</f>
         <v>1.5</v>
       </c>
-      <c r="E71" s="27">
+      <c r="E71" s="26">
         <f t="shared" si="32"/>
         <v>10.800000000000004</v>
       </c>
-      <c r="F71" s="27">
+      <c r="F71" s="26">
         <f t="shared" si="33"/>
         <v>7.2000000000000028</v>
       </c>
@@ -3039,23 +3039,23 @@
         <f>'исходные данные'!A33</f>
         <v>E</v>
       </c>
-      <c r="B72" s="29">
+      <c r="B72" s="28">
         <f>'исходные данные'!C33</f>
         <v>22.8</v>
       </c>
-      <c r="C72" s="29">
+      <c r="C72" s="28">
         <f>'исходные данные'!D33</f>
         <v>41.2</v>
       </c>
-      <c r="D72" s="27">
+      <c r="D72" s="26">
         <f>'исходные данные'!I14</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="E72" s="27">
+      <c r="E72" s="26">
         <f t="shared" si="32"/>
         <v>18.400000000000002</v>
       </c>
-      <c r="F72" s="27">
+      <c r="F72" s="26">
         <f t="shared" si="33"/>
         <v>16.727272727272727</v>
       </c>
@@ -3073,23 +3073,23 @@
         <f>'исходные данные'!A34</f>
         <v>F</v>
       </c>
-      <c r="B73" s="29">
+      <c r="B73" s="28">
         <f>'исходные данные'!C34</f>
         <v>28.1</v>
       </c>
-      <c r="C73" s="29">
+      <c r="C73" s="28">
         <f>'исходные данные'!D34</f>
         <v>46.9</v>
       </c>
-      <c r="D73" s="27">
+      <c r="D73" s="26">
         <f>'исходные данные'!I15</f>
         <v>2.5</v>
       </c>
-      <c r="E73" s="27">
+      <c r="E73" s="26">
         <f t="shared" si="32"/>
         <v>18.799999999999997</v>
       </c>
-      <c r="F73" s="27">
+      <c r="F73" s="26">
         <f t="shared" si="33"/>
         <v>7.5199999999999987</v>
       </c>
@@ -3136,11 +3136,11 @@
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
-      <c r="F77" s="27">
+      <c r="F77" s="26">
         <f>'исходные данные'!I16</f>
         <v>38122</v>
       </c>
-      <c r="G77" s="27"/>
+      <c r="G77" s="26"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
@@ -3150,23 +3150,23 @@
         <f>VLOOKUP(A78,$G$68:$H$73,2,FALSE)</f>
         <v>E</v>
       </c>
-      <c r="C78" s="27">
+      <c r="C78" s="26">
         <f>VLOOKUP('прибыль проектов'!B78,'исходные данные'!$A$29:$B$34,2,FALSE)</f>
         <v>6723</v>
       </c>
-      <c r="D78" s="27">
+      <c r="D78" s="26">
         <f>VLOOKUP(B78,$A$68:$D$73,4,FALSE)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="E78" s="27">
+      <c r="E78" s="26">
         <f t="shared" ref="E78:E81" si="35">IF(F77&gt;=C78*D78,C78*D78,F77)</f>
         <v>7395.3</v>
       </c>
-      <c r="F78" s="27">
+      <c r="F78" s="26">
         <f t="shared" ref="F78:F81" si="36">IF(F77&gt;=E78,F77-E78,0)</f>
         <v>30726.7</v>
       </c>
-      <c r="G78" s="27">
+      <c r="G78" s="26">
         <f>D87</f>
         <v>6723</v>
       </c>
@@ -3179,23 +3179,23 @@
         <f t="shared" ref="B79:B83" si="37">VLOOKUP(A79,$G$68:$H$73,2,FALSE)</f>
         <v>B</v>
       </c>
-      <c r="C79" s="27">
+      <c r="C79" s="26">
         <f>VLOOKUP('прибыль проектов'!B79,'исходные данные'!$A$29:$B$34,2,FALSE)</f>
         <v>8539</v>
       </c>
-      <c r="D79" s="27">
+      <c r="D79" s="26">
         <f t="shared" ref="D79:D83" si="38">VLOOKUP(B79,$A$68:$D$73,4,FALSE)</f>
         <v>2.2000000000000002</v>
       </c>
-      <c r="E79" s="27">
+      <c r="E79" s="26">
         <f t="shared" si="35"/>
         <v>18785.800000000003</v>
       </c>
-      <c r="F79" s="27">
+      <c r="F79" s="26">
         <f t="shared" si="36"/>
         <v>11940.899999999998</v>
       </c>
-      <c r="G79" s="27">
+      <c r="G79" s="26">
         <f t="shared" ref="G79:G83" si="39">D88</f>
         <v>8539</v>
       </c>
@@ -3208,23 +3208,23 @@
         <f t="shared" si="37"/>
         <v>F</v>
       </c>
-      <c r="C80" s="27">
+      <c r="C80" s="26">
         <f>VLOOKUP('прибыль проектов'!B80,'исходные данные'!$A$29:$B$34,2,FALSE)</f>
         <v>8528</v>
       </c>
-      <c r="D80" s="27">
+      <c r="D80" s="26">
         <f t="shared" si="38"/>
         <v>2.5</v>
       </c>
-      <c r="E80" s="27">
+      <c r="E80" s="26">
         <f t="shared" si="35"/>
         <v>11940.899999999998</v>
       </c>
-      <c r="F80" s="27">
+      <c r="F80" s="26">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="G80" s="27">
+      <c r="G80" s="26">
         <f t="shared" si="39"/>
         <v>4776</v>
       </c>
@@ -3237,23 +3237,23 @@
         <f t="shared" si="37"/>
         <v>D</v>
       </c>
-      <c r="C81" s="27">
+      <c r="C81" s="26">
         <f>VLOOKUP('прибыль проектов'!B81,'исходные данные'!$A$29:$B$34,2,FALSE)</f>
         <v>7534</v>
       </c>
-      <c r="D81" s="27">
+      <c r="D81" s="26">
         <f t="shared" si="38"/>
         <v>1.5</v>
       </c>
-      <c r="E81" s="27">
+      <c r="E81" s="26">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="F81" s="27">
+      <c r="F81" s="26">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="G81" s="27">
+      <c r="G81" s="26">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
@@ -3266,23 +3266,23 @@
         <f t="shared" si="37"/>
         <v>A</v>
       </c>
-      <c r="C82" s="27">
+      <c r="C82" s="26">
         <f>VLOOKUP('прибыль проектов'!B82,'исходные данные'!$A$29:$B$34,2,FALSE)</f>
         <v>6631</v>
       </c>
-      <c r="D82" s="27">
+      <c r="D82" s="26">
         <f t="shared" si="38"/>
         <v>1.7</v>
       </c>
-      <c r="E82" s="27">
+      <c r="E82" s="26">
         <f>IF(F81&gt;=C82*D82,C82*D82,F81)</f>
         <v>0</v>
       </c>
-      <c r="F82" s="27">
+      <c r="F82" s="26">
         <f>IF(F81&gt;=E82,F81-E82,0)</f>
         <v>0</v>
       </c>
-      <c r="G82" s="27">
+      <c r="G82" s="26">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
@@ -3295,23 +3295,23 @@
         <f t="shared" si="37"/>
         <v>C</v>
       </c>
-      <c r="C83" s="27">
+      <c r="C83" s="26">
         <f>VLOOKUP('прибыль проектов'!B83,'исходные данные'!$A$29:$B$34,2,FALSE)</f>
         <v>3841</v>
       </c>
-      <c r="D83" s="27">
+      <c r="D83" s="26">
         <f t="shared" si="38"/>
         <v>1.2</v>
       </c>
-      <c r="E83" s="27">
+      <c r="E83" s="26">
         <f>IF(F82&gt;=C83*D83,C83*D83,F82)</f>
         <v>0</v>
       </c>
-      <c r="F83" s="27">
+      <c r="F83" s="26">
         <f t="shared" ref="F83" si="40">IF(F82&gt;=E83,F82-E83,0)</f>
         <v>0</v>
       </c>
-      <c r="G83" s="27">
+      <c r="G83" s="26">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
@@ -3349,161 +3349,161 @@
         <f>B78</f>
         <v>E</v>
       </c>
-      <c r="B87" s="27">
+      <c r="B87" s="26">
         <f>B68</f>
         <v>25</v>
       </c>
-      <c r="C87" s="27">
+      <c r="C87" s="26">
         <f>C68</f>
         <v>37.1</v>
       </c>
-      <c r="D87" s="27">
+      <c r="D87" s="26">
         <f t="shared" ref="D87:D90" si="41">_xlfn.FLOOR.MATH(E78/D78)</f>
         <v>6723</v>
       </c>
-      <c r="E87" s="27">
+      <c r="E87" s="26">
         <f>(C87-B87)*D87</f>
         <v>81348.3</v>
       </c>
-      <c r="F87" s="27"/>
-      <c r="G87" s="27"/>
+      <c r="F87" s="26"/>
+      <c r="G87" s="26"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="16" t="str">
         <f t="shared" ref="A88:A92" si="42">B79</f>
         <v>B</v>
       </c>
-      <c r="B88" s="27">
+      <c r="B88" s="26">
         <f t="shared" ref="B88:C88" si="43">B69</f>
         <v>34.700000000000003</v>
       </c>
-      <c r="C88" s="27">
+      <c r="C88" s="26">
         <f t="shared" si="43"/>
         <v>53.9</v>
       </c>
-      <c r="D88" s="27">
+      <c r="D88" s="26">
         <f t="shared" si="41"/>
         <v>8539</v>
       </c>
-      <c r="E88" s="27">
+      <c r="E88" s="26">
         <f t="shared" ref="E88:E92" si="44">(C88-B88)*D88</f>
         <v>163948.79999999996</v>
       </c>
-      <c r="F88" s="27"/>
-      <c r="G88" s="27"/>
+      <c r="F88" s="26"/>
+      <c r="G88" s="26"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="16" t="str">
         <f t="shared" si="42"/>
         <v>F</v>
       </c>
-      <c r="B89" s="27">
+      <c r="B89" s="26">
         <f t="shared" ref="B89:C89" si="45">B70</f>
         <v>26.5</v>
       </c>
-      <c r="C89" s="27">
+      <c r="C89" s="26">
         <f t="shared" si="45"/>
         <v>32.700000000000003</v>
       </c>
-      <c r="D89" s="27">
+      <c r="D89" s="26">
         <f t="shared" si="41"/>
         <v>4776</v>
       </c>
-      <c r="E89" s="27">
+      <c r="E89" s="26">
         <f t="shared" si="44"/>
         <v>29611.200000000015</v>
       </c>
-      <c r="F89" s="27"/>
-      <c r="G89" s="27"/>
+      <c r="F89" s="26"/>
+      <c r="G89" s="26"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="16" t="str">
         <f t="shared" si="42"/>
         <v>D</v>
       </c>
-      <c r="B90" s="27">
+      <c r="B90" s="26">
         <f t="shared" ref="B90:C90" si="46">B71</f>
         <v>28.9</v>
       </c>
-      <c r="C90" s="27">
+      <c r="C90" s="26">
         <f t="shared" si="46"/>
         <v>39.700000000000003</v>
       </c>
-      <c r="D90" s="27">
+      <c r="D90" s="26">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="E90" s="27">
+      <c r="E90" s="26">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="F90" s="27"/>
-      <c r="G90" s="27"/>
+      <c r="F90" s="26"/>
+      <c r="G90" s="26"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="16" t="str">
         <f t="shared" si="42"/>
         <v>A</v>
       </c>
-      <c r="B91" s="27">
+      <c r="B91" s="26">
         <f t="shared" ref="B91:C91" si="47">B72</f>
         <v>22.8</v>
       </c>
-      <c r="C91" s="27">
+      <c r="C91" s="26">
         <f t="shared" si="47"/>
         <v>41.2</v>
       </c>
-      <c r="D91" s="27">
+      <c r="D91" s="26">
         <f>_xlfn.FLOOR.MATH(E82/D82)</f>
         <v>0</v>
       </c>
-      <c r="E91" s="27">
+      <c r="E91" s="26">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="F91" s="27"/>
-      <c r="G91" s="27"/>
+      <c r="F91" s="26"/>
+      <c r="G91" s="26"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="16" t="str">
         <f t="shared" si="42"/>
         <v>C</v>
       </c>
-      <c r="B92" s="27">
+      <c r="B92" s="26">
         <f t="shared" ref="B92:C92" si="48">B73</f>
         <v>28.1</v>
       </c>
-      <c r="C92" s="27">
+      <c r="C92" s="26">
         <f t="shared" si="48"/>
         <v>46.9</v>
       </c>
-      <c r="D92" s="27">
+      <c r="D92" s="26">
         <f>_xlfn.FLOOR.MATH(E83/D83)</f>
         <v>0</v>
       </c>
-      <c r="E92" s="27">
+      <c r="E92" s="26">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="F92" s="27"/>
-      <c r="G92" s="27"/>
+      <c r="F92" s="26"/>
+      <c r="G92" s="26"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B93" s="27"/>
-      <c r="C93" s="27"/>
-      <c r="D93" s="27"/>
-      <c r="E93" s="27">
+      <c r="B93" s="26"/>
+      <c r="C93" s="26"/>
+      <c r="D93" s="26"/>
+      <c r="E93" s="26">
         <f>SUM(E87:E92)</f>
         <v>274908.3</v>
       </c>
-      <c r="F93" s="27">
+      <c r="F93" s="26">
         <f>'исходные данные'!I4</f>
         <v>346866</v>
       </c>
-      <c r="G93" s="28">
+      <c r="G93" s="27">
         <f>E93-F93</f>
         <v>-71957.700000000012</v>
       </c>
@@ -3553,23 +3553,23 @@
         <f>'исходные данные'!A38</f>
         <v>A</v>
       </c>
-      <c r="B99" s="29">
+      <c r="B99" s="28">
         <f>'исходные данные'!C38</f>
         <v>22</v>
       </c>
-      <c r="C99" s="29">
+      <c r="C99" s="28">
         <f>'исходные данные'!D38</f>
         <v>28.8</v>
       </c>
-      <c r="D99" s="27">
+      <c r="D99" s="26">
         <f>'исходные данные'!J10</f>
         <v>1.5</v>
       </c>
-      <c r="E99" s="27">
+      <c r="E99" s="26">
         <f>C99-B99</f>
         <v>6.8000000000000007</v>
       </c>
-      <c r="F99" s="27">
+      <c r="F99" s="26">
         <f>E99/D99</f>
         <v>4.5333333333333341</v>
       </c>
@@ -3587,23 +3587,23 @@
         <f>'исходные данные'!A39</f>
         <v>B</v>
       </c>
-      <c r="B100" s="29">
+      <c r="B100" s="28">
         <f>'исходные данные'!C39</f>
         <v>21</v>
       </c>
-      <c r="C100" s="29">
+      <c r="C100" s="28">
         <f>'исходные данные'!D39</f>
         <v>37.9</v>
       </c>
-      <c r="D100" s="27">
+      <c r="D100" s="26">
         <f>'исходные данные'!J11</f>
         <v>1.7</v>
       </c>
-      <c r="E100" s="27">
+      <c r="E100" s="26">
         <f t="shared" ref="E100:E104" si="50">C100-B100</f>
         <v>16.899999999999999</v>
       </c>
-      <c r="F100" s="27">
+      <c r="F100" s="26">
         <f t="shared" ref="F100:F104" si="51">E100/D100</f>
         <v>9.9411764705882355</v>
       </c>
@@ -3621,23 +3621,23 @@
         <f>'исходные данные'!A40</f>
         <v>C</v>
       </c>
-      <c r="B101" s="29">
+      <c r="B101" s="28">
         <f>'исходные данные'!C40</f>
         <v>32.799999999999997</v>
       </c>
-      <c r="C101" s="29">
+      <c r="C101" s="28">
         <f>'исходные данные'!D40</f>
         <v>49.9</v>
       </c>
-      <c r="D101" s="27">
+      <c r="D101" s="26">
         <f>'исходные данные'!J12</f>
         <v>2.1</v>
       </c>
-      <c r="E101" s="27">
+      <c r="E101" s="26">
         <f t="shared" si="50"/>
         <v>17.100000000000001</v>
       </c>
-      <c r="F101" s="27">
+      <c r="F101" s="26">
         <f t="shared" si="51"/>
         <v>8.1428571428571423</v>
       </c>
@@ -3655,23 +3655,23 @@
         <f>'исходные данные'!A41</f>
         <v>D</v>
       </c>
-      <c r="B102" s="29">
+      <c r="B102" s="28">
         <f>'исходные данные'!C41</f>
         <v>33.799999999999997</v>
       </c>
-      <c r="C102" s="29">
+      <c r="C102" s="28">
         <f>'исходные данные'!D41</f>
         <v>50.9</v>
       </c>
-      <c r="D102" s="27">
+      <c r="D102" s="26">
         <f>'исходные данные'!J13</f>
         <v>1.9</v>
       </c>
-      <c r="E102" s="27">
+      <c r="E102" s="26">
         <f t="shared" si="50"/>
         <v>17.100000000000001</v>
       </c>
-      <c r="F102" s="27">
+      <c r="F102" s="26">
         <f t="shared" si="51"/>
         <v>9.0000000000000018</v>
       </c>
@@ -3689,23 +3689,23 @@
         <f>'исходные данные'!A42</f>
         <v>E</v>
       </c>
-      <c r="B103" s="29">
+      <c r="B103" s="28">
         <f>'исходные данные'!C42</f>
         <v>33.6</v>
       </c>
-      <c r="C103" s="29">
+      <c r="C103" s="28">
         <f>'исходные данные'!D42</f>
         <v>47.8</v>
       </c>
-      <c r="D103" s="27">
+      <c r="D103" s="26">
         <f>'исходные данные'!J14</f>
         <v>3.2</v>
       </c>
-      <c r="E103" s="27">
+      <c r="E103" s="26">
         <f t="shared" si="50"/>
         <v>14.199999999999996</v>
       </c>
-      <c r="F103" s="27">
+      <c r="F103" s="26">
         <f t="shared" si="51"/>
         <v>4.4374999999999982</v>
       </c>
@@ -3723,23 +3723,23 @@
         <f>'исходные данные'!A43</f>
         <v>F</v>
       </c>
-      <c r="B104" s="29">
+      <c r="B104" s="28">
         <f>'исходные данные'!C43</f>
         <v>24.9</v>
       </c>
-      <c r="C104" s="29">
+      <c r="C104" s="28">
         <f>'исходные данные'!D43</f>
         <v>31.9</v>
       </c>
-      <c r="D104" s="27">
+      <c r="D104" s="26">
         <f>'исходные данные'!J15</f>
         <v>2.7</v>
       </c>
-      <c r="E104" s="27">
+      <c r="E104" s="26">
         <f t="shared" si="50"/>
         <v>7</v>
       </c>
-      <c r="F104" s="27">
+      <c r="F104" s="26">
         <f t="shared" si="51"/>
         <v>2.5925925925925926</v>
       </c>
@@ -3783,14 +3783,14 @@
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
-      <c r="C108" s="27"/>
-      <c r="D108" s="27"/>
-      <c r="E108" s="27"/>
-      <c r="F108" s="27">
+      <c r="C108" s="26"/>
+      <c r="D108" s="26"/>
+      <c r="E108" s="26"/>
+      <c r="F108" s="26">
         <f>'исходные данные'!J16</f>
         <v>46451</v>
       </c>
-      <c r="G108" s="27"/>
+      <c r="G108" s="26"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
@@ -3800,23 +3800,23 @@
         <f>VLOOKUP(A109,$G$99:$H$104,2,FALSE)</f>
         <v>B</v>
       </c>
-      <c r="C109" s="27">
+      <c r="C109" s="26">
         <f>VLOOKUP('прибыль проектов'!B109,'исходные данные'!$A$38:$B$43,2,FALSE)</f>
         <v>4889</v>
       </c>
-      <c r="D109" s="27">
+      <c r="D109" s="26">
         <f>VLOOKUP(B109,$A$99:$D$104,4,FALSE)</f>
         <v>1.7</v>
       </c>
-      <c r="E109" s="27">
+      <c r="E109" s="26">
         <f t="shared" ref="E109:E112" si="53">IF(F108&gt;=C109*D109,C109*D109,F108)</f>
         <v>8311.2999999999993</v>
       </c>
-      <c r="F109" s="27">
+      <c r="F109" s="26">
         <f t="shared" ref="F109:F112" si="54">IF(F108&gt;=E109,F108-E109,0)</f>
         <v>38139.699999999997</v>
       </c>
-      <c r="G109" s="27">
+      <c r="G109" s="26">
         <f>D118</f>
         <v>4889</v>
       </c>
@@ -3829,23 +3829,23 @@
         <f t="shared" ref="B110:B114" si="55">VLOOKUP(A110,$G$99:$H$104,2,FALSE)</f>
         <v>D</v>
       </c>
-      <c r="C110" s="27">
+      <c r="C110" s="26">
         <f>VLOOKUP('прибыль проектов'!B110,'исходные данные'!$A$38:$B$43,2,FALSE)</f>
         <v>2012</v>
       </c>
-      <c r="D110" s="27">
+      <c r="D110" s="26">
         <f t="shared" ref="D110:D114" si="56">VLOOKUP(B110,$A$99:$D$104,4,FALSE)</f>
         <v>1.9</v>
       </c>
-      <c r="E110" s="27">
+      <c r="E110" s="26">
         <f t="shared" si="53"/>
         <v>3822.7999999999997</v>
       </c>
-      <c r="F110" s="27">
+      <c r="F110" s="26">
         <f t="shared" si="54"/>
         <v>34316.899999999994</v>
       </c>
-      <c r="G110" s="27">
+      <c r="G110" s="26">
         <f t="shared" ref="G110:G114" si="57">D119</f>
         <v>2012</v>
       </c>
@@ -3858,23 +3858,23 @@
         <f t="shared" si="55"/>
         <v>C</v>
       </c>
-      <c r="C111" s="27">
+      <c r="C111" s="26">
         <f>VLOOKUP('прибыль проектов'!B111,'исходные данные'!$A$38:$B$43,2,FALSE)</f>
         <v>7365</v>
       </c>
-      <c r="D111" s="27">
+      <c r="D111" s="26">
         <f t="shared" si="56"/>
         <v>2.1</v>
       </c>
-      <c r="E111" s="27">
+      <c r="E111" s="26">
         <f t="shared" si="53"/>
         <v>15466.5</v>
       </c>
-      <c r="F111" s="27">
+      <c r="F111" s="26">
         <f t="shared" si="54"/>
         <v>18850.399999999994</v>
       </c>
-      <c r="G111" s="27">
+      <c r="G111" s="26">
         <f t="shared" si="57"/>
         <v>7365</v>
       </c>
@@ -3887,23 +3887,23 @@
         <f t="shared" si="55"/>
         <v>A</v>
       </c>
-      <c r="C112" s="27">
+      <c r="C112" s="26">
         <f>VLOOKUP('прибыль проектов'!B112,'исходные данные'!$A$38:$B$43,2,FALSE)</f>
         <v>6603</v>
       </c>
-      <c r="D112" s="27">
+      <c r="D112" s="26">
         <f t="shared" si="56"/>
         <v>1.5</v>
       </c>
-      <c r="E112" s="27">
+      <c r="E112" s="26">
         <f t="shared" si="53"/>
         <v>9904.5</v>
       </c>
-      <c r="F112" s="27">
+      <c r="F112" s="26">
         <f t="shared" si="54"/>
         <v>8945.8999999999942</v>
       </c>
-      <c r="G112" s="27">
+      <c r="G112" s="26">
         <f t="shared" si="57"/>
         <v>6603</v>
       </c>
@@ -3916,23 +3916,23 @@
         <f t="shared" si="55"/>
         <v>E</v>
       </c>
-      <c r="C113" s="27">
+      <c r="C113" s="26">
         <f>VLOOKUP('прибыль проектов'!B113,'исходные данные'!$A$38:$B$43,2,FALSE)</f>
         <v>7387</v>
       </c>
-      <c r="D113" s="27">
+      <c r="D113" s="26">
         <f t="shared" si="56"/>
         <v>3.2</v>
       </c>
-      <c r="E113" s="27">
+      <c r="E113" s="26">
         <f>IF(F112&gt;=C113*D113,C113*D113,F112)</f>
         <v>8945.8999999999942</v>
       </c>
-      <c r="F113" s="27">
+      <c r="F113" s="26">
         <f>IF(F112&gt;=E113,F112-E113,0)</f>
         <v>0</v>
       </c>
-      <c r="G113" s="27">
+      <c r="G113" s="26">
         <f t="shared" si="57"/>
         <v>2795</v>
       </c>
@@ -3945,23 +3945,23 @@
         <f t="shared" si="55"/>
         <v>F</v>
       </c>
-      <c r="C114" s="27">
+      <c r="C114" s="26">
         <f>VLOOKUP('прибыль проектов'!B114,'исходные данные'!$A$38:$B$43,2,FALSE)</f>
         <v>7181</v>
       </c>
-      <c r="D114" s="27">
+      <c r="D114" s="26">
         <f t="shared" si="56"/>
         <v>2.7</v>
       </c>
-      <c r="E114" s="27">
+      <c r="E114" s="26">
         <f>IF(F113&gt;=C114*D114,C114*D114,F113)</f>
         <v>0</v>
       </c>
-      <c r="F114" s="27">
+      <c r="F114" s="26">
         <f t="shared" ref="F114" si="58">IF(F113&gt;=E114,F113-E114,0)</f>
         <v>0</v>
       </c>
-      <c r="G114" s="27">
+      <c r="G114" s="26">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
@@ -3999,161 +3999,161 @@
         <f>B109</f>
         <v>B</v>
       </c>
-      <c r="B118" s="27">
+      <c r="B118" s="26">
         <f>B99</f>
         <v>22</v>
       </c>
-      <c r="C118" s="27">
+      <c r="C118" s="26">
         <f>C99</f>
         <v>28.8</v>
       </c>
-      <c r="D118" s="27">
+      <c r="D118" s="26">
         <f t="shared" ref="D118:D121" si="59">_xlfn.FLOOR.MATH(E109/D109)</f>
         <v>4889</v>
       </c>
-      <c r="E118" s="27">
+      <c r="E118" s="26">
         <f>(C118-B118)*D118</f>
         <v>33245.200000000004</v>
       </c>
-      <c r="F118" s="27"/>
-      <c r="G118" s="27"/>
+      <c r="F118" s="26"/>
+      <c r="G118" s="26"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="16" t="str">
         <f t="shared" ref="A119:A123" si="60">B110</f>
         <v>D</v>
       </c>
-      <c r="B119" s="27">
+      <c r="B119" s="26">
         <f t="shared" ref="B119:C119" si="61">B100</f>
         <v>21</v>
       </c>
-      <c r="C119" s="27">
+      <c r="C119" s="26">
         <f t="shared" si="61"/>
         <v>37.9</v>
       </c>
-      <c r="D119" s="27">
+      <c r="D119" s="26">
         <f t="shared" si="59"/>
         <v>2012</v>
       </c>
-      <c r="E119" s="27">
+      <c r="E119" s="26">
         <f t="shared" ref="E119:E123" si="62">(C119-B119)*D119</f>
         <v>34002.799999999996</v>
       </c>
-      <c r="F119" s="27"/>
-      <c r="G119" s="27"/>
+      <c r="F119" s="26"/>
+      <c r="G119" s="26"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="16" t="str">
         <f t="shared" si="60"/>
         <v>C</v>
       </c>
-      <c r="B120" s="27">
+      <c r="B120" s="26">
         <f t="shared" ref="B120:C120" si="63">B101</f>
         <v>32.799999999999997</v>
       </c>
-      <c r="C120" s="27">
+      <c r="C120" s="26">
         <f t="shared" si="63"/>
         <v>49.9</v>
       </c>
-      <c r="D120" s="27">
+      <c r="D120" s="26">
         <f t="shared" si="59"/>
         <v>7365</v>
       </c>
-      <c r="E120" s="27">
+      <c r="E120" s="26">
         <f t="shared" si="62"/>
         <v>125941.50000000001</v>
       </c>
-      <c r="F120" s="27"/>
-      <c r="G120" s="27"/>
+      <c r="F120" s="26"/>
+      <c r="G120" s="26"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="16" t="str">
         <f t="shared" si="60"/>
         <v>A</v>
       </c>
-      <c r="B121" s="27">
+      <c r="B121" s="26">
         <f t="shared" ref="B121:C121" si="64">B102</f>
         <v>33.799999999999997</v>
       </c>
-      <c r="C121" s="27">
+      <c r="C121" s="26">
         <f t="shared" si="64"/>
         <v>50.9</v>
       </c>
-      <c r="D121" s="27">
+      <c r="D121" s="26">
         <f t="shared" si="59"/>
         <v>6603</v>
       </c>
-      <c r="E121" s="27">
+      <c r="E121" s="26">
         <f t="shared" si="62"/>
         <v>112911.3</v>
       </c>
-      <c r="F121" s="27"/>
-      <c r="G121" s="27"/>
+      <c r="F121" s="26"/>
+      <c r="G121" s="26"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="16" t="str">
         <f t="shared" si="60"/>
         <v>E</v>
       </c>
-      <c r="B122" s="27">
+      <c r="B122" s="26">
         <f t="shared" ref="B122:C122" si="65">B103</f>
         <v>33.6</v>
       </c>
-      <c r="C122" s="27">
+      <c r="C122" s="26">
         <f t="shared" si="65"/>
         <v>47.8</v>
       </c>
-      <c r="D122" s="27">
+      <c r="D122" s="26">
         <f>_xlfn.FLOOR.MATH(E113/D113)</f>
         <v>2795</v>
       </c>
-      <c r="E122" s="27">
+      <c r="E122" s="26">
         <f t="shared" si="62"/>
         <v>39688.999999999985</v>
       </c>
-      <c r="F122" s="27"/>
-      <c r="G122" s="27"/>
+      <c r="F122" s="26"/>
+      <c r="G122" s="26"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="16" t="str">
         <f t="shared" si="60"/>
         <v>F</v>
       </c>
-      <c r="B123" s="27">
+      <c r="B123" s="26">
         <f t="shared" ref="B123:C123" si="66">B104</f>
         <v>24.9</v>
       </c>
-      <c r="C123" s="27">
+      <c r="C123" s="26">
         <f t="shared" si="66"/>
         <v>31.9</v>
       </c>
-      <c r="D123" s="27">
+      <c r="D123" s="26">
         <f>_xlfn.FLOOR.MATH(E114/D114)</f>
         <v>0</v>
       </c>
-      <c r="E123" s="27">
+      <c r="E123" s="26">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="F123" s="27"/>
-      <c r="G123" s="27"/>
+      <c r="F123" s="26"/>
+      <c r="G123" s="26"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B124" s="27"/>
-      <c r="C124" s="27"/>
-      <c r="D124" s="27"/>
-      <c r="E124" s="27">
+      <c r="B124" s="26"/>
+      <c r="C124" s="26"/>
+      <c r="D124" s="26"/>
+      <c r="E124" s="26">
         <f>SUM(E118:E123)</f>
         <v>345789.8</v>
       </c>
-      <c r="F124" s="27">
+      <c r="F124" s="26">
         <f>'исходные данные'!J4</f>
         <v>297144</v>
       </c>
-      <c r="G124" s="28">
+      <c r="G124" s="27">
         <f>E124-F124</f>
         <v>48645.799999999988</v>
       </c>
@@ -4203,27 +4203,27 @@
         <f>'исходные данные'!A47</f>
         <v>A</v>
       </c>
-      <c r="B130" s="29">
+      <c r="B130" s="28">
         <f>'исходные данные'!C47</f>
         <v>23.7</v>
       </c>
-      <c r="C130" s="29">
+      <c r="C130" s="28">
         <f>'исходные данные'!D47</f>
         <v>31.8</v>
       </c>
-      <c r="D130" s="27">
+      <c r="D130" s="26">
         <f>'исходные данные'!K10</f>
         <v>1.4</v>
       </c>
-      <c r="E130" s="27">
+      <c r="E130" s="26">
         <f>C130-B130</f>
         <v>8.1000000000000014</v>
       </c>
-      <c r="F130" s="27">
+      <c r="F130" s="26">
         <f>E130/D130</f>
         <v>5.7857142857142874</v>
       </c>
-      <c r="G130" s="27">
+      <c r="G130" s="26">
         <f>_xlfn.RANK.EQ(F130,$F$130:$F$135)</f>
         <v>6</v>
       </c>
@@ -4237,27 +4237,27 @@
         <f>'исходные данные'!A48</f>
         <v>B</v>
       </c>
-      <c r="B131" s="29">
+      <c r="B131" s="28">
         <f>'исходные данные'!C48</f>
         <v>26.6</v>
       </c>
-      <c r="C131" s="29">
+      <c r="C131" s="28">
         <f>'исходные данные'!D48</f>
         <v>45.2</v>
       </c>
-      <c r="D131" s="27">
+      <c r="D131" s="26">
         <f>'исходные данные'!K11</f>
         <v>1.3</v>
       </c>
-      <c r="E131" s="27">
+      <c r="E131" s="26">
         <f t="shared" ref="E131:E135" si="68">C131-B131</f>
         <v>18.600000000000001</v>
       </c>
-      <c r="F131" s="27">
+      <c r="F131" s="26">
         <f t="shared" ref="F131:F135" si="69">E131/D131</f>
         <v>14.307692307692308</v>
       </c>
-      <c r="G131" s="27">
+      <c r="G131" s="26">
         <f t="shared" ref="G131:G135" si="70">_xlfn.RANK.EQ(F131,$F$130:$F$135)</f>
         <v>2</v>
       </c>
@@ -4271,27 +4271,27 @@
         <f>'исходные данные'!A49</f>
         <v>C</v>
       </c>
-      <c r="B132" s="29">
+      <c r="B132" s="28">
         <f>'исходные данные'!C49</f>
         <v>24.9</v>
       </c>
-      <c r="C132" s="29">
+      <c r="C132" s="28">
         <f>'исходные данные'!D49</f>
         <v>31.8</v>
       </c>
-      <c r="D132" s="27">
+      <c r="D132" s="26">
         <f>'исходные данные'!K12</f>
         <v>1</v>
       </c>
-      <c r="E132" s="27">
+      <c r="E132" s="26">
         <f t="shared" si="68"/>
         <v>6.9000000000000021</v>
       </c>
-      <c r="F132" s="27">
+      <c r="F132" s="26">
         <f t="shared" si="69"/>
         <v>6.9000000000000021</v>
       </c>
-      <c r="G132" s="27">
+      <c r="G132" s="26">
         <f t="shared" si="70"/>
         <v>4</v>
       </c>
@@ -4305,27 +4305,27 @@
         <f>'исходные данные'!A50</f>
         <v>D</v>
       </c>
-      <c r="B133" s="29">
+      <c r="B133" s="28">
         <f>'исходные данные'!C50</f>
         <v>32.9</v>
       </c>
-      <c r="C133" s="29">
+      <c r="C133" s="28">
         <f>'исходные данные'!D50</f>
         <v>50.9</v>
       </c>
-      <c r="D133" s="27">
+      <c r="D133" s="26">
         <f>'исходные данные'!K13</f>
         <v>0.9</v>
       </c>
-      <c r="E133" s="27">
+      <c r="E133" s="26">
         <f t="shared" si="68"/>
         <v>18</v>
       </c>
-      <c r="F133" s="27">
+      <c r="F133" s="26">
         <f t="shared" si="69"/>
         <v>20</v>
       </c>
-      <c r="G133" s="27">
+      <c r="G133" s="26">
         <f t="shared" si="70"/>
         <v>1</v>
       </c>
@@ -4339,27 +4339,27 @@
         <f>'исходные данные'!A51</f>
         <v>E</v>
       </c>
-      <c r="B134" s="29">
+      <c r="B134" s="28">
         <f>'исходные данные'!C51</f>
         <v>24.9</v>
       </c>
-      <c r="C134" s="29">
+      <c r="C134" s="28">
         <f>'исходные данные'!D51</f>
         <v>40.200000000000003</v>
       </c>
-      <c r="D134" s="27">
+      <c r="D134" s="26">
         <f>'исходные данные'!K14</f>
         <v>2.4</v>
       </c>
-      <c r="E134" s="27">
+      <c r="E134" s="26">
         <f t="shared" si="68"/>
         <v>15.300000000000004</v>
       </c>
-      <c r="F134" s="27">
+      <c r="F134" s="26">
         <f t="shared" si="69"/>
         <v>6.3750000000000018</v>
       </c>
-      <c r="G134" s="27">
+      <c r="G134" s="26">
         <f t="shared" si="70"/>
         <v>5</v>
       </c>
@@ -4373,27 +4373,27 @@
         <f>'исходные данные'!A52</f>
         <v>F</v>
       </c>
-      <c r="B135" s="29">
+      <c r="B135" s="28">
         <f>'исходные данные'!C52</f>
         <v>23.1</v>
       </c>
-      <c r="C135" s="29">
+      <c r="C135" s="28">
         <f>'исходные данные'!D52</f>
         <v>40.9</v>
       </c>
-      <c r="D135" s="27">
+      <c r="D135" s="26">
         <f>'исходные данные'!K15</f>
         <v>1.9</v>
       </c>
-      <c r="E135" s="27">
+      <c r="E135" s="26">
         <f t="shared" si="68"/>
         <v>17.799999999999997</v>
       </c>
-      <c r="F135" s="27">
+      <c r="F135" s="26">
         <f t="shared" si="69"/>
         <v>9.3684210526315788</v>
       </c>
-      <c r="G135" s="27">
+      <c r="G135" s="26">
         <f t="shared" si="70"/>
         <v>3</v>
       </c>
@@ -4433,14 +4433,14 @@
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
-      <c r="C139" s="27"/>
-      <c r="D139" s="27"/>
-      <c r="E139" s="27"/>
-      <c r="F139" s="27">
+      <c r="C139" s="26"/>
+      <c r="D139" s="26"/>
+      <c r="E139" s="26"/>
+      <c r="F139" s="26">
         <f>'исходные данные'!K16</f>
         <v>31198</v>
       </c>
-      <c r="G139" s="27"/>
+      <c r="G139" s="26"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
@@ -4450,23 +4450,23 @@
         <f>VLOOKUP(A140,$G$130:$H$135,2,FALSE)</f>
         <v>D</v>
       </c>
-      <c r="C140" s="27">
+      <c r="C140" s="26">
         <f>VLOOKUP('прибыль проектов'!B140,'исходные данные'!$A$47:$B$52,2,FALSE)</f>
         <v>3167</v>
       </c>
-      <c r="D140" s="27">
+      <c r="D140" s="26">
         <f>VLOOKUP(B140,$A$130:$D$135,4,FALSE)</f>
         <v>0.9</v>
       </c>
-      <c r="E140" s="27">
+      <c r="E140" s="26">
         <f t="shared" ref="E140:E143" si="71">IF(F139&gt;=C140*D140,C140*D140,F139)</f>
         <v>2850.3</v>
       </c>
-      <c r="F140" s="27">
+      <c r="F140" s="26">
         <f t="shared" ref="F140:F143" si="72">IF(F139&gt;=E140,F139-E140,0)</f>
         <v>28347.7</v>
       </c>
-      <c r="G140" s="27">
+      <c r="G140" s="26">
         <f>D149</f>
         <v>3167</v>
       </c>
@@ -4479,23 +4479,23 @@
         <f t="shared" ref="B141:B145" si="73">VLOOKUP(A141,$G$130:$H$135,2,FALSE)</f>
         <v>B</v>
       </c>
-      <c r="C141" s="27">
+      <c r="C141" s="26">
         <f>VLOOKUP('прибыль проектов'!B141,'исходные данные'!$A$47:$B$52,2,FALSE)</f>
         <v>7364</v>
       </c>
-      <c r="D141" s="27">
+      <c r="D141" s="26">
         <f t="shared" ref="D141:D145" si="74">VLOOKUP(B141,$A$130:$D$135,4,FALSE)</f>
         <v>1.3</v>
       </c>
-      <c r="E141" s="27">
+      <c r="E141" s="26">
         <f t="shared" si="71"/>
         <v>9573.2000000000007</v>
       </c>
-      <c r="F141" s="27">
+      <c r="F141" s="26">
         <f t="shared" si="72"/>
         <v>18774.5</v>
       </c>
-      <c r="G141" s="27">
+      <c r="G141" s="26">
         <f t="shared" ref="G141:G145" si="75">D150</f>
         <v>7364</v>
       </c>
@@ -4508,23 +4508,23 @@
         <f t="shared" si="73"/>
         <v>F</v>
       </c>
-      <c r="C142" s="27">
+      <c r="C142" s="26">
         <f>VLOOKUP('прибыль проектов'!B142,'исходные данные'!$A$47:$B$52,2,FALSE)</f>
         <v>5706</v>
       </c>
-      <c r="D142" s="27">
+      <c r="D142" s="26">
         <f t="shared" si="74"/>
         <v>1.9</v>
       </c>
-      <c r="E142" s="27">
+      <c r="E142" s="26">
         <f t="shared" si="71"/>
         <v>10841.4</v>
       </c>
-      <c r="F142" s="27">
+      <c r="F142" s="26">
         <f t="shared" si="72"/>
         <v>7933.1</v>
       </c>
-      <c r="G142" s="27">
+      <c r="G142" s="26">
         <f t="shared" si="75"/>
         <v>5706</v>
       </c>
@@ -4537,23 +4537,23 @@
         <f t="shared" si="73"/>
         <v>C</v>
       </c>
-      <c r="C143" s="27">
+      <c r="C143" s="26">
         <f>VLOOKUP('прибыль проектов'!B143,'исходные данные'!$A$47:$B$52,2,FALSE)</f>
         <v>3478</v>
       </c>
-      <c r="D143" s="27">
+      <c r="D143" s="26">
         <f t="shared" si="74"/>
         <v>1</v>
       </c>
-      <c r="E143" s="27">
+      <c r="E143" s="26">
         <f t="shared" si="71"/>
         <v>3478</v>
       </c>
-      <c r="F143" s="27">
+      <c r="F143" s="26">
         <f t="shared" si="72"/>
         <v>4455.1000000000004</v>
       </c>
-      <c r="G143" s="27">
+      <c r="G143" s="26">
         <f t="shared" si="75"/>
         <v>3478</v>
       </c>
@@ -4566,23 +4566,23 @@
         <f t="shared" si="73"/>
         <v>E</v>
       </c>
-      <c r="C144" s="27">
+      <c r="C144" s="26">
         <f>VLOOKUP('прибыль проектов'!B144,'исходные данные'!$A$47:$B$52,2,FALSE)</f>
         <v>5662</v>
       </c>
-      <c r="D144" s="27">
+      <c r="D144" s="26">
         <f t="shared" si="74"/>
         <v>2.4</v>
       </c>
-      <c r="E144" s="27">
+      <c r="E144" s="26">
         <f>IF(F143&gt;=C144*D144,C144*D144,F143)</f>
         <v>4455.1000000000004</v>
       </c>
-      <c r="F144" s="27">
+      <c r="F144" s="26">
         <f>IF(F143&gt;=E144,F143-E144,0)</f>
         <v>0</v>
       </c>
-      <c r="G144" s="27">
+      <c r="G144" s="26">
         <f t="shared" si="75"/>
         <v>1856</v>
       </c>
@@ -4595,23 +4595,23 @@
         <f t="shared" si="73"/>
         <v>A</v>
       </c>
-      <c r="C145" s="27">
+      <c r="C145" s="26">
         <f>VLOOKUP('прибыль проектов'!B145,'исходные данные'!$A$47:$B$52,2,FALSE)</f>
         <v>2245</v>
       </c>
-      <c r="D145" s="27">
+      <c r="D145" s="26">
         <f t="shared" si="74"/>
         <v>1.4</v>
       </c>
-      <c r="E145" s="27">
+      <c r="E145" s="26">
         <f>IF(F144&gt;=C145*D145,C145*D145,F144)</f>
         <v>0</v>
       </c>
-      <c r="F145" s="27">
+      <c r="F145" s="26">
         <f t="shared" ref="F145" si="76">IF(F144&gt;=E145,F144-E145,0)</f>
         <v>0</v>
       </c>
-      <c r="G145" s="27">
+      <c r="G145" s="26">
         <f t="shared" si="75"/>
         <v>0</v>
       </c>
@@ -4649,161 +4649,161 @@
         <f>B140</f>
         <v>D</v>
       </c>
-      <c r="B149" s="27">
+      <c r="B149" s="26">
         <f>B130</f>
         <v>23.7</v>
       </c>
-      <c r="C149" s="27">
+      <c r="C149" s="26">
         <f>C130</f>
         <v>31.8</v>
       </c>
-      <c r="D149" s="27">
+      <c r="D149" s="26">
         <f t="shared" ref="D149:D152" si="77">_xlfn.FLOOR.MATH(E140/D140)</f>
         <v>3167</v>
       </c>
-      <c r="E149" s="27">
+      <c r="E149" s="26">
         <f>(C149-B149)*D149</f>
         <v>25652.700000000004</v>
       </c>
-      <c r="F149" s="27"/>
-      <c r="G149" s="27"/>
+      <c r="F149" s="26"/>
+      <c r="G149" s="26"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="16" t="str">
         <f t="shared" ref="A150:A154" si="78">B141</f>
         <v>B</v>
       </c>
-      <c r="B150" s="27">
+      <c r="B150" s="26">
         <f t="shared" ref="B150:C150" si="79">B131</f>
         <v>26.6</v>
       </c>
-      <c r="C150" s="27">
+      <c r="C150" s="26">
         <f t="shared" si="79"/>
         <v>45.2</v>
       </c>
-      <c r="D150" s="27">
+      <c r="D150" s="26">
         <f t="shared" si="77"/>
         <v>7364</v>
       </c>
-      <c r="E150" s="27">
+      <c r="E150" s="26">
         <f t="shared" ref="E150:E154" si="80">(C150-B150)*D150</f>
         <v>136970.40000000002</v>
       </c>
-      <c r="F150" s="27"/>
-      <c r="G150" s="27"/>
+      <c r="F150" s="26"/>
+      <c r="G150" s="26"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="16" t="str">
         <f t="shared" si="78"/>
         <v>F</v>
       </c>
-      <c r="B151" s="27">
+      <c r="B151" s="26">
         <f t="shared" ref="B151:C151" si="81">B132</f>
         <v>24.9</v>
       </c>
-      <c r="C151" s="27">
+      <c r="C151" s="26">
         <f t="shared" si="81"/>
         <v>31.8</v>
       </c>
-      <c r="D151" s="27">
+      <c r="D151" s="26">
         <f t="shared" si="77"/>
         <v>5706</v>
       </c>
-      <c r="E151" s="27">
+      <c r="E151" s="26">
         <f t="shared" si="80"/>
         <v>39371.400000000009</v>
       </c>
-      <c r="F151" s="27"/>
-      <c r="G151" s="27"/>
+      <c r="F151" s="26"/>
+      <c r="G151" s="26"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="16" t="str">
         <f t="shared" si="78"/>
         <v>C</v>
       </c>
-      <c r="B152" s="27">
+      <c r="B152" s="26">
         <f t="shared" ref="B152:C152" si="82">B133</f>
         <v>32.9</v>
       </c>
-      <c r="C152" s="27">
+      <c r="C152" s="26">
         <f t="shared" si="82"/>
         <v>50.9</v>
       </c>
-      <c r="D152" s="27">
+      <c r="D152" s="26">
         <f t="shared" si="77"/>
         <v>3478</v>
       </c>
-      <c r="E152" s="27">
+      <c r="E152" s="26">
         <f t="shared" si="80"/>
         <v>62604</v>
       </c>
-      <c r="F152" s="27"/>
-      <c r="G152" s="27"/>
+      <c r="F152" s="26"/>
+      <c r="G152" s="26"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="16" t="str">
         <f t="shared" si="78"/>
         <v>E</v>
       </c>
-      <c r="B153" s="27">
+      <c r="B153" s="26">
         <f t="shared" ref="B153:C153" si="83">B134</f>
         <v>24.9</v>
       </c>
-      <c r="C153" s="27">
+      <c r="C153" s="26">
         <f t="shared" si="83"/>
         <v>40.200000000000003</v>
       </c>
-      <c r="D153" s="27">
+      <c r="D153" s="26">
         <f>_xlfn.FLOOR.MATH(E144/D144)</f>
         <v>1856</v>
       </c>
-      <c r="E153" s="27">
+      <c r="E153" s="26">
         <f t="shared" si="80"/>
         <v>28396.800000000007</v>
       </c>
-      <c r="F153" s="27"/>
-      <c r="G153" s="27"/>
+      <c r="F153" s="26"/>
+      <c r="G153" s="26"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="16" t="str">
         <f t="shared" si="78"/>
         <v>A</v>
       </c>
-      <c r="B154" s="27">
+      <c r="B154" s="26">
         <f t="shared" ref="B154:C154" si="84">B135</f>
         <v>23.1</v>
       </c>
-      <c r="C154" s="27">
+      <c r="C154" s="26">
         <f t="shared" si="84"/>
         <v>40.9</v>
       </c>
-      <c r="D154" s="27">
+      <c r="D154" s="26">
         <f>_xlfn.FLOOR.MATH(E145/D145)</f>
         <v>0</v>
       </c>
-      <c r="E154" s="27">
+      <c r="E154" s="26">
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="F154" s="27"/>
-      <c r="G154" s="27"/>
+      <c r="F154" s="26"/>
+      <c r="G154" s="26"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B155" s="27"/>
-      <c r="C155" s="27"/>
-      <c r="D155" s="27"/>
-      <c r="E155" s="27">
+      <c r="B155" s="26"/>
+      <c r="C155" s="26"/>
+      <c r="D155" s="26"/>
+      <c r="E155" s="26">
         <f>SUM(E149:E154)</f>
         <v>292995.30000000005</v>
       </c>
-      <c r="F155" s="27">
+      <c r="F155" s="26">
         <f>'исходные данные'!K4</f>
         <v>310544</v>
       </c>
-      <c r="G155" s="28">
+      <c r="G155" s="27">
         <f>E155-F155</f>
         <v>-17548.699999999953</v>
       </c>
@@ -4818,7 +4818,7 @@
   <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5054,9 +5054,9 @@
         <v>-365331.99999999953</v>
       </c>
       <c r="E11" s="22"/>
-      <c r="F11" s="25">
-        <f>SUM(F3:F8)</f>
-        <v>-494907.82576599071</v>
+      <c r="F11" s="31">
+        <f>SUM(F3:F10)</f>
+        <v>-445295.42472864862</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -5282,9 +5282,9 @@
         <v>169402.0000000007</v>
       </c>
       <c r="E23" s="22"/>
-      <c r="F23" s="25">
-        <f>SUM(F15:F20)</f>
-        <v>-181260.45665246993</v>
+      <c r="F23" s="31">
+        <f>SUM(F15:F22)</f>
+        <v>-46997.708756881671</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -5510,9 +5510,9 @@
         <v>-2012154.0000000002</v>
       </c>
       <c r="E35" s="22"/>
-      <c r="F35" s="25">
-        <f>SUM(F27:F32)</f>
-        <v>-1483385.9576643496</v>
+      <c r="F35" s="31">
+        <f>SUM(F27:F34)</f>
+        <v>-1685842.3342068626</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -5738,14 +5738,14 @@
         <v>245915.99999999977</v>
       </c>
       <c r="E47" s="22"/>
-      <c r="F47" s="25">
-        <f>SUM(F39:F44)</f>
-        <v>-111548.79437018692</v>
+      <c r="F47" s="31">
+        <f>SUM(F39:F46)</f>
+        <v>25318.454055093018</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B49" s="19"/>
       <c r="C49" s="19"/>
@@ -5966,9 +5966,9 @@
         <v>-1249973.9999999991</v>
       </c>
       <c r="E59" s="22"/>
-      <c r="F59" s="25">
-        <f>SUM(F51:F56)</f>
-        <v>-1121020.576745287</v>
+      <c r="F59" s="31">
+        <f>SUM(F51:F58)</f>
+        <v>-1170394.6703451599</v>
       </c>
     </row>
   </sheetData>

--- a/РГР/ргр.xlsx
+++ b/РГР/ргр.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="исходные данные" sheetId="1" r:id="rId1"/>
@@ -318,7 +318,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -388,15 +388,16 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -740,14 +741,14 @@
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -756,7 +757,7 @@
       <c r="B3" s="7">
         <v>718</v>
       </c>
-      <c r="F3" s="29"/>
+      <c r="F3" s="30"/>
       <c r="G3" s="12">
         <v>1</v>
       </c>
@@ -845,20 +846,20 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="29"/>
+      <c r="F9" s="30"/>
       <c r="G9" s="12">
         <v>1</v>
       </c>
@@ -1539,8 +1540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H155"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A148" sqref="A148:G155"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="I131" sqref="I131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4223,7 +4224,7 @@
         <f>E130/D130</f>
         <v>5.7857142857142874</v>
       </c>
-      <c r="G130" s="26">
+      <c r="G130" s="32">
         <f>_xlfn.RANK.EQ(F130,$F$130:$F$135)</f>
         <v>6</v>
       </c>
@@ -4257,7 +4258,7 @@
         <f t="shared" ref="F131:F135" si="69">E131/D131</f>
         <v>14.307692307692308</v>
       </c>
-      <c r="G131" s="26">
+      <c r="G131" s="32">
         <f t="shared" ref="G131:G135" si="70">_xlfn.RANK.EQ(F131,$F$130:$F$135)</f>
         <v>2</v>
       </c>
@@ -4291,7 +4292,7 @@
         <f t="shared" si="69"/>
         <v>6.9000000000000021</v>
       </c>
-      <c r="G132" s="26">
+      <c r="G132" s="32">
         <f t="shared" si="70"/>
         <v>4</v>
       </c>
@@ -4325,7 +4326,7 @@
         <f t="shared" si="69"/>
         <v>20</v>
       </c>
-      <c r="G133" s="26">
+      <c r="G133" s="32">
         <f t="shared" si="70"/>
         <v>1</v>
       </c>
@@ -4359,7 +4360,7 @@
         <f t="shared" si="69"/>
         <v>6.3750000000000018</v>
       </c>
-      <c r="G134" s="26">
+      <c r="G134" s="32">
         <f t="shared" si="70"/>
         <v>5</v>
       </c>
@@ -4393,7 +4394,7 @@
         <f t="shared" si="69"/>
         <v>9.3684210526315788</v>
       </c>
-      <c r="G135" s="26">
+      <c r="G135" s="32">
         <f t="shared" si="70"/>
         <v>3</v>
       </c>
@@ -4817,7 +4818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -5054,7 +5055,7 @@
         <v>-365331.99999999953</v>
       </c>
       <c r="E11" s="22"/>
-      <c r="F11" s="31">
+      <c r="F11" s="29">
         <f>SUM(F3:F10)</f>
         <v>-445295.42472864862</v>
       </c>
@@ -5282,7 +5283,7 @@
         <v>169402.0000000007</v>
       </c>
       <c r="E23" s="22"/>
-      <c r="F23" s="31">
+      <c r="F23" s="29">
         <f>SUM(F15:F22)</f>
         <v>-46997.708756881671</v>
       </c>
@@ -5510,7 +5511,7 @@
         <v>-2012154.0000000002</v>
       </c>
       <c r="E35" s="22"/>
-      <c r="F35" s="31">
+      <c r="F35" s="29">
         <f>SUM(F27:F34)</f>
         <v>-1685842.3342068626</v>
       </c>
@@ -5738,7 +5739,7 @@
         <v>245915.99999999977</v>
       </c>
       <c r="E47" s="22"/>
-      <c r="F47" s="31">
+      <c r="F47" s="29">
         <f>SUM(F39:F46)</f>
         <v>25318.454055093018</v>
       </c>
@@ -5966,7 +5967,7 @@
         <v>-1249973.9999999991</v>
       </c>
       <c r="E59" s="22"/>
-      <c r="F59" s="31">
+      <c r="F59" s="29">
         <f>SUM(F51:F58)</f>
         <v>-1170394.6703451599</v>
       </c>

--- a/РГР/ргр.xlsx
+++ b/РГР/ргр.xlsx
@@ -318,7 +318,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -394,10 +394,13 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -710,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C46" sqref="C46:D46"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,14 +744,14 @@
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -757,7 +760,7 @@
       <c r="B3" s="7">
         <v>718</v>
       </c>
-      <c r="F3" s="30"/>
+      <c r="F3" s="32"/>
       <c r="G3" s="12">
         <v>1</v>
       </c>
@@ -846,20 +849,20 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="30"/>
+      <c r="F9" s="32"/>
       <c r="G9" s="12">
         <v>1</v>
       </c>
@@ -1540,8 +1543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="I131" sqref="I131"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1860,11 +1863,11 @@
         <v>1.2</v>
       </c>
       <c r="E16" s="26">
-        <f t="shared" ref="E16:E19" si="4">IF(F15&gt;=C16*D16,C16*D16,F15)</f>
+        <f>IF(F15&gt;=C16*D16,C16*D16,F15)</f>
         <v>6693.5999999999995</v>
       </c>
       <c r="F16" s="26">
-        <f t="shared" ref="F16:F21" si="5">IF(F15&gt;=E16,F15-E16,0)</f>
+        <f>IF(F15&gt;=E16,F15-E16,0)</f>
         <v>48631.4</v>
       </c>
       <c r="G16" s="26">
@@ -1877,7 +1880,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="16" t="str">
-        <f t="shared" ref="B17:B21" si="6">VLOOKUP(A17,$G$6:$H$11,2,FALSE)</f>
+        <f t="shared" ref="B17:B21" si="4">VLOOKUP(A17,$G$6:$H$11,2,FALSE)</f>
         <v>A</v>
       </c>
       <c r="C17" s="26">
@@ -1885,19 +1888,19 @@
         <v>4907</v>
       </c>
       <c r="D17" s="26">
-        <f t="shared" ref="D17:D21" si="7">VLOOKUP(B17,$A$6:$D$11,4,FALSE)</f>
+        <f t="shared" ref="D17:D21" si="5">VLOOKUP(B17,$A$6:$D$11,4,FALSE)</f>
         <v>2.2000000000000002</v>
       </c>
       <c r="E17" s="26">
-        <f t="shared" si="4"/>
+        <f>IF(F16&gt;=C17*D17,C17*D17,F16)</f>
         <v>10795.400000000001</v>
       </c>
       <c r="F17" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="F16:F21" si="6">IF(F16&gt;=E17,F16-E17,0)</f>
         <v>37836</v>
       </c>
       <c r="G17" s="26">
-        <f t="shared" ref="G17:G21" si="8">D26</f>
+        <f t="shared" ref="G17:G21" si="7">D26</f>
         <v>4907</v>
       </c>
     </row>
@@ -1906,7 +1909,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>F</v>
       </c>
       <c r="C18" s="26">
@@ -1914,19 +1917,19 @@
         <v>3093</v>
       </c>
       <c r="D18" s="26">
+        <f t="shared" si="5"/>
+        <v>2.1</v>
+      </c>
+      <c r="E18" s="26">
+        <f t="shared" ref="E16:E19" si="8">IF(F17&gt;=C18*D18,C18*D18,F17)</f>
+        <v>6495.3</v>
+      </c>
+      <c r="F18" s="26">
+        <f t="shared" si="6"/>
+        <v>31340.7</v>
+      </c>
+      <c r="G18" s="26">
         <f t="shared" si="7"/>
-        <v>2.1</v>
-      </c>
-      <c r="E18" s="26">
-        <f t="shared" si="4"/>
-        <v>6495.3</v>
-      </c>
-      <c r="F18" s="26">
-        <f t="shared" si="5"/>
-        <v>31340.7</v>
-      </c>
-      <c r="G18" s="26">
-        <f t="shared" si="8"/>
         <v>3093</v>
       </c>
     </row>
@@ -1935,7 +1938,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>E</v>
       </c>
       <c r="C19" s="26">
@@ -1943,19 +1946,19 @@
         <v>6649</v>
       </c>
       <c r="D19" s="26">
+        <f t="shared" si="5"/>
+        <v>2.9</v>
+      </c>
+      <c r="E19" s="26">
+        <f t="shared" si="8"/>
+        <v>19282.099999999999</v>
+      </c>
+      <c r="F19" s="26">
+        <f t="shared" si="6"/>
+        <v>12058.600000000002</v>
+      </c>
+      <c r="G19" s="26">
         <f t="shared" si="7"/>
-        <v>2.9</v>
-      </c>
-      <c r="E19" s="26">
-        <f t="shared" si="4"/>
-        <v>19282.099999999999</v>
-      </c>
-      <c r="F19" s="26">
-        <f t="shared" si="5"/>
-        <v>12058.600000000002</v>
-      </c>
-      <c r="G19" s="26">
-        <f t="shared" si="8"/>
         <v>6649</v>
       </c>
     </row>
@@ -1964,7 +1967,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>D</v>
       </c>
       <c r="C20" s="26">
@@ -1972,7 +1975,7 @@
         <v>8282</v>
       </c>
       <c r="D20" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="E20" s="26">
@@ -1984,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4019</v>
       </c>
     </row>
@@ -1993,7 +1996,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>B</v>
       </c>
       <c r="C21" s="26">
@@ -2001,7 +2004,7 @@
         <v>8460</v>
       </c>
       <c r="D21" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>3.2</v>
       </c>
       <c r="E21" s="26">
@@ -2009,11 +2012,11 @@
         <v>0</v>
       </c>
       <c r="F21" s="26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G21" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2051,12 +2054,12 @@
         <v>C</v>
       </c>
       <c r="B25" s="26">
-        <f>B6</f>
-        <v>21.7</v>
+        <f>SUMIF($A$6:$A$11,A25,$B$6:$B$11)</f>
+        <v>26.9</v>
       </c>
       <c r="C25" s="26">
-        <f>C6</f>
-        <v>39.799999999999997</v>
+        <f>SUMIF($A$6:$A$11,A25,$C$6:$C$11)</f>
+        <v>41.7</v>
       </c>
       <c r="D25" s="26">
         <f>_xlfn.FLOOR.MATH(E16/D16)</f>
@@ -2064,7 +2067,7 @@
       </c>
       <c r="E25" s="26">
         <f>(C25-B25)*D25</f>
-        <v>100961.79999999999</v>
+        <v>82554.400000000023</v>
       </c>
       <c r="F25" s="26"/>
       <c r="G25" s="26"/>
@@ -2075,20 +2078,20 @@
         <v>A</v>
       </c>
       <c r="B26" s="26">
-        <f t="shared" ref="B26:C30" si="10">B7</f>
-        <v>29.8</v>
+        <f t="shared" ref="B26:B30" si="10">SUMIF($A$6:$A$11,A26,$B$6:$B$11)</f>
+        <v>21.7</v>
       </c>
       <c r="C26" s="26">
-        <f t="shared" si="10"/>
-        <v>40.799999999999997</v>
+        <f t="shared" ref="C26:C30" si="11">SUMIF($A$6:$A$11,A26,$C$6:$C$11)</f>
+        <v>39.799999999999997</v>
       </c>
       <c r="D26" s="26">
-        <f t="shared" ref="D26:D28" si="11">_xlfn.FLOOR.MATH(E17/D17)</f>
+        <f t="shared" ref="D26:D28" si="12">_xlfn.FLOOR.MATH(E17/D17)</f>
         <v>4907</v>
       </c>
       <c r="E26" s="26">
-        <f t="shared" ref="E26:E30" si="12">(C26-B26)*D26</f>
-        <v>53976.999999999985</v>
+        <f t="shared" ref="E26:E30" si="13">(C26-B26)*D26</f>
+        <v>88816.699999999983</v>
       </c>
       <c r="F26" s="26"/>
       <c r="G26" s="26"/>
@@ -2100,19 +2103,19 @@
       </c>
       <c r="B27" s="26">
         <f t="shared" si="10"/>
-        <v>26.9</v>
+        <v>24.6</v>
       </c>
       <c r="C27" s="26">
-        <f t="shared" si="10"/>
-        <v>41.7</v>
+        <f t="shared" si="11"/>
+        <v>34.5</v>
       </c>
       <c r="D27" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3093</v>
       </c>
       <c r="E27" s="26">
-        <f t="shared" si="12"/>
-        <v>45776.400000000016</v>
+        <f t="shared" si="13"/>
+        <v>30620.699999999997</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
@@ -2124,19 +2127,19 @@
       </c>
       <c r="B28" s="26">
         <f t="shared" si="10"/>
-        <v>33.700000000000003</v>
+        <v>22.7</v>
       </c>
       <c r="C28" s="26">
-        <f t="shared" si="10"/>
-        <v>46.1</v>
+        <f t="shared" si="11"/>
+        <v>36.1</v>
       </c>
       <c r="D28" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6649</v>
       </c>
       <c r="E28" s="26">
-        <f t="shared" si="12"/>
-        <v>82447.599999999991</v>
+        <f t="shared" si="13"/>
+        <v>89096.60000000002</v>
       </c>
       <c r="F28" s="26"/>
       <c r="G28" s="26"/>
@@ -2148,19 +2151,19 @@
       </c>
       <c r="B29" s="26">
         <f t="shared" si="10"/>
-        <v>22.7</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="C29" s="26">
-        <f t="shared" si="10"/>
-        <v>36.1</v>
+        <f t="shared" si="11"/>
+        <v>46.1</v>
       </c>
       <c r="D29" s="26">
         <f>_xlfn.FLOOR.MATH(E20/D20)</f>
         <v>4019</v>
       </c>
       <c r="E29" s="26">
-        <f t="shared" si="12"/>
-        <v>53854.600000000006</v>
+        <f t="shared" si="13"/>
+        <v>49835.599999999991</v>
       </c>
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
@@ -2172,18 +2175,18 @@
       </c>
       <c r="B30" s="26">
         <f t="shared" si="10"/>
-        <v>24.6</v>
+        <v>29.8</v>
       </c>
       <c r="C30" s="26">
-        <f t="shared" si="10"/>
-        <v>34.5</v>
+        <f t="shared" si="11"/>
+        <v>40.799999999999997</v>
       </c>
       <c r="D30" s="26">
         <f>_xlfn.FLOOR.MATH(E21/D21)</f>
         <v>0</v>
       </c>
       <c r="E30" s="26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F30" s="26"/>
@@ -2198,7 +2201,7 @@
       <c r="D31" s="26"/>
       <c r="E31" s="26">
         <f>SUM(E25:E30)</f>
-        <v>337017.4</v>
+        <v>340924</v>
       </c>
       <c r="F31" s="26">
         <f>'исходные данные'!G4</f>
@@ -2206,7 +2209,7 @@
       </c>
       <c r="G31" s="27">
         <f>E31-F31</f>
-        <v>17633.400000000023</v>
+        <v>21540</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -2279,7 +2282,7 @@
         <v>4</v>
       </c>
       <c r="H37" t="str">
-        <f t="shared" ref="H37:H42" si="13">A37</f>
+        <f t="shared" ref="H37:H42" si="14">A37</f>
         <v>A</v>
       </c>
     </row>
@@ -2301,19 +2304,19 @@
         <v>3.4</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" ref="E38:E42" si="14">C38-B38</f>
+        <f t="shared" ref="E38:E42" si="15">C38-B38</f>
         <v>8.3000000000000007</v>
       </c>
       <c r="F38" s="3">
-        <f t="shared" ref="F38:F42" si="15">E38/D38</f>
+        <f t="shared" ref="F38:F42" si="16">E38/D38</f>
         <v>2.4411764705882355</v>
       </c>
       <c r="G38" s="1">
-        <f t="shared" ref="G38:G42" si="16">_xlfn.RANK.EQ(F38,$F$37:$F$42)</f>
+        <f t="shared" ref="G38:G42" si="17">_xlfn.RANK.EQ(F38,$F$37:$F$42)</f>
         <v>6</v>
       </c>
       <c r="H38" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>B</v>
       </c>
     </row>
@@ -2335,19 +2338,19 @@
         <v>3.4</v>
       </c>
       <c r="E39" s="1">
+        <f t="shared" si="15"/>
+        <v>15.900000000000002</v>
+      </c>
+      <c r="F39" s="3">
+        <f t="shared" si="16"/>
+        <v>4.6764705882352953</v>
+      </c>
+      <c r="G39" s="1">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="H39" t="str">
         <f t="shared" si="14"/>
-        <v>15.900000000000002</v>
-      </c>
-      <c r="F39" s="3">
-        <f t="shared" si="15"/>
-        <v>4.6764705882352953</v>
-      </c>
-      <c r="G39" s="1">
-        <f t="shared" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="H39" t="str">
-        <f t="shared" si="13"/>
         <v>C</v>
       </c>
     </row>
@@ -2369,19 +2372,19 @@
         <v>2.9</v>
       </c>
       <c r="E40" s="1">
+        <f t="shared" si="15"/>
+        <v>19.300000000000004</v>
+      </c>
+      <c r="F40" s="3">
+        <f t="shared" si="16"/>
+        <v>6.655172413793105</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="H40" t="str">
         <f t="shared" si="14"/>
-        <v>19.300000000000004</v>
-      </c>
-      <c r="F40" s="3">
-        <f t="shared" si="15"/>
-        <v>6.655172413793105</v>
-      </c>
-      <c r="G40" s="1">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="H40" t="str">
-        <f t="shared" si="13"/>
         <v>D</v>
       </c>
     </row>
@@ -2403,19 +2406,19 @@
         <v>1.9</v>
       </c>
       <c r="E41" s="1">
+        <f t="shared" si="15"/>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F41" s="3">
+        <f t="shared" si="16"/>
+        <v>4.5789473684210522</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="H41" t="str">
         <f t="shared" si="14"/>
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="F41" s="3">
-        <f t="shared" si="15"/>
-        <v>4.5789473684210522</v>
-      </c>
-      <c r="G41" s="1">
-        <f t="shared" si="16"/>
-        <v>3</v>
-      </c>
-      <c r="H41" t="str">
-        <f t="shared" si="13"/>
         <v>E</v>
       </c>
     </row>
@@ -2437,19 +2440,19 @@
         <v>3.2</v>
       </c>
       <c r="E42" s="1">
+        <f t="shared" si="15"/>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F42" s="3">
+        <f t="shared" si="16"/>
+        <v>2.90625</v>
+      </c>
+      <c r="G42" s="1">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="H42" t="str">
         <f t="shared" si="14"/>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="F42" s="3">
-        <f t="shared" si="15"/>
-        <v>2.90625</v>
-      </c>
-      <c r="G42" s="1">
-        <f t="shared" si="16"/>
-        <v>5</v>
-      </c>
-      <c r="H42" t="str">
-        <f t="shared" si="13"/>
         <v>F</v>
       </c>
     </row>
@@ -2510,11 +2513,11 @@
         <v>2.9</v>
       </c>
       <c r="E47" s="26">
-        <f t="shared" ref="E47:E50" si="17">IF(F46&gt;=C47*D47,C47*D47,F46)</f>
+        <f t="shared" ref="E47:E50" si="18">IF(F46&gt;=C47*D47,C47*D47,F46)</f>
         <v>12011.8</v>
       </c>
       <c r="F47" s="26">
-        <f t="shared" ref="F47:F50" si="18">IF(F46&gt;=E47,F46-E47,0)</f>
+        <f t="shared" ref="F47:F50" si="19">IF(F46&gt;=E47,F46-E47,0)</f>
         <v>62896.2</v>
       </c>
       <c r="G47" s="26">
@@ -2527,7 +2530,7 @@
         <v>2</v>
       </c>
       <c r="B48" s="16" t="str">
-        <f t="shared" ref="B48:B52" si="19">VLOOKUP(A48,$G$37:$H$42,2,FALSE)</f>
+        <f t="shared" ref="B48:B52" si="20">VLOOKUP(A48,$G$37:$H$42,2,FALSE)</f>
         <v>C</v>
       </c>
       <c r="C48" s="28">
@@ -2535,19 +2538,19 @@
         <v>8675</v>
       </c>
       <c r="D48" s="26">
-        <f t="shared" ref="D48:D52" si="20">VLOOKUP(B48,$A$37:$D$42,4,FALSE)</f>
+        <f t="shared" ref="D48:D52" si="21">VLOOKUP(B48,$A$37:$D$42,4,FALSE)</f>
         <v>3.4</v>
       </c>
       <c r="E48" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>29495</v>
       </c>
       <c r="F48" s="26">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>33401.199999999997</v>
       </c>
       <c r="G48" s="26">
-        <f t="shared" ref="G48:G52" si="21">D57</f>
+        <f t="shared" ref="G48:G52" si="22">D57</f>
         <v>8675</v>
       </c>
     </row>
@@ -2556,7 +2559,7 @@
         <v>3</v>
       </c>
       <c r="B49" s="16" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>E</v>
       </c>
       <c r="C49" s="28">
@@ -2564,19 +2567,19 @@
         <v>8599</v>
       </c>
       <c r="D49" s="26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.9</v>
       </c>
       <c r="E49" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>16338.099999999999</v>
       </c>
       <c r="F49" s="26">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>17063.099999999999</v>
       </c>
       <c r="G49" s="26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>8599</v>
       </c>
     </row>
@@ -2585,7 +2588,7 @@
         <v>4</v>
       </c>
       <c r="B50" s="16" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>A</v>
       </c>
       <c r="C50" s="28">
@@ -2593,19 +2596,19 @@
         <v>5513</v>
       </c>
       <c r="D50" s="26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.1</v>
       </c>
       <c r="E50" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>11577.300000000001</v>
       </c>
       <c r="F50" s="26">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>5485.7999999999975</v>
       </c>
       <c r="G50" s="26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>5513</v>
       </c>
     </row>
@@ -2614,7 +2617,7 @@
         <v>5</v>
       </c>
       <c r="B51" s="16" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>F</v>
       </c>
       <c r="C51" s="28">
@@ -2622,7 +2625,7 @@
         <v>2375</v>
       </c>
       <c r="D51" s="26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3.2</v>
       </c>
       <c r="E51" s="26">
@@ -2634,7 +2637,7 @@
         <v>0</v>
       </c>
       <c r="G51" s="26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1714</v>
       </c>
     </row>
@@ -2643,7 +2646,7 @@
         <v>6</v>
       </c>
       <c r="B52" s="16" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>B</v>
       </c>
       <c r="C52" s="28">
@@ -2651,7 +2654,7 @@
         <v>6795</v>
       </c>
       <c r="D52" s="26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3.4</v>
       </c>
       <c r="E52" s="26">
@@ -2659,11 +2662,11 @@
         <v>0</v>
       </c>
       <c r="F52" s="26">
-        <f t="shared" ref="F52" si="22">IF(F51&gt;=E52,F51-E52,0)</f>
+        <f t="shared" ref="F52" si="23">IF(F51&gt;=E52,F51-E52,0)</f>
         <v>0</v>
       </c>
       <c r="G52" s="26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -2701,139 +2704,139 @@
         <v>D</v>
       </c>
       <c r="B56" s="1">
-        <f>B37</f>
-        <v>32.700000000000003</v>
+        <f>SUMIF($A$37:$A$42,A56,$B$37:$B$42)</f>
+        <v>34.4</v>
       </c>
       <c r="C56" s="28">
-        <f>C37</f>
-        <v>40.1</v>
+        <f>SUMIF($A$37:$A$42,A56,$C$37:$C$42)</f>
+        <v>53.7</v>
       </c>
       <c r="D56" s="26">
-        <f t="shared" ref="D56:D59" si="23">_xlfn.FLOOR.MATH(E47/D47)</f>
+        <f t="shared" ref="D56:D59" si="24">_xlfn.FLOOR.MATH(E47/D47)</f>
         <v>4142</v>
       </c>
       <c r="E56" s="26">
         <f>(C56-B56)*D56</f>
-        <v>30650.799999999996</v>
+        <v>79940.60000000002</v>
       </c>
       <c r="F56" s="26"/>
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="str">
-        <f t="shared" ref="A57:A61" si="24">B48</f>
+        <f t="shared" ref="A57:A61" si="25">B48</f>
         <v>C</v>
       </c>
       <c r="B57" s="1">
-        <f t="shared" ref="B57:C57" si="25">B38</f>
-        <v>28.7</v>
-      </c>
-      <c r="C57" s="28">
-        <f t="shared" si="25"/>
-        <v>37</v>
+        <f t="shared" ref="B57:B61" si="26">SUMIF($A$37:$A$42,A57,$B$37:$B$42)</f>
+        <v>23.7</v>
+      </c>
+      <c r="C57" s="30">
+        <f t="shared" ref="C57:C61" si="27">SUMIF($A$37:$A$42,A57,$C$37:$C$42)</f>
+        <v>39.6</v>
       </c>
       <c r="D57" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>8675</v>
       </c>
       <c r="E57" s="26">
-        <f t="shared" ref="E57:E61" si="26">(C57-B57)*D57</f>
-        <v>72002.5</v>
+        <f t="shared" ref="E57:E61" si="28">(C57-B57)*D57</f>
+        <v>137932.50000000003</v>
       </c>
       <c r="F57" s="26"/>
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="str">
+        <f t="shared" si="25"/>
+        <v>E</v>
+      </c>
+      <c r="B58" s="1">
+        <f t="shared" si="26"/>
+        <v>21.3</v>
+      </c>
+      <c r="C58" s="30">
+        <f t="shared" si="27"/>
+        <v>30</v>
+      </c>
+      <c r="D58" s="26">
         <f t="shared" si="24"/>
-        <v>E</v>
-      </c>
-      <c r="B58" s="1">
-        <f t="shared" ref="B58:C58" si="27">B39</f>
-        <v>23.7</v>
-      </c>
-      <c r="C58" s="28">
-        <f t="shared" si="27"/>
-        <v>39.6</v>
-      </c>
-      <c r="D58" s="26">
-        <f t="shared" si="23"/>
         <v>8599</v>
       </c>
       <c r="E58" s="26">
-        <f t="shared" si="26"/>
-        <v>136724.1</v>
+        <f t="shared" si="28"/>
+        <v>74811.299999999988</v>
       </c>
       <c r="F58" s="26"/>
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="str">
+        <f t="shared" si="25"/>
+        <v>A</v>
+      </c>
+      <c r="B59" s="1">
+        <f t="shared" si="26"/>
+        <v>32.700000000000003</v>
+      </c>
+      <c r="C59" s="30">
+        <f t="shared" si="27"/>
+        <v>40.1</v>
+      </c>
+      <c r="D59" s="26">
         <f t="shared" si="24"/>
-        <v>A</v>
-      </c>
-      <c r="B59" s="1">
-        <f t="shared" ref="B59:C59" si="28">B40</f>
-        <v>34.4</v>
-      </c>
-      <c r="C59" s="28">
+        <v>5513</v>
+      </c>
+      <c r="E59" s="26">
         <f t="shared" si="28"/>
-        <v>53.7</v>
-      </c>
-      <c r="D59" s="26">
-        <f t="shared" si="23"/>
-        <v>5513</v>
-      </c>
-      <c r="E59" s="26">
-        <f t="shared" si="26"/>
-        <v>106400.90000000002</v>
+        <v>40796.19999999999</v>
       </c>
       <c r="F59" s="26"/>
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>F</v>
       </c>
       <c r="B60" s="1">
-        <f t="shared" ref="B60:C60" si="29">B41</f>
-        <v>21.3</v>
-      </c>
-      <c r="C60" s="28">
-        <f t="shared" si="29"/>
-        <v>30</v>
+        <f t="shared" si="26"/>
+        <v>22.2</v>
+      </c>
+      <c r="C60" s="30">
+        <f t="shared" si="27"/>
+        <v>31.5</v>
       </c>
       <c r="D60" s="26">
         <f>_xlfn.FLOOR.MATH(E51/D51)</f>
         <v>1714</v>
       </c>
       <c r="E60" s="26">
-        <f t="shared" si="26"/>
-        <v>14911.8</v>
+        <f t="shared" si="28"/>
+        <v>15940.2</v>
       </c>
       <c r="F60" s="26"/>
       <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>B</v>
       </c>
       <c r="B61" s="1">
-        <f t="shared" ref="B61:C61" si="30">B42</f>
-        <v>22.2</v>
-      </c>
-      <c r="C61" s="28">
-        <f t="shared" si="30"/>
-        <v>31.5</v>
+        <f t="shared" si="26"/>
+        <v>28.7</v>
+      </c>
+      <c r="C61" s="30">
+        <f t="shared" si="27"/>
+        <v>37</v>
       </c>
       <c r="D61" s="26">
         <f>_xlfn.FLOOR.MATH(E52/D52)</f>
         <v>0</v>
       </c>
       <c r="E61" s="26">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="F61" s="26"/>
@@ -2848,7 +2851,7 @@
       <c r="D62" s="26"/>
       <c r="E62" s="26">
         <f>SUM(E56:E61)</f>
-        <v>360690.10000000003</v>
+        <v>349420.80000000005</v>
       </c>
       <c r="F62" s="26">
         <f>'исходные данные'!H4</f>
@@ -2856,7 +2859,7 @@
       </c>
       <c r="G62" s="27">
         <f>E62-F62</f>
-        <v>47720.100000000035</v>
+        <v>36450.800000000047</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -2929,7 +2932,7 @@
         <v>5</v>
       </c>
       <c r="H68" t="str">
-        <f t="shared" ref="H68:H73" si="31">A68</f>
+        <f t="shared" ref="H68:H73" si="29">A68</f>
         <v>A</v>
       </c>
     </row>
@@ -2951,19 +2954,19 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="E69" s="26">
-        <f t="shared" ref="E69:E73" si="32">C69-B69</f>
+        <f t="shared" ref="E69:E73" si="30">C69-B69</f>
         <v>19.199999999999996</v>
       </c>
       <c r="F69" s="26">
-        <f t="shared" ref="F69:F73" si="33">E69/D69</f>
+        <f t="shared" ref="F69:F73" si="31">E69/D69</f>
         <v>8.7272727272727249</v>
       </c>
       <c r="G69" s="1">
-        <f t="shared" ref="G69:G73" si="34">_xlfn.RANK.EQ(F69,$F$68:$F$73)</f>
+        <f t="shared" ref="G69:G73" si="32">_xlfn.RANK.EQ(F69,$F$68:$F$73)</f>
         <v>2</v>
       </c>
       <c r="H69" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>B</v>
       </c>
     </row>
@@ -2985,19 +2988,19 @@
         <v>1.2</v>
       </c>
       <c r="E70" s="26">
+        <f t="shared" si="30"/>
+        <v>6.2000000000000028</v>
+      </c>
+      <c r="F70" s="26">
+        <f t="shared" si="31"/>
+        <v>5.1666666666666696</v>
+      </c>
+      <c r="G70" s="1">
         <f t="shared" si="32"/>
-        <v>6.2000000000000028</v>
-      </c>
-      <c r="F70" s="26">
-        <f t="shared" si="33"/>
-        <v>5.1666666666666696</v>
-      </c>
-      <c r="G70" s="1">
-        <f t="shared" si="34"/>
         <v>6</v>
       </c>
       <c r="H70" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>C</v>
       </c>
     </row>
@@ -3019,19 +3022,19 @@
         <v>1.5</v>
       </c>
       <c r="E71" s="26">
+        <f t="shared" si="30"/>
+        <v>10.800000000000004</v>
+      </c>
+      <c r="F71" s="26">
+        <f t="shared" si="31"/>
+        <v>7.2000000000000028</v>
+      </c>
+      <c r="G71" s="1">
         <f t="shared" si="32"/>
-        <v>10.800000000000004</v>
-      </c>
-      <c r="F71" s="26">
-        <f t="shared" si="33"/>
-        <v>7.2000000000000028</v>
-      </c>
-      <c r="G71" s="1">
-        <f t="shared" si="34"/>
         <v>4</v>
       </c>
       <c r="H71" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>D</v>
       </c>
     </row>
@@ -3053,19 +3056,19 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="E72" s="26">
+        <f t="shared" si="30"/>
+        <v>18.400000000000002</v>
+      </c>
+      <c r="F72" s="26">
+        <f t="shared" si="31"/>
+        <v>16.727272727272727</v>
+      </c>
+      <c r="G72" s="1">
         <f t="shared" si="32"/>
-        <v>18.400000000000002</v>
-      </c>
-      <c r="F72" s="26">
-        <f t="shared" si="33"/>
-        <v>16.727272727272727</v>
-      </c>
-      <c r="G72" s="1">
-        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="H72" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>E</v>
       </c>
     </row>
@@ -3087,19 +3090,19 @@
         <v>2.5</v>
       </c>
       <c r="E73" s="26">
+        <f t="shared" si="30"/>
+        <v>18.799999999999997</v>
+      </c>
+      <c r="F73" s="26">
+        <f t="shared" si="31"/>
+        <v>7.5199999999999987</v>
+      </c>
+      <c r="G73" s="1">
         <f t="shared" si="32"/>
-        <v>18.799999999999997</v>
-      </c>
-      <c r="F73" s="26">
-        <f t="shared" si="33"/>
-        <v>7.5199999999999987</v>
-      </c>
-      <c r="G73" s="1">
-        <f t="shared" si="34"/>
         <v>3</v>
       </c>
       <c r="H73" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>F</v>
       </c>
     </row>
@@ -3160,11 +3163,11 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="E78" s="26">
-        <f t="shared" ref="E78:E81" si="35">IF(F77&gt;=C78*D78,C78*D78,F77)</f>
+        <f t="shared" ref="E78:E81" si="33">IF(F77&gt;=C78*D78,C78*D78,F77)</f>
         <v>7395.3</v>
       </c>
       <c r="F78" s="26">
-        <f t="shared" ref="F78:F81" si="36">IF(F77&gt;=E78,F77-E78,0)</f>
+        <f t="shared" ref="F78:F81" si="34">IF(F77&gt;=E78,F77-E78,0)</f>
         <v>30726.7</v>
       </c>
       <c r="G78" s="26">
@@ -3177,7 +3180,7 @@
         <v>2</v>
       </c>
       <c r="B79" s="16" t="str">
-        <f t="shared" ref="B79:B83" si="37">VLOOKUP(A79,$G$68:$H$73,2,FALSE)</f>
+        <f t="shared" ref="B79:B83" si="35">VLOOKUP(A79,$G$68:$H$73,2,FALSE)</f>
         <v>B</v>
       </c>
       <c r="C79" s="26">
@@ -3185,19 +3188,19 @@
         <v>8539</v>
       </c>
       <c r="D79" s="26">
-        <f t="shared" ref="D79:D83" si="38">VLOOKUP(B79,$A$68:$D$73,4,FALSE)</f>
+        <f t="shared" ref="D79:D83" si="36">VLOOKUP(B79,$A$68:$D$73,4,FALSE)</f>
         <v>2.2000000000000002</v>
       </c>
       <c r="E79" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>18785.800000000003</v>
       </c>
       <c r="F79" s="26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>11940.899999999998</v>
       </c>
       <c r="G79" s="26">
-        <f t="shared" ref="G79:G83" si="39">D88</f>
+        <f t="shared" ref="G79:G83" si="37">D88</f>
         <v>8539</v>
       </c>
     </row>
@@ -3206,7 +3209,7 @@
         <v>3</v>
       </c>
       <c r="B80" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>F</v>
       </c>
       <c r="C80" s="26">
@@ -3214,19 +3217,19 @@
         <v>8528</v>
       </c>
       <c r="D80" s="26">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>2.5</v>
       </c>
       <c r="E80" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>11940.899999999998</v>
       </c>
       <c r="F80" s="26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="G80" s="26">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>4776</v>
       </c>
     </row>
@@ -3235,7 +3238,7 @@
         <v>4</v>
       </c>
       <c r="B81" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>D</v>
       </c>
       <c r="C81" s="26">
@@ -3243,19 +3246,19 @@
         <v>7534</v>
       </c>
       <c r="D81" s="26">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>1.5</v>
       </c>
       <c r="E81" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="F81" s="26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="G81" s="26">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
     </row>
@@ -3264,7 +3267,7 @@
         <v>5</v>
       </c>
       <c r="B82" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>A</v>
       </c>
       <c r="C82" s="26">
@@ -3272,7 +3275,7 @@
         <v>6631</v>
       </c>
       <c r="D82" s="26">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>1.7</v>
       </c>
       <c r="E82" s="26">
@@ -3284,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="G82" s="26">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
     </row>
@@ -3293,7 +3296,7 @@
         <v>6</v>
       </c>
       <c r="B83" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>C</v>
       </c>
       <c r="C83" s="26">
@@ -3301,7 +3304,7 @@
         <v>3841</v>
       </c>
       <c r="D83" s="26">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>1.2</v>
       </c>
       <c r="E83" s="26">
@@ -3309,11 +3312,11 @@
         <v>0</v>
       </c>
       <c r="F83" s="26">
-        <f t="shared" ref="F83" si="40">IF(F82&gt;=E83,F82-E83,0)</f>
+        <f t="shared" ref="F83" si="38">IF(F82&gt;=E83,F82-E83,0)</f>
         <v>0</v>
       </c>
       <c r="G83" s="26">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
     </row>
@@ -3351,43 +3354,43 @@
         <v>E</v>
       </c>
       <c r="B87" s="26">
-        <f>B68</f>
-        <v>25</v>
+        <f>SUMIF($A$68:$A$73,A87,$B$68:$B$73)</f>
+        <v>22.8</v>
       </c>
       <c r="C87" s="26">
-        <f>C68</f>
-        <v>37.1</v>
+        <f>SUMIF($A$68:$A$73,A87,$C$68:$C$73)</f>
+        <v>41.2</v>
       </c>
       <c r="D87" s="26">
-        <f t="shared" ref="D87:D90" si="41">_xlfn.FLOOR.MATH(E78/D78)</f>
+        <f t="shared" ref="D87:D90" si="39">_xlfn.FLOOR.MATH(E78/D78)</f>
         <v>6723</v>
       </c>
       <c r="E87" s="26">
         <f>(C87-B87)*D87</f>
-        <v>81348.3</v>
+        <v>123703.20000000001</v>
       </c>
       <c r="F87" s="26"/>
       <c r="G87" s="26"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="16" t="str">
-        <f t="shared" ref="A88:A92" si="42">B79</f>
+        <f t="shared" ref="A88:A92" si="40">B79</f>
         <v>B</v>
       </c>
       <c r="B88" s="26">
-        <f t="shared" ref="B88:C88" si="43">B69</f>
+        <f t="shared" ref="B88:B92" si="41">SUMIF($A$68:$A$73,A88,$B$68:$B$73)</f>
         <v>34.700000000000003</v>
       </c>
       <c r="C88" s="26">
-        <f t="shared" si="43"/>
+        <f t="shared" ref="C88:C92" si="42">SUMIF($A$68:$A$73,A88,$C$68:$C$73)</f>
         <v>53.9</v>
       </c>
       <c r="D88" s="26">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>8539</v>
       </c>
       <c r="E88" s="26">
-        <f t="shared" ref="E88:E92" si="44">(C88-B88)*D88</f>
+        <f t="shared" ref="E88:E92" si="43">(C88-B88)*D88</f>
         <v>163948.79999999996</v>
       </c>
       <c r="F88" s="26"/>
@@ -3395,47 +3398,47 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="16" t="str">
+        <f t="shared" si="40"/>
+        <v>F</v>
+      </c>
+      <c r="B89" s="26">
+        <f t="shared" si="41"/>
+        <v>28.1</v>
+      </c>
+      <c r="C89" s="26">
         <f t="shared" si="42"/>
-        <v>F</v>
-      </c>
-      <c r="B89" s="26">
-        <f t="shared" ref="B89:C89" si="45">B70</f>
-        <v>26.5</v>
-      </c>
-      <c r="C89" s="26">
-        <f t="shared" si="45"/>
-        <v>32.700000000000003</v>
+        <v>46.9</v>
       </c>
       <c r="D89" s="26">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>4776</v>
       </c>
       <c r="E89" s="26">
-        <f t="shared" si="44"/>
-        <v>29611.200000000015</v>
+        <f t="shared" si="43"/>
+        <v>89788.799999999988</v>
       </c>
       <c r="F89" s="26"/>
       <c r="G89" s="26"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="16" t="str">
+        <f t="shared" si="40"/>
+        <v>D</v>
+      </c>
+      <c r="B90" s="26">
+        <f t="shared" si="41"/>
+        <v>28.9</v>
+      </c>
+      <c r="C90" s="26">
         <f t="shared" si="42"/>
-        <v>D</v>
-      </c>
-      <c r="B90" s="26">
-        <f t="shared" ref="B90:C90" si="46">B71</f>
-        <v>28.9</v>
-      </c>
-      <c r="C90" s="26">
-        <f t="shared" si="46"/>
         <v>39.700000000000003</v>
       </c>
       <c r="D90" s="26">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="E90" s="26">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="F90" s="26"/>
@@ -3443,23 +3446,23 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="16" t="str">
+        <f t="shared" si="40"/>
+        <v>A</v>
+      </c>
+      <c r="B91" s="26">
+        <f t="shared" si="41"/>
+        <v>25</v>
+      </c>
+      <c r="C91" s="26">
         <f t="shared" si="42"/>
-        <v>A</v>
-      </c>
-      <c r="B91" s="26">
-        <f t="shared" ref="B91:C91" si="47">B72</f>
-        <v>22.8</v>
-      </c>
-      <c r="C91" s="26">
-        <f t="shared" si="47"/>
-        <v>41.2</v>
+        <v>37.1</v>
       </c>
       <c r="D91" s="26">
         <f>_xlfn.FLOOR.MATH(E82/D82)</f>
         <v>0</v>
       </c>
       <c r="E91" s="26">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="F91" s="26"/>
@@ -3467,23 +3470,23 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="16" t="str">
+        <f t="shared" si="40"/>
+        <v>C</v>
+      </c>
+      <c r="B92" s="26">
+        <f t="shared" si="41"/>
+        <v>26.5</v>
+      </c>
+      <c r="C92" s="26">
         <f t="shared" si="42"/>
-        <v>C</v>
-      </c>
-      <c r="B92" s="26">
-        <f t="shared" ref="B92:C92" si="48">B73</f>
-        <v>28.1</v>
-      </c>
-      <c r="C92" s="26">
-        <f t="shared" si="48"/>
-        <v>46.9</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="D92" s="26">
         <f>_xlfn.FLOOR.MATH(E83/D83)</f>
         <v>0</v>
       </c>
       <c r="E92" s="26">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="F92" s="26"/>
@@ -3498,7 +3501,7 @@
       <c r="D93" s="26"/>
       <c r="E93" s="26">
         <f>SUM(E87:E92)</f>
-        <v>274908.3</v>
+        <v>377440.8</v>
       </c>
       <c r="F93" s="26">
         <f>'исходные данные'!I4</f>
@@ -3506,7 +3509,7 @@
       </c>
       <c r="G93" s="27">
         <f>E93-F93</f>
-        <v>-71957.700000000012</v>
+        <v>30574.799999999988</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -3579,7 +3582,7 @@
         <v>4</v>
       </c>
       <c r="H99" t="str">
-        <f t="shared" ref="H99:H104" si="49">A99</f>
+        <f t="shared" ref="H99:H104" si="44">A99</f>
         <v>A</v>
       </c>
     </row>
@@ -3601,19 +3604,19 @@
         <v>1.7</v>
       </c>
       <c r="E100" s="26">
-        <f t="shared" ref="E100:E104" si="50">C100-B100</f>
+        <f t="shared" ref="E100:E104" si="45">C100-B100</f>
         <v>16.899999999999999</v>
       </c>
       <c r="F100" s="26">
-        <f t="shared" ref="F100:F104" si="51">E100/D100</f>
+        <f t="shared" ref="F100:F104" si="46">E100/D100</f>
         <v>9.9411764705882355</v>
       </c>
       <c r="G100" s="1">
-        <f t="shared" ref="G100:G104" si="52">_xlfn.RANK.EQ(F100,$F$99:$F$104)</f>
+        <f t="shared" ref="G100:G104" si="47">_xlfn.RANK.EQ(F100,$F$99:$F$104)</f>
         <v>1</v>
       </c>
       <c r="H100" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="44"/>
         <v>B</v>
       </c>
     </row>
@@ -3635,19 +3638,19 @@
         <v>2.1</v>
       </c>
       <c r="E101" s="26">
-        <f t="shared" si="50"/>
+        <f t="shared" si="45"/>
         <v>17.100000000000001</v>
       </c>
       <c r="F101" s="26">
-        <f t="shared" si="51"/>
+        <f t="shared" si="46"/>
         <v>8.1428571428571423</v>
       </c>
       <c r="G101" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="47"/>
         <v>3</v>
       </c>
       <c r="H101" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="44"/>
         <v>C</v>
       </c>
     </row>
@@ -3669,19 +3672,19 @@
         <v>1.9</v>
       </c>
       <c r="E102" s="26">
-        <f t="shared" si="50"/>
+        <f t="shared" si="45"/>
         <v>17.100000000000001</v>
       </c>
       <c r="F102" s="26">
-        <f t="shared" si="51"/>
+        <f t="shared" si="46"/>
         <v>9.0000000000000018</v>
       </c>
       <c r="G102" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="47"/>
         <v>2</v>
       </c>
       <c r="H102" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="44"/>
         <v>D</v>
       </c>
     </row>
@@ -3703,19 +3706,19 @@
         <v>3.2</v>
       </c>
       <c r="E103" s="26">
-        <f t="shared" si="50"/>
+        <f t="shared" si="45"/>
         <v>14.199999999999996</v>
       </c>
       <c r="F103" s="26">
-        <f t="shared" si="51"/>
+        <f t="shared" si="46"/>
         <v>4.4374999999999982</v>
       </c>
       <c r="G103" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="47"/>
         <v>5</v>
       </c>
       <c r="H103" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="44"/>
         <v>E</v>
       </c>
     </row>
@@ -3737,19 +3740,19 @@
         <v>2.7</v>
       </c>
       <c r="E104" s="26">
-        <f t="shared" si="50"/>
+        <f t="shared" si="45"/>
         <v>7</v>
       </c>
       <c r="F104" s="26">
-        <f t="shared" si="51"/>
+        <f t="shared" si="46"/>
         <v>2.5925925925925926</v>
       </c>
       <c r="G104" s="1">
-        <f t="shared" si="52"/>
+        <f t="shared" si="47"/>
         <v>6</v>
       </c>
       <c r="H104" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="44"/>
         <v>F</v>
       </c>
     </row>
@@ -3810,11 +3813,11 @@
         <v>1.7</v>
       </c>
       <c r="E109" s="26">
-        <f t="shared" ref="E109:E112" si="53">IF(F108&gt;=C109*D109,C109*D109,F108)</f>
+        <f t="shared" ref="E109:E112" si="48">IF(F108&gt;=C109*D109,C109*D109,F108)</f>
         <v>8311.2999999999993</v>
       </c>
       <c r="F109" s="26">
-        <f t="shared" ref="F109:F112" si="54">IF(F108&gt;=E109,F108-E109,0)</f>
+        <f t="shared" ref="F109:F112" si="49">IF(F108&gt;=E109,F108-E109,0)</f>
         <v>38139.699999999997</v>
       </c>
       <c r="G109" s="26">
@@ -3827,7 +3830,7 @@
         <v>2</v>
       </c>
       <c r="B110" s="16" t="str">
-        <f t="shared" ref="B110:B114" si="55">VLOOKUP(A110,$G$99:$H$104,2,FALSE)</f>
+        <f t="shared" ref="B110:B114" si="50">VLOOKUP(A110,$G$99:$H$104,2,FALSE)</f>
         <v>D</v>
       </c>
       <c r="C110" s="26">
@@ -3835,19 +3838,19 @@
         <v>2012</v>
       </c>
       <c r="D110" s="26">
-        <f t="shared" ref="D110:D114" si="56">VLOOKUP(B110,$A$99:$D$104,4,FALSE)</f>
+        <f t="shared" ref="D110:D114" si="51">VLOOKUP(B110,$A$99:$D$104,4,FALSE)</f>
         <v>1.9</v>
       </c>
       <c r="E110" s="26">
-        <f t="shared" si="53"/>
+        <f t="shared" si="48"/>
         <v>3822.7999999999997</v>
       </c>
       <c r="F110" s="26">
-        <f t="shared" si="54"/>
+        <f t="shared" si="49"/>
         <v>34316.899999999994</v>
       </c>
       <c r="G110" s="26">
-        <f t="shared" ref="G110:G114" si="57">D119</f>
+        <f t="shared" ref="G110:G114" si="52">D119</f>
         <v>2012</v>
       </c>
     </row>
@@ -3856,7 +3859,7 @@
         <v>3</v>
       </c>
       <c r="B111" s="16" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="50"/>
         <v>C</v>
       </c>
       <c r="C111" s="26">
@@ -3864,19 +3867,19 @@
         <v>7365</v>
       </c>
       <c r="D111" s="26">
-        <f t="shared" si="56"/>
+        <f t="shared" si="51"/>
         <v>2.1</v>
       </c>
       <c r="E111" s="26">
-        <f t="shared" si="53"/>
+        <f t="shared" si="48"/>
         <v>15466.5</v>
       </c>
       <c r="F111" s="26">
-        <f t="shared" si="54"/>
+        <f t="shared" si="49"/>
         <v>18850.399999999994</v>
       </c>
       <c r="G111" s="26">
-        <f t="shared" si="57"/>
+        <f t="shared" si="52"/>
         <v>7365</v>
       </c>
     </row>
@@ -3885,7 +3888,7 @@
         <v>4</v>
       </c>
       <c r="B112" s="16" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="50"/>
         <v>A</v>
       </c>
       <c r="C112" s="26">
@@ -3893,19 +3896,19 @@
         <v>6603</v>
       </c>
       <c r="D112" s="26">
-        <f t="shared" si="56"/>
+        <f t="shared" si="51"/>
         <v>1.5</v>
       </c>
       <c r="E112" s="26">
-        <f t="shared" si="53"/>
+        <f t="shared" si="48"/>
         <v>9904.5</v>
       </c>
       <c r="F112" s="26">
-        <f t="shared" si="54"/>
+        <f t="shared" si="49"/>
         <v>8945.8999999999942</v>
       </c>
       <c r="G112" s="26">
-        <f t="shared" si="57"/>
+        <f t="shared" si="52"/>
         <v>6603</v>
       </c>
     </row>
@@ -3914,7 +3917,7 @@
         <v>5</v>
       </c>
       <c r="B113" s="16" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="50"/>
         <v>E</v>
       </c>
       <c r="C113" s="26">
@@ -3922,7 +3925,7 @@
         <v>7387</v>
       </c>
       <c r="D113" s="26">
-        <f t="shared" si="56"/>
+        <f t="shared" si="51"/>
         <v>3.2</v>
       </c>
       <c r="E113" s="26">
@@ -3934,7 +3937,7 @@
         <v>0</v>
       </c>
       <c r="G113" s="26">
-        <f t="shared" si="57"/>
+        <f t="shared" si="52"/>
         <v>2795</v>
       </c>
     </row>
@@ -3943,7 +3946,7 @@
         <v>6</v>
       </c>
       <c r="B114" s="16" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="50"/>
         <v>F</v>
       </c>
       <c r="C114" s="26">
@@ -3951,7 +3954,7 @@
         <v>7181</v>
       </c>
       <c r="D114" s="26">
-        <f t="shared" si="56"/>
+        <f t="shared" si="51"/>
         <v>2.7</v>
       </c>
       <c r="E114" s="26">
@@ -3959,11 +3962,11 @@
         <v>0</v>
       </c>
       <c r="F114" s="26">
-        <f t="shared" ref="F114" si="58">IF(F113&gt;=E114,F113-E114,0)</f>
+        <f t="shared" ref="F114" si="53">IF(F113&gt;=E114,F113-E114,0)</f>
         <v>0</v>
       </c>
       <c r="G114" s="26">
-        <f t="shared" si="57"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
     </row>
@@ -4001,67 +4004,67 @@
         <v>B</v>
       </c>
       <c r="B118" s="26">
-        <f>B99</f>
-        <v>22</v>
+        <f>SUMIF($A$99:$A$104,A118,$B$99:$B$104)</f>
+        <v>21</v>
       </c>
       <c r="C118" s="26">
-        <f>C99</f>
-        <v>28.8</v>
+        <f>SUMIF($A$99:$A$104,A118,$C$99:$C$104)</f>
+        <v>37.9</v>
       </c>
       <c r="D118" s="26">
-        <f t="shared" ref="D118:D121" si="59">_xlfn.FLOOR.MATH(E109/D109)</f>
+        <f t="shared" ref="D118:D121" si="54">_xlfn.FLOOR.MATH(E109/D109)</f>
         <v>4889</v>
       </c>
       <c r="E118" s="26">
         <f>(C118-B118)*D118</f>
-        <v>33245.200000000004</v>
+        <v>82624.099999999991</v>
       </c>
       <c r="F118" s="26"/>
       <c r="G118" s="26"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="16" t="str">
-        <f t="shared" ref="A119:A123" si="60">B110</f>
+        <f t="shared" ref="A119:A123" si="55">B110</f>
         <v>D</v>
       </c>
       <c r="B119" s="26">
-        <f t="shared" ref="B119:C119" si="61">B100</f>
-        <v>21</v>
+        <f t="shared" ref="B119:B123" si="56">SUMIF($A$99:$A$104,A119,$B$99:$B$104)</f>
+        <v>33.799999999999997</v>
       </c>
       <c r="C119" s="26">
-        <f t="shared" si="61"/>
-        <v>37.9</v>
+        <f t="shared" ref="C119:C123" si="57">SUMIF($A$99:$A$104,A119,$C$99:$C$104)</f>
+        <v>50.9</v>
       </c>
       <c r="D119" s="26">
-        <f t="shared" si="59"/>
+        <f t="shared" si="54"/>
         <v>2012</v>
       </c>
       <c r="E119" s="26">
-        <f t="shared" ref="E119:E123" si="62">(C119-B119)*D119</f>
-        <v>34002.799999999996</v>
+        <f t="shared" ref="E119:E123" si="58">(C119-B119)*D119</f>
+        <v>34405.200000000004</v>
       </c>
       <c r="F119" s="26"/>
       <c r="G119" s="26"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="55"/>
         <v>C</v>
       </c>
       <c r="B120" s="26">
-        <f t="shared" ref="B120:C120" si="63">B101</f>
+        <f t="shared" si="56"/>
         <v>32.799999999999997</v>
       </c>
       <c r="C120" s="26">
-        <f t="shared" si="63"/>
+        <f t="shared" si="57"/>
         <v>49.9</v>
       </c>
       <c r="D120" s="26">
-        <f t="shared" si="59"/>
+        <f t="shared" si="54"/>
         <v>7365</v>
       </c>
       <c r="E120" s="26">
-        <f t="shared" si="62"/>
+        <f t="shared" si="58"/>
         <v>125941.50000000001</v>
       </c>
       <c r="F120" s="26"/>
@@ -4069,39 +4072,39 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="55"/>
         <v>A</v>
       </c>
       <c r="B121" s="26">
-        <f t="shared" ref="B121:C121" si="64">B102</f>
-        <v>33.799999999999997</v>
+        <f t="shared" si="56"/>
+        <v>22</v>
       </c>
       <c r="C121" s="26">
-        <f t="shared" si="64"/>
-        <v>50.9</v>
+        <f t="shared" si="57"/>
+        <v>28.8</v>
       </c>
       <c r="D121" s="26">
-        <f t="shared" si="59"/>
+        <f t="shared" si="54"/>
         <v>6603</v>
       </c>
       <c r="E121" s="26">
-        <f t="shared" si="62"/>
-        <v>112911.3</v>
+        <f t="shared" si="58"/>
+        <v>44900.4</v>
       </c>
       <c r="F121" s="26"/>
       <c r="G121" s="26"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="55"/>
         <v>E</v>
       </c>
       <c r="B122" s="26">
-        <f t="shared" ref="B122:C122" si="65">B103</f>
+        <f t="shared" si="56"/>
         <v>33.6</v>
       </c>
       <c r="C122" s="26">
-        <f t="shared" si="65"/>
+        <f t="shared" si="57"/>
         <v>47.8</v>
       </c>
       <c r="D122" s="26">
@@ -4109,7 +4112,7 @@
         <v>2795</v>
       </c>
       <c r="E122" s="26">
-        <f t="shared" si="62"/>
+        <f t="shared" si="58"/>
         <v>39688.999999999985</v>
       </c>
       <c r="F122" s="26"/>
@@ -4117,15 +4120,15 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="16" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="55"/>
         <v>F</v>
       </c>
       <c r="B123" s="26">
-        <f t="shared" ref="B123:C123" si="66">B104</f>
+        <f t="shared" si="56"/>
         <v>24.9</v>
       </c>
       <c r="C123" s="26">
-        <f t="shared" si="66"/>
+        <f t="shared" si="57"/>
         <v>31.9</v>
       </c>
       <c r="D123" s="26">
@@ -4133,7 +4136,7 @@
         <v>0</v>
       </c>
       <c r="E123" s="26">
-        <f t="shared" si="62"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="F123" s="26"/>
@@ -4148,7 +4151,7 @@
       <c r="D124" s="26"/>
       <c r="E124" s="26">
         <f>SUM(E118:E123)</f>
-        <v>345789.8</v>
+        <v>327560.2</v>
       </c>
       <c r="F124" s="26">
         <f>'исходные данные'!J4</f>
@@ -4156,7 +4159,7 @@
       </c>
       <c r="G124" s="27">
         <f>E124-F124</f>
-        <v>48645.799999999988</v>
+        <v>30416.200000000012</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -4224,12 +4227,12 @@
         <f>E130/D130</f>
         <v>5.7857142857142874</v>
       </c>
-      <c r="G130" s="32">
+      <c r="G130" s="31">
         <f>_xlfn.RANK.EQ(F130,$F$130:$F$135)</f>
         <v>6</v>
       </c>
       <c r="H130" t="str">
-        <f t="shared" ref="H130:H135" si="67">A130</f>
+        <f t="shared" ref="H130:H135" si="59">A130</f>
         <v>A</v>
       </c>
     </row>
@@ -4251,19 +4254,19 @@
         <v>1.3</v>
       </c>
       <c r="E131" s="26">
-        <f t="shared" ref="E131:E135" si="68">C131-B131</f>
+        <f t="shared" ref="E131:E135" si="60">C131-B131</f>
         <v>18.600000000000001</v>
       </c>
       <c r="F131" s="26">
-        <f t="shared" ref="F131:F135" si="69">E131/D131</f>
+        <f t="shared" ref="F131:F135" si="61">E131/D131</f>
         <v>14.307692307692308</v>
       </c>
-      <c r="G131" s="32">
-        <f t="shared" ref="G131:G135" si="70">_xlfn.RANK.EQ(F131,$F$130:$F$135)</f>
+      <c r="G131" s="31">
+        <f t="shared" ref="G131:G135" si="62">_xlfn.RANK.EQ(F131,$F$130:$F$135)</f>
         <v>2</v>
       </c>
       <c r="H131" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="59"/>
         <v>B</v>
       </c>
     </row>
@@ -4285,19 +4288,19 @@
         <v>1</v>
       </c>
       <c r="E132" s="26">
-        <f t="shared" si="68"/>
+        <f t="shared" si="60"/>
         <v>6.9000000000000021</v>
       </c>
       <c r="F132" s="26">
-        <f t="shared" si="69"/>
+        <f t="shared" si="61"/>
         <v>6.9000000000000021</v>
       </c>
-      <c r="G132" s="32">
-        <f t="shared" si="70"/>
+      <c r="G132" s="31">
+        <f t="shared" si="62"/>
         <v>4</v>
       </c>
       <c r="H132" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="59"/>
         <v>C</v>
       </c>
     </row>
@@ -4319,19 +4322,19 @@
         <v>0.9</v>
       </c>
       <c r="E133" s="26">
-        <f t="shared" si="68"/>
+        <f t="shared" si="60"/>
         <v>18</v>
       </c>
       <c r="F133" s="26">
-        <f t="shared" si="69"/>
+        <f t="shared" si="61"/>
         <v>20</v>
       </c>
-      <c r="G133" s="32">
-        <f t="shared" si="70"/>
+      <c r="G133" s="31">
+        <f t="shared" si="62"/>
         <v>1</v>
       </c>
       <c r="H133" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="59"/>
         <v>D</v>
       </c>
     </row>
@@ -4353,19 +4356,19 @@
         <v>2.4</v>
       </c>
       <c r="E134" s="26">
-        <f t="shared" si="68"/>
+        <f t="shared" si="60"/>
         <v>15.300000000000004</v>
       </c>
       <c r="F134" s="26">
-        <f t="shared" si="69"/>
+        <f t="shared" si="61"/>
         <v>6.3750000000000018</v>
       </c>
-      <c r="G134" s="32">
-        <f t="shared" si="70"/>
+      <c r="G134" s="31">
+        <f t="shared" si="62"/>
         <v>5</v>
       </c>
       <c r="H134" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="59"/>
         <v>E</v>
       </c>
     </row>
@@ -4387,19 +4390,19 @@
         <v>1.9</v>
       </c>
       <c r="E135" s="26">
-        <f t="shared" si="68"/>
+        <f t="shared" si="60"/>
         <v>17.799999999999997</v>
       </c>
       <c r="F135" s="26">
-        <f t="shared" si="69"/>
+        <f t="shared" si="61"/>
         <v>9.3684210526315788</v>
       </c>
-      <c r="G135" s="32">
-        <f t="shared" si="70"/>
+      <c r="G135" s="31">
+        <f t="shared" si="62"/>
         <v>3</v>
       </c>
       <c r="H135" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="59"/>
         <v>F</v>
       </c>
     </row>
@@ -4460,11 +4463,11 @@
         <v>0.9</v>
       </c>
       <c r="E140" s="26">
-        <f t="shared" ref="E140:E143" si="71">IF(F139&gt;=C140*D140,C140*D140,F139)</f>
+        <f t="shared" ref="E140:E143" si="63">IF(F139&gt;=C140*D140,C140*D140,F139)</f>
         <v>2850.3</v>
       </c>
       <c r="F140" s="26">
-        <f t="shared" ref="F140:F143" si="72">IF(F139&gt;=E140,F139-E140,0)</f>
+        <f t="shared" ref="F140:F143" si="64">IF(F139&gt;=E140,F139-E140,0)</f>
         <v>28347.7</v>
       </c>
       <c r="G140" s="26">
@@ -4477,7 +4480,7 @@
         <v>2</v>
       </c>
       <c r="B141" s="16" t="str">
-        <f t="shared" ref="B141:B145" si="73">VLOOKUP(A141,$G$130:$H$135,2,FALSE)</f>
+        <f t="shared" ref="B141:B145" si="65">VLOOKUP(A141,$G$130:$H$135,2,FALSE)</f>
         <v>B</v>
       </c>
       <c r="C141" s="26">
@@ -4485,19 +4488,19 @@
         <v>7364</v>
       </c>
       <c r="D141" s="26">
-        <f t="shared" ref="D141:D145" si="74">VLOOKUP(B141,$A$130:$D$135,4,FALSE)</f>
+        <f t="shared" ref="D141:D145" si="66">VLOOKUP(B141,$A$130:$D$135,4,FALSE)</f>
         <v>1.3</v>
       </c>
       <c r="E141" s="26">
-        <f t="shared" si="71"/>
+        <f t="shared" si="63"/>
         <v>9573.2000000000007</v>
       </c>
       <c r="F141" s="26">
-        <f t="shared" si="72"/>
+        <f t="shared" si="64"/>
         <v>18774.5</v>
       </c>
       <c r="G141" s="26">
-        <f t="shared" ref="G141:G145" si="75">D150</f>
+        <f t="shared" ref="G141:G145" si="67">D150</f>
         <v>7364</v>
       </c>
     </row>
@@ -4506,7 +4509,7 @@
         <v>3</v>
       </c>
       <c r="B142" s="16" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="65"/>
         <v>F</v>
       </c>
       <c r="C142" s="26">
@@ -4514,19 +4517,19 @@
         <v>5706</v>
       </c>
       <c r="D142" s="26">
-        <f t="shared" si="74"/>
+        <f t="shared" si="66"/>
         <v>1.9</v>
       </c>
       <c r="E142" s="26">
-        <f t="shared" si="71"/>
+        <f t="shared" si="63"/>
         <v>10841.4</v>
       </c>
       <c r="F142" s="26">
-        <f t="shared" si="72"/>
+        <f t="shared" si="64"/>
         <v>7933.1</v>
       </c>
       <c r="G142" s="26">
-        <f t="shared" si="75"/>
+        <f t="shared" si="67"/>
         <v>5706</v>
       </c>
     </row>
@@ -4535,7 +4538,7 @@
         <v>4</v>
       </c>
       <c r="B143" s="16" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="65"/>
         <v>C</v>
       </c>
       <c r="C143" s="26">
@@ -4543,19 +4546,19 @@
         <v>3478</v>
       </c>
       <c r="D143" s="26">
-        <f t="shared" si="74"/>
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="E143" s="26">
-        <f t="shared" si="71"/>
+        <f t="shared" si="63"/>
         <v>3478</v>
       </c>
       <c r="F143" s="26">
-        <f t="shared" si="72"/>
+        <f t="shared" si="64"/>
         <v>4455.1000000000004</v>
       </c>
       <c r="G143" s="26">
-        <f t="shared" si="75"/>
+        <f t="shared" si="67"/>
         <v>3478</v>
       </c>
     </row>
@@ -4564,7 +4567,7 @@
         <v>5</v>
       </c>
       <c r="B144" s="16" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="65"/>
         <v>E</v>
       </c>
       <c r="C144" s="26">
@@ -4572,7 +4575,7 @@
         <v>5662</v>
       </c>
       <c r="D144" s="26">
-        <f t="shared" si="74"/>
+        <f t="shared" si="66"/>
         <v>2.4</v>
       </c>
       <c r="E144" s="26">
@@ -4584,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="G144" s="26">
-        <f t="shared" si="75"/>
+        <f t="shared" si="67"/>
         <v>1856</v>
       </c>
     </row>
@@ -4593,7 +4596,7 @@
         <v>6</v>
       </c>
       <c r="B145" s="16" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="65"/>
         <v>A</v>
       </c>
       <c r="C145" s="26">
@@ -4601,7 +4604,7 @@
         <v>2245</v>
       </c>
       <c r="D145" s="26">
-        <f t="shared" si="74"/>
+        <f t="shared" si="66"/>
         <v>1.4</v>
       </c>
       <c r="E145" s="26">
@@ -4609,11 +4612,11 @@
         <v>0</v>
       </c>
       <c r="F145" s="26">
-        <f t="shared" ref="F145" si="76">IF(F144&gt;=E145,F144-E145,0)</f>
+        <f t="shared" ref="F145" si="68">IF(F144&gt;=E145,F144-E145,0)</f>
         <v>0</v>
       </c>
       <c r="G145" s="26">
-        <f t="shared" si="75"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
     </row>
@@ -4651,43 +4654,43 @@
         <v>D</v>
       </c>
       <c r="B149" s="26">
-        <f>B130</f>
-        <v>23.7</v>
+        <f>SUMIF($A$130:$A$135,A149,$B$130:$B$135)</f>
+        <v>32.9</v>
       </c>
       <c r="C149" s="26">
-        <f>C130</f>
-        <v>31.8</v>
+        <f>SUMIF($A$130:$A$135,A149,$C$130:$C$135)</f>
+        <v>50.9</v>
       </c>
       <c r="D149" s="26">
-        <f t="shared" ref="D149:D152" si="77">_xlfn.FLOOR.MATH(E140/D140)</f>
+        <f t="shared" ref="D149:D152" si="69">_xlfn.FLOOR.MATH(E140/D140)</f>
         <v>3167</v>
       </c>
       <c r="E149" s="26">
         <f>(C149-B149)*D149</f>
-        <v>25652.700000000004</v>
+        <v>57006</v>
       </c>
       <c r="F149" s="26"/>
       <c r="G149" s="26"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="16" t="str">
-        <f t="shared" ref="A150:A154" si="78">B141</f>
+        <f t="shared" ref="A150:A154" si="70">B141</f>
         <v>B</v>
       </c>
       <c r="B150" s="26">
-        <f t="shared" ref="B150:C150" si="79">B131</f>
+        <f t="shared" ref="B150:B154" si="71">SUMIF($A$130:$A$135,A150,$B$130:$B$135)</f>
         <v>26.6</v>
       </c>
       <c r="C150" s="26">
-        <f t="shared" si="79"/>
+        <f t="shared" ref="C150:C154" si="72">SUMIF($A$130:$A$135,A150,$C$130:$C$135)</f>
         <v>45.2</v>
       </c>
       <c r="D150" s="26">
-        <f t="shared" si="77"/>
+        <f t="shared" si="69"/>
         <v>7364</v>
       </c>
       <c r="E150" s="26">
-        <f t="shared" ref="E150:E154" si="80">(C150-B150)*D150</f>
+        <f t="shared" ref="E150:E154" si="73">(C150-B150)*D150</f>
         <v>136970.40000000002</v>
       </c>
       <c r="F150" s="26"/>
@@ -4695,63 +4698,63 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="16" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="70"/>
         <v>F</v>
       </c>
       <c r="B151" s="26">
-        <f t="shared" ref="B151:C151" si="81">B132</f>
-        <v>24.9</v>
+        <f t="shared" si="71"/>
+        <v>23.1</v>
       </c>
       <c r="C151" s="26">
-        <f t="shared" si="81"/>
-        <v>31.8</v>
+        <f t="shared" si="72"/>
+        <v>40.9</v>
       </c>
       <c r="D151" s="26">
-        <f t="shared" si="77"/>
+        <f t="shared" si="69"/>
         <v>5706</v>
       </c>
       <c r="E151" s="26">
-        <f t="shared" si="80"/>
-        <v>39371.400000000009</v>
+        <f t="shared" si="73"/>
+        <v>101566.79999999999</v>
       </c>
       <c r="F151" s="26"/>
       <c r="G151" s="26"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="16" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="70"/>
         <v>C</v>
       </c>
       <c r="B152" s="26">
-        <f t="shared" ref="B152:C152" si="82">B133</f>
-        <v>32.9</v>
+        <f t="shared" si="71"/>
+        <v>24.9</v>
       </c>
       <c r="C152" s="26">
-        <f t="shared" si="82"/>
-        <v>50.9</v>
+        <f t="shared" si="72"/>
+        <v>31.8</v>
       </c>
       <c r="D152" s="26">
-        <f t="shared" si="77"/>
+        <f t="shared" si="69"/>
         <v>3478</v>
       </c>
       <c r="E152" s="26">
-        <f t="shared" si="80"/>
-        <v>62604</v>
+        <f t="shared" si="73"/>
+        <v>23998.200000000008</v>
       </c>
       <c r="F152" s="26"/>
       <c r="G152" s="26"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="16" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="70"/>
         <v>E</v>
       </c>
       <c r="B153" s="26">
-        <f t="shared" ref="B153:C153" si="83">B134</f>
+        <f t="shared" si="71"/>
         <v>24.9</v>
       </c>
       <c r="C153" s="26">
-        <f t="shared" si="83"/>
+        <f t="shared" si="72"/>
         <v>40.200000000000003</v>
       </c>
       <c r="D153" s="26">
@@ -4759,7 +4762,7 @@
         <v>1856</v>
       </c>
       <c r="E153" s="26">
-        <f t="shared" si="80"/>
+        <f t="shared" si="73"/>
         <v>28396.800000000007</v>
       </c>
       <c r="F153" s="26"/>
@@ -4767,23 +4770,23 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="16" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="70"/>
         <v>A</v>
       </c>
       <c r="B154" s="26">
-        <f t="shared" ref="B154:C154" si="84">B135</f>
-        <v>23.1</v>
+        <f t="shared" si="71"/>
+        <v>23.7</v>
       </c>
       <c r="C154" s="26">
-        <f t="shared" si="84"/>
-        <v>40.9</v>
+        <f t="shared" si="72"/>
+        <v>31.8</v>
       </c>
       <c r="D154" s="26">
         <f>_xlfn.FLOOR.MATH(E145/D145)</f>
         <v>0</v>
       </c>
       <c r="E154" s="26">
-        <f t="shared" si="80"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="F154" s="26"/>
@@ -4798,7 +4801,7 @@
       <c r="D155" s="26"/>
       <c r="E155" s="26">
         <f>SUM(E149:E154)</f>
-        <v>292995.30000000005</v>
+        <v>347938.2</v>
       </c>
       <c r="F155" s="26">
         <f>'исходные данные'!K4</f>
@@ -4806,7 +4809,7 @@
       </c>
       <c r="G155" s="27">
         <f>E155-F155</f>
-        <v>-17548.699999999953</v>
+        <v>37394.200000000012</v>
       </c>
     </row>
   </sheetData>
@@ -4819,7 +4822,7 @@
   <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4891,11 +4894,11 @@
       <c r="B4" s="22"/>
       <c r="C4" s="22">
         <f>'прибыль проектов'!$G$31*4</f>
-        <v>70533.600000000093</v>
+        <v>86160</v>
       </c>
       <c r="D4" s="22">
         <f t="shared" ref="D4:D8" si="0">B4+C4</f>
-        <v>70533.600000000093</v>
+        <v>86160</v>
       </c>
       <c r="E4" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A4)</f>
@@ -4903,7 +4906,7 @@
       </c>
       <c r="F4" s="22">
         <f t="shared" ref="F4:F8" si="1">E4*D4</f>
-        <v>60028.595744680933</v>
+        <v>73327.659574468082</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -4913,11 +4916,11 @@
       <c r="B5" s="22"/>
       <c r="C5" s="22">
         <f>'прибыль проектов'!$G$31*4</f>
-        <v>70533.600000000093</v>
+        <v>86160</v>
       </c>
       <c r="D5" s="22">
         <f t="shared" si="0"/>
-        <v>70533.600000000093</v>
+        <v>86160</v>
       </c>
       <c r="E5" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A5)</f>
@@ -4925,7 +4928,7 @@
       </c>
       <c r="F5" s="22">
         <f t="shared" si="1"/>
-        <v>51088.1665912178</v>
+        <v>62406.518786781337</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4935,11 +4938,11 @@
       <c r="B6" s="22"/>
       <c r="C6" s="22">
         <f>'прибыль проектов'!$G$31*4</f>
-        <v>70533.600000000093</v>
+        <v>86160</v>
       </c>
       <c r="D6" s="22">
         <f t="shared" si="0"/>
-        <v>70533.600000000093</v>
+        <v>86160</v>
       </c>
       <c r="E6" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A6)</f>
@@ -4947,7 +4950,7 @@
       </c>
       <c r="F6" s="22">
         <f t="shared" si="1"/>
-        <v>43479.290715930045</v>
+        <v>53111.930882367094</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -4957,11 +4960,11 @@
       <c r="B7" s="22"/>
       <c r="C7" s="22">
         <f>'прибыль проектов'!$G$31*4</f>
-        <v>70533.600000000093</v>
+        <v>86160</v>
       </c>
       <c r="D7" s="22">
         <f t="shared" si="0"/>
-        <v>70533.600000000093</v>
+        <v>86160</v>
       </c>
       <c r="E7" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A7)</f>
@@ -4969,7 +4972,7 @@
       </c>
       <c r="F7" s="22">
         <f t="shared" si="1"/>
-        <v>37003.65167313195</v>
+        <v>45201.643304142206</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -4979,11 +4982,11 @@
       <c r="B8" s="22"/>
       <c r="C8" s="22">
         <f>'прибыль проектов'!$G$31*4</f>
-        <v>70533.600000000093</v>
+        <v>86160</v>
       </c>
       <c r="D8" s="22">
         <f t="shared" si="0"/>
-        <v>70533.600000000093</v>
+        <v>86160</v>
       </c>
       <c r="E8" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A8)</f>
@@ -4991,7 +4994,7 @@
       </c>
       <c r="F8" s="22">
         <f t="shared" si="1"/>
-        <v>31492.469509048464</v>
+        <v>38469.483663099745</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -5001,11 +5004,11 @@
       <c r="B9" s="22"/>
       <c r="C9" s="22">
         <f>'прибыль проектов'!$G$31*4</f>
-        <v>70533.600000000093</v>
+        <v>86160</v>
       </c>
       <c r="D9" s="22">
         <f t="shared" ref="D9:D10" si="2">B9+C9</f>
-        <v>70533.600000000093</v>
+        <v>86160</v>
       </c>
       <c r="E9" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A9)</f>
@@ -5013,7 +5016,7 @@
       </c>
       <c r="F9" s="22">
         <f t="shared" ref="F9" si="3">E9*D9</f>
-        <v>26802.101709828476</v>
+        <v>32739.986096255096</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -5023,11 +5026,11 @@
       <c r="B10" s="22"/>
       <c r="C10" s="22">
         <f>'прибыль проектов'!$G$31*4</f>
-        <v>70533.600000000093</v>
+        <v>86160</v>
       </c>
       <c r="D10" s="22">
         <f t="shared" si="2"/>
-        <v>70533.600000000093</v>
+        <v>86160</v>
       </c>
       <c r="E10" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A10)</f>
@@ -5035,7 +5038,7 @@
       </c>
       <c r="F10" s="22">
         <f>E10*D10</f>
-        <v>22810.299327513596</v>
+        <v>27863.817954259655</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -5043,21 +5046,21 @@
         <v>43</v>
       </c>
       <c r="B11" s="22">
-        <f>SUM(B3:B8)</f>
+        <f>SUM(B3:B10)</f>
         <v>-718000</v>
       </c>
       <c r="C11" s="22">
-        <f>SUM(C3:C8)</f>
-        <v>352668.00000000047</v>
+        <f>SUM(C3:C10)</f>
+        <v>603120</v>
       </c>
       <c r="D11" s="22">
-        <f>SUM(D3:D8)</f>
-        <v>-365331.99999999953</v>
+        <f>SUM(D3:D10)</f>
+        <v>-114880</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="29">
         <f>SUM(F3:F10)</f>
-        <v>-445295.42472864862</v>
+        <v>-384878.95973862684</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -5119,11 +5122,11 @@
       <c r="B16" s="22"/>
       <c r="C16" s="22">
         <f>'прибыль проектов'!$G$62*4</f>
-        <v>190880.40000000014</v>
+        <v>145803.20000000019</v>
       </c>
       <c r="D16" s="22">
         <f t="shared" ref="D16:D22" si="4">B16+C16</f>
-        <v>190880.40000000014</v>
+        <v>145803.20000000019</v>
       </c>
       <c r="E16" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A16)</f>
@@ -5131,7 +5134,7 @@
       </c>
       <c r="F16" s="22">
         <f t="shared" ref="F16:F21" si="5">E16*D16</f>
-        <v>162451.40425531927</v>
+        <v>124087.82978723421</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -5141,11 +5144,11 @@
       <c r="B17" s="22"/>
       <c r="C17" s="22">
         <f>'прибыль проектов'!$G$62*4</f>
-        <v>190880.40000000014</v>
+        <v>145803.20000000019</v>
       </c>
       <c r="D17" s="22">
         <f t="shared" si="4"/>
-        <v>190880.40000000014</v>
+        <v>145803.20000000019</v>
       </c>
       <c r="E17" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A17)</f>
@@ -5153,7 +5156,7 @@
       </c>
       <c r="F17" s="22">
         <f t="shared" si="5"/>
-        <v>138256.51425984615</v>
+        <v>105606.66364870993</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -5163,11 +5166,11 @@
       <c r="B18" s="22"/>
       <c r="C18" s="22">
         <f>'прибыль проектов'!$G$62*4</f>
-        <v>190880.40000000014</v>
+        <v>145803.20000000019</v>
       </c>
       <c r="D18" s="22">
         <f t="shared" si="4"/>
-        <v>190880.40000000014</v>
+        <v>145803.20000000019</v>
       </c>
       <c r="E18" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A18)</f>
@@ -5175,7 +5178,7 @@
       </c>
       <c r="F18" s="22">
         <f t="shared" si="5"/>
-        <v>117665.11851901801</v>
+        <v>89878.011615923344</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -5185,11 +5188,11 @@
       <c r="B19" s="22"/>
       <c r="C19" s="22">
         <f>'прибыль проектов'!$G$62*4</f>
-        <v>190880.40000000014</v>
+        <v>145803.20000000019</v>
       </c>
       <c r="D19" s="22">
         <f t="shared" si="4"/>
-        <v>190880.40000000014</v>
+        <v>145803.20000000019</v>
       </c>
       <c r="E19" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A19)</f>
@@ -5197,7 +5200,7 @@
       </c>
       <c r="F19" s="22">
         <f t="shared" si="5"/>
-        <v>100140.52639916426</v>
+        <v>76491.924779509238</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -5207,11 +5210,11 @@
       <c r="B20" s="22"/>
       <c r="C20" s="22">
         <f>'прибыль проектов'!$G$62*4</f>
-        <v>190880.40000000014</v>
+        <v>145803.20000000019</v>
       </c>
       <c r="D20" s="22">
         <f t="shared" si="4"/>
-        <v>190880.40000000014</v>
+        <v>145803.20000000019</v>
       </c>
       <c r="E20" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A20)</f>
@@ -5219,7 +5222,7 @@
       </c>
       <c r="F20" s="22">
         <f t="shared" si="5"/>
-        <v>85225.979914182331</v>
+        <v>65099.510450646143</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -5229,11 +5232,11 @@
       <c r="B21" s="22"/>
       <c r="C21" s="22">
         <f>'прибыль проектов'!$G$62*4</f>
-        <v>190880.40000000014</v>
+        <v>145803.20000000019</v>
       </c>
       <c r="D21" s="22">
         <f t="shared" si="4"/>
-        <v>190880.40000000014</v>
+        <v>145803.20000000019</v>
       </c>
       <c r="E21" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A21)</f>
@@ -5241,7 +5244,7 @@
       </c>
       <c r="F21" s="22">
         <f t="shared" si="5"/>
-        <v>72532.748863133893</v>
+        <v>55403.838681400965</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -5251,11 +5254,11 @@
       <c r="B22" s="22"/>
       <c r="C22" s="22">
         <f>'прибыль проектов'!$G$62*4</f>
-        <v>190880.40000000014</v>
+        <v>145803.20000000019</v>
       </c>
       <c r="D22" s="22">
         <f t="shared" si="4"/>
-        <v>190880.40000000014</v>
+        <v>145803.20000000019</v>
       </c>
       <c r="E22" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A22)</f>
@@ -5263,7 +5266,7 @@
       </c>
       <c r="F22" s="22">
         <f>E22*D22</f>
-        <v>61729.999032454369</v>
+        <v>47152.203133107199</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -5271,21 +5274,21 @@
         <v>43</v>
       </c>
       <c r="B23" s="22">
-        <f>SUM(B15:B20)</f>
+        <f>SUM(B15:B22)</f>
         <v>-785000</v>
       </c>
       <c r="C23" s="22">
-        <f>SUM(C15:C20)</f>
-        <v>954402.0000000007</v>
+        <f>SUM(C15:C22)</f>
+        <v>1020622.4000000013</v>
       </c>
       <c r="D23" s="22">
-        <f>SUM(D15:D20)</f>
-        <v>169402.0000000007</v>
+        <f>SUM(D15:D22)</f>
+        <v>235622.4000000013</v>
       </c>
       <c r="E23" s="22"/>
       <c r="F23" s="29">
         <f>SUM(F15:F22)</f>
-        <v>-46997.708756881671</v>
+        <v>-221280.01790346895</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -5347,11 +5350,11 @@
       <c r="B28" s="22"/>
       <c r="C28" s="22">
         <f>'прибыль проектов'!$G$93*4</f>
-        <v>-287830.80000000005</v>
+        <v>122299.19999999995</v>
       </c>
       <c r="D28" s="22">
         <f t="shared" ref="D28:D34" si="6">B28+C28</f>
-        <v>-287830.80000000005</v>
+        <v>122299.19999999995</v>
       </c>
       <c r="E28" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A28)</f>
@@ -5359,7 +5362,7 @@
       </c>
       <c r="F28" s="22">
         <f t="shared" ref="F28:F33" si="7">E28*D28</f>
-        <v>-244962.38297872344</v>
+        <v>104084.42553191485</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -5369,11 +5372,11 @@
       <c r="B29" s="22"/>
       <c r="C29" s="22">
         <f>'прибыль проектов'!$G$93*4</f>
-        <v>-287830.80000000005</v>
+        <v>122299.19999999995</v>
       </c>
       <c r="D29" s="22">
         <f t="shared" si="6"/>
-        <v>-287830.80000000005</v>
+        <v>122299.19999999995</v>
       </c>
       <c r="E29" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A29)</f>
@@ -5381,7 +5384,7 @@
       </c>
       <c r="F29" s="22">
         <f t="shared" si="7"/>
-        <v>-208478.62381167948</v>
+        <v>88582.489814395609</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -5391,11 +5394,11 @@
       <c r="B30" s="22"/>
       <c r="C30" s="22">
         <f>'прибыль проектов'!$G$93*4</f>
-        <v>-287830.80000000005</v>
+        <v>122299.19999999995</v>
       </c>
       <c r="D30" s="22">
         <f t="shared" si="6"/>
-        <v>-287830.80000000005</v>
+        <v>122299.19999999995</v>
       </c>
       <c r="E30" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A30)</f>
@@ -5403,7 +5406,7 @@
       </c>
       <c r="F30" s="22">
         <f t="shared" si="7"/>
-        <v>-177428.61600993999</v>
+        <v>75389.353033528168</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -5413,11 +5416,11 @@
       <c r="B31" s="22"/>
       <c r="C31" s="22">
         <f>'прибыль проектов'!$G$93*4</f>
-        <v>-287830.80000000005</v>
+        <v>122299.19999999995</v>
       </c>
       <c r="D31" s="22">
         <f t="shared" si="6"/>
-        <v>-287830.80000000005</v>
+        <v>122299.19999999995</v>
       </c>
       <c r="E31" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A31)</f>
@@ -5425,7 +5428,7 @@
       </c>
       <c r="F31" s="22">
         <f t="shared" si="7"/>
-        <v>-151003.07745526807</v>
+        <v>64161.151517896316</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -5435,11 +5438,11 @@
       <c r="B32" s="22"/>
       <c r="C32" s="22">
         <f>'прибыль проектов'!$G$93*4</f>
-        <v>-287830.80000000005</v>
+        <v>122299.19999999995</v>
       </c>
       <c r="D32" s="22">
         <f t="shared" si="6"/>
-        <v>-287830.80000000005</v>
+        <v>122299.19999999995</v>
       </c>
       <c r="E32" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A32)</f>
@@ -5447,7 +5450,7 @@
       </c>
       <c r="F32" s="22">
         <f t="shared" si="7"/>
-        <v>-128513.25740873876</v>
+        <v>54605.235334379831</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -5457,11 +5460,11 @@
       <c r="B33" s="22"/>
       <c r="C33" s="22">
         <f>'прибыль проектов'!$G$93*4</f>
-        <v>-287830.80000000005</v>
+        <v>122299.19999999995</v>
       </c>
       <c r="D33" s="22">
         <f t="shared" si="6"/>
-        <v>-287830.80000000005</v>
+        <v>122299.19999999995</v>
       </c>
       <c r="E33" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A33)</f>
@@ -5469,7 +5472,7 @@
       </c>
       <c r="F33" s="22">
         <f t="shared" si="7"/>
-        <v>-109372.98502871383</v>
+        <v>46472.540710110487</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -5479,11 +5482,11 @@
       <c r="B34" s="22"/>
       <c r="C34" s="22">
         <f>'прибыль проектов'!$G$93*4</f>
-        <v>-287830.80000000005</v>
+        <v>122299.19999999995</v>
       </c>
       <c r="D34" s="22">
         <f t="shared" si="6"/>
-        <v>-287830.80000000005</v>
+        <v>122299.19999999995</v>
       </c>
       <c r="E34" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A34)</f>
@@ -5491,7 +5494,7 @@
       </c>
       <c r="F34" s="22">
         <f>E34*D34</f>
-        <v>-93083.391513798982</v>
+        <v>39551.098476689775</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -5499,21 +5502,21 @@
         <v>43</v>
       </c>
       <c r="B35" s="22">
-        <f>SUM(B27:B32)</f>
+        <f>SUM(B27:B34)</f>
         <v>-573000</v>
       </c>
       <c r="C35" s="22">
-        <f>SUM(C27:C32)</f>
-        <v>-1439154.0000000002</v>
+        <f>SUM(C27:C34)</f>
+        <v>856094.39999999967</v>
       </c>
       <c r="D35" s="22">
-        <f>SUM(D27:D32)</f>
-        <v>-2012154.0000000002</v>
+        <f>SUM(D27:D34)</f>
+        <v>283094.39999999967</v>
       </c>
       <c r="E35" s="22"/>
       <c r="F35" s="29">
         <f>SUM(F27:F34)</f>
-        <v>-1685842.3342068626</v>
+        <v>-100153.70558108491</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -5575,11 +5578,11 @@
       <c r="B40" s="22"/>
       <c r="C40" s="22">
         <f>'прибыль проектов'!$G$124*4</f>
-        <v>194583.19999999995</v>
+        <v>121664.80000000005</v>
       </c>
       <c r="D40" s="22">
         <f t="shared" ref="D40:D46" si="8">B40+C40</f>
-        <v>194583.19999999995</v>
+        <v>121664.80000000005</v>
       </c>
       <c r="E40" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A40)</f>
@@ -5587,7 +5590,7 @@
       </c>
       <c r="F40" s="22">
         <f t="shared" ref="F40:F45" si="9">E40*D40</f>
-        <v>165602.72340425529</v>
+        <v>103544.51063829791</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -5597,11 +5600,11 @@
       <c r="B41" s="22"/>
       <c r="C41" s="22">
         <f>'прибыль проектов'!$G$124*4</f>
-        <v>194583.19999999995</v>
+        <v>121664.80000000005</v>
       </c>
       <c r="D41" s="22">
         <f t="shared" si="8"/>
-        <v>194583.19999999995</v>
+        <v>121664.80000000005</v>
       </c>
       <c r="E41" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A41)</f>
@@ -5609,7 +5612,7 @@
       </c>
       <c r="F41" s="22">
         <f t="shared" si="9"/>
-        <v>140938.48800362149</v>
+        <v>88122.9877772748</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -5619,11 +5622,11 @@
       <c r="B42" s="22"/>
       <c r="C42" s="22">
         <f>'прибыль проектов'!$G$124*4</f>
-        <v>194583.19999999995</v>
+        <v>121664.80000000005</v>
       </c>
       <c r="D42" s="22">
         <f t="shared" si="8"/>
-        <v>194583.19999999995</v>
+        <v>121664.80000000005</v>
       </c>
       <c r="E42" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A42)</f>
@@ -5631,7 +5634,7 @@
       </c>
       <c r="F42" s="22">
         <f t="shared" si="9"/>
-        <v>119947.64936478424</v>
+        <v>74998.28747002111</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -5641,11 +5644,11 @@
       <c r="B43" s="22"/>
       <c r="C43" s="22">
         <f>'прибыль проектов'!$G$124*4</f>
-        <v>194583.19999999995</v>
+        <v>121664.80000000005</v>
       </c>
       <c r="D43" s="22">
         <f t="shared" si="8"/>
-        <v>194583.19999999995</v>
+        <v>121664.80000000005</v>
       </c>
       <c r="E43" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A43)</f>
@@ -5653,7 +5656,7 @@
       </c>
       <c r="F43" s="22">
         <f t="shared" si="9"/>
-        <v>102083.10584236956</v>
+        <v>63828.329761720088</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -5663,11 +5666,11 @@
       <c r="B44" s="22"/>
       <c r="C44" s="22">
         <f>'прибыль проектов'!$G$124*4</f>
-        <v>194583.19999999995</v>
+        <v>121664.80000000005</v>
       </c>
       <c r="D44" s="22">
         <f t="shared" si="8"/>
-        <v>194583.19999999995</v>
+        <v>121664.80000000005</v>
       </c>
       <c r="E44" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A44)</f>
@@ -5675,7 +5678,7 @@
       </c>
       <c r="F44" s="22">
         <f t="shared" si="9"/>
-        <v>86879.239014782594</v>
+        <v>54321.982775931981</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -5685,11 +5688,11 @@
       <c r="B45" s="22"/>
       <c r="C45" s="22">
         <f>'прибыль проектов'!$G$124*4</f>
-        <v>194583.19999999995</v>
+        <v>121664.80000000005</v>
       </c>
       <c r="D45" s="22">
         <f t="shared" si="8"/>
-        <v>194583.19999999995</v>
+        <v>121664.80000000005</v>
       </c>
       <c r="E45" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A45)</f>
@@ -5697,7 +5700,7 @@
       </c>
       <c r="F45" s="22">
         <f t="shared" si="9"/>
-        <v>73939.77788492135</v>
+        <v>46231.47470292083</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -5707,11 +5710,11 @@
       <c r="B46" s="22"/>
       <c r="C46" s="22">
         <f>'прибыль проектов'!$G$124*4</f>
-        <v>194583.19999999995</v>
+        <v>121664.80000000005</v>
       </c>
       <c r="D46" s="22">
         <f t="shared" si="8"/>
-        <v>194583.19999999995</v>
+        <v>121664.80000000005</v>
       </c>
       <c r="E46" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A46)</f>
@@ -5719,7 +5722,7 @@
       </c>
       <c r="F46" s="22">
         <f>E46*D46</f>
-        <v>62927.47054035859</v>
+        <v>39345.935917379422</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -5727,21 +5730,21 @@
         <v>43</v>
       </c>
       <c r="B47" s="22">
-        <f>SUM(B39:B44)</f>
+        <f>SUM(B39:B46)</f>
         <v>-727000</v>
       </c>
       <c r="C47" s="22">
-        <f>SUM(C39:C44)</f>
-        <v>972915.99999999977</v>
+        <f>SUM(C39:C46)</f>
+        <v>851653.60000000033</v>
       </c>
       <c r="D47" s="22">
-        <f>SUM(D39:D44)</f>
-        <v>245915.99999999977</v>
+        <f>SUM(D39:D46)</f>
+        <v>124653.60000000033</v>
       </c>
       <c r="E47" s="22"/>
       <c r="F47" s="29">
         <f>SUM(F39:F46)</f>
-        <v>25318.454055093018</v>
+        <v>-256606.49095645387</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -5803,11 +5806,11 @@
       <c r="B52" s="22"/>
       <c r="C52" s="22">
         <f>'прибыль проектов'!$G$155*4</f>
-        <v>-70194.799999999814</v>
+        <v>149576.80000000005</v>
       </c>
       <c r="D52" s="22">
         <f t="shared" ref="D52:D58" si="10">B52+C52</f>
-        <v>-70194.799999999814</v>
+        <v>149576.80000000005</v>
       </c>
       <c r="E52" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A52)</f>
@@ -5815,7 +5818,7 @@
       </c>
       <c r="F52" s="22">
         <f t="shared" ref="F52:F57" si="11">E52*D52</f>
-        <v>-59740.255319148775</v>
+        <v>127299.40425531918</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -5825,11 +5828,11 @@
       <c r="B53" s="22"/>
       <c r="C53" s="22">
         <f>'прибыль проектов'!$G$155*4</f>
-        <v>-70194.799999999814</v>
+        <v>149576.80000000005</v>
       </c>
       <c r="D53" s="22">
         <f t="shared" si="10"/>
-        <v>-70194.799999999814</v>
+        <v>149576.80000000005</v>
       </c>
       <c r="E53" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A53)</f>
@@ -5837,7 +5840,7 @@
       </c>
       <c r="F53" s="22">
         <f t="shared" si="11"/>
-        <v>-50842.77048438193</v>
+        <v>108339.91851516525</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -5847,11 +5850,11 @@
       <c r="B54" s="22"/>
       <c r="C54" s="22">
         <f>'прибыль проектов'!$G$155*4</f>
-        <v>-70194.799999999814</v>
+        <v>149576.80000000005</v>
       </c>
       <c r="D54" s="22">
         <f t="shared" si="10"/>
-        <v>-70194.799999999814</v>
+        <v>149576.80000000005</v>
       </c>
       <c r="E54" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A54)</f>
@@ -5859,7 +5862,7 @@
       </c>
       <c r="F54" s="22">
         <f t="shared" si="11"/>
-        <v>-43270.44296543143</v>
+        <v>92204.185970353399</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -5869,11 +5872,11 @@
       <c r="B55" s="22"/>
       <c r="C55" s="22">
         <f>'прибыль проектов'!$G$155*4</f>
-        <v>-70194.799999999814</v>
+        <v>149576.80000000005</v>
       </c>
       <c r="D55" s="22">
         <f t="shared" si="10"/>
-        <v>-70194.799999999814</v>
+        <v>149576.80000000005</v>
       </c>
       <c r="E55" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A55)</f>
@@ -5881,7 +5884,7 @@
       </c>
       <c r="F55" s="22">
         <f t="shared" si="11"/>
-        <v>-36825.908906750148</v>
+        <v>78471.647634343317</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -5891,11 +5894,11 @@
       <c r="B56" s="22"/>
       <c r="C56" s="22">
         <f>'прибыль проектов'!$G$155*4</f>
-        <v>-70194.799999999814</v>
+        <v>149576.80000000005</v>
       </c>
       <c r="D56" s="22">
         <f t="shared" si="10"/>
-        <v>-70194.799999999814</v>
+        <v>149576.80000000005</v>
       </c>
       <c r="E56" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A56)</f>
@@ -5903,7 +5906,7 @@
       </c>
       <c r="F56" s="22">
         <f t="shared" si="11"/>
-        <v>-31341.199069574592</v>
+        <v>66784.380965398552</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -5913,11 +5916,11 @@
       <c r="B57" s="22"/>
       <c r="C57" s="22">
         <f>'прибыль проектов'!$G$155*4</f>
-        <v>-70194.799999999814</v>
+        <v>149576.80000000005</v>
       </c>
       <c r="D57" s="22">
         <f t="shared" si="10"/>
-        <v>-70194.799999999814</v>
+        <v>149576.80000000005</v>
       </c>
       <c r="E57" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A57)</f>
@@ -5925,7 +5928,7 @@
       </c>
       <c r="F57" s="22">
         <f t="shared" si="11"/>
-        <v>-26673.360910276242</v>
+        <v>56837.771034381738</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -5935,11 +5938,11 @@
       <c r="B58" s="22"/>
       <c r="C58" s="22">
         <f>'прибыль проектов'!$G$155*4</f>
-        <v>-70194.799999999814</v>
+        <v>149576.80000000005</v>
       </c>
       <c r="D58" s="22">
         <f t="shared" si="10"/>
-        <v>-70194.799999999814</v>
+        <v>149576.80000000005</v>
       </c>
       <c r="E58" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A58)</f>
@@ -5947,7 +5950,7 @@
       </c>
       <c r="F58" s="22">
         <f>E58*D58</f>
-        <v>-22700.7326895968</v>
+        <v>48372.571093090839</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -5955,21 +5958,21 @@
         <v>43</v>
       </c>
       <c r="B59" s="22">
-        <f>SUM(B51:B56)</f>
+        <f>SUM(B51:B58)</f>
         <v>-899000</v>
       </c>
       <c r="C59" s="22">
-        <f>SUM(C51:C56)</f>
-        <v>-350973.99999999907</v>
+        <f>SUM(C51:C58)</f>
+        <v>1047037.6000000003</v>
       </c>
       <c r="D59" s="22">
-        <f>SUM(D51:D56)</f>
-        <v>-1249973.9999999991</v>
+        <f>SUM(D51:D58)</f>
+        <v>148037.60000000033</v>
       </c>
       <c r="E59" s="22"/>
       <c r="F59" s="29">
         <f>SUM(F51:F58)</f>
-        <v>-1170394.6703451599</v>
+        <v>-320690.1205319477</v>
       </c>
     </row>
   </sheetData>

--- a/РГР/ргр.xlsx
+++ b/РГР/ргр.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="исходные данные" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="65">
   <si>
     <t>Номера инвестиционных проектов</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Объём прод. (шт.)</t>
   </si>
   <si>
-    <t>Цена (руб.)</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -75,9 +72,6 @@
     <t>Пост. затраты всего (руб.)</t>
   </si>
   <si>
-    <t>Перемен. затраты (руб.)</t>
-  </si>
-  <si>
     <t>Загрузка УМ продуктом A</t>
   </si>
   <si>
@@ -138,36 +132,12 @@
     <t>Объём продаж (шт.)</t>
   </si>
   <si>
-    <t>Скорректированный объём продаж</t>
-  </si>
-  <si>
-    <t>Остаток УМ (машино-часов)</t>
-  </si>
-  <si>
     <t>Рачёт прибыли</t>
   </si>
   <si>
     <t>ИТОГО</t>
   </si>
   <si>
-    <t>Суммарная маржинальная прибыль (руб.)</t>
-  </si>
-  <si>
-    <t>Постоянные затраты (руб.)</t>
-  </si>
-  <si>
-    <t>Общая прибыль (руб.)</t>
-  </si>
-  <si>
-    <t>Маржинальная прибыль (руб.)</t>
-  </si>
-  <si>
-    <t>Загрузка УМ (машино-часов)</t>
-  </si>
-  <si>
-    <t>МП на ед. УМ (руб./машино-час)</t>
-  </si>
-  <si>
     <t>Проект 2</t>
   </si>
   <si>
@@ -222,7 +192,25 @@
     <t>Общая прибыль (р.)</t>
   </si>
   <si>
-    <t>МП на ед. УМ (р./машино-час)</t>
+    <t>План. объём прод. (шт.)</t>
+  </si>
+  <si>
+    <t>Оптим. объём прод. (шт.)</t>
+  </si>
+  <si>
+    <t>Маржинальная прибыль (р.)</t>
+  </si>
+  <si>
+    <t>Загрузка УМ (маш.-час)</t>
+  </si>
+  <si>
+    <t>МП на ед. УМ (р./маш.-час)</t>
+  </si>
+  <si>
+    <t>Остаток УМ (маш.-час)</t>
+  </si>
+  <si>
+    <t>Скорректированный объём прод. (маш.-час)</t>
   </si>
 </sst>
 </file>
@@ -713,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,11 +718,11 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" s="5"/>
       <c r="F1" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -745,7 +733,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" s="33"/>
       <c r="H2" s="33"/>
@@ -785,7 +773,7 @@
         <v>785</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" s="8">
         <v>319384</v>
@@ -811,7 +799,7 @@
         <v>573</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" s="8">
         <v>38477</v>
@@ -845,12 +833,12 @@
         <v>899</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F8" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8" s="33"/>
       <c r="H8" s="33"/>
@@ -860,7 +848,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="32"/>
       <c r="G9" s="12">
@@ -887,13 +875,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G10" s="8">
         <v>2.2000000000000002</v>
@@ -913,7 +901,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="8">
         <v>4907</v>
@@ -925,7 +913,7 @@
         <v>39.799999999999997</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G11" s="8">
         <v>3.2</v>
@@ -945,7 +933,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="8">
         <v>8460</v>
@@ -957,7 +945,7 @@
         <v>40.799999999999997</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G12" s="8">
         <v>1.2</v>
@@ -977,7 +965,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="8">
         <v>5578</v>
@@ -989,7 +977,7 @@
         <v>41.7</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G13" s="8">
         <v>3</v>
@@ -1009,7 +997,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="8">
         <v>8282</v>
@@ -1021,7 +1009,7 @@
         <v>46.1</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G14" s="8">
         <v>2.9</v>
@@ -1041,7 +1029,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="8">
         <v>6649</v>
@@ -1053,7 +1041,7 @@
         <v>36.1</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G15" s="8">
         <v>2.1</v>
@@ -1073,7 +1061,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="8">
         <v>3093</v>
@@ -1085,7 +1073,7 @@
         <v>34.5</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G16" s="8">
         <v>55325</v>
@@ -1105,7 +1093,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1116,13 +1104,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G19" s="8">
         <v>17.5</v>
@@ -1130,7 +1118,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20" s="8">
         <v>5513</v>
@@ -1142,7 +1130,7 @@
         <v>40.1</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G20" s="8">
         <v>1825000</v>
@@ -1150,7 +1138,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21" s="8">
         <v>6795</v>
@@ -1164,7 +1152,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22" s="8">
         <v>8675</v>
@@ -1178,7 +1166,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23" s="8">
         <v>4142</v>
@@ -1192,7 +1180,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B24" s="8">
         <v>8599</v>
@@ -1206,7 +1194,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25" s="8">
         <v>2375</v>
@@ -1220,7 +1208,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1231,15 +1219,15 @@
         <v>8</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B29" s="8">
         <v>6631</v>
@@ -1253,7 +1241,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B30" s="8">
         <v>8539</v>
@@ -1267,7 +1255,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B31" s="8">
         <v>3841</v>
@@ -1281,7 +1269,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B32" s="8">
         <v>7534</v>
@@ -1295,7 +1283,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B33" s="8">
         <v>6723</v>
@@ -1309,7 +1297,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B34" s="8">
         <v>8528</v>
@@ -1323,7 +1311,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1334,15 +1322,15 @@
         <v>8</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B38" s="8">
         <v>6603</v>
@@ -1356,7 +1344,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B39" s="8">
         <v>4889</v>
@@ -1370,7 +1358,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B40" s="8">
         <v>7365</v>
@@ -1384,7 +1372,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B41" s="8">
         <v>2012</v>
@@ -1398,7 +1386,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B42" s="8">
         <v>7387</v>
@@ -1412,7 +1400,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B43" s="8">
         <v>7181</v>
@@ -1426,7 +1414,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1437,15 +1425,15 @@
         <v>8</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B47" s="8">
         <v>2245</v>
@@ -1459,7 +1447,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B48" s="8">
         <v>7364</v>
@@ -1473,7 +1461,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B49" s="8">
         <v>3478</v>
@@ -1487,7 +1475,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B50" s="8">
         <v>3167</v>
@@ -1501,7 +1489,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B51" s="8">
         <v>5662</v>
@@ -1515,7 +1503,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B52" s="8">
         <v>5706</v>
@@ -1543,8 +1531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1559,17 +1547,17 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1586,16 +1574,16 @@
         <v>Цена (р.)</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H5" t="str">
         <f>A5</f>
@@ -1808,30 +1796,30 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1896,7 +1884,7 @@
         <v>10795.400000000001</v>
       </c>
       <c r="F17" s="26">
-        <f t="shared" ref="F16:F21" si="6">IF(F16&gt;=E17,F16-E17,0)</f>
+        <f t="shared" ref="F17:F21" si="6">IF(F16&gt;=E17,F16-E17,0)</f>
         <v>37836</v>
       </c>
       <c r="G17" s="26">
@@ -1921,7 +1909,7 @@
         <v>2.1</v>
       </c>
       <c r="E18" s="26">
-        <f t="shared" ref="E16:E19" si="8">IF(F17&gt;=C18*D18,C18*D18,F17)</f>
+        <f t="shared" ref="E18:E19" si="8">IF(F17&gt;=C18*D18,C18*D18,F17)</f>
         <v>6495.3</v>
       </c>
       <c r="F18" s="26">
@@ -2022,7 +2010,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2030,22 +2018,22 @@
         <v>7</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -2194,7 +2182,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B31" s="26"/>
       <c r="C31" s="26"/>
@@ -2214,38 +2202,42 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="str">
-        <f>'исходные данные'!A19</f>
+        <f>A5</f>
         <v>Продукт</v>
       </c>
       <c r="B36" s="2" t="str">
-        <f>'исходные данные'!C19</f>
+        <f t="shared" ref="B36:G36" si="14">B5</f>
         <v>Перемен. затраты (р.)</v>
       </c>
       <c r="C36" s="2" t="str">
-        <f>'исходные данные'!D19</f>
+        <f t="shared" si="14"/>
         <v>Цена (р.)</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G36" s="15" t="s">
-        <v>36</v>
+      <c r="D36" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>Загрузка УМ (маш.-час)</v>
+      </c>
+      <c r="E36" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>Маржинальная прибыль (р.)</v>
+      </c>
+      <c r="F36" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>МП на ед. УМ (р./маш.-час)</v>
+      </c>
+      <c r="G36" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>Ранг</v>
       </c>
       <c r="H36" t="str">
         <f>A36</f>
@@ -2282,7 +2274,7 @@
         <v>4</v>
       </c>
       <c r="H37" t="str">
-        <f t="shared" ref="H37:H42" si="14">A37</f>
+        <f t="shared" ref="H37:H42" si="15">A37</f>
         <v>A</v>
       </c>
     </row>
@@ -2304,19 +2296,19 @@
         <v>3.4</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" ref="E38:E42" si="15">C38-B38</f>
+        <f t="shared" ref="E38:E42" si="16">C38-B38</f>
         <v>8.3000000000000007</v>
       </c>
       <c r="F38" s="3">
-        <f t="shared" ref="F38:F42" si="16">E38/D38</f>
+        <f t="shared" ref="F38:F42" si="17">E38/D38</f>
         <v>2.4411764705882355</v>
       </c>
       <c r="G38" s="1">
-        <f t="shared" ref="G38:G42" si="17">_xlfn.RANK.EQ(F38,$F$37:$F$42)</f>
+        <f t="shared" ref="G38:G42" si="18">_xlfn.RANK.EQ(F38,$F$37:$F$42)</f>
         <v>6</v>
       </c>
       <c r="H38" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>B</v>
       </c>
     </row>
@@ -2338,19 +2330,19 @@
         <v>3.4</v>
       </c>
       <c r="E39" s="1">
+        <f t="shared" si="16"/>
+        <v>15.900000000000002</v>
+      </c>
+      <c r="F39" s="3">
+        <f t="shared" si="17"/>
+        <v>4.6764705882352953</v>
+      </c>
+      <c r="G39" s="1">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="H39" t="str">
         <f t="shared" si="15"/>
-        <v>15.900000000000002</v>
-      </c>
-      <c r="F39" s="3">
-        <f t="shared" si="16"/>
-        <v>4.6764705882352953</v>
-      </c>
-      <c r="G39" s="1">
-        <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="H39" t="str">
-        <f t="shared" si="14"/>
         <v>C</v>
       </c>
     </row>
@@ -2372,19 +2364,19 @@
         <v>2.9</v>
       </c>
       <c r="E40" s="1">
+        <f t="shared" si="16"/>
+        <v>19.300000000000004</v>
+      </c>
+      <c r="F40" s="3">
+        <f t="shared" si="17"/>
+        <v>6.655172413793105</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="H40" t="str">
         <f t="shared" si="15"/>
-        <v>19.300000000000004</v>
-      </c>
-      <c r="F40" s="3">
-        <f t="shared" si="16"/>
-        <v>6.655172413793105</v>
-      </c>
-      <c r="G40" s="1">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="H40" t="str">
-        <f t="shared" si="14"/>
         <v>D</v>
       </c>
     </row>
@@ -2406,19 +2398,19 @@
         <v>1.9</v>
       </c>
       <c r="E41" s="1">
+        <f t="shared" si="16"/>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F41" s="3">
+        <f t="shared" si="17"/>
+        <v>4.5789473684210522</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="H41" t="str">
         <f t="shared" si="15"/>
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="F41" s="3">
-        <f t="shared" si="16"/>
-        <v>4.5789473684210522</v>
-      </c>
-      <c r="G41" s="1">
-        <f t="shared" si="17"/>
-        <v>3</v>
-      </c>
-      <c r="H41" t="str">
-        <f t="shared" si="14"/>
         <v>E</v>
       </c>
     </row>
@@ -2440,48 +2432,55 @@
         <v>3.2</v>
       </c>
       <c r="E42" s="1">
+        <f t="shared" si="16"/>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F42" s="3">
+        <f t="shared" si="17"/>
+        <v>2.90625</v>
+      </c>
+      <c r="G42" s="1">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="H42" t="str">
         <f t="shared" si="15"/>
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="F42" s="3">
-        <f t="shared" si="16"/>
-        <v>2.90625</v>
-      </c>
-      <c r="G42" s="1">
-        <f t="shared" si="17"/>
-        <v>5</v>
-      </c>
-      <c r="H42" t="str">
-        <f t="shared" si="14"/>
         <v>F</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>8</v>
+      <c r="A45" s="2" t="str">
+        <f>A14</f>
+        <v>Ранг</v>
+      </c>
+      <c r="B45" s="2" t="str">
+        <f t="shared" ref="B45:G45" si="19">B14</f>
+        <v>Продукт</v>
+      </c>
+      <c r="C45" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>План. объём прод. (шт.)</v>
+      </c>
+      <c r="D45" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>Загрузка УМ (маш.-час)</v>
+      </c>
+      <c r="E45" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>Скорректированный объём прод. (маш.-час)</v>
+      </c>
+      <c r="F45" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>Остаток УМ (маш.-час)</v>
+      </c>
+      <c r="G45" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>Оптим. объём прод. (шт.)</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -2513,11 +2512,11 @@
         <v>2.9</v>
       </c>
       <c r="E47" s="26">
-        <f t="shared" ref="E47:E50" si="18">IF(F46&gt;=C47*D47,C47*D47,F46)</f>
+        <f t="shared" ref="E47:E50" si="20">IF(F46&gt;=C47*D47,C47*D47,F46)</f>
         <v>12011.8</v>
       </c>
       <c r="F47" s="26">
-        <f t="shared" ref="F47:F50" si="19">IF(F46&gt;=E47,F46-E47,0)</f>
+        <f t="shared" ref="F47:F50" si="21">IF(F46&gt;=E47,F46-E47,0)</f>
         <v>62896.2</v>
       </c>
       <c r="G47" s="26">
@@ -2530,7 +2529,7 @@
         <v>2</v>
       </c>
       <c r="B48" s="16" t="str">
-        <f t="shared" ref="B48:B52" si="20">VLOOKUP(A48,$G$37:$H$42,2,FALSE)</f>
+        <f t="shared" ref="B48:B52" si="22">VLOOKUP(A48,$G$37:$H$42,2,FALSE)</f>
         <v>C</v>
       </c>
       <c r="C48" s="28">
@@ -2538,19 +2537,19 @@
         <v>8675</v>
       </c>
       <c r="D48" s="26">
-        <f t="shared" ref="D48:D52" si="21">VLOOKUP(B48,$A$37:$D$42,4,FALSE)</f>
+        <f t="shared" ref="D48:D52" si="23">VLOOKUP(B48,$A$37:$D$42,4,FALSE)</f>
         <v>3.4</v>
       </c>
       <c r="E48" s="26">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>29495</v>
       </c>
       <c r="F48" s="26">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>33401.199999999997</v>
       </c>
       <c r="G48" s="26">
-        <f t="shared" ref="G48:G52" si="22">D57</f>
+        <f t="shared" ref="G48:G52" si="24">D57</f>
         <v>8675</v>
       </c>
     </row>
@@ -2559,7 +2558,7 @@
         <v>3</v>
       </c>
       <c r="B49" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>E</v>
       </c>
       <c r="C49" s="28">
@@ -2567,19 +2566,19 @@
         <v>8599</v>
       </c>
       <c r="D49" s="26">
+        <f t="shared" si="23"/>
+        <v>1.9</v>
+      </c>
+      <c r="E49" s="26">
+        <f t="shared" si="20"/>
+        <v>16338.099999999999</v>
+      </c>
+      <c r="F49" s="26">
         <f t="shared" si="21"/>
-        <v>1.9</v>
-      </c>
-      <c r="E49" s="26">
-        <f t="shared" si="18"/>
-        <v>16338.099999999999</v>
-      </c>
-      <c r="F49" s="26">
-        <f t="shared" si="19"/>
         <v>17063.099999999999</v>
       </c>
       <c r="G49" s="26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>8599</v>
       </c>
     </row>
@@ -2588,7 +2587,7 @@
         <v>4</v>
       </c>
       <c r="B50" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>A</v>
       </c>
       <c r="C50" s="28">
@@ -2596,19 +2595,19 @@
         <v>5513</v>
       </c>
       <c r="D50" s="26">
+        <f t="shared" si="23"/>
+        <v>2.1</v>
+      </c>
+      <c r="E50" s="26">
+        <f t="shared" si="20"/>
+        <v>11577.300000000001</v>
+      </c>
+      <c r="F50" s="26">
         <f t="shared" si="21"/>
-        <v>2.1</v>
-      </c>
-      <c r="E50" s="26">
-        <f t="shared" si="18"/>
-        <v>11577.300000000001</v>
-      </c>
-      <c r="F50" s="26">
-        <f t="shared" si="19"/>
         <v>5485.7999999999975</v>
       </c>
       <c r="G50" s="26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5513</v>
       </c>
     </row>
@@ -2617,7 +2616,7 @@
         <v>5</v>
       </c>
       <c r="B51" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>F</v>
       </c>
       <c r="C51" s="28">
@@ -2625,7 +2624,7 @@
         <v>2375</v>
       </c>
       <c r="D51" s="26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3.2</v>
       </c>
       <c r="E51" s="26">
@@ -2637,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="G51" s="26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1714</v>
       </c>
     </row>
@@ -2646,7 +2645,7 @@
         <v>6</v>
       </c>
       <c r="B52" s="16" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>B</v>
       </c>
       <c r="C52" s="28">
@@ -2654,7 +2653,7 @@
         <v>6795</v>
       </c>
       <c r="D52" s="26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3.4</v>
       </c>
       <c r="E52" s="26">
@@ -2662,40 +2661,47 @@
         <v>0</v>
       </c>
       <c r="F52" s="26">
-        <f t="shared" ref="F52" si="23">IF(F51&gt;=E52,F51-E52,0)</f>
+        <f t="shared" ref="F52" si="25">IF(F51&gt;=E52,F51-E52,0)</f>
         <v>0</v>
       </c>
       <c r="G52" s="26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>46</v>
+      <c r="A55" s="2" t="str">
+        <f>A24</f>
+        <v>Продукт</v>
+      </c>
+      <c r="B55" s="2" t="str">
+        <f t="shared" ref="B55:G55" si="26">B24</f>
+        <v>Перемен. затраты (р.)</v>
+      </c>
+      <c r="C55" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>Цена (р.)</v>
+      </c>
+      <c r="D55" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>Объём продаж (шт.)</v>
+      </c>
+      <c r="E55" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>Суммарная маржинальная прибыль (р.)</v>
+      </c>
+      <c r="F55" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>Постоянные затраты (р.)</v>
+      </c>
+      <c r="G55" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>Общая прибыль (р.)</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -2712,7 +2718,7 @@
         <v>53.7</v>
       </c>
       <c r="D56" s="26">
-        <f t="shared" ref="D56:D59" si="24">_xlfn.FLOOR.MATH(E47/D47)</f>
+        <f t="shared" ref="D56:D59" si="27">_xlfn.FLOOR.MATH(E47/D47)</f>
         <v>4142</v>
       </c>
       <c r="E56" s="26">
@@ -2724,23 +2730,23 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="str">
-        <f t="shared" ref="A57:A61" si="25">B48</f>
+        <f t="shared" ref="A57:A61" si="28">B48</f>
         <v>C</v>
       </c>
       <c r="B57" s="1">
-        <f t="shared" ref="B57:B61" si="26">SUMIF($A$37:$A$42,A57,$B$37:$B$42)</f>
+        <f t="shared" ref="B57:B61" si="29">SUMIF($A$37:$A$42,A57,$B$37:$B$42)</f>
         <v>23.7</v>
       </c>
       <c r="C57" s="30">
-        <f t="shared" ref="C57:C61" si="27">SUMIF($A$37:$A$42,A57,$C$37:$C$42)</f>
+        <f t="shared" ref="C57:C61" si="30">SUMIF($A$37:$A$42,A57,$C$37:$C$42)</f>
         <v>39.6</v>
       </c>
       <c r="D57" s="26">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>8675</v>
       </c>
       <c r="E57" s="26">
-        <f t="shared" ref="E57:E61" si="28">(C57-B57)*D57</f>
+        <f t="shared" ref="E57:E61" si="31">(C57-B57)*D57</f>
         <v>137932.50000000003</v>
       </c>
       <c r="F57" s="26"/>
@@ -2748,23 +2754,23 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>E</v>
       </c>
       <c r="B58" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>21.3</v>
       </c>
       <c r="C58" s="30">
+        <f t="shared" si="30"/>
+        <v>30</v>
+      </c>
+      <c r="D58" s="26">
         <f t="shared" si="27"/>
-        <v>30</v>
-      </c>
-      <c r="D58" s="26">
-        <f t="shared" si="24"/>
         <v>8599</v>
       </c>
       <c r="E58" s="26">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>74811.299999999988</v>
       </c>
       <c r="F58" s="26"/>
@@ -2772,23 +2778,23 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>A</v>
       </c>
       <c r="B59" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>32.700000000000003</v>
       </c>
       <c r="C59" s="30">
+        <f t="shared" si="30"/>
+        <v>40.1</v>
+      </c>
+      <c r="D59" s="26">
         <f t="shared" si="27"/>
-        <v>40.1</v>
-      </c>
-      <c r="D59" s="26">
-        <f t="shared" si="24"/>
         <v>5513</v>
       </c>
       <c r="E59" s="26">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>40796.19999999999</v>
       </c>
       <c r="F59" s="26"/>
@@ -2796,15 +2802,15 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>F</v>
       </c>
       <c r="B60" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>22.2</v>
       </c>
       <c r="C60" s="30">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>31.5</v>
       </c>
       <c r="D60" s="26">
@@ -2812,7 +2818,7 @@
         <v>1714</v>
       </c>
       <c r="E60" s="26">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>15940.2</v>
       </c>
       <c r="F60" s="26"/>
@@ -2820,15 +2826,15 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>B</v>
       </c>
       <c r="B61" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>28.7</v>
       </c>
       <c r="C61" s="30">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>37</v>
       </c>
       <c r="D61" s="26">
@@ -2836,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="26">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="F61" s="26"/>
@@ -2844,7 +2850,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2864,38 +2870,42 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="17" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="str">
-        <f>'исходные данные'!A28</f>
+        <f>A5</f>
         <v>Продукт</v>
       </c>
       <c r="B67" s="2" t="str">
-        <f>'исходные данные'!C28</f>
+        <f t="shared" ref="B67:G67" si="32">B5</f>
         <v>Перемен. затраты (р.)</v>
       </c>
       <c r="C67" s="2" t="str">
-        <f>'исходные данные'!D28</f>
+        <f t="shared" si="32"/>
         <v>Цена (р.)</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G67" s="15" t="s">
-        <v>36</v>
+      <c r="D67" s="2" t="str">
+        <f t="shared" si="32"/>
+        <v>Загрузка УМ (маш.-час)</v>
+      </c>
+      <c r="E67" s="2" t="str">
+        <f t="shared" si="32"/>
+        <v>Маржинальная прибыль (р.)</v>
+      </c>
+      <c r="F67" s="2" t="str">
+        <f t="shared" si="32"/>
+        <v>МП на ед. УМ (р./маш.-час)</v>
+      </c>
+      <c r="G67" s="2" t="str">
+        <f t="shared" si="32"/>
+        <v>Ранг</v>
       </c>
       <c r="H67" t="str">
         <f>A67</f>
@@ -2932,7 +2942,7 @@
         <v>5</v>
       </c>
       <c r="H68" t="str">
-        <f t="shared" ref="H68:H73" si="29">A68</f>
+        <f t="shared" ref="H68:H73" si="33">A68</f>
         <v>A</v>
       </c>
     </row>
@@ -2954,19 +2964,19 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="E69" s="26">
-        <f t="shared" ref="E69:E73" si="30">C69-B69</f>
+        <f t="shared" ref="E69:E73" si="34">C69-B69</f>
         <v>19.199999999999996</v>
       </c>
       <c r="F69" s="26">
-        <f t="shared" ref="F69:F73" si="31">E69/D69</f>
+        <f t="shared" ref="F69:F73" si="35">E69/D69</f>
         <v>8.7272727272727249</v>
       </c>
       <c r="G69" s="1">
-        <f t="shared" ref="G69:G73" si="32">_xlfn.RANK.EQ(F69,$F$68:$F$73)</f>
+        <f t="shared" ref="G69:G73" si="36">_xlfn.RANK.EQ(F69,$F$68:$F$73)</f>
         <v>2</v>
       </c>
       <c r="H69" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>B</v>
       </c>
     </row>
@@ -2988,19 +2998,19 @@
         <v>1.2</v>
       </c>
       <c r="E70" s="26">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>6.2000000000000028</v>
       </c>
       <c r="F70" s="26">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>5.1666666666666696</v>
       </c>
       <c r="G70" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>6</v>
       </c>
       <c r="H70" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>C</v>
       </c>
     </row>
@@ -3022,19 +3032,19 @@
         <v>1.5</v>
       </c>
       <c r="E71" s="26">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>10.800000000000004</v>
       </c>
       <c r="F71" s="26">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>7.2000000000000028</v>
       </c>
       <c r="G71" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>4</v>
       </c>
       <c r="H71" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>D</v>
       </c>
     </row>
@@ -3056,19 +3066,19 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="E72" s="26">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>18.400000000000002</v>
       </c>
       <c r="F72" s="26">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>16.727272727272727</v>
       </c>
       <c r="G72" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="H72" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>E</v>
       </c>
     </row>
@@ -3090,48 +3100,55 @@
         <v>2.5</v>
       </c>
       <c r="E73" s="26">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>18.799999999999997</v>
       </c>
       <c r="F73" s="26">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>7.5199999999999987</v>
       </c>
       <c r="G73" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>3</v>
       </c>
       <c r="H73" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>F</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>8</v>
+      <c r="A76" s="2" t="str">
+        <f>A14</f>
+        <v>Ранг</v>
+      </c>
+      <c r="B76" s="2" t="str">
+        <f t="shared" ref="B76:G76" si="37">B14</f>
+        <v>Продукт</v>
+      </c>
+      <c r="C76" s="2" t="str">
+        <f t="shared" si="37"/>
+        <v>План. объём прод. (шт.)</v>
+      </c>
+      <c r="D76" s="2" t="str">
+        <f t="shared" si="37"/>
+        <v>Загрузка УМ (маш.-час)</v>
+      </c>
+      <c r="E76" s="2" t="str">
+        <f t="shared" si="37"/>
+        <v>Скорректированный объём прод. (маш.-час)</v>
+      </c>
+      <c r="F76" s="2" t="str">
+        <f t="shared" si="37"/>
+        <v>Остаток УМ (маш.-час)</v>
+      </c>
+      <c r="G76" s="2" t="str">
+        <f t="shared" si="37"/>
+        <v>Оптим. объём прод. (шт.)</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -3163,11 +3180,11 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="E78" s="26">
-        <f t="shared" ref="E78:E81" si="33">IF(F77&gt;=C78*D78,C78*D78,F77)</f>
+        <f t="shared" ref="E78:E81" si="38">IF(F77&gt;=C78*D78,C78*D78,F77)</f>
         <v>7395.3</v>
       </c>
       <c r="F78" s="26">
-        <f t="shared" ref="F78:F81" si="34">IF(F77&gt;=E78,F77-E78,0)</f>
+        <f t="shared" ref="F78:F81" si="39">IF(F77&gt;=E78,F77-E78,0)</f>
         <v>30726.7</v>
       </c>
       <c r="G78" s="26">
@@ -3180,7 +3197,7 @@
         <v>2</v>
       </c>
       <c r="B79" s="16" t="str">
-        <f t="shared" ref="B79:B83" si="35">VLOOKUP(A79,$G$68:$H$73,2,FALSE)</f>
+        <f t="shared" ref="B79:B83" si="40">VLOOKUP(A79,$G$68:$H$73,2,FALSE)</f>
         <v>B</v>
       </c>
       <c r="C79" s="26">
@@ -3188,19 +3205,19 @@
         <v>8539</v>
       </c>
       <c r="D79" s="26">
-        <f t="shared" ref="D79:D83" si="36">VLOOKUP(B79,$A$68:$D$73,4,FALSE)</f>
+        <f t="shared" ref="D79:D83" si="41">VLOOKUP(B79,$A$68:$D$73,4,FALSE)</f>
         <v>2.2000000000000002</v>
       </c>
       <c r="E79" s="26">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>18785.800000000003</v>
       </c>
       <c r="F79" s="26">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>11940.899999999998</v>
       </c>
       <c r="G79" s="26">
-        <f t="shared" ref="G79:G83" si="37">D88</f>
+        <f t="shared" ref="G79:G83" si="42">D88</f>
         <v>8539</v>
       </c>
     </row>
@@ -3209,7 +3226,7 @@
         <v>3</v>
       </c>
       <c r="B80" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>F</v>
       </c>
       <c r="C80" s="26">
@@ -3217,19 +3234,19 @@
         <v>8528</v>
       </c>
       <c r="D80" s="26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>2.5</v>
       </c>
       <c r="E80" s="26">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>11940.899999999998</v>
       </c>
       <c r="F80" s="26">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="G80" s="26">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>4776</v>
       </c>
     </row>
@@ -3238,7 +3255,7 @@
         <v>4</v>
       </c>
       <c r="B81" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>D</v>
       </c>
       <c r="C81" s="26">
@@ -3246,19 +3263,19 @@
         <v>7534</v>
       </c>
       <c r="D81" s="26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>1.5</v>
       </c>
       <c r="E81" s="26">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="F81" s="26">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="G81" s="26">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
     </row>
@@ -3267,7 +3284,7 @@
         <v>5</v>
       </c>
       <c r="B82" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>A</v>
       </c>
       <c r="C82" s="26">
@@ -3275,7 +3292,7 @@
         <v>6631</v>
       </c>
       <c r="D82" s="26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>1.7</v>
       </c>
       <c r="E82" s="26">
@@ -3287,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="G82" s="26">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
     </row>
@@ -3296,7 +3313,7 @@
         <v>6</v>
       </c>
       <c r="B83" s="16" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>C</v>
       </c>
       <c r="C83" s="26">
@@ -3304,7 +3321,7 @@
         <v>3841</v>
       </c>
       <c r="D83" s="26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>1.2</v>
       </c>
       <c r="E83" s="26">
@@ -3312,40 +3329,47 @@
         <v>0</v>
       </c>
       <c r="F83" s="26">
-        <f t="shared" ref="F83" si="38">IF(F82&gt;=E83,F82-E83,0)</f>
+        <f t="shared" ref="F83" si="43">IF(F82&gt;=E83,F82-E83,0)</f>
         <v>0</v>
       </c>
       <c r="G83" s="26">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>46</v>
+      <c r="A86" s="2" t="str">
+        <f>A24</f>
+        <v>Продукт</v>
+      </c>
+      <c r="B86" s="2" t="str">
+        <f t="shared" ref="B86:G86" si="44">B24</f>
+        <v>Перемен. затраты (р.)</v>
+      </c>
+      <c r="C86" s="2" t="str">
+        <f t="shared" si="44"/>
+        <v>Цена (р.)</v>
+      </c>
+      <c r="D86" s="2" t="str">
+        <f t="shared" si="44"/>
+        <v>Объём продаж (шт.)</v>
+      </c>
+      <c r="E86" s="2" t="str">
+        <f t="shared" si="44"/>
+        <v>Суммарная маржинальная прибыль (р.)</v>
+      </c>
+      <c r="F86" s="2" t="str">
+        <f t="shared" si="44"/>
+        <v>Постоянные затраты (р.)</v>
+      </c>
+      <c r="G86" s="2" t="str">
+        <f t="shared" si="44"/>
+        <v>Общая прибыль (р.)</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -3362,7 +3386,7 @@
         <v>41.2</v>
       </c>
       <c r="D87" s="26">
-        <f t="shared" ref="D87:D90" si="39">_xlfn.FLOOR.MATH(E78/D78)</f>
+        <f t="shared" ref="D87:D90" si="45">_xlfn.FLOOR.MATH(E78/D78)</f>
         <v>6723</v>
       </c>
       <c r="E87" s="26">
@@ -3374,23 +3398,23 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="16" t="str">
-        <f t="shared" ref="A88:A92" si="40">B79</f>
+        <f t="shared" ref="A88:A92" si="46">B79</f>
         <v>B</v>
       </c>
       <c r="B88" s="26">
-        <f t="shared" ref="B88:B92" si="41">SUMIF($A$68:$A$73,A88,$B$68:$B$73)</f>
+        <f t="shared" ref="B88:B92" si="47">SUMIF($A$68:$A$73,A88,$B$68:$B$73)</f>
         <v>34.700000000000003</v>
       </c>
       <c r="C88" s="26">
-        <f t="shared" ref="C88:C92" si="42">SUMIF($A$68:$A$73,A88,$C$68:$C$73)</f>
+        <f t="shared" ref="C88:C92" si="48">SUMIF($A$68:$A$73,A88,$C$68:$C$73)</f>
         <v>53.9</v>
       </c>
       <c r="D88" s="26">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>8539</v>
       </c>
       <c r="E88" s="26">
-        <f t="shared" ref="E88:E92" si="43">(C88-B88)*D88</f>
+        <f t="shared" ref="E88:E92" si="49">(C88-B88)*D88</f>
         <v>163948.79999999996</v>
       </c>
       <c r="F88" s="26"/>
@@ -3398,23 +3422,23 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="16" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>F</v>
       </c>
       <c r="B89" s="26">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>28.1</v>
       </c>
       <c r="C89" s="26">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>46.9</v>
       </c>
       <c r="D89" s="26">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>4776</v>
       </c>
       <c r="E89" s="26">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>89788.799999999988</v>
       </c>
       <c r="F89" s="26"/>
@@ -3422,23 +3446,23 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="16" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>D</v>
       </c>
       <c r="B90" s="26">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>28.9</v>
       </c>
       <c r="C90" s="26">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>39.700000000000003</v>
       </c>
       <c r="D90" s="26">
-        <f t="shared" si="39"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="E90" s="26">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="F90" s="26"/>
@@ -3446,15 +3470,15 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="16" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>A</v>
       </c>
       <c r="B91" s="26">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>25</v>
       </c>
       <c r="C91" s="26">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>37.1</v>
       </c>
       <c r="D91" s="26">
@@ -3462,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="E91" s="26">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="F91" s="26"/>
@@ -3470,15 +3494,15 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="16" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>C</v>
       </c>
       <c r="B92" s="26">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>26.5</v>
       </c>
       <c r="C92" s="26">
-        <f t="shared" si="42"/>
+        <f t="shared" si="48"/>
         <v>32.700000000000003</v>
       </c>
       <c r="D92" s="26">
@@ -3486,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="E92" s="26">
-        <f t="shared" si="43"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="F92" s="26"/>
@@ -3494,7 +3518,7 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B93" s="26"/>
       <c r="C93" s="26"/>
@@ -3514,38 +3538,42 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="17" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="str">
-        <f>'исходные данные'!A37</f>
+        <f>A5</f>
         <v>Продукт</v>
       </c>
       <c r="B98" s="2" t="str">
-        <f>'исходные данные'!C37</f>
+        <f t="shared" ref="B98:G98" si="50">B5</f>
         <v>Перемен. затраты (р.)</v>
       </c>
       <c r="C98" s="2" t="str">
-        <f>'исходные данные'!D37</f>
+        <f t="shared" si="50"/>
         <v>Цена (р.)</v>
       </c>
-      <c r="D98" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G98" s="15" t="s">
-        <v>36</v>
+      <c r="D98" s="2" t="str">
+        <f t="shared" si="50"/>
+        <v>Загрузка УМ (маш.-час)</v>
+      </c>
+      <c r="E98" s="2" t="str">
+        <f t="shared" si="50"/>
+        <v>Маржинальная прибыль (р.)</v>
+      </c>
+      <c r="F98" s="2" t="str">
+        <f t="shared" si="50"/>
+        <v>МП на ед. УМ (р./маш.-час)</v>
+      </c>
+      <c r="G98" s="2" t="str">
+        <f t="shared" si="50"/>
+        <v>Ранг</v>
       </c>
       <c r="H98" t="str">
         <f>A98</f>
@@ -3582,7 +3610,7 @@
         <v>4</v>
       </c>
       <c r="H99" t="str">
-        <f t="shared" ref="H99:H104" si="44">A99</f>
+        <f t="shared" ref="H99:H104" si="51">A99</f>
         <v>A</v>
       </c>
     </row>
@@ -3604,19 +3632,19 @@
         <v>1.7</v>
       </c>
       <c r="E100" s="26">
-        <f t="shared" ref="E100:E104" si="45">C100-B100</f>
+        <f t="shared" ref="E100:E104" si="52">C100-B100</f>
         <v>16.899999999999999</v>
       </c>
       <c r="F100" s="26">
-        <f t="shared" ref="F100:F104" si="46">E100/D100</f>
+        <f t="shared" ref="F100:F104" si="53">E100/D100</f>
         <v>9.9411764705882355</v>
       </c>
       <c r="G100" s="1">
-        <f t="shared" ref="G100:G104" si="47">_xlfn.RANK.EQ(F100,$F$99:$F$104)</f>
+        <f t="shared" ref="G100:G104" si="54">_xlfn.RANK.EQ(F100,$F$99:$F$104)</f>
         <v>1</v>
       </c>
       <c r="H100" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>B</v>
       </c>
     </row>
@@ -3638,19 +3666,19 @@
         <v>2.1</v>
       </c>
       <c r="E101" s="26">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>17.100000000000001</v>
       </c>
       <c r="F101" s="26">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>8.1428571428571423</v>
       </c>
       <c r="G101" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>3</v>
       </c>
       <c r="H101" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>C</v>
       </c>
     </row>
@@ -3672,19 +3700,19 @@
         <v>1.9</v>
       </c>
       <c r="E102" s="26">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>17.100000000000001</v>
       </c>
       <c r="F102" s="26">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>9.0000000000000018</v>
       </c>
       <c r="G102" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>2</v>
       </c>
       <c r="H102" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>D</v>
       </c>
     </row>
@@ -3706,19 +3734,19 @@
         <v>3.2</v>
       </c>
       <c r="E103" s="26">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>14.199999999999996</v>
       </c>
       <c r="F103" s="26">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>4.4374999999999982</v>
       </c>
       <c r="G103" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>5</v>
       </c>
       <c r="H103" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>E</v>
       </c>
     </row>
@@ -3740,48 +3768,55 @@
         <v>2.7</v>
       </c>
       <c r="E104" s="26">
-        <f t="shared" si="45"/>
+        <f t="shared" si="52"/>
         <v>7</v>
       </c>
       <c r="F104" s="26">
-        <f t="shared" si="46"/>
+        <f t="shared" si="53"/>
         <v>2.5925925925925926</v>
       </c>
       <c r="G104" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="54"/>
         <v>6</v>
       </c>
       <c r="H104" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>F</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>8</v>
+      <c r="A107" s="2" t="str">
+        <f>A14</f>
+        <v>Ранг</v>
+      </c>
+      <c r="B107" s="2" t="str">
+        <f t="shared" ref="B107:G107" si="55">B14</f>
+        <v>Продукт</v>
+      </c>
+      <c r="C107" s="2" t="str">
+        <f t="shared" si="55"/>
+        <v>План. объём прод. (шт.)</v>
+      </c>
+      <c r="D107" s="2" t="str">
+        <f t="shared" si="55"/>
+        <v>Загрузка УМ (маш.-час)</v>
+      </c>
+      <c r="E107" s="2" t="str">
+        <f t="shared" si="55"/>
+        <v>Скорректированный объём прод. (маш.-час)</v>
+      </c>
+      <c r="F107" s="2" t="str">
+        <f t="shared" si="55"/>
+        <v>Остаток УМ (маш.-час)</v>
+      </c>
+      <c r="G107" s="2" t="str">
+        <f t="shared" si="55"/>
+        <v>Оптим. объём прод. (шт.)</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -3813,11 +3848,11 @@
         <v>1.7</v>
       </c>
       <c r="E109" s="26">
-        <f t="shared" ref="E109:E112" si="48">IF(F108&gt;=C109*D109,C109*D109,F108)</f>
+        <f t="shared" ref="E109:E112" si="56">IF(F108&gt;=C109*D109,C109*D109,F108)</f>
         <v>8311.2999999999993</v>
       </c>
       <c r="F109" s="26">
-        <f t="shared" ref="F109:F112" si="49">IF(F108&gt;=E109,F108-E109,0)</f>
+        <f t="shared" ref="F109:F112" si="57">IF(F108&gt;=E109,F108-E109,0)</f>
         <v>38139.699999999997</v>
       </c>
       <c r="G109" s="26">
@@ -3830,7 +3865,7 @@
         <v>2</v>
       </c>
       <c r="B110" s="16" t="str">
-        <f t="shared" ref="B110:B114" si="50">VLOOKUP(A110,$G$99:$H$104,2,FALSE)</f>
+        <f t="shared" ref="B110:B114" si="58">VLOOKUP(A110,$G$99:$H$104,2,FALSE)</f>
         <v>D</v>
       </c>
       <c r="C110" s="26">
@@ -3838,19 +3873,19 @@
         <v>2012</v>
       </c>
       <c r="D110" s="26">
-        <f t="shared" ref="D110:D114" si="51">VLOOKUP(B110,$A$99:$D$104,4,FALSE)</f>
+        <f t="shared" ref="D110:D114" si="59">VLOOKUP(B110,$A$99:$D$104,4,FALSE)</f>
         <v>1.9</v>
       </c>
       <c r="E110" s="26">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>3822.7999999999997</v>
       </c>
       <c r="F110" s="26">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>34316.899999999994</v>
       </c>
       <c r="G110" s="26">
-        <f t="shared" ref="G110:G114" si="52">D119</f>
+        <f t="shared" ref="G110:G114" si="60">D119</f>
         <v>2012</v>
       </c>
     </row>
@@ -3859,7 +3894,7 @@
         <v>3</v>
       </c>
       <c r="B111" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>C</v>
       </c>
       <c r="C111" s="26">
@@ -3867,19 +3902,19 @@
         <v>7365</v>
       </c>
       <c r="D111" s="26">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>2.1</v>
       </c>
       <c r="E111" s="26">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>15466.5</v>
       </c>
       <c r="F111" s="26">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>18850.399999999994</v>
       </c>
       <c r="G111" s="26">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>7365</v>
       </c>
     </row>
@@ -3888,7 +3923,7 @@
         <v>4</v>
       </c>
       <c r="B112" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>A</v>
       </c>
       <c r="C112" s="26">
@@ -3896,19 +3931,19 @@
         <v>6603</v>
       </c>
       <c r="D112" s="26">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>1.5</v>
       </c>
       <c r="E112" s="26">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>9904.5</v>
       </c>
       <c r="F112" s="26">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>8945.8999999999942</v>
       </c>
       <c r="G112" s="26">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>6603</v>
       </c>
     </row>
@@ -3917,7 +3952,7 @@
         <v>5</v>
       </c>
       <c r="B113" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>E</v>
       </c>
       <c r="C113" s="26">
@@ -3925,7 +3960,7 @@
         <v>7387</v>
       </c>
       <c r="D113" s="26">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>3.2</v>
       </c>
       <c r="E113" s="26">
@@ -3937,7 +3972,7 @@
         <v>0</v>
       </c>
       <c r="G113" s="26">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>2795</v>
       </c>
     </row>
@@ -3946,7 +3981,7 @@
         <v>6</v>
       </c>
       <c r="B114" s="16" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>F</v>
       </c>
       <c r="C114" s="26">
@@ -3954,7 +3989,7 @@
         <v>7181</v>
       </c>
       <c r="D114" s="26">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>2.7</v>
       </c>
       <c r="E114" s="26">
@@ -3962,40 +3997,47 @@
         <v>0</v>
       </c>
       <c r="F114" s="26">
-        <f t="shared" ref="F114" si="53">IF(F113&gt;=E114,F113-E114,0)</f>
+        <f t="shared" ref="F114" si="61">IF(F113&gt;=E114,F113-E114,0)</f>
         <v>0</v>
       </c>
       <c r="G114" s="26">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>46</v>
+      <c r="A117" s="2" t="str">
+        <f>A24</f>
+        <v>Продукт</v>
+      </c>
+      <c r="B117" s="2" t="str">
+        <f t="shared" ref="B117:G117" si="62">B24</f>
+        <v>Перемен. затраты (р.)</v>
+      </c>
+      <c r="C117" s="2" t="str">
+        <f t="shared" si="62"/>
+        <v>Цена (р.)</v>
+      </c>
+      <c r="D117" s="2" t="str">
+        <f t="shared" si="62"/>
+        <v>Объём продаж (шт.)</v>
+      </c>
+      <c r="E117" s="2" t="str">
+        <f t="shared" si="62"/>
+        <v>Суммарная маржинальная прибыль (р.)</v>
+      </c>
+      <c r="F117" s="2" t="str">
+        <f t="shared" si="62"/>
+        <v>Постоянные затраты (р.)</v>
+      </c>
+      <c r="G117" s="2" t="str">
+        <f t="shared" si="62"/>
+        <v>Общая прибыль (р.)</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -4012,7 +4054,7 @@
         <v>37.9</v>
       </c>
       <c r="D118" s="26">
-        <f t="shared" ref="D118:D121" si="54">_xlfn.FLOOR.MATH(E109/D109)</f>
+        <f t="shared" ref="D118:D121" si="63">_xlfn.FLOOR.MATH(E109/D109)</f>
         <v>4889</v>
       </c>
       <c r="E118" s="26">
@@ -4024,23 +4066,23 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="16" t="str">
-        <f t="shared" ref="A119:A123" si="55">B110</f>
+        <f t="shared" ref="A119:A123" si="64">B110</f>
         <v>D</v>
       </c>
       <c r="B119" s="26">
-        <f t="shared" ref="B119:B123" si="56">SUMIF($A$99:$A$104,A119,$B$99:$B$104)</f>
+        <f t="shared" ref="B119:B123" si="65">SUMIF($A$99:$A$104,A119,$B$99:$B$104)</f>
         <v>33.799999999999997</v>
       </c>
       <c r="C119" s="26">
-        <f t="shared" ref="C119:C123" si="57">SUMIF($A$99:$A$104,A119,$C$99:$C$104)</f>
+        <f t="shared" ref="C119:C123" si="66">SUMIF($A$99:$A$104,A119,$C$99:$C$104)</f>
         <v>50.9</v>
       </c>
       <c r="D119" s="26">
-        <f t="shared" si="54"/>
+        <f t="shared" si="63"/>
         <v>2012</v>
       </c>
       <c r="E119" s="26">
-        <f t="shared" ref="E119:E123" si="58">(C119-B119)*D119</f>
+        <f t="shared" ref="E119:E123" si="67">(C119-B119)*D119</f>
         <v>34405.200000000004</v>
       </c>
       <c r="F119" s="26"/>
@@ -4048,23 +4090,23 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="16" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="64"/>
         <v>C</v>
       </c>
       <c r="B120" s="26">
-        <f t="shared" si="56"/>
+        <f t="shared" si="65"/>
         <v>32.799999999999997</v>
       </c>
       <c r="C120" s="26">
-        <f t="shared" si="57"/>
+        <f t="shared" si="66"/>
         <v>49.9</v>
       </c>
       <c r="D120" s="26">
-        <f t="shared" si="54"/>
+        <f t="shared" si="63"/>
         <v>7365</v>
       </c>
       <c r="E120" s="26">
-        <f t="shared" si="58"/>
+        <f t="shared" si="67"/>
         <v>125941.50000000001</v>
       </c>
       <c r="F120" s="26"/>
@@ -4072,23 +4114,23 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="16" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="64"/>
         <v>A</v>
       </c>
       <c r="B121" s="26">
-        <f t="shared" si="56"/>
+        <f t="shared" si="65"/>
         <v>22</v>
       </c>
       <c r="C121" s="26">
-        <f t="shared" si="57"/>
+        <f t="shared" si="66"/>
         <v>28.8</v>
       </c>
       <c r="D121" s="26">
-        <f t="shared" si="54"/>
+        <f t="shared" si="63"/>
         <v>6603</v>
       </c>
       <c r="E121" s="26">
-        <f t="shared" si="58"/>
+        <f t="shared" si="67"/>
         <v>44900.4</v>
       </c>
       <c r="F121" s="26"/>
@@ -4096,15 +4138,15 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="16" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="64"/>
         <v>E</v>
       </c>
       <c r="B122" s="26">
-        <f t="shared" si="56"/>
+        <f t="shared" si="65"/>
         <v>33.6</v>
       </c>
       <c r="C122" s="26">
-        <f t="shared" si="57"/>
+        <f t="shared" si="66"/>
         <v>47.8</v>
       </c>
       <c r="D122" s="26">
@@ -4112,7 +4154,7 @@
         <v>2795</v>
       </c>
       <c r="E122" s="26">
-        <f t="shared" si="58"/>
+        <f t="shared" si="67"/>
         <v>39688.999999999985</v>
       </c>
       <c r="F122" s="26"/>
@@ -4120,15 +4162,15 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="16" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="64"/>
         <v>F</v>
       </c>
       <c r="B123" s="26">
-        <f t="shared" si="56"/>
+        <f t="shared" si="65"/>
         <v>24.9</v>
       </c>
       <c r="C123" s="26">
-        <f t="shared" si="57"/>
+        <f t="shared" si="66"/>
         <v>31.9</v>
       </c>
       <c r="D123" s="26">
@@ -4136,7 +4178,7 @@
         <v>0</v>
       </c>
       <c r="E123" s="26">
-        <f t="shared" si="58"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="F123" s="26"/>
@@ -4144,7 +4186,7 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B124" s="26"/>
       <c r="C124" s="26"/>
@@ -4164,38 +4206,42 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="17" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="str">
-        <f>'исходные данные'!A46</f>
+        <f>A5</f>
         <v>Продукт</v>
       </c>
       <c r="B129" s="2" t="str">
-        <f>'исходные данные'!C46</f>
+        <f t="shared" ref="B129:G129" si="68">B5</f>
         <v>Перемен. затраты (р.)</v>
       </c>
       <c r="C129" s="2" t="str">
-        <f>'исходные данные'!D46</f>
+        <f t="shared" si="68"/>
         <v>Цена (р.)</v>
       </c>
-      <c r="D129" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G129" s="15" t="s">
-        <v>36</v>
+      <c r="D129" s="2" t="str">
+        <f t="shared" si="68"/>
+        <v>Загрузка УМ (маш.-час)</v>
+      </c>
+      <c r="E129" s="2" t="str">
+        <f t="shared" si="68"/>
+        <v>Маржинальная прибыль (р.)</v>
+      </c>
+      <c r="F129" s="2" t="str">
+        <f t="shared" si="68"/>
+        <v>МП на ед. УМ (р./маш.-час)</v>
+      </c>
+      <c r="G129" s="2" t="str">
+        <f t="shared" si="68"/>
+        <v>Ранг</v>
       </c>
       <c r="H129" t="str">
         <f>A129</f>
@@ -4232,7 +4278,7 @@
         <v>6</v>
       </c>
       <c r="H130" t="str">
-        <f t="shared" ref="H130:H135" si="59">A130</f>
+        <f t="shared" ref="H130:H135" si="69">A130</f>
         <v>A</v>
       </c>
     </row>
@@ -4254,19 +4300,19 @@
         <v>1.3</v>
       </c>
       <c r="E131" s="26">
-        <f t="shared" ref="E131:E135" si="60">C131-B131</f>
+        <f t="shared" ref="E131:E135" si="70">C131-B131</f>
         <v>18.600000000000001</v>
       </c>
       <c r="F131" s="26">
-        <f t="shared" ref="F131:F135" si="61">E131/D131</f>
+        <f t="shared" ref="F131:F135" si="71">E131/D131</f>
         <v>14.307692307692308</v>
       </c>
       <c r="G131" s="31">
-        <f t="shared" ref="G131:G135" si="62">_xlfn.RANK.EQ(F131,$F$130:$F$135)</f>
+        <f t="shared" ref="G131:G135" si="72">_xlfn.RANK.EQ(F131,$F$130:$F$135)</f>
         <v>2</v>
       </c>
       <c r="H131" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="69"/>
         <v>B</v>
       </c>
     </row>
@@ -4288,19 +4334,19 @@
         <v>1</v>
       </c>
       <c r="E132" s="26">
-        <f t="shared" si="60"/>
+        <f t="shared" si="70"/>
         <v>6.9000000000000021</v>
       </c>
       <c r="F132" s="26">
-        <f t="shared" si="61"/>
+        <f t="shared" si="71"/>
         <v>6.9000000000000021</v>
       </c>
       <c r="G132" s="31">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>4</v>
       </c>
       <c r="H132" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="69"/>
         <v>C</v>
       </c>
     </row>
@@ -4322,19 +4368,19 @@
         <v>0.9</v>
       </c>
       <c r="E133" s="26">
-        <f t="shared" si="60"/>
+        <f t="shared" si="70"/>
         <v>18</v>
       </c>
       <c r="F133" s="26">
-        <f t="shared" si="61"/>
+        <f t="shared" si="71"/>
         <v>20</v>
       </c>
       <c r="G133" s="31">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>1</v>
       </c>
       <c r="H133" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="69"/>
         <v>D</v>
       </c>
     </row>
@@ -4356,19 +4402,19 @@
         <v>2.4</v>
       </c>
       <c r="E134" s="26">
-        <f t="shared" si="60"/>
+        <f t="shared" si="70"/>
         <v>15.300000000000004</v>
       </c>
       <c r="F134" s="26">
-        <f t="shared" si="61"/>
+        <f t="shared" si="71"/>
         <v>6.3750000000000018</v>
       </c>
       <c r="G134" s="31">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>5</v>
       </c>
       <c r="H134" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="69"/>
         <v>E</v>
       </c>
     </row>
@@ -4390,48 +4436,55 @@
         <v>1.9</v>
       </c>
       <c r="E135" s="26">
-        <f t="shared" si="60"/>
+        <f t="shared" si="70"/>
         <v>17.799999999999997</v>
       </c>
       <c r="F135" s="26">
-        <f t="shared" si="61"/>
+        <f t="shared" si="71"/>
         <v>9.3684210526315788</v>
       </c>
       <c r="G135" s="31">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>3</v>
       </c>
       <c r="H135" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="69"/>
         <v>F</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A138" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G138" s="2" t="s">
-        <v>8</v>
+      <c r="A138" s="2" t="str">
+        <f>A14</f>
+        <v>Ранг</v>
+      </c>
+      <c r="B138" s="2" t="str">
+        <f t="shared" ref="B138:G138" si="73">B14</f>
+        <v>Продукт</v>
+      </c>
+      <c r="C138" s="2" t="str">
+        <f t="shared" si="73"/>
+        <v>План. объём прод. (шт.)</v>
+      </c>
+      <c r="D138" s="2" t="str">
+        <f t="shared" si="73"/>
+        <v>Загрузка УМ (маш.-час)</v>
+      </c>
+      <c r="E138" s="2" t="str">
+        <f t="shared" si="73"/>
+        <v>Скорректированный объём прод. (маш.-час)</v>
+      </c>
+      <c r="F138" s="2" t="str">
+        <f t="shared" si="73"/>
+        <v>Остаток УМ (маш.-час)</v>
+      </c>
+      <c r="G138" s="2" t="str">
+        <f t="shared" si="73"/>
+        <v>Оптим. объём прод. (шт.)</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -4463,11 +4516,11 @@
         <v>0.9</v>
       </c>
       <c r="E140" s="26">
-        <f t="shared" ref="E140:E143" si="63">IF(F139&gt;=C140*D140,C140*D140,F139)</f>
+        <f t="shared" ref="E140:E143" si="74">IF(F139&gt;=C140*D140,C140*D140,F139)</f>
         <v>2850.3</v>
       </c>
       <c r="F140" s="26">
-        <f t="shared" ref="F140:F143" si="64">IF(F139&gt;=E140,F139-E140,0)</f>
+        <f t="shared" ref="F140:F143" si="75">IF(F139&gt;=E140,F139-E140,0)</f>
         <v>28347.7</v>
       </c>
       <c r="G140" s="26">
@@ -4480,7 +4533,7 @@
         <v>2</v>
       </c>
       <c r="B141" s="16" t="str">
-        <f t="shared" ref="B141:B145" si="65">VLOOKUP(A141,$G$130:$H$135,2,FALSE)</f>
+        <f t="shared" ref="B141:B145" si="76">VLOOKUP(A141,$G$130:$H$135,2,FALSE)</f>
         <v>B</v>
       </c>
       <c r="C141" s="26">
@@ -4488,19 +4541,19 @@
         <v>7364</v>
       </c>
       <c r="D141" s="26">
-        <f t="shared" ref="D141:D145" si="66">VLOOKUP(B141,$A$130:$D$135,4,FALSE)</f>
+        <f t="shared" ref="D141:D145" si="77">VLOOKUP(B141,$A$130:$D$135,4,FALSE)</f>
         <v>1.3</v>
       </c>
       <c r="E141" s="26">
-        <f t="shared" si="63"/>
+        <f t="shared" si="74"/>
         <v>9573.2000000000007</v>
       </c>
       <c r="F141" s="26">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>18774.5</v>
       </c>
       <c r="G141" s="26">
-        <f t="shared" ref="G141:G145" si="67">D150</f>
+        <f t="shared" ref="G141:G145" si="78">D150</f>
         <v>7364</v>
       </c>
     </row>
@@ -4509,7 +4562,7 @@
         <v>3</v>
       </c>
       <c r="B142" s="16" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="76"/>
         <v>F</v>
       </c>
       <c r="C142" s="26">
@@ -4517,19 +4570,19 @@
         <v>5706</v>
       </c>
       <c r="D142" s="26">
-        <f t="shared" si="66"/>
+        <f t="shared" si="77"/>
         <v>1.9</v>
       </c>
       <c r="E142" s="26">
-        <f t="shared" si="63"/>
+        <f t="shared" si="74"/>
         <v>10841.4</v>
       </c>
       <c r="F142" s="26">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>7933.1</v>
       </c>
       <c r="G142" s="26">
-        <f t="shared" si="67"/>
+        <f t="shared" si="78"/>
         <v>5706</v>
       </c>
     </row>
@@ -4538,7 +4591,7 @@
         <v>4</v>
       </c>
       <c r="B143" s="16" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="76"/>
         <v>C</v>
       </c>
       <c r="C143" s="26">
@@ -4546,19 +4599,19 @@
         <v>3478</v>
       </c>
       <c r="D143" s="26">
-        <f t="shared" si="66"/>
+        <f t="shared" si="77"/>
         <v>1</v>
       </c>
       <c r="E143" s="26">
-        <f t="shared" si="63"/>
+        <f t="shared" si="74"/>
         <v>3478</v>
       </c>
       <c r="F143" s="26">
-        <f t="shared" si="64"/>
+        <f t="shared" si="75"/>
         <v>4455.1000000000004</v>
       </c>
       <c r="G143" s="26">
-        <f t="shared" si="67"/>
+        <f t="shared" si="78"/>
         <v>3478</v>
       </c>
     </row>
@@ -4567,7 +4620,7 @@
         <v>5</v>
       </c>
       <c r="B144" s="16" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="76"/>
         <v>E</v>
       </c>
       <c r="C144" s="26">
@@ -4575,7 +4628,7 @@
         <v>5662</v>
       </c>
       <c r="D144" s="26">
-        <f t="shared" si="66"/>
+        <f t="shared" si="77"/>
         <v>2.4</v>
       </c>
       <c r="E144" s="26">
@@ -4587,7 +4640,7 @@
         <v>0</v>
       </c>
       <c r="G144" s="26">
-        <f t="shared" si="67"/>
+        <f t="shared" si="78"/>
         <v>1856</v>
       </c>
     </row>
@@ -4596,7 +4649,7 @@
         <v>6</v>
       </c>
       <c r="B145" s="16" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="76"/>
         <v>A</v>
       </c>
       <c r="C145" s="26">
@@ -4604,7 +4657,7 @@
         <v>2245</v>
       </c>
       <c r="D145" s="26">
-        <f t="shared" si="66"/>
+        <f t="shared" si="77"/>
         <v>1.4</v>
       </c>
       <c r="E145" s="26">
@@ -4612,40 +4665,47 @@
         <v>0</v>
       </c>
       <c r="F145" s="26">
-        <f t="shared" ref="F145" si="68">IF(F144&gt;=E145,F144-E145,0)</f>
+        <f t="shared" ref="F145" si="79">IF(F144&gt;=E145,F144-E145,0)</f>
         <v>0</v>
       </c>
       <c r="G145" s="26">
-        <f t="shared" si="67"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A148" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F148" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G148" s="2" t="s">
-        <v>46</v>
+      <c r="A148" s="2" t="str">
+        <f>A24</f>
+        <v>Продукт</v>
+      </c>
+      <c r="B148" s="2" t="str">
+        <f t="shared" ref="B148:G148" si="80">B24</f>
+        <v>Перемен. затраты (р.)</v>
+      </c>
+      <c r="C148" s="2" t="str">
+        <f t="shared" si="80"/>
+        <v>Цена (р.)</v>
+      </c>
+      <c r="D148" s="2" t="str">
+        <f t="shared" si="80"/>
+        <v>Объём продаж (шт.)</v>
+      </c>
+      <c r="E148" s="2" t="str">
+        <f t="shared" si="80"/>
+        <v>Суммарная маржинальная прибыль (р.)</v>
+      </c>
+      <c r="F148" s="2" t="str">
+        <f t="shared" si="80"/>
+        <v>Постоянные затраты (р.)</v>
+      </c>
+      <c r="G148" s="2" t="str">
+        <f t="shared" si="80"/>
+        <v>Общая прибыль (р.)</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -4662,7 +4722,7 @@
         <v>50.9</v>
       </c>
       <c r="D149" s="26">
-        <f t="shared" ref="D149:D152" si="69">_xlfn.FLOOR.MATH(E140/D140)</f>
+        <f t="shared" ref="D149:D152" si="81">_xlfn.FLOOR.MATH(E140/D140)</f>
         <v>3167</v>
       </c>
       <c r="E149" s="26">
@@ -4674,23 +4734,23 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="16" t="str">
-        <f t="shared" ref="A150:A154" si="70">B141</f>
+        <f t="shared" ref="A150:A154" si="82">B141</f>
         <v>B</v>
       </c>
       <c r="B150" s="26">
-        <f t="shared" ref="B150:B154" si="71">SUMIF($A$130:$A$135,A150,$B$130:$B$135)</f>
+        <f t="shared" ref="B150:B154" si="83">SUMIF($A$130:$A$135,A150,$B$130:$B$135)</f>
         <v>26.6</v>
       </c>
       <c r="C150" s="26">
-        <f t="shared" ref="C150:C154" si="72">SUMIF($A$130:$A$135,A150,$C$130:$C$135)</f>
+        <f t="shared" ref="C150:C154" si="84">SUMIF($A$130:$A$135,A150,$C$130:$C$135)</f>
         <v>45.2</v>
       </c>
       <c r="D150" s="26">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>7364</v>
       </c>
       <c r="E150" s="26">
-        <f t="shared" ref="E150:E154" si="73">(C150-B150)*D150</f>
+        <f t="shared" ref="E150:E154" si="85">(C150-B150)*D150</f>
         <v>136970.40000000002</v>
       </c>
       <c r="F150" s="26"/>
@@ -4698,23 +4758,23 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="16" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="82"/>
         <v>F</v>
       </c>
       <c r="B151" s="26">
-        <f t="shared" si="71"/>
+        <f t="shared" si="83"/>
         <v>23.1</v>
       </c>
       <c r="C151" s="26">
-        <f t="shared" si="72"/>
+        <f t="shared" si="84"/>
         <v>40.9</v>
       </c>
       <c r="D151" s="26">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>5706</v>
       </c>
       <c r="E151" s="26">
-        <f t="shared" si="73"/>
+        <f t="shared" si="85"/>
         <v>101566.79999999999</v>
       </c>
       <c r="F151" s="26"/>
@@ -4722,23 +4782,23 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="16" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="82"/>
         <v>C</v>
       </c>
       <c r="B152" s="26">
-        <f t="shared" si="71"/>
+        <f t="shared" si="83"/>
         <v>24.9</v>
       </c>
       <c r="C152" s="26">
-        <f t="shared" si="72"/>
+        <f t="shared" si="84"/>
         <v>31.8</v>
       </c>
       <c r="D152" s="26">
-        <f t="shared" si="69"/>
+        <f t="shared" si="81"/>
         <v>3478</v>
       </c>
       <c r="E152" s="26">
-        <f t="shared" si="73"/>
+        <f t="shared" si="85"/>
         <v>23998.200000000008</v>
       </c>
       <c r="F152" s="26"/>
@@ -4746,15 +4806,15 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="16" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="82"/>
         <v>E</v>
       </c>
       <c r="B153" s="26">
-        <f t="shared" si="71"/>
+        <f t="shared" si="83"/>
         <v>24.9</v>
       </c>
       <c r="C153" s="26">
-        <f t="shared" si="72"/>
+        <f t="shared" si="84"/>
         <v>40.200000000000003</v>
       </c>
       <c r="D153" s="26">
@@ -4762,7 +4822,7 @@
         <v>1856</v>
       </c>
       <c r="E153" s="26">
-        <f t="shared" si="73"/>
+        <f t="shared" si="85"/>
         <v>28396.800000000007</v>
       </c>
       <c r="F153" s="26"/>
@@ -4770,15 +4830,15 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="16" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="82"/>
         <v>A</v>
       </c>
       <c r="B154" s="26">
-        <f t="shared" si="71"/>
+        <f t="shared" si="83"/>
         <v>23.7</v>
       </c>
       <c r="C154" s="26">
-        <f t="shared" si="72"/>
+        <f t="shared" si="84"/>
         <v>31.8</v>
       </c>
       <c r="D154" s="26">
@@ -4786,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="E154" s="26">
-        <f t="shared" si="73"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="F154" s="26"/>
@@ -4794,7 +4854,7 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B155" s="26"/>
       <c r="C155" s="26"/>
@@ -4822,7 +4882,7 @@
   <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4847,22 +4907,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -5043,7 +5103,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B11" s="22">
         <f>SUM(B3:B10)</f>
@@ -5075,22 +5135,22 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -5271,7 +5331,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B23" s="22">
         <f>SUM(B15:B22)</f>
@@ -5303,22 +5363,22 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -5499,7 +5559,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="24" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B35" s="22">
         <f>SUM(B27:B34)</f>
@@ -5531,22 +5591,22 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E38" s="20" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -5727,7 +5787,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="24" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B47" s="22">
         <f>SUM(B39:B46)</f>
@@ -5759,22 +5819,22 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E50" s="20" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F50" s="20" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -5955,7 +6015,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="24" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B59" s="22">
         <f>SUM(B51:B58)</f>

--- a/РГР/ргр.xlsx
+++ b/РГР/ргр.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="исходные данные" sheetId="1" r:id="rId1"/>
@@ -701,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1531,8 +1531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H155"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/РГР/ргр.xlsx
+++ b/РГР/ргр.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="исходные данные" sheetId="1" r:id="rId1"/>
@@ -15,8 +15,163 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Автор</author>
+  </authors>
+  <commentList>
+    <comment ref="Q11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Использованние
+инвестиционных
+ресурсов в текущем
+году</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q21" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Использованние
+инвестиционных
+ресурсов в текущем
+году</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q31" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Использованние
+инвестиционных
+ресурсов в текущем
+году</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q41" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Использованние
+инвестиционных
+ресурсов в текущем
+году</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q50" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Автор:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Использованние
+инвестиционных
+ресурсов в текущем
+году</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="79">
   <si>
     <t>Номера инвестиционных проектов</t>
   </si>
@@ -211,18 +366,62 @@
   </si>
   <si>
     <t>Скорректированный объём прод. (маш.-час)</t>
+  </si>
+  <si>
+    <t>0 Год</t>
+  </si>
+  <si>
+    <t>инвестиционные ресурсы на конец года</t>
+  </si>
+  <si>
+    <t>Проект</t>
+  </si>
+  <si>
+    <t>ЧДД в случае реализации проекта в текущем году</t>
+  </si>
+  <si>
+    <t>ЧДД в случае реализации проекта в следующем году</t>
+  </si>
+  <si>
+    <t>Потери ЧДД</t>
+  </si>
+  <si>
+    <t>Отложенные инвестиции</t>
+  </si>
+  <si>
+    <t>Индекс потерь ЧДД</t>
+  </si>
+  <si>
+    <t>Ранг проекта</t>
+  </si>
+  <si>
+    <t>Инвестиции в текущем году</t>
+  </si>
+  <si>
+    <t>1 Год</t>
+  </si>
+  <si>
+    <t>2 Год</t>
+  </si>
+  <si>
+    <t>3 Год</t>
+  </si>
+  <si>
+    <t>4 Год</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="#,##0.000"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00000"/>
+    <numFmt numFmtId="168" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,6 +435,34 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="5">
@@ -306,7 +533,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -383,11 +610,35 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -701,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,14 +983,14 @@
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -748,7 +999,7 @@
       <c r="B3" s="7">
         <v>718</v>
       </c>
-      <c r="F3" s="32"/>
+      <c r="F3" s="39"/>
       <c r="G3" s="12">
         <v>1</v>
       </c>
@@ -837,20 +1088,20 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="32"/>
+      <c r="F9" s="39"/>
       <c r="G9" s="12">
         <v>1</v>
       </c>
@@ -1531,7 +1782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
@@ -4878,11 +5129,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="G10" workbookViewId="0">
+      <selection activeCell="P48" sqref="P48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4893,9 +5144,17 @@
     <col min="4" max="4" width="17.7109375" customWidth="1"/>
     <col min="5" max="5" width="21.5703125" customWidth="1"/>
     <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="10" max="10" width="35.140625" customWidth="1"/>
+    <col min="11" max="11" width="44.5703125" customWidth="1"/>
+    <col min="12" max="12" width="49.140625" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" customWidth="1"/>
+    <col min="14" max="14" width="23" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" customWidth="1"/>
+    <col min="17" max="17" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>2</v>
       </c>
@@ -4905,7 +5164,7 @@
       <c r="E1" s="19"/>
       <c r="F1" s="19"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>45</v>
       </c>
@@ -4924,8 +5183,20 @@
       <c r="F2" s="20" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I2" s="19"/>
+      <c r="J2" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="21">
         <v>0</v>
       </c>
@@ -4946,19 +5217,34 @@
         <f>E3*D3</f>
         <v>-718000</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I3" s="19"/>
+      <c r="J3" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="19">
+        <f>'исходные данные'!G20</f>
+        <v>1825000</v>
+      </c>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="21">
         <v>1</v>
       </c>
       <c r="B4" s="22"/>
       <c r="C4" s="22">
-        <f>'прибыль проектов'!$G$31*4</f>
-        <v>86160</v>
+        <f>('прибыль проектов'!$G$31+'исходные данные'!$G$5)*4</f>
+        <v>240068</v>
       </c>
       <c r="D4" s="22">
         <f t="shared" ref="D4:D8" si="0">B4+C4</f>
-        <v>86160</v>
+        <v>240068</v>
       </c>
       <c r="E4" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A4)</f>
@@ -4966,21 +5252,31 @@
       </c>
       <c r="F4" s="22">
         <f t="shared" ref="F4:F8" si="1">E4*D4</f>
-        <v>73327.659574468082</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>204313.19148936169</v>
+      </c>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="21">
         <v>2</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="22">
-        <f>'прибыль проектов'!$G$31*4</f>
-        <v>86160</v>
+        <f>('прибыль проектов'!$G$31+'исходные данные'!$G$5)*4</f>
+        <v>240068</v>
       </c>
       <c r="D5" s="22">
         <f t="shared" si="0"/>
-        <v>86160</v>
+        <v>240068</v>
       </c>
       <c r="E5" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A5)</f>
@@ -4988,21 +5284,47 @@
       </c>
       <c r="F5" s="22">
         <f t="shared" si="1"/>
-        <v>62406.518786781337</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>173883.56722498866</v>
+      </c>
+      <c r="I5" s="19"/>
+      <c r="J5" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="N5" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q5" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="R5" s="19"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="21">
         <v>3</v>
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="22">
-        <f>'прибыль проектов'!$G$31*4</f>
-        <v>86160</v>
+        <f>('прибыль проектов'!$G$31+'исходные данные'!$G$5)*4</f>
+        <v>240068</v>
       </c>
       <c r="D6" s="22">
         <f t="shared" si="0"/>
-        <v>86160</v>
+        <v>240068</v>
       </c>
       <c r="E6" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A6)</f>
@@ -5010,21 +5332,51 @@
       </c>
       <c r="F6" s="22">
         <f t="shared" si="1"/>
-        <v>53111.930882367094</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>147986.0146595648</v>
+      </c>
+      <c r="I6" s="19"/>
+      <c r="J6" s="37">
+        <v>1</v>
+      </c>
+      <c r="K6" s="19">
+        <f>F11</f>
+        <v>210176.67007274076</v>
+      </c>
+      <c r="L6" s="19">
+        <f>$E$4*K6</f>
+        <v>178873.76176403469</v>
+      </c>
+      <c r="M6" s="19">
+        <f>L6-K6</f>
+        <v>-31302.908308706072</v>
+      </c>
+      <c r="N6" s="19">
+        <f>'исходные данные'!B3*-1*1000</f>
+        <v>-718000</v>
+      </c>
+      <c r="O6" s="38">
+        <f>M6/N6</f>
+        <v>4.3597365332459712E-2</v>
+      </c>
+      <c r="P6" s="41">
+        <f>_xlfn.RANK.EQ(O6,$O$6:$O$10,)</f>
+        <v>4</v>
+      </c>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="21">
         <v>4</v>
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="22">
-        <f>'прибыль проектов'!$G$31*4</f>
-        <v>86160</v>
+        <f>('прибыль проектов'!$G$31+'исходные данные'!$G$5)*4</f>
+        <v>240068</v>
       </c>
       <c r="D7" s="22">
         <f t="shared" si="0"/>
-        <v>86160</v>
+        <v>240068</v>
       </c>
       <c r="E7" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A7)</f>
@@ -5032,21 +5384,51 @@
       </c>
       <c r="F7" s="22">
         <f t="shared" si="1"/>
-        <v>45201.643304142206</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>125945.54439111898</v>
+      </c>
+      <c r="I7" s="19"/>
+      <c r="J7" s="37">
+        <v>2</v>
+      </c>
+      <c r="K7" s="19">
+        <f>F23</f>
+        <v>82116.851541638724</v>
+      </c>
+      <c r="L7" s="19">
+        <f>$E$4*K7</f>
+        <v>69886.68216309679</v>
+      </c>
+      <c r="M7" s="19">
+        <f t="shared" ref="M7:M10" si="2">L7-K7</f>
+        <v>-12230.169378541934</v>
+      </c>
+      <c r="N7" s="19">
+        <f>'исходные данные'!B4*-1*1000</f>
+        <v>-785000</v>
+      </c>
+      <c r="O7" s="38">
+        <f t="shared" ref="O7:O10" si="3">M7/N7</f>
+        <v>1.5579833603238133E-2</v>
+      </c>
+      <c r="P7" s="41">
+        <f t="shared" ref="P7:P10" si="4">_xlfn.RANK.EQ(O7,$O$6:$O$10,)</f>
+        <v>5</v>
+      </c>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="21">
         <v>5</v>
       </c>
       <c r="B8" s="22"/>
       <c r="C8" s="22">
-        <f>'прибыль проектов'!$G$31*4</f>
-        <v>86160</v>
+        <f>('прибыль проектов'!$G$31+'исходные данные'!$G$5)*4</f>
+        <v>240068</v>
       </c>
       <c r="D8" s="22">
         <f t="shared" si="0"/>
-        <v>86160</v>
+        <v>240068</v>
       </c>
       <c r="E8" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A8)</f>
@@ -5054,43 +5436,109 @@
       </c>
       <c r="F8" s="22">
         <f t="shared" si="1"/>
-        <v>38469.483663099745</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>107187.69735414379</v>
+      </c>
+      <c r="I8" s="19"/>
+      <c r="J8" s="37">
+        <v>3</v>
+      </c>
+      <c r="K8" s="19">
+        <f>F35</f>
+        <v>177075.99579892322</v>
+      </c>
+      <c r="L8" s="19">
+        <f t="shared" ref="L8:L10" si="5">$E$4*K8</f>
+        <v>150702.97514801976</v>
+      </c>
+      <c r="M8" s="19">
+        <f t="shared" si="2"/>
+        <v>-26373.020650903462</v>
+      </c>
+      <c r="N8" s="19">
+        <f>'исходные данные'!B5*-1*1000</f>
+        <v>-573000</v>
+      </c>
+      <c r="O8" s="38">
+        <f t="shared" si="3"/>
+        <v>4.6026214050442341E-2</v>
+      </c>
+      <c r="P8" s="41">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="Q8" s="19">
+        <f>N8*-1</f>
+        <v>573000</v>
+      </c>
+      <c r="R8" s="19"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="21">
         <v>6</v>
       </c>
       <c r="B9" s="22"/>
       <c r="C9" s="22">
-        <f>'прибыль проектов'!$G$31*4</f>
-        <v>86160</v>
+        <f>('прибыль проектов'!$G$31+'исходные данные'!$G$5)*4</f>
+        <v>240068</v>
       </c>
       <c r="D9" s="22">
-        <f t="shared" ref="D9:D10" si="2">B9+C9</f>
-        <v>86160</v>
+        <f t="shared" ref="D9:D10" si="6">B9+C9</f>
+        <v>240068</v>
       </c>
       <c r="E9" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A9)</f>
         <v>0.37999055357770539</v>
       </c>
       <c r="F9" s="22">
-        <f t="shared" ref="F9" si="3">E9*D9</f>
-        <v>32739.986096255096</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F9" si="7">E9*D9</f>
+        <v>91223.572216292581</v>
+      </c>
+      <c r="I9" s="19"/>
+      <c r="J9" s="37">
+        <v>4</v>
+      </c>
+      <c r="K9" s="19">
+        <f>F47</f>
+        <v>230115.20723787934</v>
+      </c>
+      <c r="L9" s="19">
+        <f t="shared" si="5"/>
+        <v>195842.72956415263</v>
+      </c>
+      <c r="M9" s="19">
+        <f t="shared" si="2"/>
+        <v>-34272.477673726709</v>
+      </c>
+      <c r="N9" s="19">
+        <f>'исходные данные'!B6*-1*1000</f>
+        <v>-727000</v>
+      </c>
+      <c r="O9" s="38">
+        <f t="shared" si="3"/>
+        <v>4.7142335177065627E-2</v>
+      </c>
+      <c r="P9" s="41">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q9" s="19">
+        <f>N9*-1</f>
+        <v>727000</v>
+      </c>
+      <c r="R9" s="19"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="21">
         <v>7</v>
       </c>
       <c r="B10" s="22"/>
       <c r="C10" s="22">
-        <f>'прибыль проектов'!$G$31*4</f>
-        <v>86160</v>
+        <f>('прибыль проектов'!$G$31+'исходные данные'!$G$5)*4</f>
+        <v>240068</v>
       </c>
       <c r="D10" s="22">
-        <f t="shared" si="2"/>
-        <v>86160</v>
+        <f t="shared" si="6"/>
+        <v>240068</v>
       </c>
       <c r="E10" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A10)</f>
@@ -5098,10 +5546,40 @@
       </c>
       <c r="F10" s="22">
         <f>E10*D10</f>
-        <v>27863.817954259655</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>77637.082737270277</v>
+      </c>
+      <c r="I10" s="19"/>
+      <c r="J10" s="37">
+        <v>5</v>
+      </c>
+      <c r="K10" s="19">
+        <f>F59</f>
+        <v>268442.32643726072</v>
+      </c>
+      <c r="L10" s="19">
+        <f t="shared" si="5"/>
+        <v>228461.55441468998</v>
+      </c>
+      <c r="M10" s="19">
+        <f t="shared" si="2"/>
+        <v>-39980.772022570745</v>
+      </c>
+      <c r="N10" s="19">
+        <f>'исходные данные'!B7*-1*1000</f>
+        <v>-899000</v>
+      </c>
+      <c r="O10" s="38">
+        <f t="shared" si="3"/>
+        <v>4.4472493907197715E-2</v>
+      </c>
+      <c r="P10" s="41">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>39</v>
       </c>
@@ -5111,19 +5589,44 @@
       </c>
       <c r="C11" s="22">
         <f>SUM(C3:C10)</f>
-        <v>603120</v>
+        <v>1680476</v>
       </c>
       <c r="D11" s="22">
         <f>SUM(D3:D10)</f>
-        <v>-114880</v>
+        <v>962476</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="29">
         <f>SUM(F3:F10)</f>
-        <v>-384878.95973862684</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>210176.67007274076</v>
+      </c>
+      <c r="I11" s="19"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19">
+        <f>SUM(Q6:Q10)</f>
+        <v>1300000</v>
+      </c>
+      <c r="R11" s="19"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="I12" s="19"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>3</v>
       </c>
@@ -5132,28 +5635,55 @@
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="R13" s="19"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="str">
+        <f>$A$2</f>
+        <v>Период</v>
+      </c>
+      <c r="B14" s="20" t="str">
+        <f>$B$2</f>
+        <v>ИЗ</v>
+      </c>
+      <c r="C14" s="20" t="str">
+        <f>$C$2</f>
+        <v>П</v>
+      </c>
+      <c r="D14" s="20" t="str">
+        <f>$D$2</f>
+        <v>ДП</v>
+      </c>
+      <c r="E14" s="20" t="str">
+        <f>$E$2</f>
+        <v>Кд</v>
+      </c>
+      <c r="F14" s="20" t="str">
+        <f>$F$2</f>
+        <v>ДДП</v>
+      </c>
+      <c r="I14" s="19"/>
+      <c r="J14" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="21">
         <v>0</v>
       </c>
@@ -5174,151 +5704,302 @@
         <f>E15*D15</f>
         <v>-785000</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J15" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="K15" s="19">
+        <f>K3-Q11+F28+F40</f>
+        <v>900792.34042553185</v>
+      </c>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="21">
         <v>1</v>
       </c>
       <c r="B16" s="22"/>
       <c r="C16" s="22">
-        <f>'прибыль проектов'!$G$62*4</f>
-        <v>145803.20000000019</v>
+        <f>('прибыль проектов'!$G$62+'исходные данные'!$H$5)*4</f>
+        <v>224275.20000000019</v>
       </c>
       <c r="D16" s="22">
-        <f t="shared" ref="D16:D22" si="4">B16+C16</f>
-        <v>145803.20000000019</v>
+        <f t="shared" ref="D16:D22" si="8">B16+C16</f>
+        <v>224275.20000000019</v>
       </c>
       <c r="E16" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A16)</f>
         <v>0.85106382978723405</v>
       </c>
       <c r="F16" s="22">
-        <f t="shared" ref="F16:F21" si="5">E16*D16</f>
-        <v>124087.82978723421</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F16:F21" si="9">E16*D16</f>
+        <v>190872.51063829803</v>
+      </c>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="21">
         <v>2</v>
       </c>
       <c r="B17" s="22"/>
       <c r="C17" s="22">
-        <f>'прибыль проектов'!$G$62*4</f>
-        <v>145803.20000000019</v>
+        <f>('прибыль проектов'!$G$62+'исходные данные'!$H$5)*4</f>
+        <v>224275.20000000019</v>
       </c>
       <c r="D17" s="22">
-        <f t="shared" si="4"/>
-        <v>145803.20000000019</v>
+        <f t="shared" si="8"/>
+        <v>224275.20000000019</v>
       </c>
       <c r="E17" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A17)</f>
         <v>0.72430964237211393</v>
       </c>
       <c r="F17" s="22">
-        <f t="shared" si="5"/>
-        <v>105606.66364870993</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>162444.68990493446</v>
+      </c>
+      <c r="J17" s="33" t="str">
+        <f>J5</f>
+        <v>Проект</v>
+      </c>
+      <c r="K17" s="33" t="str">
+        <f t="shared" ref="K17:Q17" si="10">K5</f>
+        <v>ЧДД в случае реализации проекта в текущем году</v>
+      </c>
+      <c r="L17" s="33" t="str">
+        <f t="shared" si="10"/>
+        <v>ЧДД в случае реализации проекта в следующем году</v>
+      </c>
+      <c r="M17" s="33" t="str">
+        <f t="shared" si="10"/>
+        <v>Потери ЧДД</v>
+      </c>
+      <c r="N17" s="33" t="str">
+        <f t="shared" si="10"/>
+        <v>Отложенные инвестиции</v>
+      </c>
+      <c r="O17" s="33" t="str">
+        <f t="shared" si="10"/>
+        <v>Индекс потерь ЧДД</v>
+      </c>
+      <c r="P17" s="33" t="str">
+        <f t="shared" si="10"/>
+        <v>Ранг проекта</v>
+      </c>
+      <c r="Q17" s="33" t="str">
+        <f t="shared" si="10"/>
+        <v>Инвестиции в текущем году</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="21">
         <v>3</v>
       </c>
       <c r="B18" s="22"/>
       <c r="C18" s="22">
-        <f>'прибыль проектов'!$G$62*4</f>
-        <v>145803.20000000019</v>
+        <f>('прибыль проектов'!$G$62+'исходные данные'!$H$5)*4</f>
+        <v>224275.20000000019</v>
       </c>
       <c r="D18" s="22">
-        <f t="shared" si="4"/>
-        <v>145803.20000000019</v>
+        <f t="shared" si="8"/>
+        <v>224275.20000000019</v>
       </c>
       <c r="E18" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A18)</f>
         <v>0.61643373818903313</v>
       </c>
       <c r="F18" s="22">
-        <f t="shared" si="5"/>
-        <v>89878.011615923344</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>138250.79991909314</v>
+      </c>
+      <c r="J18" s="37">
+        <v>1</v>
+      </c>
+      <c r="K18" s="19">
+        <f>VLOOKUP(J18,$J$6:$L$10,3,)</f>
+        <v>178873.76176403469</v>
+      </c>
+      <c r="L18" s="19">
+        <f>$E$4*K18</f>
+        <v>152232.98873534868</v>
+      </c>
+      <c r="M18" s="19">
+        <f>L18-K18</f>
+        <v>-26640.773028686002</v>
+      </c>
+      <c r="N18" s="19">
+        <f>VLOOKUP(J18,$J$6:$N$10,5,)</f>
+        <v>-718000</v>
+      </c>
+      <c r="O18" s="38">
+        <f>M18/N18</f>
+        <v>3.7104140708476327E-2</v>
+      </c>
+      <c r="P18" s="41">
+        <f>_xlfn.RANK.EQ(O18,$O$18:$O$20,)</f>
+        <v>2</v>
+      </c>
+      <c r="Q18" s="19"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="21">
         <v>4</v>
       </c>
       <c r="B19" s="22"/>
       <c r="C19" s="22">
-        <f>'прибыль проектов'!$G$62*4</f>
-        <v>145803.20000000019</v>
+        <f>('прибыль проектов'!$G$62+'исходные данные'!$H$5)*4</f>
+        <v>224275.20000000019</v>
       </c>
       <c r="D19" s="22">
-        <f t="shared" si="4"/>
-        <v>145803.20000000019</v>
+        <f t="shared" si="8"/>
+        <v>224275.20000000019</v>
       </c>
       <c r="E19" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A19)</f>
         <v>0.52462445803321966</v>
       </c>
       <c r="F19" s="22">
-        <f t="shared" si="5"/>
-        <v>76491.924779509238</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>117660.25525029204</v>
+      </c>
+      <c r="J19" s="37">
+        <v>2</v>
+      </c>
+      <c r="K19" s="19">
+        <f t="shared" ref="K19:K20" si="11">VLOOKUP(J19,$J$6:$L$10,3,)</f>
+        <v>69886.68216309679</v>
+      </c>
+      <c r="L19" s="19">
+        <f>$E$4*K19</f>
+        <v>59478.02737284833</v>
+      </c>
+      <c r="M19" s="19">
+        <f t="shared" ref="M19" si="12">L19-K19</f>
+        <v>-10408.65479024846</v>
+      </c>
+      <c r="N19" s="19">
+        <f t="shared" ref="N19:N20" si="13">VLOOKUP(J19,$J$6:$N$10,5,)</f>
+        <v>-785000</v>
+      </c>
+      <c r="O19" s="38">
+        <f t="shared" ref="O19" si="14">M19/N19</f>
+        <v>1.3259432853819694E-2</v>
+      </c>
+      <c r="P19" s="41">
+        <f t="shared" ref="P19:P20" si="15">_xlfn.RANK.EQ(O19,$O$18:$O$20,)</f>
+        <v>3</v>
+      </c>
+      <c r="Q19" s="19"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="21">
         <v>5</v>
       </c>
       <c r="B20" s="22"/>
       <c r="C20" s="22">
-        <f>'прибыль проектов'!$G$62*4</f>
-        <v>145803.20000000019</v>
+        <f>('прибыль проектов'!$G$62+'исходные данные'!$H$5)*4</f>
+        <v>224275.20000000019</v>
       </c>
       <c r="D20" s="22">
-        <f t="shared" si="4"/>
-        <v>145803.20000000019</v>
+        <f t="shared" si="8"/>
+        <v>224275.20000000019</v>
       </c>
       <c r="E20" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A20)</f>
         <v>0.44648890045380391</v>
       </c>
       <c r="F20" s="22">
-        <f t="shared" si="5"/>
-        <v>65099.510450646143</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>100136.38744705704</v>
+      </c>
+      <c r="J20" s="37">
+        <v>5</v>
+      </c>
+      <c r="K20" s="19">
+        <f t="shared" si="11"/>
+        <v>228461.55441468998</v>
+      </c>
+      <c r="L20" s="19">
+        <f>$E$4*K20</f>
+        <v>194435.36545931062</v>
+      </c>
+      <c r="M20" s="19">
+        <f>L20-K20</f>
+        <v>-34026.188955379359</v>
+      </c>
+      <c r="N20" s="19">
+        <f t="shared" si="13"/>
+        <v>-899000</v>
+      </c>
+      <c r="O20" s="38">
+        <f>M20/N20</f>
+        <v>3.7848930984849122E-2</v>
+      </c>
+      <c r="P20" s="41">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="Q20" s="19">
+        <f>N20*-1</f>
+        <v>899000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="21">
         <v>6</v>
       </c>
       <c r="B21" s="22"/>
       <c r="C21" s="22">
-        <f>'прибыль проектов'!$G$62*4</f>
-        <v>145803.20000000019</v>
+        <f>('прибыль проектов'!$G$62+'исходные данные'!$H$5)*4</f>
+        <v>224275.20000000019</v>
       </c>
       <c r="D21" s="22">
-        <f t="shared" si="4"/>
-        <v>145803.20000000019</v>
+        <f t="shared" si="8"/>
+        <v>224275.20000000019</v>
       </c>
       <c r="E21" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A21)</f>
         <v>0.37999055357770539</v>
       </c>
       <c r="F21" s="22">
-        <f t="shared" si="5"/>
-        <v>55403.838681400965</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>85222.457401750667</v>
+      </c>
+      <c r="J21" s="37"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19">
+        <f>SUM(Q18:Q20)</f>
+        <v>899000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="21">
         <v>7</v>
       </c>
       <c r="B22" s="22"/>
       <c r="C22" s="22">
-        <f>'прибыль проектов'!$G$62*4</f>
-        <v>145803.20000000019</v>
+        <f>('прибыль проектов'!$G$62+'исходные данные'!$H$5)*4</f>
+        <v>224275.20000000019</v>
       </c>
       <c r="D22" s="22">
-        <f t="shared" si="4"/>
-        <v>145803.20000000019</v>
+        <f t="shared" si="8"/>
+        <v>224275.20000000019</v>
       </c>
       <c r="E22" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A22)</f>
@@ -5326,10 +6007,10 @@
       </c>
       <c r="F22" s="22">
         <f>E22*D22</f>
-        <v>47152.203133107199</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>72529.750980213328</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>39</v>
       </c>
@@ -5339,19 +6020,26 @@
       </c>
       <c r="C23" s="22">
         <f>SUM(C15:C22)</f>
-        <v>1020622.4000000013</v>
+        <v>1569926.4000000013</v>
       </c>
       <c r="D23" s="22">
         <f>SUM(D15:D22)</f>
-        <v>235622.4000000013</v>
+        <v>784926.4000000013</v>
       </c>
       <c r="E23" s="22"/>
       <c r="F23" s="29">
         <f>SUM(F15:F22)</f>
-        <v>-221280.01790346895</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>82116.851541638724</v>
+      </c>
+      <c r="J23" s="33"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="19"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>4</v>
       </c>
@@ -5360,28 +6048,57 @@
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J25" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="str">
+        <f>$A$2</f>
+        <v>Период</v>
+      </c>
+      <c r="B26" s="20" t="str">
+        <f>$B$2</f>
+        <v>ИЗ</v>
+      </c>
+      <c r="C26" s="20" t="str">
+        <f>$C$2</f>
+        <v>П</v>
+      </c>
+      <c r="D26" s="20" t="str">
+        <f>$D$2</f>
+        <v>ДП</v>
+      </c>
+      <c r="E26" s="20" t="str">
+        <f>$E$2</f>
+        <v>Кд</v>
+      </c>
+      <c r="F26" s="20" t="str">
+        <f>$F$2</f>
+        <v>ДДП</v>
+      </c>
+      <c r="J26" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="K26" s="19">
+        <f>K15-Q21+F29+F41+F52</f>
+        <v>578596.71525577176</v>
+      </c>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="21">
         <v>0</v>
       </c>
@@ -5402,151 +6119,265 @@
         <f>E27*D27</f>
         <v>-573000</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="21">
         <v>1</v>
       </c>
       <c r="B28" s="22"/>
       <c r="C28" s="22">
-        <f>'прибыль проектов'!$G$93*4</f>
-        <v>122299.19999999995</v>
+        <f>('прибыль проектов'!$G$93+'исходные данные'!$I$5)*4</f>
+        <v>194003.19999999995</v>
       </c>
       <c r="D28" s="22">
-        <f t="shared" ref="D28:D34" si="6">B28+C28</f>
-        <v>122299.19999999995</v>
+        <f t="shared" ref="D28:D34" si="16">B28+C28</f>
+        <v>194003.19999999995</v>
       </c>
       <c r="E28" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A28)</f>
         <v>0.85106382978723405</v>
       </c>
       <c r="F28" s="22">
-        <f t="shared" ref="F28:F33" si="7">E28*D28</f>
-        <v>104084.42553191485</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F28:F33" si="17">E28*D28</f>
+        <v>165109.10638297867</v>
+      </c>
+      <c r="J28" s="33" t="str">
+        <f>J5</f>
+        <v>Проект</v>
+      </c>
+      <c r="K28" s="33" t="str">
+        <f t="shared" ref="K28:Q28" si="18">K5</f>
+        <v>ЧДД в случае реализации проекта в текущем году</v>
+      </c>
+      <c r="L28" s="33" t="str">
+        <f t="shared" si="18"/>
+        <v>ЧДД в случае реализации проекта в следующем году</v>
+      </c>
+      <c r="M28" s="33" t="str">
+        <f t="shared" si="18"/>
+        <v>Потери ЧДД</v>
+      </c>
+      <c r="N28" s="33" t="str">
+        <f t="shared" si="18"/>
+        <v>Отложенные инвестиции</v>
+      </c>
+      <c r="O28" s="33" t="str">
+        <f t="shared" si="18"/>
+        <v>Индекс потерь ЧДД</v>
+      </c>
+      <c r="P28" s="33" t="str">
+        <f t="shared" si="18"/>
+        <v>Ранг проекта</v>
+      </c>
+      <c r="Q28" s="33" t="str">
+        <f t="shared" si="18"/>
+        <v>Инвестиции в текущем году</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="21">
         <v>2</v>
       </c>
       <c r="B29" s="22"/>
       <c r="C29" s="22">
-        <f>'прибыль проектов'!$G$93*4</f>
-        <v>122299.19999999995</v>
+        <f>('прибыль проектов'!$G$93+'исходные данные'!$I$5)*4</f>
+        <v>194003.19999999995</v>
       </c>
       <c r="D29" s="22">
-        <f t="shared" si="6"/>
-        <v>122299.19999999995</v>
+        <f t="shared" si="16"/>
+        <v>194003.19999999995</v>
       </c>
       <c r="E29" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A29)</f>
         <v>0.72430964237211393</v>
       </c>
       <c r="F29" s="22">
-        <f t="shared" si="7"/>
-        <v>88582.489814395609</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="17"/>
+        <v>140518.38841104566</v>
+      </c>
+      <c r="J29" s="37">
+        <v>1</v>
+      </c>
+      <c r="K29" s="19">
+        <f>VLOOKUP(J29,$J$18:$L$20,3,)</f>
+        <v>152232.98873534868</v>
+      </c>
+      <c r="L29" s="19">
+        <f>$E$4*K29</f>
+        <v>129559.99041306271</v>
+      </c>
+      <c r="M29" s="19">
+        <f>L29-K29</f>
+        <v>-22672.998322285974</v>
+      </c>
+      <c r="N29" s="19">
+        <f>VLOOKUP(J29,$J$18:$N$20,5,)</f>
+        <v>-718000</v>
+      </c>
+      <c r="O29" s="38">
+        <f>M29/N29</f>
+        <v>3.1577992092320296E-2</v>
+      </c>
+      <c r="P29" s="41">
+        <f>_xlfn.RANK.EQ(O29,$O$29:$O$30,)</f>
+        <v>1</v>
+      </c>
+      <c r="Q29" s="19"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="21">
         <v>3</v>
       </c>
       <c r="B30" s="22"/>
       <c r="C30" s="22">
-        <f>'прибыль проектов'!$G$93*4</f>
-        <v>122299.19999999995</v>
+        <f>('прибыль проектов'!$G$93+'исходные данные'!$I$5)*4</f>
+        <v>194003.19999999995</v>
       </c>
       <c r="D30" s="22">
-        <f t="shared" si="6"/>
-        <v>122299.19999999995</v>
+        <f t="shared" si="16"/>
+        <v>194003.19999999995</v>
       </c>
       <c r="E30" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A30)</f>
         <v>0.61643373818903313</v>
       </c>
       <c r="F30" s="22">
-        <f t="shared" si="7"/>
-        <v>75389.353033528168</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="17"/>
+        <v>119590.1177966346</v>
+      </c>
+      <c r="J30" s="37">
+        <v>2</v>
+      </c>
+      <c r="K30" s="19">
+        <f t="shared" ref="K30" si="19">VLOOKUP(J30,$J$18:$L$20,3,)</f>
+        <v>59478.02737284833</v>
+      </c>
+      <c r="L30" s="19">
+        <f>$E$4*K30</f>
+        <v>50619.597764126236</v>
+      </c>
+      <c r="M30" s="19">
+        <f t="shared" ref="M30" si="20">L30-K30</f>
+        <v>-8858.4296087220937</v>
+      </c>
+      <c r="N30" s="19">
+        <f>VLOOKUP(J30,$J$18:$N$20,5,)</f>
+        <v>-785000</v>
+      </c>
+      <c r="O30" s="38">
+        <f t="shared" ref="O30" si="21">M30/N30</f>
+        <v>1.1284623705378463E-2</v>
+      </c>
+      <c r="P30" s="41">
+        <f>_xlfn.RANK.EQ(O30,$O$29:$O$30,)</f>
+        <v>2</v>
+      </c>
+      <c r="Q30" s="19"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="21">
         <v>4</v>
       </c>
       <c r="B31" s="22"/>
       <c r="C31" s="22">
-        <f>'прибыль проектов'!$G$93*4</f>
-        <v>122299.19999999995</v>
+        <f>('прибыль проектов'!$G$93+'исходные данные'!$I$5)*4</f>
+        <v>194003.19999999995</v>
       </c>
       <c r="D31" s="22">
-        <f t="shared" si="6"/>
-        <v>122299.19999999995</v>
+        <f t="shared" si="16"/>
+        <v>194003.19999999995</v>
       </c>
       <c r="E31" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A31)</f>
         <v>0.52462445803321966</v>
       </c>
       <c r="F31" s="22">
-        <f t="shared" si="7"/>
-        <v>64161.151517896316</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="17"/>
+        <v>101778.8236567103</v>
+      </c>
+      <c r="J31" s="37"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="38"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19">
+        <f>SUM(Q29:Q30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="21">
         <v>5</v>
       </c>
       <c r="B32" s="22"/>
       <c r="C32" s="22">
-        <f>'прибыль проектов'!$G$93*4</f>
-        <v>122299.19999999995</v>
+        <f>('прибыль проектов'!$G$93+'исходные данные'!$I$5)*4</f>
+        <v>194003.19999999995</v>
       </c>
       <c r="D32" s="22">
-        <f t="shared" si="6"/>
-        <v>122299.19999999995</v>
+        <f t="shared" si="16"/>
+        <v>194003.19999999995</v>
       </c>
       <c r="E32" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A32)</f>
         <v>0.44648890045380391</v>
       </c>
       <c r="F32" s="22">
-        <f t="shared" si="7"/>
-        <v>54605.235334379831</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="17"/>
+        <v>86620.275452519389</v>
+      </c>
+      <c r="J32" s="37"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="19"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="21">
         <v>6</v>
       </c>
       <c r="B33" s="22"/>
       <c r="C33" s="22">
-        <f>'прибыль проектов'!$G$93*4</f>
-        <v>122299.19999999995</v>
+        <f>('прибыль проектов'!$G$93+'исходные данные'!$I$5)*4</f>
+        <v>194003.19999999995</v>
       </c>
       <c r="D33" s="22">
-        <f t="shared" si="6"/>
-        <v>122299.19999999995</v>
+        <f t="shared" si="16"/>
+        <v>194003.19999999995</v>
       </c>
       <c r="E33" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A33)</f>
         <v>0.37999055357770539</v>
       </c>
       <c r="F33" s="22">
-        <f t="shared" si="7"/>
-        <v>46472.540710110487</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="17"/>
+        <v>73719.383363846282</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="21">
         <v>7</v>
       </c>
       <c r="B34" s="22"/>
       <c r="C34" s="22">
-        <f>'прибыль проектов'!$G$93*4</f>
-        <v>122299.19999999995</v>
+        <f>('прибыль проектов'!$G$93+'исходные данные'!$I$5)*4</f>
+        <v>194003.19999999995</v>
       </c>
       <c r="D34" s="22">
-        <f t="shared" si="6"/>
-        <v>122299.19999999995</v>
+        <f t="shared" si="16"/>
+        <v>194003.19999999995</v>
       </c>
       <c r="E34" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A34)</f>
@@ -5554,10 +6385,10 @@
       </c>
       <c r="F34" s="22">
         <f>E34*D34</f>
-        <v>39551.098476689775</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>62739.900735188312</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="24" t="s">
         <v>39</v>
       </c>
@@ -5567,19 +6398,44 @@
       </c>
       <c r="C35" s="22">
         <f>SUM(C27:C34)</f>
-        <v>856094.39999999967</v>
+        <v>1358022.3999999997</v>
       </c>
       <c r="D35" s="22">
         <f>SUM(D27:D34)</f>
-        <v>283094.39999999967</v>
+        <v>785022.39999999967</v>
       </c>
       <c r="E35" s="22"/>
       <c r="F35" s="29">
         <f>SUM(F27:F34)</f>
-        <v>-100153.70558108491</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>177075.99579892322</v>
+      </c>
+      <c r="J35" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J36" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="K36" s="19">
+        <f>K26-Q31+F30+F42+F53</f>
+        <v>1069494.0555368268</v>
+      </c>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
         <v>5</v>
       </c>
@@ -5588,28 +6444,74 @@
       <c r="D37" s="19"/>
       <c r="E37" s="19"/>
       <c r="F37" s="19"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E38" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="F38" s="20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="20" t="str">
+        <f>$A$2</f>
+        <v>Период</v>
+      </c>
+      <c r="B38" s="20" t="str">
+        <f>$B$2</f>
+        <v>ИЗ</v>
+      </c>
+      <c r="C38" s="20" t="str">
+        <f>$C$2</f>
+        <v>П</v>
+      </c>
+      <c r="D38" s="20" t="str">
+        <f>$D$2</f>
+        <v>ДП</v>
+      </c>
+      <c r="E38" s="20" t="str">
+        <f>$E$2</f>
+        <v>Кд</v>
+      </c>
+      <c r="F38" s="20" t="str">
+        <f>$F$2</f>
+        <v>ДДП</v>
+      </c>
+      <c r="J38" s="33" t="str">
+        <f>J5</f>
+        <v>Проект</v>
+      </c>
+      <c r="K38" s="33" t="str">
+        <f t="shared" ref="K38:Q38" si="22">K5</f>
+        <v>ЧДД в случае реализации проекта в текущем году</v>
+      </c>
+      <c r="L38" s="33" t="str">
+        <f t="shared" si="22"/>
+        <v>ЧДД в случае реализации проекта в следующем году</v>
+      </c>
+      <c r="M38" s="33" t="str">
+        <f t="shared" si="22"/>
+        <v>Потери ЧДД</v>
+      </c>
+      <c r="N38" s="33" t="str">
+        <f t="shared" si="22"/>
+        <v>Отложенные инвестиции</v>
+      </c>
+      <c r="O38" s="33" t="str">
+        <f t="shared" si="22"/>
+        <v>Индекс потерь ЧДД</v>
+      </c>
+      <c r="P38" s="33" t="str">
+        <f t="shared" si="22"/>
+        <v>Ранг проекта</v>
+      </c>
+      <c r="Q38" s="33" t="str">
+        <f t="shared" si="22"/>
+        <v>Инвестиции в текущем году</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="21">
         <v>0</v>
       </c>
@@ -5630,151 +6532,231 @@
         <f>E39*D39</f>
         <v>-727000</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J39" s="37">
+        <v>1</v>
+      </c>
+      <c r="K39" s="19">
+        <f>VLOOKUP(J39,$J$29:$L$30,3,)</f>
+        <v>129559.99041306271</v>
+      </c>
+      <c r="L39" s="19">
+        <f>$E$4*K39</f>
+        <v>110263.82162813848</v>
+      </c>
+      <c r="M39" s="19">
+        <f>L39-K39</f>
+        <v>-19296.16878492423</v>
+      </c>
+      <c r="N39" s="19">
+        <f>VLOOKUP(J39,$J$18:$N$20,5,)</f>
+        <v>-718000</v>
+      </c>
+      <c r="O39" s="38">
+        <f>M39/N39</f>
+        <v>2.68748868870811E-2</v>
+      </c>
+      <c r="P39" s="41">
+        <f>_xlfn.RANK.EQ(O39,$O$39:$O$40,)</f>
+        <v>1</v>
+      </c>
+      <c r="Q39" s="19">
+        <f>N39*-1</f>
+        <v>718000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="21">
         <v>1</v>
       </c>
       <c r="B40" s="22"/>
       <c r="C40" s="22">
-        <f>'прибыль проектов'!$G$124*4</f>
-        <v>121664.80000000005</v>
+        <f>('прибыль проектов'!$G$124+'исходные данные'!$J$5)*4</f>
+        <v>247552.80000000005</v>
       </c>
       <c r="D40" s="22">
-        <f t="shared" ref="D40:D46" si="8">B40+C40</f>
-        <v>121664.80000000005</v>
+        <f t="shared" ref="D40:D46" si="23">B40+C40</f>
+        <v>247552.80000000005</v>
       </c>
       <c r="E40" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A40)</f>
         <v>0.85106382978723405</v>
       </c>
       <c r="F40" s="22">
-        <f t="shared" ref="F40:F45" si="9">E40*D40</f>
-        <v>103544.51063829791</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F40:F45" si="24">E40*D40</f>
+        <v>210683.23404255323</v>
+      </c>
+      <c r="J40" s="37">
+        <v>2</v>
+      </c>
+      <c r="K40" s="19">
+        <f>VLOOKUP(J40,$J$29:$L$30,3,)</f>
+        <v>50619.597764126236</v>
+      </c>
+      <c r="L40" s="19">
+        <f>$E$4*K40</f>
+        <v>43080.508735426585</v>
+      </c>
+      <c r="M40" s="19">
+        <f t="shared" ref="M40" si="25">L40-K40</f>
+        <v>-7539.089028699651</v>
+      </c>
+      <c r="N40" s="19">
+        <f>VLOOKUP(J40,$J$18:$N$20,5,)</f>
+        <v>-785000</v>
+      </c>
+      <c r="O40" s="38">
+        <f t="shared" ref="O40" si="26">M40/N40</f>
+        <v>9.6039350684071993E-3</v>
+      </c>
+      <c r="P40" s="41">
+        <f>_xlfn.RANK.EQ(O40,$O$39:$O$40,)</f>
+        <v>2</v>
+      </c>
+      <c r="Q40" s="19"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="21">
         <v>2</v>
       </c>
       <c r="B41" s="22"/>
       <c r="C41" s="22">
-        <f>'прибыль проектов'!$G$124*4</f>
-        <v>121664.80000000005</v>
+        <f>('прибыль проектов'!$G$124+'исходные данные'!$J$5)*4</f>
+        <v>247552.80000000005</v>
       </c>
       <c r="D41" s="22">
-        <f t="shared" si="8"/>
-        <v>121664.80000000005</v>
+        <f t="shared" si="23"/>
+        <v>247552.80000000005</v>
       </c>
       <c r="E41" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A41)</f>
         <v>0.72430964237211393</v>
       </c>
       <c r="F41" s="22">
-        <f t="shared" si="9"/>
-        <v>88122.9877772748</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="24"/>
+        <v>179304.88003621547</v>
+      </c>
+      <c r="J41" s="37"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="38"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="19">
+        <f>SUM(Q39:Q40)</f>
+        <v>718000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="21">
         <v>3</v>
       </c>
       <c r="B42" s="22"/>
       <c r="C42" s="22">
-        <f>'прибыль проектов'!$G$124*4</f>
-        <v>121664.80000000005</v>
+        <f>('прибыль проектов'!$G$124+'исходные данные'!$J$5)*4</f>
+        <v>247552.80000000005</v>
       </c>
       <c r="D42" s="22">
-        <f t="shared" si="8"/>
-        <v>121664.80000000005</v>
+        <f t="shared" si="23"/>
+        <v>247552.80000000005</v>
       </c>
       <c r="E42" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A42)</f>
         <v>0.61643373818903313</v>
       </c>
       <c r="F42" s="22">
-        <f t="shared" si="9"/>
-        <v>74998.28747002111</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="24"/>
+        <v>152599.89790316211</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="21">
         <v>4</v>
       </c>
       <c r="B43" s="22"/>
       <c r="C43" s="22">
-        <f>'прибыль проектов'!$G$124*4</f>
-        <v>121664.80000000005</v>
+        <f>('прибыль проектов'!$G$124+'исходные данные'!$J$5)*4</f>
+        <v>247552.80000000005</v>
       </c>
       <c r="D43" s="22">
-        <f t="shared" si="8"/>
-        <v>121664.80000000005</v>
+        <f t="shared" si="23"/>
+        <v>247552.80000000005</v>
       </c>
       <c r="E43" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A43)</f>
         <v>0.52462445803321966</v>
       </c>
       <c r="F43" s="22">
-        <f t="shared" si="9"/>
-        <v>63828.329761720088</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="24"/>
+        <v>129872.25353460605</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="21">
         <v>5</v>
       </c>
       <c r="B44" s="22"/>
       <c r="C44" s="22">
-        <f>'прибыль проектов'!$G$124*4</f>
-        <v>121664.80000000005</v>
+        <f>('прибыль проектов'!$G$124+'исходные данные'!$J$5)*4</f>
+        <v>247552.80000000005</v>
       </c>
       <c r="D44" s="22">
-        <f t="shared" si="8"/>
-        <v>121664.80000000005</v>
+        <f t="shared" si="23"/>
+        <v>247552.80000000005</v>
       </c>
       <c r="E44" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A44)</f>
         <v>0.44648890045380391</v>
       </c>
       <c r="F44" s="22">
-        <f t="shared" si="9"/>
-        <v>54321.982775931981</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="24"/>
+        <v>110529.57747626044</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="21">
         <v>6</v>
       </c>
       <c r="B45" s="22"/>
       <c r="C45" s="22">
-        <f>'прибыль проектов'!$G$124*4</f>
-        <v>121664.80000000005</v>
+        <f>('прибыль проектов'!$G$124+'исходные данные'!$J$5)*4</f>
+        <v>247552.80000000005</v>
       </c>
       <c r="D45" s="22">
-        <f t="shared" si="8"/>
-        <v>121664.80000000005</v>
+        <f t="shared" si="23"/>
+        <v>247552.80000000005</v>
       </c>
       <c r="E45" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A45)</f>
         <v>0.37999055357770539</v>
       </c>
       <c r="F45" s="22">
-        <f t="shared" si="9"/>
-        <v>46231.47470292083</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="24"/>
+        <v>94067.725511711003</v>
+      </c>
+      <c r="J45" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="19"/>
+      <c r="P45" s="19"/>
+      <c r="Q45" s="19"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="21">
         <v>7</v>
       </c>
       <c r="B46" s="22"/>
       <c r="C46" s="22">
-        <f>'прибыль проектов'!$G$124*4</f>
-        <v>121664.80000000005</v>
+        <f>('прибыль проектов'!$G$124+'исходные данные'!$J$5)*4</f>
+        <v>247552.80000000005</v>
       </c>
       <c r="D46" s="22">
-        <f t="shared" si="8"/>
-        <v>121664.80000000005</v>
+        <f t="shared" si="23"/>
+        <v>247552.80000000005</v>
       </c>
       <c r="E46" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A46)</f>
@@ -5782,10 +6764,23 @@
       </c>
       <c r="F46" s="22">
         <f>E46*D46</f>
-        <v>39345.935917379422</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80057.638733371059</v>
+      </c>
+      <c r="J46" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="K46" s="19">
+        <f>K36-Q41+F31+F43+F54+F4</f>
+        <v>973592.2174781505</v>
+      </c>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="19"/>
+      <c r="P46" s="19"/>
+      <c r="Q46" s="19"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="24" t="s">
         <v>39</v>
       </c>
@@ -5795,19 +6790,61 @@
       </c>
       <c r="C47" s="22">
         <f>SUM(C39:C46)</f>
-        <v>851653.60000000033</v>
+        <v>1732869.6000000003</v>
       </c>
       <c r="D47" s="22">
         <f>SUM(D39:D46)</f>
-        <v>124653.60000000033</v>
+        <v>1005869.6000000003</v>
       </c>
       <c r="E47" s="22"/>
       <c r="F47" s="29">
         <f>SUM(F39:F46)</f>
-        <v>-256606.49095645387</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>230115.20723787934</v>
+      </c>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="33"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
+      <c r="Q47" s="19"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J48" s="33" t="str">
+        <f>J5</f>
+        <v>Проект</v>
+      </c>
+      <c r="K48" s="33" t="str">
+        <f t="shared" ref="K48:Q48" si="27">K5</f>
+        <v>ЧДД в случае реализации проекта в текущем году</v>
+      </c>
+      <c r="L48" s="33" t="str">
+        <f t="shared" si="27"/>
+        <v>ЧДД в случае реализации проекта в следующем году</v>
+      </c>
+      <c r="M48" s="33" t="str">
+        <f t="shared" si="27"/>
+        <v>Потери ЧДД</v>
+      </c>
+      <c r="N48" s="33" t="str">
+        <f t="shared" si="27"/>
+        <v>Отложенные инвестиции</v>
+      </c>
+      <c r="O48" s="33" t="str">
+        <f t="shared" si="27"/>
+        <v>Индекс потерь ЧДД</v>
+      </c>
+      <c r="P48" s="33" t="str">
+        <f t="shared" si="27"/>
+        <v>Ранг проекта</v>
+      </c>
+      <c r="Q48" s="33" t="str">
+        <f t="shared" si="27"/>
+        <v>Инвестиции в текущем году</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
         <v>6</v>
       </c>
@@ -5816,28 +6853,76 @@
       <c r="D49" s="19"/>
       <c r="E49" s="19"/>
       <c r="F49" s="19"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C50" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D50" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E50" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="F50" s="20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J49" s="37">
+        <v>2</v>
+      </c>
+      <c r="K49" s="19">
+        <f>VLOOKUP(J49,$J$39:$L$40,3,)</f>
+        <v>43080.508735426585</v>
+      </c>
+      <c r="L49" s="19">
+        <f>$E$4*K49</f>
+        <v>36664.26275355454</v>
+      </c>
+      <c r="M49" s="19">
+        <f>L49-K49</f>
+        <v>-6416.2459818720454</v>
+      </c>
+      <c r="N49" s="19">
+        <f>VLOOKUP(J49,$J$18:$N$20,5,)</f>
+        <v>-785000</v>
+      </c>
+      <c r="O49" s="38">
+        <f>M49/N49</f>
+        <v>8.1735617603465541E-3</v>
+      </c>
+      <c r="P49" s="41">
+        <f>_xlfn.RANK.EQ(O49,$O$49,)</f>
+        <v>1</v>
+      </c>
+      <c r="Q49" s="19">
+        <f>N49*-1</f>
+        <v>785000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="20" t="str">
+        <f>$A$2</f>
+        <v>Период</v>
+      </c>
+      <c r="B50" s="20" t="str">
+        <f>$B$2</f>
+        <v>ИЗ</v>
+      </c>
+      <c r="C50" s="20" t="str">
+        <f>$C$2</f>
+        <v>П</v>
+      </c>
+      <c r="D50" s="20" t="str">
+        <f>$D$2</f>
+        <v>ДП</v>
+      </c>
+      <c r="E50" s="20" t="str">
+        <f>$E$2</f>
+        <v>Кд</v>
+      </c>
+      <c r="F50" s="20" t="str">
+        <f>$F$2</f>
+        <v>ДДП</v>
+      </c>
+      <c r="J50" s="37"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="38"/>
+      <c r="P50" s="19"/>
+      <c r="Q50" s="19">
+        <f>SUM(Q49)</f>
+        <v>785000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="21">
         <v>0</v>
       </c>
@@ -5858,151 +6943,158 @@
         <f>E51*D51</f>
         <v>-899000</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J51" s="37"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="38"/>
+      <c r="P51" s="19"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="21">
         <v>1</v>
       </c>
       <c r="B52" s="22"/>
       <c r="C52" s="22">
-        <f>'прибыль проектов'!$G$155*4</f>
-        <v>149576.80000000005</v>
+        <f>('прибыль проектов'!$G$155+'исходные данные'!$K$5)*4</f>
+        <v>301952.80000000005</v>
       </c>
       <c r="D52" s="22">
-        <f t="shared" ref="D52:D58" si="10">B52+C52</f>
-        <v>149576.80000000005</v>
+        <f t="shared" ref="D52:D58" si="28">B52+C52</f>
+        <v>301952.80000000005</v>
       </c>
       <c r="E52" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A52)</f>
         <v>0.85106382978723405</v>
       </c>
       <c r="F52" s="22">
-        <f t="shared" ref="F52:F57" si="11">E52*D52</f>
-        <v>127299.40425531918</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F52:F57" si="29">E52*D52</f>
+        <v>256981.10638297876</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="21">
         <v>2</v>
       </c>
       <c r="B53" s="22"/>
       <c r="C53" s="22">
-        <f>'прибыль проектов'!$G$155*4</f>
-        <v>149576.80000000005</v>
+        <f>('прибыль проектов'!$G$155+'исходные данные'!$K$5)*4</f>
+        <v>301952.80000000005</v>
       </c>
       <c r="D53" s="22">
-        <f t="shared" si="10"/>
-        <v>149576.80000000005</v>
+        <f t="shared" si="28"/>
+        <v>301952.80000000005</v>
       </c>
       <c r="E53" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A53)</f>
         <v>0.72430964237211393</v>
       </c>
       <c r="F53" s="22">
-        <f t="shared" si="11"/>
-        <v>108339.91851516525</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="29"/>
+        <v>218707.32458125846</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="21">
         <v>3</v>
       </c>
       <c r="B54" s="22"/>
       <c r="C54" s="22">
-        <f>'прибыль проектов'!$G$155*4</f>
-        <v>149576.80000000005</v>
+        <f>('прибыль проектов'!$G$155+'исходные данные'!$K$5)*4</f>
+        <v>301952.80000000005</v>
       </c>
       <c r="D54" s="22">
-        <f t="shared" si="10"/>
-        <v>149576.80000000005</v>
+        <f t="shared" si="28"/>
+        <v>301952.80000000005</v>
       </c>
       <c r="E54" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A54)</f>
         <v>0.61643373818903313</v>
       </c>
       <c r="F54" s="22">
-        <f t="shared" si="11"/>
-        <v>92204.185970353399</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="29"/>
+        <v>186133.89326064551</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="21">
         <v>4</v>
       </c>
       <c r="B55" s="22"/>
       <c r="C55" s="22">
-        <f>'прибыль проектов'!$G$155*4</f>
-        <v>149576.80000000005</v>
+        <f>('прибыль проектов'!$G$155+'исходные данные'!$K$5)*4</f>
+        <v>301952.80000000005</v>
       </c>
       <c r="D55" s="22">
-        <f t="shared" si="10"/>
-        <v>149576.80000000005</v>
+        <f t="shared" si="28"/>
+        <v>301952.80000000005</v>
       </c>
       <c r="E55" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A55)</f>
         <v>0.52462445803321966</v>
       </c>
       <c r="F55" s="22">
-        <f t="shared" si="11"/>
-        <v>78471.647634343317</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="29"/>
+        <v>158411.82405161319</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="21">
         <v>5</v>
       </c>
       <c r="B56" s="22"/>
       <c r="C56" s="22">
-        <f>'прибыль проектов'!$G$155*4</f>
-        <v>149576.80000000005</v>
+        <f>('прибыль проектов'!$G$155+'исходные данные'!$K$5)*4</f>
+        <v>301952.80000000005</v>
       </c>
       <c r="D56" s="22">
-        <f t="shared" si="10"/>
-        <v>149576.80000000005</v>
+        <f t="shared" si="28"/>
+        <v>301952.80000000005</v>
       </c>
       <c r="E56" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A56)</f>
         <v>0.44648890045380391</v>
       </c>
       <c r="F56" s="22">
-        <f t="shared" si="11"/>
-        <v>66784.380965398552</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="29"/>
+        <v>134818.57366094738</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="21">
         <v>6</v>
       </c>
       <c r="B57" s="22"/>
       <c r="C57" s="22">
-        <f>'прибыль проектов'!$G$155*4</f>
-        <v>149576.80000000005</v>
+        <f>('прибыль проектов'!$G$155+'исходные данные'!$K$5)*4</f>
+        <v>301952.80000000005</v>
       </c>
       <c r="D57" s="22">
-        <f t="shared" si="10"/>
-        <v>149576.80000000005</v>
+        <f t="shared" si="28"/>
+        <v>301952.80000000005</v>
       </c>
       <c r="E57" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A57)</f>
         <v>0.37999055357770539</v>
       </c>
       <c r="F57" s="22">
-        <f t="shared" si="11"/>
-        <v>56837.771034381738</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="29"/>
+        <v>114739.21162633818</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="21">
         <v>7</v>
       </c>
       <c r="B58" s="22"/>
       <c r="C58" s="22">
-        <f>'прибыль проектов'!$G$155*4</f>
-        <v>149576.80000000005</v>
+        <f>('прибыль проектов'!$G$155+'исходные данные'!$K$5)*4</f>
+        <v>301952.80000000005</v>
       </c>
       <c r="D58" s="22">
-        <f t="shared" si="10"/>
-        <v>149576.80000000005</v>
+        <f t="shared" si="28"/>
+        <v>301952.80000000005</v>
       </c>
       <c r="E58" s="23">
         <f>(1+'исходные данные'!$G$19/100)^(-A58)</f>
@@ -6010,10 +7102,10 @@
       </c>
       <c r="F58" s="22">
         <f>E58*D58</f>
-        <v>48372.571093090839</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>97650.392873479286</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="24" t="s">
         <v>39</v>
       </c>
@@ -6023,19 +7115,20 @@
       </c>
       <c r="C59" s="22">
         <f>SUM(C51:C58)</f>
-        <v>1047037.6000000003</v>
+        <v>2113669.6000000006</v>
       </c>
       <c r="D59" s="22">
         <f>SUM(D51:D58)</f>
-        <v>148037.60000000033</v>
+        <v>1214669.6000000003</v>
       </c>
       <c r="E59" s="22"/>
       <c r="F59" s="29">
         <f>SUM(F51:F58)</f>
-        <v>-320690.1205319477</v>
+        <v>268442.32643726072</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/РГР/ргр.xlsx
+++ b/РГР/ргр.xlsx
@@ -108,7 +108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q41" authorId="0" shapeId="0">
+    <comment ref="Q40" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -171,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="86">
   <si>
     <t>Номера инвестиционных проектов</t>
   </si>
@@ -407,7 +407,28 @@
     <t>3 Год</t>
   </si>
   <si>
-    <t>4 Год</t>
+    <t>Инвестиционные ресурсы на конец прошлого года</t>
+  </si>
+  <si>
+    <t>Инвестиции в прошлом году</t>
+  </si>
+  <si>
+    <t>Инвестиционные ресурсы на конец текущего года</t>
+  </si>
+  <si>
+    <t>Поступления по проекту 3 за текущий год</t>
+  </si>
+  <si>
+    <t>Поступления по проекту 4 за текущий год</t>
+  </si>
+  <si>
+    <t>Поступления по проекту 5 за текущий год</t>
+  </si>
+  <si>
+    <t>Поступления по проекту 1 за текущий год</t>
+  </si>
+  <si>
+    <t>Значение, р.</t>
   </si>
 </sst>
 </file>
@@ -533,7 +554,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -640,6 +661,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -5130,10 +5152,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R59"/>
+  <dimension ref="A1:U59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G10" workbookViewId="0">
-      <selection activeCell="P48" sqref="P48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P39" sqref="J38:P39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5152,9 +5174,11 @@
     <col min="15" max="15" width="21.5703125" customWidth="1"/>
     <col min="16" max="16" width="13.85546875" customWidth="1"/>
     <col min="17" max="17" width="25.5703125" customWidth="1"/>
+    <col min="20" max="20" width="51.28515625" customWidth="1"/>
+    <col min="21" max="21" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>2</v>
       </c>
@@ -5164,7 +5188,7 @@
       <c r="E1" s="19"/>
       <c r="F1" s="19"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>45</v>
       </c>
@@ -5196,7 +5220,7 @@
       <c r="Q2" s="19"/>
       <c r="R2" s="19"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="21">
         <v>0</v>
       </c>
@@ -5233,7 +5257,7 @@
       <c r="Q3" s="19"/>
       <c r="R3" s="19"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="21">
         <v>1</v>
       </c>
@@ -5265,7 +5289,7 @@
       <c r="Q4" s="19"/>
       <c r="R4" s="19"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="21">
         <v>2</v>
       </c>
@@ -5313,7 +5337,7 @@
       </c>
       <c r="R5" s="19"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="21">
         <v>3</v>
       </c>
@@ -5365,7 +5389,7 @@
       <c r="Q6" s="19"/>
       <c r="R6" s="19"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="21">
         <v>4</v>
       </c>
@@ -5417,7 +5441,7 @@
       <c r="Q7" s="19"/>
       <c r="R7" s="19"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="21">
         <v>5</v>
       </c>
@@ -5472,7 +5496,7 @@
       </c>
       <c r="R8" s="19"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="21">
         <v>6</v>
       </c>
@@ -5527,7 +5551,7 @@
       </c>
       <c r="R9" s="19"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="21">
         <v>7</v>
       </c>
@@ -5579,7 +5603,7 @@
       <c r="Q10" s="19"/>
       <c r="R10" s="19"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>39</v>
       </c>
@@ -5614,7 +5638,7 @@
       </c>
       <c r="R11" s="19"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I12" s="19"/>
       <c r="J12" s="33"/>
       <c r="K12" s="34"/>
@@ -5626,7 +5650,7 @@
       <c r="Q12" s="19"/>
       <c r="R12" s="19"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>3</v>
       </c>
@@ -5645,7 +5669,7 @@
       <c r="P13" s="19"/>
       <c r="R13" s="19"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="str">
         <f>$A$2</f>
         <v>Период</v>
@@ -5683,7 +5707,7 @@
       <c r="Q14" s="19"/>
       <c r="R14" s="19"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="21">
         <v>0</v>
       </c>
@@ -5708,8 +5732,8 @@
         <v>66</v>
       </c>
       <c r="K15" s="19">
-        <f>K3-Q11+F28+F40</f>
-        <v>900792.34042553185</v>
+        <f>K3-Q11+D28+D40</f>
+        <v>966556</v>
       </c>
       <c r="L15" s="19"/>
       <c r="M15" s="19"/>
@@ -5717,8 +5741,14 @@
       <c r="O15" s="19"/>
       <c r="P15" s="19"/>
       <c r="Q15" s="19"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T15" t="s">
+        <v>15</v>
+      </c>
+      <c r="U15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="21">
         <v>1</v>
       </c>
@@ -5747,8 +5777,15 @@
       <c r="O16" s="19"/>
       <c r="P16" s="19"/>
       <c r="Q16" s="19"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T16" t="s">
+        <v>78</v>
+      </c>
+      <c r="U16" s="42">
+        <f>K3</f>
+        <v>1825000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="21">
         <v>2</v>
       </c>
@@ -5801,8 +5838,15 @@
         <f t="shared" si="10"/>
         <v>Инвестиции в текущем году</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T17" t="s">
+        <v>79</v>
+      </c>
+      <c r="U17" s="42">
+        <f>Q11</f>
+        <v>1300000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="21">
         <v>3</v>
       </c>
@@ -5851,8 +5895,15 @@
         <v>2</v>
       </c>
       <c r="Q18" s="19"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T18" t="s">
+        <v>81</v>
+      </c>
+      <c r="U18" s="42">
+        <f>D28</f>
+        <v>194003.19999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="21">
         <v>4</v>
       </c>
@@ -5901,8 +5952,15 @@
         <v>3</v>
       </c>
       <c r="Q19" s="19"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T19" t="s">
+        <v>82</v>
+      </c>
+      <c r="U19" s="42">
+        <f>D40</f>
+        <v>247552.80000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="21">
         <v>5</v>
       </c>
@@ -5954,8 +6012,15 @@
         <f>N20*-1</f>
         <v>899000</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T20" t="s">
+        <v>80</v>
+      </c>
+      <c r="U20" s="42">
+        <f>U16-U17+U18+U19</f>
+        <v>966556</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="21">
         <v>6</v>
       </c>
@@ -5988,7 +6053,7 @@
         <v>899000</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="21">
         <v>7</v>
       </c>
@@ -6010,7 +6075,7 @@
         <v>72529.750980213328</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>39</v>
       </c>
@@ -6039,7 +6104,7 @@
       <c r="O23" s="36"/>
       <c r="P23" s="19"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>4</v>
       </c>
@@ -6059,7 +6124,7 @@
       <c r="P25" s="19"/>
       <c r="Q25" s="19"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="str">
         <f>$A$2</f>
         <v>Период</v>
@@ -6088,8 +6153,8 @@
         <v>66</v>
       </c>
       <c r="K26" s="19">
-        <f>K15-Q21+F29+F41+F52</f>
-        <v>578596.71525577176</v>
+        <f>K15-Q21+D29+D41+D52</f>
+        <v>811064.8</v>
       </c>
       <c r="L26" s="19"/>
       <c r="M26" s="19"/>
@@ -6098,7 +6163,7 @@
       <c r="P26" s="19"/>
       <c r="Q26" s="19"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="21">
         <v>0</v>
       </c>
@@ -6127,8 +6192,16 @@
       <c r="O27" s="19"/>
       <c r="P27" s="19"/>
       <c r="Q27" s="19"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T27" t="str">
+        <f>T15</f>
+        <v>Показатель</v>
+      </c>
+      <c r="U27" t="str">
+        <f>U15</f>
+        <v>Значение, р.</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="21">
         <v>1</v>
       </c>
@@ -6181,8 +6254,16 @@
         <f t="shared" si="18"/>
         <v>Инвестиции в текущем году</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T28" t="str">
+        <f>T16</f>
+        <v>Инвестиционные ресурсы на конец прошлого года</v>
+      </c>
+      <c r="U28" s="42">
+        <f>K15</f>
+        <v>966556</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="21">
         <v>2</v>
       </c>
@@ -6230,9 +6311,20 @@
         <f>_xlfn.RANK.EQ(O29,$O$29:$O$30,)</f>
         <v>1</v>
       </c>
-      <c r="Q29" s="19"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q29" s="19">
+        <f>N29*-1</f>
+        <v>718000</v>
+      </c>
+      <c r="T29" t="str">
+        <f>T17</f>
+        <v>Инвестиции в прошлом году</v>
+      </c>
+      <c r="U29" s="42">
+        <f>Q21</f>
+        <v>899000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="21">
         <v>3</v>
       </c>
@@ -6281,8 +6373,16 @@
         <v>2</v>
       </c>
       <c r="Q30" s="19"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T30" t="str">
+        <f>T18</f>
+        <v>Поступления по проекту 3 за текущий год</v>
+      </c>
+      <c r="U30" s="42">
+        <f>D29</f>
+        <v>194003.19999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="21">
         <v>4</v>
       </c>
@@ -6312,10 +6412,18 @@
       <c r="P31" s="19"/>
       <c r="Q31" s="19">
         <f>SUM(Q29:Q30)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+        <v>718000</v>
+      </c>
+      <c r="T31" t="str">
+        <f>T19</f>
+        <v>Поступления по проекту 4 за текущий год</v>
+      </c>
+      <c r="U31" s="42">
+        <f>D41</f>
+        <v>247552.80000000005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="21">
         <v>5</v>
       </c>
@@ -6343,8 +6451,15 @@
       <c r="N32" s="19"/>
       <c r="O32" s="38"/>
       <c r="P32" s="19"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T32" t="s">
+        <v>83</v>
+      </c>
+      <c r="U32" s="42">
+        <f>D52</f>
+        <v>301952.80000000005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="21">
         <v>6</v>
       </c>
@@ -6365,8 +6480,16 @@
         <f t="shared" si="17"/>
         <v>73719.383363846282</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T33" t="str">
+        <f>T20</f>
+        <v>Инвестиционные ресурсы на конец текущего года</v>
+      </c>
+      <c r="U33" s="42">
+        <f>U28-U29+U30+U31+U32</f>
+        <v>811064.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="21">
         <v>7</v>
       </c>
@@ -6388,7 +6511,7 @@
         <v>62739.900735188312</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="24" t="s">
         <v>39</v>
       </c>
@@ -6420,13 +6543,13 @@
       <c r="P35" s="19"/>
       <c r="Q35" s="19"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="J36" s="33" t="s">
         <v>66</v>
       </c>
       <c r="K36" s="19">
-        <f>K26-Q31+F30+F42+F53</f>
-        <v>1069494.0555368268</v>
+        <f>K26-Q31+D30+D42+D53+D4</f>
+        <v>1076641.6000000001</v>
       </c>
       <c r="L36" s="19"/>
       <c r="M36" s="19"/>
@@ -6435,7 +6558,7 @@
       <c r="P36" s="19"/>
       <c r="Q36" s="19"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
         <v>5</v>
       </c>
@@ -6452,8 +6575,16 @@
       <c r="O37" s="19"/>
       <c r="P37" s="19"/>
       <c r="Q37" s="19"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T37" t="str">
+        <f>T27</f>
+        <v>Показатель</v>
+      </c>
+      <c r="U37" t="str">
+        <f>U27</f>
+        <v>Значение, р.</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="str">
         <f>$A$2</f>
         <v>Период</v>
@@ -6510,8 +6641,16 @@
         <f t="shared" si="22"/>
         <v>Инвестиции в текущем году</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T38" t="str">
+        <f>T28</f>
+        <v>Инвестиционные ресурсы на конец прошлого года</v>
+      </c>
+      <c r="U38" s="42">
+        <f>K26</f>
+        <v>811064.8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="21">
         <v>0</v>
       </c>
@@ -6533,38 +6672,46 @@
         <v>-727000</v>
       </c>
       <c r="J39" s="37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K39" s="19">
         <f>VLOOKUP(J39,$J$29:$L$30,3,)</f>
-        <v>129559.99041306271</v>
+        <v>50619.597764126236</v>
       </c>
       <c r="L39" s="19">
         <f>$E$4*K39</f>
-        <v>110263.82162813848</v>
+        <v>43080.508735426585</v>
       </c>
       <c r="M39" s="19">
-        <f>L39-K39</f>
-        <v>-19296.16878492423</v>
+        <f t="shared" ref="M39" si="23">L39-K39</f>
+        <v>-7539.089028699651</v>
       </c>
       <c r="N39" s="19">
         <f>VLOOKUP(J39,$J$18:$N$20,5,)</f>
-        <v>-718000</v>
+        <v>-785000</v>
       </c>
       <c r="O39" s="38">
-        <f>M39/N39</f>
-        <v>2.68748868870811E-2</v>
+        <f t="shared" ref="O39" si="24">M39/N39</f>
+        <v>9.6039350684071993E-3</v>
       </c>
       <c r="P39" s="41">
-        <f>_xlfn.RANK.EQ(O39,$O$39:$O$40,)</f>
+        <f>_xlfn.RANK.EQ(O39,$O$39:$O$39,)</f>
         <v>1</v>
       </c>
       <c r="Q39" s="19">
         <f>N39*-1</f>
+        <v>785000</v>
+      </c>
+      <c r="T39" t="str">
+        <f t="shared" ref="T39:T42" si="25">T29</f>
+        <v>Инвестиции в прошлом году</v>
+      </c>
+      <c r="U39" s="42">
+        <f>Q31</f>
         <v>718000</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="21">
         <v>1</v>
       </c>
@@ -6574,7 +6721,7 @@
         <v>247552.80000000005</v>
       </c>
       <c r="D40" s="22">
-        <f t="shared" ref="D40:D46" si="23">B40+C40</f>
+        <f t="shared" ref="D40:D46" si="26">B40+C40</f>
         <v>247552.80000000005</v>
       </c>
       <c r="E40" s="23">
@@ -6582,39 +6729,23 @@
         <v>0.85106382978723405</v>
       </c>
       <c r="F40" s="22">
-        <f t="shared" ref="F40:F45" si="24">E40*D40</f>
+        <f t="shared" ref="F40:F45" si="27">E40*D40</f>
         <v>210683.23404255323</v>
       </c>
-      <c r="J40" s="37">
-        <v>2</v>
-      </c>
-      <c r="K40" s="19">
-        <f>VLOOKUP(J40,$J$29:$L$30,3,)</f>
-        <v>50619.597764126236</v>
-      </c>
-      <c r="L40" s="19">
-        <f>$E$4*K40</f>
-        <v>43080.508735426585</v>
-      </c>
-      <c r="M40" s="19">
-        <f t="shared" ref="M40" si="25">L40-K40</f>
-        <v>-7539.089028699651</v>
-      </c>
-      <c r="N40" s="19">
-        <f>VLOOKUP(J40,$J$18:$N$20,5,)</f>
-        <v>-785000</v>
-      </c>
-      <c r="O40" s="38">
-        <f t="shared" ref="O40" si="26">M40/N40</f>
-        <v>9.6039350684071993E-3</v>
-      </c>
-      <c r="P40" s="41">
-        <f>_xlfn.RANK.EQ(O40,$O$39:$O$40,)</f>
-        <v>2</v>
-      </c>
-      <c r="Q40" s="19"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q40" s="19">
+        <f>SUM(Q39:Q39)</f>
+        <v>785000</v>
+      </c>
+      <c r="T40" t="str">
+        <f t="shared" si="25"/>
+        <v>Поступления по проекту 3 за текущий год</v>
+      </c>
+      <c r="U40" s="42">
+        <f>U30</f>
+        <v>194003.19999999995</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="21">
         <v>2</v>
       </c>
@@ -6624,7 +6755,7 @@
         <v>247552.80000000005</v>
       </c>
       <c r="D41" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>247552.80000000005</v>
       </c>
       <c r="E41" s="23">
@@ -6632,7 +6763,7 @@
         <v>0.72430964237211393</v>
       </c>
       <c r="F41" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>179304.88003621547</v>
       </c>
       <c r="J41" s="37"/>
@@ -6642,12 +6773,16 @@
       <c r="N41" s="19"/>
       <c r="O41" s="38"/>
       <c r="P41" s="19"/>
-      <c r="Q41" s="19">
-        <f>SUM(Q39:Q40)</f>
-        <v>718000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T41" t="str">
+        <f t="shared" si="25"/>
+        <v>Поступления по проекту 4 за текущий год</v>
+      </c>
+      <c r="U41" s="42">
+        <f t="shared" ref="U41:U42" si="28">U31</f>
+        <v>247552.80000000005</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="21">
         <v>3</v>
       </c>
@@ -6657,7 +6792,7 @@
         <v>247552.80000000005</v>
       </c>
       <c r="D42" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>247552.80000000005</v>
       </c>
       <c r="E42" s="23">
@@ -6665,11 +6800,19 @@
         <v>0.61643373818903313</v>
       </c>
       <c r="F42" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>152599.89790316211</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T42" t="str">
+        <f t="shared" si="25"/>
+        <v>Поступления по проекту 5 за текущий год</v>
+      </c>
+      <c r="U42" s="42">
+        <f t="shared" si="28"/>
+        <v>301952.80000000005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="21">
         <v>4</v>
       </c>
@@ -6679,7 +6822,7 @@
         <v>247552.80000000005</v>
       </c>
       <c r="D43" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>247552.80000000005</v>
       </c>
       <c r="E43" s="23">
@@ -6687,11 +6830,18 @@
         <v>0.52462445803321966</v>
       </c>
       <c r="F43" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>129872.25353460605</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T43" t="s">
+        <v>84</v>
+      </c>
+      <c r="U43" s="42">
+        <f>D4</f>
+        <v>240068</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="21">
         <v>5</v>
       </c>
@@ -6701,7 +6851,7 @@
         <v>247552.80000000005</v>
       </c>
       <c r="D44" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>247552.80000000005</v>
       </c>
       <c r="E44" s="23">
@@ -6709,11 +6859,19 @@
         <v>0.44648890045380391</v>
       </c>
       <c r="F44" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>110529.57747626044</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="T44" t="str">
+        <f>T33</f>
+        <v>Инвестиционные ресурсы на конец текущего года</v>
+      </c>
+      <c r="U44" s="42">
+        <f>U38-U39+U40+U41+U42+U43</f>
+        <v>1076641.6000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="21">
         <v>6</v>
       </c>
@@ -6723,7 +6881,7 @@
         <v>247552.80000000005</v>
       </c>
       <c r="D45" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>247552.80000000005</v>
       </c>
       <c r="E45" s="23">
@@ -6731,12 +6889,10 @@
         <v>0.37999055357770539</v>
       </c>
       <c r="F45" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>94067.725511711003</v>
       </c>
-      <c r="J45" s="32" t="s">
-        <v>78</v>
-      </c>
+      <c r="J45" s="32"/>
       <c r="K45" s="19"/>
       <c r="L45" s="19"/>
       <c r="M45" s="19"/>
@@ -6745,7 +6901,7 @@
       <c r="P45" s="19"/>
       <c r="Q45" s="19"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="21">
         <v>7</v>
       </c>
@@ -6755,7 +6911,7 @@
         <v>247552.80000000005</v>
       </c>
       <c r="D46" s="22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>247552.80000000005</v>
       </c>
       <c r="E46" s="23">
@@ -6766,13 +6922,8 @@
         <f>E46*D46</f>
         <v>80057.638733371059</v>
       </c>
-      <c r="J46" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="K46" s="19">
-        <f>K36-Q41+F31+F43+F54+F4</f>
-        <v>973592.2174781505</v>
-      </c>
+      <c r="J46" s="33"/>
+      <c r="K46" s="19"/>
       <c r="L46" s="19"/>
       <c r="M46" s="19"/>
       <c r="N46" s="19"/>
@@ -6780,7 +6931,7 @@
       <c r="P46" s="19"/>
       <c r="Q46" s="19"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="24" t="s">
         <v>39</v>
       </c>
@@ -6810,39 +6961,15 @@
       <c r="P47" s="19"/>
       <c r="Q47" s="19"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J48" s="33" t="str">
-        <f>J5</f>
-        <v>Проект</v>
-      </c>
-      <c r="K48" s="33" t="str">
-        <f t="shared" ref="K48:Q48" si="27">K5</f>
-        <v>ЧДД в случае реализации проекта в текущем году</v>
-      </c>
-      <c r="L48" s="33" t="str">
-        <f t="shared" si="27"/>
-        <v>ЧДД в случае реализации проекта в следующем году</v>
-      </c>
-      <c r="M48" s="33" t="str">
-        <f t="shared" si="27"/>
-        <v>Потери ЧДД</v>
-      </c>
-      <c r="N48" s="33" t="str">
-        <f t="shared" si="27"/>
-        <v>Отложенные инвестиции</v>
-      </c>
-      <c r="O48" s="33" t="str">
-        <f t="shared" si="27"/>
-        <v>Индекс потерь ЧДД</v>
-      </c>
-      <c r="P48" s="33" t="str">
-        <f t="shared" si="27"/>
-        <v>Ранг проекта</v>
-      </c>
-      <c r="Q48" s="33" t="str">
-        <f t="shared" si="27"/>
-        <v>Инвестиции в текущем году</v>
-      </c>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="J48" s="33"/>
+      <c r="K48" s="33"/>
+      <c r="L48" s="33"/>
+      <c r="M48" s="33"/>
+      <c r="N48" s="33"/>
+      <c r="O48" s="33"/>
+      <c r="P48" s="33"/>
+      <c r="Q48" s="33"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
@@ -6853,37 +6980,14 @@
       <c r="D49" s="19"/>
       <c r="E49" s="19"/>
       <c r="F49" s="19"/>
-      <c r="J49" s="37">
-        <v>2</v>
-      </c>
-      <c r="K49" s="19">
-        <f>VLOOKUP(J49,$J$39:$L$40,3,)</f>
-        <v>43080.508735426585</v>
-      </c>
-      <c r="L49" s="19">
-        <f>$E$4*K49</f>
-        <v>36664.26275355454</v>
-      </c>
-      <c r="M49" s="19">
-        <f>L49-K49</f>
-        <v>-6416.2459818720454</v>
-      </c>
-      <c r="N49" s="19">
-        <f>VLOOKUP(J49,$J$18:$N$20,5,)</f>
-        <v>-785000</v>
-      </c>
-      <c r="O49" s="38">
-        <f>M49/N49</f>
-        <v>8.1735617603465541E-3</v>
-      </c>
-      <c r="P49" s="41">
-        <f>_xlfn.RANK.EQ(O49,$O$49,)</f>
-        <v>1</v>
-      </c>
-      <c r="Q49" s="19">
-        <f>N49*-1</f>
-        <v>785000</v>
-      </c>
+      <c r="J49" s="37"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="38"/>
+      <c r="P49" s="41"/>
+      <c r="Q49" s="19"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="str">
@@ -6917,10 +7021,7 @@
       <c r="N50" s="19"/>
       <c r="O50" s="38"/>
       <c r="P50" s="19"/>
-      <c r="Q50" s="19">
-        <f>SUM(Q49)</f>
-        <v>785000</v>
-      </c>
+      <c r="Q50" s="19"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="21">
@@ -6961,7 +7062,7 @@
         <v>301952.80000000005</v>
       </c>
       <c r="D52" s="22">
-        <f t="shared" ref="D52:D58" si="28">B52+C52</f>
+        <f t="shared" ref="D52:D58" si="29">B52+C52</f>
         <v>301952.80000000005</v>
       </c>
       <c r="E52" s="23">
@@ -6969,7 +7070,7 @@
         <v>0.85106382978723405</v>
       </c>
       <c r="F52" s="22">
-        <f t="shared" ref="F52:F57" si="29">E52*D52</f>
+        <f t="shared" ref="F52:F57" si="30">E52*D52</f>
         <v>256981.10638297876</v>
       </c>
     </row>
@@ -6983,7 +7084,7 @@
         <v>301952.80000000005</v>
       </c>
       <c r="D53" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>301952.80000000005</v>
       </c>
       <c r="E53" s="23">
@@ -6991,7 +7092,7 @@
         <v>0.72430964237211393</v>
       </c>
       <c r="F53" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>218707.32458125846</v>
       </c>
     </row>
@@ -7005,7 +7106,7 @@
         <v>301952.80000000005</v>
       </c>
       <c r="D54" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>301952.80000000005</v>
       </c>
       <c r="E54" s="23">
@@ -7013,7 +7114,7 @@
         <v>0.61643373818903313</v>
       </c>
       <c r="F54" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>186133.89326064551</v>
       </c>
     </row>
@@ -7027,7 +7128,7 @@
         <v>301952.80000000005</v>
       </c>
       <c r="D55" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>301952.80000000005</v>
       </c>
       <c r="E55" s="23">
@@ -7035,7 +7136,7 @@
         <v>0.52462445803321966</v>
       </c>
       <c r="F55" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>158411.82405161319</v>
       </c>
     </row>
@@ -7049,7 +7150,7 @@
         <v>301952.80000000005</v>
       </c>
       <c r="D56" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>301952.80000000005</v>
       </c>
       <c r="E56" s="23">
@@ -7057,7 +7158,7 @@
         <v>0.44648890045380391</v>
       </c>
       <c r="F56" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>134818.57366094738</v>
       </c>
     </row>
@@ -7071,7 +7172,7 @@
         <v>301952.80000000005</v>
       </c>
       <c r="D57" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>301952.80000000005</v>
       </c>
       <c r="E57" s="23">
@@ -7079,7 +7180,7 @@
         <v>0.37999055357770539</v>
       </c>
       <c r="F57" s="22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>114739.21162633818</v>
       </c>
     </row>
@@ -7093,7 +7194,7 @@
         <v>301952.80000000005</v>
       </c>
       <c r="D58" s="22">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>301952.80000000005</v>
       </c>
       <c r="E58" s="23">

--- a/РГР/ргр.xlsx
+++ b/РГР/ргр.xlsx
@@ -377,18 +377,6 @@
     <t>Проект</t>
   </si>
   <si>
-    <t>ЧДД в случае реализации проекта в текущем году</t>
-  </si>
-  <si>
-    <t>ЧДД в случае реализации проекта в следующем году</t>
-  </si>
-  <si>
-    <t>Потери ЧДД</t>
-  </si>
-  <si>
-    <t>Отложенные инвестиции</t>
-  </si>
-  <si>
     <t>Индекс потерь ЧДД</t>
   </si>
   <si>
@@ -429,6 +417,18 @@
   </si>
   <si>
     <t>Значение, р.</t>
+  </si>
+  <si>
+    <t>ЧДД в случае реализации проекта в текущем году, р.</t>
+  </si>
+  <si>
+    <t>ЧДД в случае реализации проекта в следующем году, р.</t>
+  </si>
+  <si>
+    <t>Потери ЧДД, р.</t>
+  </si>
+  <si>
+    <t>Отложенные инвестиции, р.</t>
   </si>
 </sst>
 </file>
@@ -652,16 +652,16 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1005,14 +1005,14 @@
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -1021,7 +1021,7 @@
       <c r="B3" s="7">
         <v>718</v>
       </c>
-      <c r="F3" s="39"/>
+      <c r="F3" s="41"/>
       <c r="G3" s="12">
         <v>1</v>
       </c>
@@ -1110,20 +1110,20 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="39"/>
+      <c r="F9" s="41"/>
       <c r="G9" s="12">
         <v>1</v>
       </c>
@@ -5154,8 +5154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P39" sqref="J38:P39"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5315,25 +5315,25 @@
         <v>67</v>
       </c>
       <c r="K5" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="L5" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="M5" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="N5" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="O5" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="L5" s="33" t="s">
+      <c r="P5" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="M5" s="33" t="s">
+      <c r="Q5" s="33" t="s">
         <v>70</v>
-      </c>
-      <c r="N5" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="O5" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="P5" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q5" s="33" t="s">
-        <v>74</v>
       </c>
       <c r="R5" s="19"/>
     </row>
@@ -5382,7 +5382,7 @@
         <f>M6/N6</f>
         <v>4.3597365332459712E-2</v>
       </c>
-      <c r="P6" s="41">
+      <c r="P6" s="39">
         <f>_xlfn.RANK.EQ(O6,$O$6:$O$10,)</f>
         <v>4</v>
       </c>
@@ -5434,7 +5434,7 @@
         <f t="shared" ref="O7:O10" si="3">M7/N7</f>
         <v>1.5579833603238133E-2</v>
       </c>
-      <c r="P7" s="41">
+      <c r="P7" s="39">
         <f t="shared" ref="P7:P10" si="4">_xlfn.RANK.EQ(O7,$O$6:$O$10,)</f>
         <v>5</v>
       </c>
@@ -5486,7 +5486,7 @@
         <f t="shared" si="3"/>
         <v>4.6026214050442341E-2</v>
       </c>
-      <c r="P8" s="41">
+      <c r="P8" s="39">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -5541,7 +5541,7 @@
         <f t="shared" si="3"/>
         <v>4.7142335177065627E-2</v>
       </c>
-      <c r="P9" s="41">
+      <c r="P9" s="39">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -5596,7 +5596,7 @@
         <f t="shared" si="3"/>
         <v>4.4472493907197715E-2</v>
       </c>
-      <c r="P10" s="41">
+      <c r="P10" s="39">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
@@ -5696,7 +5696,7 @@
       </c>
       <c r="I14" s="19"/>
       <c r="J14" s="32" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K14" s="19"/>
       <c r="L14" s="19"/>
@@ -5745,7 +5745,7 @@
         <v>15</v>
       </c>
       <c r="U15" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -5778,9 +5778,9 @@
       <c r="P16" s="19"/>
       <c r="Q16" s="19"/>
       <c r="T16" t="s">
-        <v>78</v>
-      </c>
-      <c r="U16" s="42">
+        <v>74</v>
+      </c>
+      <c r="U16" s="40">
         <f>K3</f>
         <v>1825000</v>
       </c>
@@ -5812,19 +5812,19 @@
       </c>
       <c r="K17" s="33" t="str">
         <f t="shared" ref="K17:Q17" si="10">K5</f>
-        <v>ЧДД в случае реализации проекта в текущем году</v>
+        <v>ЧДД в случае реализации проекта в текущем году, р.</v>
       </c>
       <c r="L17" s="33" t="str">
         <f t="shared" si="10"/>
-        <v>ЧДД в случае реализации проекта в следующем году</v>
+        <v>ЧДД в случае реализации проекта в следующем году, р.</v>
       </c>
       <c r="M17" s="33" t="str">
         <f t="shared" si="10"/>
-        <v>Потери ЧДД</v>
+        <v>Потери ЧДД, р.</v>
       </c>
       <c r="N17" s="33" t="str">
         <f t="shared" si="10"/>
-        <v>Отложенные инвестиции</v>
+        <v>Отложенные инвестиции, р.</v>
       </c>
       <c r="O17" s="33" t="str">
         <f t="shared" si="10"/>
@@ -5839,9 +5839,9 @@
         <v>Инвестиции в текущем году</v>
       </c>
       <c r="T17" t="s">
-        <v>79</v>
-      </c>
-      <c r="U17" s="42">
+        <v>75</v>
+      </c>
+      <c r="U17" s="40">
         <f>Q11</f>
         <v>1300000</v>
       </c>
@@ -5890,15 +5890,15 @@
         <f>M18/N18</f>
         <v>3.7104140708476327E-2</v>
       </c>
-      <c r="P18" s="41">
+      <c r="P18" s="39">
         <f>_xlfn.RANK.EQ(O18,$O$18:$O$20,)</f>
         <v>2</v>
       </c>
       <c r="Q18" s="19"/>
       <c r="T18" t="s">
-        <v>81</v>
-      </c>
-      <c r="U18" s="42">
+        <v>77</v>
+      </c>
+      <c r="U18" s="40">
         <f>D28</f>
         <v>194003.19999999995</v>
       </c>
@@ -5947,15 +5947,15 @@
         <f t="shared" ref="O19" si="14">M19/N19</f>
         <v>1.3259432853819694E-2</v>
       </c>
-      <c r="P19" s="41">
+      <c r="P19" s="39">
         <f t="shared" ref="P19:P20" si="15">_xlfn.RANK.EQ(O19,$O$18:$O$20,)</f>
         <v>3</v>
       </c>
       <c r="Q19" s="19"/>
       <c r="T19" t="s">
-        <v>82</v>
-      </c>
-      <c r="U19" s="42">
+        <v>78</v>
+      </c>
+      <c r="U19" s="40">
         <f>D40</f>
         <v>247552.80000000005</v>
       </c>
@@ -6004,7 +6004,7 @@
         <f>M20/N20</f>
         <v>3.7848930984849122E-2</v>
       </c>
-      <c r="P20" s="41">
+      <c r="P20" s="39">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
@@ -6013,9 +6013,9 @@
         <v>899000</v>
       </c>
       <c r="T20" t="s">
-        <v>80</v>
-      </c>
-      <c r="U20" s="42">
+        <v>76</v>
+      </c>
+      <c r="U20" s="40">
         <f>U16-U17+U18+U19</f>
         <v>966556</v>
       </c>
@@ -6114,7 +6114,7 @@
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
       <c r="J25" s="32" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K25" s="19"/>
       <c r="L25" s="19"/>
@@ -6228,19 +6228,19 @@
       </c>
       <c r="K28" s="33" t="str">
         <f t="shared" ref="K28:Q28" si="18">K5</f>
-        <v>ЧДД в случае реализации проекта в текущем году</v>
+        <v>ЧДД в случае реализации проекта в текущем году, р.</v>
       </c>
       <c r="L28" s="33" t="str">
         <f t="shared" si="18"/>
-        <v>ЧДД в случае реализации проекта в следующем году</v>
+        <v>ЧДД в случае реализации проекта в следующем году, р.</v>
       </c>
       <c r="M28" s="33" t="str">
         <f t="shared" si="18"/>
-        <v>Потери ЧДД</v>
+        <v>Потери ЧДД, р.</v>
       </c>
       <c r="N28" s="33" t="str">
         <f t="shared" si="18"/>
-        <v>Отложенные инвестиции</v>
+        <v>Отложенные инвестиции, р.</v>
       </c>
       <c r="O28" s="33" t="str">
         <f t="shared" si="18"/>
@@ -6258,7 +6258,7 @@
         <f>T16</f>
         <v>Инвестиционные ресурсы на конец прошлого года</v>
       </c>
-      <c r="U28" s="42">
+      <c r="U28" s="40">
         <f>K15</f>
         <v>966556</v>
       </c>
@@ -6307,7 +6307,7 @@
         <f>M29/N29</f>
         <v>3.1577992092320296E-2</v>
       </c>
-      <c r="P29" s="41">
+      <c r="P29" s="39">
         <f>_xlfn.RANK.EQ(O29,$O$29:$O$30,)</f>
         <v>1</v>
       </c>
@@ -6319,7 +6319,7 @@
         <f>T17</f>
         <v>Инвестиции в прошлом году</v>
       </c>
-      <c r="U29" s="42">
+      <c r="U29" s="40">
         <f>Q21</f>
         <v>899000</v>
       </c>
@@ -6368,7 +6368,7 @@
         <f t="shared" ref="O30" si="21">M30/N30</f>
         <v>1.1284623705378463E-2</v>
       </c>
-      <c r="P30" s="41">
+      <c r="P30" s="39">
         <f>_xlfn.RANK.EQ(O30,$O$29:$O$30,)</f>
         <v>2</v>
       </c>
@@ -6377,7 +6377,7 @@
         <f>T18</f>
         <v>Поступления по проекту 3 за текущий год</v>
       </c>
-      <c r="U30" s="42">
+      <c r="U30" s="40">
         <f>D29</f>
         <v>194003.19999999995</v>
       </c>
@@ -6418,7 +6418,7 @@
         <f>T19</f>
         <v>Поступления по проекту 4 за текущий год</v>
       </c>
-      <c r="U31" s="42">
+      <c r="U31" s="40">
         <f>D41</f>
         <v>247552.80000000005</v>
       </c>
@@ -6452,9 +6452,9 @@
       <c r="O32" s="38"/>
       <c r="P32" s="19"/>
       <c r="T32" t="s">
-        <v>83</v>
-      </c>
-      <c r="U32" s="42">
+        <v>79</v>
+      </c>
+      <c r="U32" s="40">
         <f>D52</f>
         <v>301952.80000000005</v>
       </c>
@@ -6484,7 +6484,7 @@
         <f>T20</f>
         <v>Инвестиционные ресурсы на конец текущего года</v>
       </c>
-      <c r="U33" s="42">
+      <c r="U33" s="40">
         <f>U28-U29+U30+U31+U32</f>
         <v>811064.8</v>
       </c>
@@ -6533,7 +6533,7 @@
         <v>177075.99579892322</v>
       </c>
       <c r="J35" s="32" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K35" s="19"/>
       <c r="L35" s="19"/>
@@ -6615,19 +6615,19 @@
       </c>
       <c r="K38" s="33" t="str">
         <f t="shared" ref="K38:Q38" si="22">K5</f>
-        <v>ЧДД в случае реализации проекта в текущем году</v>
+        <v>ЧДД в случае реализации проекта в текущем году, р.</v>
       </c>
       <c r="L38" s="33" t="str">
         <f t="shared" si="22"/>
-        <v>ЧДД в случае реализации проекта в следующем году</v>
+        <v>ЧДД в случае реализации проекта в следующем году, р.</v>
       </c>
       <c r="M38" s="33" t="str">
         <f t="shared" si="22"/>
-        <v>Потери ЧДД</v>
+        <v>Потери ЧДД, р.</v>
       </c>
       <c r="N38" s="33" t="str">
         <f t="shared" si="22"/>
-        <v>Отложенные инвестиции</v>
+        <v>Отложенные инвестиции, р.</v>
       </c>
       <c r="O38" s="33" t="str">
         <f t="shared" si="22"/>
@@ -6645,7 +6645,7 @@
         <f>T28</f>
         <v>Инвестиционные ресурсы на конец прошлого года</v>
       </c>
-      <c r="U38" s="42">
+      <c r="U38" s="40">
         <f>K26</f>
         <v>811064.8</v>
       </c>
@@ -6694,7 +6694,7 @@
         <f t="shared" ref="O39" si="24">M39/N39</f>
         <v>9.6039350684071993E-3</v>
       </c>
-      <c r="P39" s="41">
+      <c r="P39" s="39">
         <f>_xlfn.RANK.EQ(O39,$O$39:$O$39,)</f>
         <v>1</v>
       </c>
@@ -6706,7 +6706,7 @@
         <f t="shared" ref="T39:T42" si="25">T29</f>
         <v>Инвестиции в прошлом году</v>
       </c>
-      <c r="U39" s="42">
+      <c r="U39" s="40">
         <f>Q31</f>
         <v>718000</v>
       </c>
@@ -6740,7 +6740,7 @@
         <f t="shared" si="25"/>
         <v>Поступления по проекту 3 за текущий год</v>
       </c>
-      <c r="U40" s="42">
+      <c r="U40" s="40">
         <f>U30</f>
         <v>194003.19999999995</v>
       </c>
@@ -6777,7 +6777,7 @@
         <f t="shared" si="25"/>
         <v>Поступления по проекту 4 за текущий год</v>
       </c>
-      <c r="U41" s="42">
+      <c r="U41" s="40">
         <f t="shared" ref="U41:U42" si="28">U31</f>
         <v>247552.80000000005</v>
       </c>
@@ -6807,7 +6807,7 @@
         <f t="shared" si="25"/>
         <v>Поступления по проекту 5 за текущий год</v>
       </c>
-      <c r="U42" s="42">
+      <c r="U42" s="40">
         <f t="shared" si="28"/>
         <v>301952.80000000005</v>
       </c>
@@ -6834,9 +6834,9 @@
         <v>129872.25353460605</v>
       </c>
       <c r="T43" t="s">
-        <v>84</v>
-      </c>
-      <c r="U43" s="42">
+        <v>80</v>
+      </c>
+      <c r="U43" s="40">
         <f>D4</f>
         <v>240068</v>
       </c>
@@ -6866,7 +6866,7 @@
         <f>T33</f>
         <v>Инвестиционные ресурсы на конец текущего года</v>
       </c>
-      <c r="U44" s="42">
+      <c r="U44" s="40">
         <f>U38-U39+U40+U41+U42+U43</f>
         <v>1076641.6000000001</v>
       </c>
@@ -6986,7 +6986,7 @@
       <c r="M49" s="19"/>
       <c r="N49" s="19"/>
       <c r="O49" s="38"/>
-      <c r="P49" s="41"/>
+      <c r="P49" s="39"/>
       <c r="Q49" s="19"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">

--- a/РГР/ргр.xlsx
+++ b/РГР/ргр.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="исходные данные" sheetId="1" r:id="rId1"/>
@@ -171,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="87">
   <si>
     <t>Номера инвестиционных проектов</t>
   </si>
@@ -311,21 +311,6 @@
     <t>Период</t>
   </si>
   <si>
-    <t>ИЗ</t>
-  </si>
-  <si>
-    <t>П</t>
-  </si>
-  <si>
-    <t>ДП</t>
-  </si>
-  <si>
-    <t>Кд</t>
-  </si>
-  <si>
-    <t>ДДП</t>
-  </si>
-  <si>
     <t>Альтеранативная цена ДС (%)</t>
   </si>
   <si>
@@ -356,15 +341,6 @@
     <t>Маржинальная прибыль (р.)</t>
   </si>
   <si>
-    <t>Загрузка УМ (маш.-час)</t>
-  </si>
-  <si>
-    <t>МП на ед. УМ (р./маш.-час)</t>
-  </si>
-  <si>
-    <t>Остаток УМ (маш.-час)</t>
-  </si>
-  <si>
     <t>Скорректированный объём прод. (маш.-час)</t>
   </si>
   <si>
@@ -383,9 +359,6 @@
     <t>Ранг проекта</t>
   </si>
   <si>
-    <t>Инвестиции в текущем году</t>
-  </si>
-  <si>
     <t>1 Год</t>
   </si>
   <si>
@@ -416,19 +389,49 @@
     <t>Поступления по проекту 1 за текущий год</t>
   </si>
   <si>
-    <t>Значение, р.</t>
-  </si>
-  <si>
-    <t>ЧДД в случае реализации проекта в текущем году, р.</t>
-  </si>
-  <si>
-    <t>ЧДД в случае реализации проекта в следующем году, р.</t>
-  </si>
-  <si>
-    <t>Потери ЧДД, р.</t>
-  </si>
-  <si>
-    <t>Отложенные инвестиции, р.</t>
+    <t>Коэф. дисконтирования</t>
+  </si>
+  <si>
+    <t>Инвест. Затраты (р.)</t>
+  </si>
+  <si>
+    <t>Поступления (р.)</t>
+  </si>
+  <si>
+    <t>Денежный поток (р.)</t>
+  </si>
+  <si>
+    <t>Дисконтированный денежный поток (р.)</t>
+  </si>
+  <si>
+    <t>ЧДД в случае реализации проекта в текущем году (р.)</t>
+  </si>
+  <si>
+    <t>ЧДД в случае реализации проекта в следующем году (р.)</t>
+  </si>
+  <si>
+    <t>Потери ЧДД (р.)</t>
+  </si>
+  <si>
+    <t>Отложенные инвестиции (р.)</t>
+  </si>
+  <si>
+    <t>Инвестиции в текущем году (р.)</t>
+  </si>
+  <si>
+    <t>Значение (р.)</t>
+  </si>
+  <si>
+    <t>Марж. прибыль на ед. узкого места (р./маш.-час)</t>
+  </si>
+  <si>
+    <t>Загрузка узкого места (маш.-час)</t>
+  </si>
+  <si>
+    <t>Загрузка узкго места (маш.-час)</t>
+  </si>
+  <si>
+    <t>Остаток узкого места (маш.-час)</t>
   </si>
 </sst>
 </file>
@@ -1148,10 +1151,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>18</v>
@@ -1377,13 +1380,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G19" s="8">
         <v>17.5</v>
@@ -1403,7 +1406,7 @@
         <v>40.1</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G20" s="8">
         <v>1825000</v>
@@ -1492,10 +1495,10 @@
         <v>8</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1595,10 +1598,10 @@
         <v>8</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1698,10 +1701,10 @@
         <v>8</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1804,8 +1807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H155"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1833,7 +1836,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="str">
         <f>'исходные данные'!A10</f>
         <v>Продукт</v>
@@ -1847,13 +1850,13 @@
         <v>Цена (р.)</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="G5" s="15" t="s">
         <v>34</v>
@@ -2072,7 +2075,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
@@ -2080,19 +2083,19 @@
         <v>7</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2291,22 +2294,22 @@
         <v>7</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -2498,7 +2501,7 @@
       </c>
       <c r="D36" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>Загрузка УМ (маш.-час)</v>
+        <v>Загрузка узкого места (маш.-час)</v>
       </c>
       <c r="E36" s="2" t="str">
         <f t="shared" si="14"/>
@@ -2506,7 +2509,7 @@
       </c>
       <c r="F36" s="2" t="str">
         <f t="shared" si="14"/>
-        <v>МП на ед. УМ (р./маш.-час)</v>
+        <v>Марж. прибыль на ед. узкого места (р./маш.-час)</v>
       </c>
       <c r="G36" s="2" t="str">
         <f t="shared" si="14"/>
@@ -2741,7 +2744,7 @@
       </c>
       <c r="D45" s="2" t="str">
         <f t="shared" si="19"/>
-        <v>Загрузка УМ (маш.-час)</v>
+        <v>Загрузка узкго места (маш.-час)</v>
       </c>
       <c r="E45" s="2" t="str">
         <f t="shared" si="19"/>
@@ -2749,7 +2752,7 @@
       </c>
       <c r="F45" s="2" t="str">
         <f t="shared" si="19"/>
-        <v>Остаток УМ (маш.-час)</v>
+        <v>Остаток узкого места (маш.-час)</v>
       </c>
       <c r="G45" s="2" t="str">
         <f t="shared" si="19"/>
@@ -3166,7 +3169,7 @@
       </c>
       <c r="D67" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>Загрузка УМ (маш.-час)</v>
+        <v>Загрузка узкого места (маш.-час)</v>
       </c>
       <c r="E67" s="2" t="str">
         <f t="shared" si="32"/>
@@ -3174,7 +3177,7 @@
       </c>
       <c r="F67" s="2" t="str">
         <f t="shared" si="32"/>
-        <v>МП на ед. УМ (р./маш.-час)</v>
+        <v>Марж. прибыль на ед. узкого места (р./маш.-час)</v>
       </c>
       <c r="G67" s="2" t="str">
         <f t="shared" si="32"/>
@@ -3409,7 +3412,7 @@
       </c>
       <c r="D76" s="2" t="str">
         <f t="shared" si="37"/>
-        <v>Загрузка УМ (маш.-час)</v>
+        <v>Загрузка узкго места (маш.-час)</v>
       </c>
       <c r="E76" s="2" t="str">
         <f t="shared" si="37"/>
@@ -3417,7 +3420,7 @@
       </c>
       <c r="F76" s="2" t="str">
         <f t="shared" si="37"/>
-        <v>Остаток УМ (маш.-час)</v>
+        <v>Остаток узкого места (маш.-час)</v>
       </c>
       <c r="G76" s="2" t="str">
         <f t="shared" si="37"/>
@@ -3834,7 +3837,7 @@
       </c>
       <c r="D98" s="2" t="str">
         <f t="shared" si="50"/>
-        <v>Загрузка УМ (маш.-час)</v>
+        <v>Загрузка узкого места (маш.-час)</v>
       </c>
       <c r="E98" s="2" t="str">
         <f t="shared" si="50"/>
@@ -3842,7 +3845,7 @@
       </c>
       <c r="F98" s="2" t="str">
         <f t="shared" si="50"/>
-        <v>МП на ед. УМ (р./маш.-час)</v>
+        <v>Марж. прибыль на ед. узкого места (р./маш.-час)</v>
       </c>
       <c r="G98" s="2" t="str">
         <f t="shared" si="50"/>
@@ -4077,7 +4080,7 @@
       </c>
       <c r="D107" s="2" t="str">
         <f t="shared" si="55"/>
-        <v>Загрузка УМ (маш.-час)</v>
+        <v>Загрузка узкго места (маш.-час)</v>
       </c>
       <c r="E107" s="2" t="str">
         <f t="shared" si="55"/>
@@ -4085,7 +4088,7 @@
       </c>
       <c r="F107" s="2" t="str">
         <f t="shared" si="55"/>
-        <v>Остаток УМ (маш.-час)</v>
+        <v>Остаток узкого места (маш.-час)</v>
       </c>
       <c r="G107" s="2" t="str">
         <f t="shared" si="55"/>
@@ -4502,7 +4505,7 @@
       </c>
       <c r="D129" s="2" t="str">
         <f t="shared" si="68"/>
-        <v>Загрузка УМ (маш.-час)</v>
+        <v>Загрузка узкого места (маш.-час)</v>
       </c>
       <c r="E129" s="2" t="str">
         <f t="shared" si="68"/>
@@ -4510,7 +4513,7 @@
       </c>
       <c r="F129" s="2" t="str">
         <f t="shared" si="68"/>
-        <v>МП на ед. УМ (р./маш.-час)</v>
+        <v>Марж. прибыль на ед. узкого места (р./маш.-час)</v>
       </c>
       <c r="G129" s="2" t="str">
         <f t="shared" si="68"/>
@@ -4745,7 +4748,7 @@
       </c>
       <c r="D138" s="2" t="str">
         <f t="shared" si="73"/>
-        <v>Загрузка УМ (маш.-час)</v>
+        <v>Загрузка узкго места (маш.-час)</v>
       </c>
       <c r="E138" s="2" t="str">
         <f t="shared" si="73"/>
@@ -4753,7 +4756,7 @@
       </c>
       <c r="F138" s="2" t="str">
         <f t="shared" si="73"/>
-        <v>Остаток УМ (маш.-час)</v>
+        <v>Остаток узкого места (маш.-час)</v>
       </c>
       <c r="G138" s="2" t="str">
         <f t="shared" si="73"/>
@@ -5154,8 +5157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5193,23 +5196,23 @@
         <v>45</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="I2" s="19"/>
       <c r="J2" s="32" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="K2" s="19"/>
       <c r="L2" s="19"/>
@@ -5243,7 +5246,7 @@
       </c>
       <c r="I3" s="19"/>
       <c r="J3" s="33" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="K3" s="19">
         <f>'исходные данные'!G20</f>
@@ -5312,28 +5315,28 @@
       </c>
       <c r="I5" s="19"/>
       <c r="J5" s="33" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="K5" s="33" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="L5" s="33" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="M5" s="33" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="N5" s="33" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="O5" s="33" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="P5" s="33" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="Q5" s="33" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="R5" s="19"/>
     </row>
@@ -5676,27 +5679,27 @@
       </c>
       <c r="B14" s="20" t="str">
         <f>$B$2</f>
-        <v>ИЗ</v>
+        <v>Инвест. Затраты (р.)</v>
       </c>
       <c r="C14" s="20" t="str">
         <f>$C$2</f>
-        <v>П</v>
+        <v>Поступления (р.)</v>
       </c>
       <c r="D14" s="20" t="str">
         <f>$D$2</f>
-        <v>ДП</v>
+        <v>Денежный поток (р.)</v>
       </c>
       <c r="E14" s="20" t="str">
         <f>$E$2</f>
-        <v>Кд</v>
+        <v>Коэф. дисконтирования</v>
       </c>
       <c r="F14" s="20" t="str">
         <f>$F$2</f>
-        <v>ДДП</v>
+        <v>Дисконтированный денежный поток (р.)</v>
       </c>
       <c r="I14" s="19"/>
       <c r="J14" s="32" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="K14" s="19"/>
       <c r="L14" s="19"/>
@@ -5729,7 +5732,7 @@
         <v>-785000</v>
       </c>
       <c r="J15" s="33" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="K15" s="19">
         <f>K3-Q11+D28+D40</f>
@@ -5745,7 +5748,7 @@
         <v>15</v>
       </c>
       <c r="U15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -5778,7 +5781,7 @@
       <c r="P16" s="19"/>
       <c r="Q16" s="19"/>
       <c r="T16" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="U16" s="40">
         <f>K3</f>
@@ -5812,19 +5815,19 @@
       </c>
       <c r="K17" s="33" t="str">
         <f t="shared" ref="K17:Q17" si="10">K5</f>
-        <v>ЧДД в случае реализации проекта в текущем году, р.</v>
+        <v>ЧДД в случае реализации проекта в текущем году (р.)</v>
       </c>
       <c r="L17" s="33" t="str">
         <f t="shared" si="10"/>
-        <v>ЧДД в случае реализации проекта в следующем году, р.</v>
+        <v>ЧДД в случае реализации проекта в следующем году (р.)</v>
       </c>
       <c r="M17" s="33" t="str">
         <f t="shared" si="10"/>
-        <v>Потери ЧДД, р.</v>
+        <v>Потери ЧДД (р.)</v>
       </c>
       <c r="N17" s="33" t="str">
         <f t="shared" si="10"/>
-        <v>Отложенные инвестиции, р.</v>
+        <v>Отложенные инвестиции (р.)</v>
       </c>
       <c r="O17" s="33" t="str">
         <f t="shared" si="10"/>
@@ -5836,10 +5839,10 @@
       </c>
       <c r="Q17" s="33" t="str">
         <f t="shared" si="10"/>
-        <v>Инвестиции в текущем году</v>
+        <v>Инвестиции в текущем году (р.)</v>
       </c>
       <c r="T17" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="U17" s="40">
         <f>Q11</f>
@@ -5896,7 +5899,7 @@
       </c>
       <c r="Q18" s="19"/>
       <c r="T18" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="U18" s="40">
         <f>D28</f>
@@ -5953,7 +5956,7 @@
       </c>
       <c r="Q19" s="19"/>
       <c r="T19" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="U19" s="40">
         <f>D40</f>
@@ -6013,7 +6016,7 @@
         <v>899000</v>
       </c>
       <c r="T20" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="U20" s="40">
         <f>U16-U17+U18+U19</f>
@@ -6114,7 +6117,7 @@
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
       <c r="J25" s="32" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="K25" s="19"/>
       <c r="L25" s="19"/>
@@ -6131,26 +6134,26 @@
       </c>
       <c r="B26" s="20" t="str">
         <f>$B$2</f>
-        <v>ИЗ</v>
+        <v>Инвест. Затраты (р.)</v>
       </c>
       <c r="C26" s="20" t="str">
         <f>$C$2</f>
-        <v>П</v>
+        <v>Поступления (р.)</v>
       </c>
       <c r="D26" s="20" t="str">
         <f>$D$2</f>
-        <v>ДП</v>
+        <v>Денежный поток (р.)</v>
       </c>
       <c r="E26" s="20" t="str">
         <f>$E$2</f>
-        <v>Кд</v>
+        <v>Коэф. дисконтирования</v>
       </c>
       <c r="F26" s="20" t="str">
         <f>$F$2</f>
-        <v>ДДП</v>
+        <v>Дисконтированный денежный поток (р.)</v>
       </c>
       <c r="J26" s="33" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="K26" s="19">
         <f>K15-Q21+D29+D41+D52</f>
@@ -6198,7 +6201,7 @@
       </c>
       <c r="U27" t="str">
         <f>U15</f>
-        <v>Значение, р.</v>
+        <v>Значение (р.)</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
@@ -6228,19 +6231,19 @@
       </c>
       <c r="K28" s="33" t="str">
         <f t="shared" ref="K28:Q28" si="18">K5</f>
-        <v>ЧДД в случае реализации проекта в текущем году, р.</v>
+        <v>ЧДД в случае реализации проекта в текущем году (р.)</v>
       </c>
       <c r="L28" s="33" t="str">
         <f t="shared" si="18"/>
-        <v>ЧДД в случае реализации проекта в следующем году, р.</v>
+        <v>ЧДД в случае реализации проекта в следующем году (р.)</v>
       </c>
       <c r="M28" s="33" t="str">
         <f t="shared" si="18"/>
-        <v>Потери ЧДД, р.</v>
+        <v>Потери ЧДД (р.)</v>
       </c>
       <c r="N28" s="33" t="str">
         <f t="shared" si="18"/>
-        <v>Отложенные инвестиции, р.</v>
+        <v>Отложенные инвестиции (р.)</v>
       </c>
       <c r="O28" s="33" t="str">
         <f t="shared" si="18"/>
@@ -6252,7 +6255,7 @@
       </c>
       <c r="Q28" s="33" t="str">
         <f t="shared" si="18"/>
-        <v>Инвестиции в текущем году</v>
+        <v>Инвестиции в текущем году (р.)</v>
       </c>
       <c r="T28" t="str">
         <f>T16</f>
@@ -6452,7 +6455,7 @@
       <c r="O32" s="38"/>
       <c r="P32" s="19"/>
       <c r="T32" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="U32" s="40">
         <f>D52</f>
@@ -6533,7 +6536,7 @@
         <v>177075.99579892322</v>
       </c>
       <c r="J35" s="32" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="K35" s="19"/>
       <c r="L35" s="19"/>
@@ -6545,7 +6548,7 @@
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="J36" s="33" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="K36" s="19">
         <f>K26-Q31+D30+D42+D53+D4</f>
@@ -6581,7 +6584,7 @@
       </c>
       <c r="U37" t="str">
         <f>U27</f>
-        <v>Значение, р.</v>
+        <v>Значение (р.)</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
@@ -6591,23 +6594,23 @@
       </c>
       <c r="B38" s="20" t="str">
         <f>$B$2</f>
-        <v>ИЗ</v>
+        <v>Инвест. Затраты (р.)</v>
       </c>
       <c r="C38" s="20" t="str">
         <f>$C$2</f>
-        <v>П</v>
+        <v>Поступления (р.)</v>
       </c>
       <c r="D38" s="20" t="str">
         <f>$D$2</f>
-        <v>ДП</v>
+        <v>Денежный поток (р.)</v>
       </c>
       <c r="E38" s="20" t="str">
         <f>$E$2</f>
-        <v>Кд</v>
+        <v>Коэф. дисконтирования</v>
       </c>
       <c r="F38" s="20" t="str">
         <f>$F$2</f>
-        <v>ДДП</v>
+        <v>Дисконтированный денежный поток (р.)</v>
       </c>
       <c r="J38" s="33" t="str">
         <f>J5</f>
@@ -6615,19 +6618,19 @@
       </c>
       <c r="K38" s="33" t="str">
         <f t="shared" ref="K38:Q38" si="22">K5</f>
-        <v>ЧДД в случае реализации проекта в текущем году, р.</v>
+        <v>ЧДД в случае реализации проекта в текущем году (р.)</v>
       </c>
       <c r="L38" s="33" t="str">
         <f t="shared" si="22"/>
-        <v>ЧДД в случае реализации проекта в следующем году, р.</v>
+        <v>ЧДД в случае реализации проекта в следующем году (р.)</v>
       </c>
       <c r="M38" s="33" t="str">
         <f t="shared" si="22"/>
-        <v>Потери ЧДД, р.</v>
+        <v>Потери ЧДД (р.)</v>
       </c>
       <c r="N38" s="33" t="str">
         <f t="shared" si="22"/>
-        <v>Отложенные инвестиции, р.</v>
+        <v>Отложенные инвестиции (р.)</v>
       </c>
       <c r="O38" s="33" t="str">
         <f t="shared" si="22"/>
@@ -6639,7 +6642,7 @@
       </c>
       <c r="Q38" s="33" t="str">
         <f t="shared" si="22"/>
-        <v>Инвестиции в текущем году</v>
+        <v>Инвестиции в текущем году (р.)</v>
       </c>
       <c r="T38" t="str">
         <f>T28</f>
@@ -6834,7 +6837,7 @@
         <v>129872.25353460605</v>
       </c>
       <c r="T43" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="U43" s="40">
         <f>D4</f>
@@ -6996,23 +6999,23 @@
       </c>
       <c r="B50" s="20" t="str">
         <f>$B$2</f>
-        <v>ИЗ</v>
+        <v>Инвест. Затраты (р.)</v>
       </c>
       <c r="C50" s="20" t="str">
         <f>$C$2</f>
-        <v>П</v>
+        <v>Поступления (р.)</v>
       </c>
       <c r="D50" s="20" t="str">
         <f>$D$2</f>
-        <v>ДП</v>
+        <v>Денежный поток (р.)</v>
       </c>
       <c r="E50" s="20" t="str">
         <f>$E$2</f>
-        <v>Кд</v>
+        <v>Коэф. дисконтирования</v>
       </c>
       <c r="F50" s="20" t="str">
         <f>$F$2</f>
-        <v>ДДП</v>
+        <v>Дисконтированный денежный поток (р.)</v>
       </c>
       <c r="J50" s="37"/>
       <c r="K50" s="19"/>
